--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c954a94c867a2a/デスクトップ/KOTA/Chatterbot-Streamlit-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{724B6971-568D-4367-9533-91D487C7B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA829E7E-605D-4928-AF94-1F6263910532}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="14_{724B6971-568D-4367-9533-91D487C7B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA24E67-D4FE-40D9-AD48-90723900B08B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A4BECBF-6C5E-4C2E-8636-B8622F7F04BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Hi</t>
     <phoneticPr fontId="2"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>Vendor Invoice Management</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kota</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -458,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A06199B-BB0B-408F-AB67-8A889ED7AED0}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -471,77 +475,92 @@
     <col min="3" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
     </row>
   </sheetData>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c954a94c867a2a/デスクトップ/KOTA/Chatterbot-Streamlit-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c954a94c867a2a/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="14_{724B6971-568D-4367-9533-91D487C7B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA24E67-D4FE-40D9-AD48-90723900B08B}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="14_{724B6971-568D-4367-9533-91D487C7B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE75C090-1421-4D5E-8CE3-05680EA049B1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A4BECBF-6C5E-4C2E-8636-B8622F7F04BB}"/>
   </bookViews>
@@ -34,57 +34,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Hi</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>What's your name</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>I'm chatbot</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">How are you? </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>I'm good</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hi There</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>What's your job?</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>I'm here to share my knowledge.</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>VIM</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Vendor Invoice Management</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Kota</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T&amp;E manual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please refer to the site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,12 +112,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="6"/>
@@ -108,17 +122,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,17 +168,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,109 +498,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A06199B-BB0B-408F-AB67-8A889ED7AED0}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -613,19 +613,6 @@
     <t>HQ address</t>
   </si>
   <si>
-    <t>住所：〒105-6333東京都港区虎ノ門1丁目23番1号　虎ノ門ヒルズ森タワー
-宛名：日本アルコン株式会社　　経理部支払管理グループ経費精算・支払い担当者
-​</t>
-  </si>
-  <si>
-    <t>銀行名：三菱UFJ銀行　
-支店名：六本木支店　
-支店番号：045
-口座名：日本アルコン（株）
-口座名（カタカナ）：ﾆﾎﾝｱﾙｺﾝ(ｶ
-口座番号：当座預金1187109</t>
-  </si>
-  <si>
     <t>Alcon Bank Account - Refund</t>
   </si>
   <si>
@@ -1062,6 +1049,19 @@
   <si>
     <t>https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM</t>
   </si>
+  <si>
+    <t>"住所：〒105-6333東京都港区虎ノ門1丁目23番1号　虎ノ門ヒルズ森タワー
+宛名：日本アルコン株式会社　　経理部支払管理グループ経費精算・支払い担当者"
+​</t>
+  </si>
+  <si>
+    <t>"銀行名：三菱UFJ銀行　
+支店名：六本木支店　
+支店番号：045
+口座名：日本アルコン（株）
+口座名（カタカナ）：ﾆﾎﾝｱﾙｺﾝ(ｶ
+口座番号：当座預金1187109"</t>
+  </si>
 </sst>
 </file>
 
@@ -1206,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,6 +1275,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1680,8 +1683,8 @@
   <dimension ref="A1:H9999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="8" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -1767,7 +1770,7 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>52</v>
@@ -1789,7 +1792,7 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>53</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>60</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
@@ -2358,7 +2361,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>119</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>121</v>
@@ -2400,7 +2403,7 @@
     </row>
     <row r="48" spans="1:4" ht="58">
       <c r="A48" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>124</v>
@@ -2529,7 +2532,7 @@
         <v>144</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -2540,10 +2543,10 @@
     </row>
     <row r="58" spans="1:4" ht="87">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>122</v>
@@ -2554,13 +2557,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>23</v>
@@ -2568,10 +2571,10 @@
     </row>
     <row r="60" spans="1:4" ht="43.5">
       <c r="A60" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>128</v>
@@ -2582,10 +2585,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>32</v>
@@ -2596,10 +2599,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>32</v>
@@ -2610,10 +2613,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>32</v>
@@ -2624,10 +2627,10 @@
     </row>
     <row r="64" spans="1:4" ht="101.5">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>32</v>
@@ -2638,10 +2641,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>128</v>
@@ -2652,10 +2655,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>32</v>
@@ -2666,10 +2669,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>32</v>
@@ -2680,10 +2683,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>32</v>
@@ -2694,10 +2697,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>32</v>
@@ -2708,10 +2711,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>32</v>
@@ -2722,10 +2725,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>31</v>
@@ -2736,10 +2739,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>31</v>
@@ -2750,10 +2753,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>59</v>
@@ -2764,13 +2767,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>22</v>
@@ -2778,13 +2781,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>22</v>
@@ -2792,10 +2795,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>123</v>
@@ -2806,10 +2809,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>31</v>
@@ -2820,10 +2823,10 @@
     </row>
     <row r="78" spans="1:4" s="21" customFormat="1">
       <c r="A78" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>128</v>
@@ -2834,10 +2837,10 @@
     </row>
     <row r="79" spans="1:4" s="21" customFormat="1">
       <c r="A79" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>128</v>
@@ -2848,10 +2851,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>128</v>
@@ -2862,13 +2865,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>22</v>
@@ -2876,13 +2879,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>22</v>
@@ -2890,13 +2893,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>22</v>
@@ -2904,13 +2907,13 @@
     </row>
     <row r="84" spans="1:4" s="21" customFormat="1">
       <c r="A84" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>23</v>
@@ -2918,13 +2921,13 @@
     </row>
     <row r="85" spans="1:4" s="21" customFormat="1">
       <c r="A85" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>23</v>
@@ -2932,13 +2935,13 @@
     </row>
     <row r="86" spans="1:4" s="21" customFormat="1">
       <c r="A86" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>23</v>
@@ -2946,13 +2949,13 @@
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1">
       <c r="A87" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>23</v>
@@ -2960,13 +2963,13 @@
     </row>
     <row r="88" spans="1:4" s="21" customFormat="1">
       <c r="A88" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>23</v>
@@ -2974,13 +2977,13 @@
     </row>
     <row r="89" spans="1:4" s="21" customFormat="1">
       <c r="A89" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>217</v>
-      </c>
       <c r="C89" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>23</v>
@@ -2988,13 +2991,13 @@
     </row>
     <row r="90" spans="1:4" s="21" customFormat="1">
       <c r="A90" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>23</v>
@@ -3002,13 +3005,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>23</v>
@@ -3016,13 +3019,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>23</v>
@@ -3030,13 +3033,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>23</v>
@@ -3044,13 +3047,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>23</v>
@@ -3058,13 +3061,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>23</v>
@@ -3072,13 +3075,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>23</v>
@@ -3086,13 +3089,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>23</v>
@@ -3100,13 +3103,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>23</v>
@@ -3114,10 +3117,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
@@ -3128,10 +3131,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>32</v>
@@ -3142,10 +3145,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>128</v>
@@ -3156,10 +3159,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -3170,10 +3173,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>32</v>
@@ -3184,10 +3187,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>32</v>
@@ -3198,10 +3201,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>32</v>
@@ -3212,10 +3215,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>32</v>
@@ -3226,10 +3229,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>128</v>
@@ -3240,13 +3243,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>28</v>
@@ -3254,10 +3257,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>128</v>
@@ -3268,13 +3271,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>28</v>
@@ -3282,10 +3285,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>128</v>
@@ -3296,10 +3299,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>128</v>
@@ -3310,13 +3313,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>28</v>
@@ -3324,10 +3327,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>128</v>
@@ -3338,10 +3341,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>128</v>
@@ -3352,10 +3355,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>31</v>
@@ -3366,10 +3369,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>33</v>
@@ -3380,10 +3383,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>128</v>
@@ -3394,10 +3397,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>31</v>
@@ -3408,10 +3411,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>128</v>
@@ -43030,7 +43033,7 @@
     <hyperlink ref="B117" r:id="rId65"/>
     <hyperlink ref="B118" r:id="rId66"/>
     <hyperlink ref="B119" r:id="rId67"/>
-    <hyperlink ref="B120"/>
+    <hyperlink ref="B120" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId68"/>
@@ -43187,22 +43190,22 @@
     </row>
     <row r="15" spans="1:2" ht="18">
       <c r="A15" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18">
       <c r="A17" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18">
       <c r="A18" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -43280,7 +43283,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72.5">
@@ -43288,7 +43291,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8990" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$136</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="308">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Payments, refund, coding, etc</t>
   </si>
   <si>
     <t>Tne Policy</t>
@@ -1062,6 +1059,117 @@
 口座名（カタカナ）：ﾆﾎﾝｱﾙｺﾝ(ｶ
 口座番号：当座預金1187109"</t>
   </si>
+  <si>
+    <t>Year End Closing</t>
+  </si>
+  <si>
+    <t>Payment date</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\支払日確認方法3.docx</t>
+  </si>
+  <si>
+    <t>file:///G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\OneDrive%20-%20AlconStandard%20GLSU%20templates%20for%20users%20in%20Japan.pptx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Your Webex meeting content is available New GLSU template.msg</t>
+  </si>
+  <si>
+    <t>New GLSU process</t>
+  </si>
+  <si>
+    <t>New GLSU training</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\RE New GLSU template.msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New GLSU </t>
+  </si>
+  <si>
+    <t>Transparency Guidelines</t>
+  </si>
+  <si>
+    <t>精算と透明性ガイドライン (sharepoint.com)</t>
+  </si>
+  <si>
+    <t>Transparency Disclosure taskforce</t>
+  </si>
+  <si>
+    <t>file:///G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\開示情報確認プロセス.pptx</t>
+  </si>
+  <si>
+    <t>MANPOWER process</t>
+  </si>
+  <si>
+    <t>VIM SRM entry</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\20211105 AlconManpower Optimization.pptx</t>
+  </si>
+  <si>
+    <t>SRM VIM flowchart</t>
+  </si>
+  <si>
+    <t>VIM SRM flowchart</t>
+  </si>
+  <si>
+    <t>Generic mailbox</t>
+  </si>
+  <si>
+    <t>Assignment group</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\20211005 Generic Mailbox and Assignment Group for AGSKL Japan Team.xlsx</t>
+  </si>
+  <si>
+    <t>Payment, refund, etc</t>
+  </si>
+  <si>
+    <t>VIM issue, ACC, GL, coding</t>
+  </si>
+  <si>
+    <t>FNOW SOP</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\Query SOP R3.docx</t>
+  </si>
+  <si>
+    <t>Create phone ticket</t>
+  </si>
+  <si>
+    <t>https://alcon.service-now.com/nav_to.do?uri=%2Fsn_sm_finance_request.do%3Fsys_id%3D-1%26sysparm_stack%3Dsn_sm_finance_request_list.do%3Fsysparm_query%3Dactive%3Dtrue</t>
+  </si>
+  <si>
+    <t>FNOW request page</t>
+  </si>
+  <si>
+    <t>https://alcon.service-now.com/fpportal?id=sc_landing</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\20 Template\credit_note_knowhow.msg</t>
+  </si>
+  <si>
+    <t>Credit note instruction</t>
+  </si>
+  <si>
+    <t>TnE Governance</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE</t>
+  </si>
+  <si>
+    <t>Time Management</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>https://grc.alcon.net/nwbc/?sap-client=010&amp;sap-language=JA&amp;sap-nwbc-node=root&amp;sap-theme=sap_corbu</t>
+  </si>
 </sst>
 </file>
 
@@ -1273,16 +1381,16 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1680,11 +1788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9999"/>
+  <dimension ref="A1:H10001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="8" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1692,7 +1800,8 @@
     <col min="1" max="1" width="31.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.81640625" style="2"/>
+    <col min="4" max="4" width="8.81640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" style="2"/>
     <col min="7" max="7" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.08984375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.81640625" style="2"/>
@@ -1718,18 +1827,18 @@
         <v>29</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -1741,20 +1850,20 @@
         <f t="shared" ref="G2:G8" si="0">+COUNTIF($D:$D,F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="23">
         <f>SUM(G2:G8)</f>
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -1766,17 +1875,17 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -1788,17 +1897,17 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -1810,17 +1919,17 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1830,19 +1939,19 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -1852,16 +1961,16 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H7" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1874,16 +1983,16 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H8" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -1894,10 +2003,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1908,10 +2017,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -1922,10 +2031,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -1936,10 +2045,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -1950,10 +2059,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -1964,10 +2073,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -1978,10 +2087,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -1992,10 +2101,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -2062,10 +2171,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>31</v>
@@ -2076,10 +2185,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
@@ -2138,10 +2247,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -2152,10 +2261,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>36</v>
@@ -2166,10 +2275,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>36</v>
@@ -2180,10 +2289,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2194,10 +2303,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
@@ -2205,10 +2314,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -2219,10 +2328,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
@@ -2230,13 +2339,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
@@ -2244,13 +2353,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
@@ -2258,13 +2367,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
@@ -2272,13 +2381,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
@@ -2286,10 +2395,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
@@ -2300,13 +2409,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
@@ -2314,10 +2423,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>27</v>
@@ -2325,10 +2434,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
@@ -2336,13 +2445,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
@@ -2350,10 +2459,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
@@ -2361,10 +2470,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
@@ -2375,13 +2484,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>22</v>
@@ -2389,13 +2498,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>22</v>
@@ -2403,13 +2512,13 @@
     </row>
     <row r="48" spans="1:4" ht="58">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>22</v>
@@ -2417,10 +2526,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
@@ -2431,13 +2540,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>22</v>
@@ -2445,10 +2554,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>31</v>
@@ -2459,13 +2568,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>22</v>
@@ -2473,10 +2582,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
@@ -2487,10 +2596,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -2501,10 +2610,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
@@ -2515,10 +2624,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
@@ -2529,10 +2638,10 @@
     </row>
     <row r="57" spans="1:4" ht="72.5">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -2543,13 +2652,13 @@
     </row>
     <row r="58" spans="1:4" ht="87">
       <c r="A58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>23</v>
@@ -2557,13 +2666,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>23</v>
@@ -2571,13 +2680,13 @@
     </row>
     <row r="60" spans="1:4" ht="43.5">
       <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>149</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>27</v>
@@ -2585,10 +2694,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>32</v>
@@ -2599,10 +2708,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>32</v>
@@ -2613,10 +2722,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>32</v>
@@ -2627,10 +2736,10 @@
     </row>
     <row r="64" spans="1:4" ht="101.5">
       <c r="A64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>32</v>
@@ -2641,13 +2750,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>24</v>
@@ -2655,10 +2764,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>183</v>
+        <v>161</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>32</v>
@@ -2669,10 +2778,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>32</v>
@@ -2683,10 +2792,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>32</v>
@@ -2697,10 +2806,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>32</v>
@@ -2711,10 +2820,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>32</v>
@@ -2725,10 +2834,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>31</v>
@@ -2739,10 +2848,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>31</v>
@@ -2753,13 +2862,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>25</v>
@@ -2767,13 +2876,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>22</v>
@@ -2781,13 +2890,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>22</v>
@@ -2795,13 +2904,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>190</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>22</v>
@@ -2809,10 +2918,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>31</v>
@@ -2823,13 +2932,13 @@
     </row>
     <row r="78" spans="1:4" s="21" customFormat="1">
       <c r="A78" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>195</v>
-      </c>
       <c r="C78" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>22</v>
@@ -2837,13 +2946,13 @@
     </row>
     <row r="79" spans="1:4" s="21" customFormat="1">
       <c r="A79" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>22</v>
@@ -2851,13 +2960,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>199</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>22</v>
@@ -2865,13 +2974,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="C81" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>22</v>
@@ -2879,13 +2988,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>22</v>
@@ -2893,13 +3002,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>22</v>
@@ -2907,13 +3016,13 @@
     </row>
     <row r="84" spans="1:4" s="21" customFormat="1">
       <c r="A84" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>207</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>208</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>23</v>
@@ -2921,13 +3030,13 @@
     </row>
     <row r="85" spans="1:4" s="21" customFormat="1">
       <c r="A85" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>23</v>
@@ -2935,13 +3044,13 @@
     </row>
     <row r="86" spans="1:4" s="21" customFormat="1">
       <c r="A86" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>23</v>
@@ -2949,13 +3058,13 @@
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1">
       <c r="A87" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>23</v>
@@ -2963,13 +3072,13 @@
     </row>
     <row r="88" spans="1:4" s="21" customFormat="1">
       <c r="A88" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>23</v>
@@ -2977,13 +3086,13 @@
     </row>
     <row r="89" spans="1:4" s="21" customFormat="1">
       <c r="A89" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>23</v>
@@ -2991,13 +3100,13 @@
     </row>
     <row r="90" spans="1:4" s="21" customFormat="1">
       <c r="A90" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>23</v>
@@ -3005,13 +3114,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>23</v>
@@ -3019,13 +3128,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>23</v>
@@ -3033,13 +3142,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>23</v>
@@ -3047,13 +3156,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>23</v>
@@ -3061,13 +3170,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>23</v>
@@ -3075,13 +3184,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>23</v>
@@ -3089,13 +3198,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>23</v>
@@ -3103,13 +3212,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>23</v>
@@ -3117,10 +3226,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
@@ -3131,10 +3240,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>32</v>
@@ -3145,13 +3254,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>24</v>
@@ -3159,10 +3268,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -3173,10 +3282,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>32</v>
@@ -3187,10 +3296,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>32</v>
@@ -3201,10 +3310,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>32</v>
@@ -3215,10 +3324,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>32</v>
@@ -3229,13 +3338,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>244</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -3243,13 +3352,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>246</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>28</v>
@@ -3257,13 +3366,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>28</v>
@@ -3271,13 +3380,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>28</v>
@@ -3285,13 +3394,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>28</v>
@@ -3299,13 +3408,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>28</v>
@@ -3313,13 +3422,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>28</v>
@@ -3327,13 +3436,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>28</v>
@@ -3341,13 +3450,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -3355,13 +3464,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>28</v>
@@ -3369,13 +3478,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>28</v>
@@ -3383,13 +3492,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>28</v>
@@ -3397,13 +3506,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>28</v>
@@ -3411,97 +3520,297 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1"/>
@@ -42939,8 +43248,16 @@
       <c r="A9999" s="1"/>
       <c r="D9999" s="1"/>
     </row>
+    <row r="10000" spans="1:4">
+      <c r="A10000" s="1"/>
+      <c r="D10000" s="1"/>
+    </row>
+    <row r="10001" spans="1:4">
+      <c r="A10001" s="1"/>
+      <c r="D10001" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D107"/>
+  <autoFilter ref="A1:D136"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
@@ -43023,23 +43340,43 @@
     <hyperlink ref="B107" r:id="rId55"/>
     <hyperlink ref="B108" r:id="rId56"/>
     <hyperlink ref="B109" r:id="rId57"/>
-    <hyperlink ref="B110" r:id="rId58"/>
-    <hyperlink ref="B111" r:id="rId59"/>
-    <hyperlink ref="B112" r:id="rId60"/>
-    <hyperlink ref="B113" r:id="rId61"/>
-    <hyperlink ref="B114" r:id="rId62"/>
-    <hyperlink ref="B115" r:id="rId63"/>
-    <hyperlink ref="B116" r:id="rId64"/>
-    <hyperlink ref="B117" r:id="rId65"/>
-    <hyperlink ref="B118" r:id="rId66"/>
-    <hyperlink ref="B119" r:id="rId67"/>
-    <hyperlink ref="B120" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
+    <hyperlink ref="B111" r:id="rId58"/>
+    <hyperlink ref="B112" r:id="rId59"/>
+    <hyperlink ref="B114" r:id="rId60"/>
+    <hyperlink ref="B115" r:id="rId61"/>
+    <hyperlink ref="B116" r:id="rId62"/>
+    <hyperlink ref="B117" r:id="rId63"/>
+    <hyperlink ref="B118" r:id="rId64"/>
+    <hyperlink ref="B119" r:id="rId65"/>
+    <hyperlink ref="B120" r:id="rId66"/>
+    <hyperlink ref="B121" r:id="rId67"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
+    <hyperlink ref="B113" r:id="rId68"/>
+    <hyperlink ref="B123" r:id="rId69"/>
+    <hyperlink ref="B124" r:id="rId70"/>
+    <hyperlink ref="B125" r:id="rId71"/>
+    <hyperlink ref="B126" r:id="rId72"/>
+    <hyperlink ref="B127" r:id="rId73" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
+    <hyperlink ref="B128" r:id="rId74"/>
+    <hyperlink ref="B110" r:id="rId75"/>
+    <hyperlink ref="B129" r:id="rId76"/>
+    <hyperlink ref="B130" r:id="rId77"/>
+    <hyperlink ref="B131" r:id="rId78"/>
+    <hyperlink ref="B132" r:id="rId79"/>
+    <hyperlink ref="B133" r:id="rId80"/>
+    <hyperlink ref="B134" r:id="rId81"/>
+    <hyperlink ref="B135" r:id="rId82"/>
+    <hyperlink ref="B136" r:id="rId83"/>
+    <hyperlink ref="B137" r:id="rId84"/>
+    <hyperlink ref="B138" r:id="rId85"/>
+    <hyperlink ref="B139" r:id="rId86"/>
+    <hyperlink ref="B140" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId88"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId69"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId70"/>
+    <customPr name="_pios_id" r:id="rId89"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId90"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -43082,7 +43419,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -43104,7 +43441,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.5">
@@ -43112,7 +43449,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.5">
@@ -43120,15 +43457,15 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.5">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.5">
@@ -43136,7 +43473,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.5">
@@ -43144,7 +43481,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.5">
@@ -43152,60 +43489,63 @@
         <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.5">
       <c r="A9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18">
       <c r="A10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18">
       <c r="A11" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18">
       <c r="A12" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18">
       <c r="A13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18">
       <c r="A14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18">
       <c r="A15" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -43234,13 +43574,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1">
@@ -43248,7 +43588,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="41" customHeight="1">
@@ -43256,10 +43596,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -43267,7 +43607,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -43275,7 +43615,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87">
@@ -43283,7 +43623,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72.5">
@@ -43291,7 +43631,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$210</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="437">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -303,9 +303,6 @@
     <t>If manual/SOP has an update, send the files to To_be_reviewed file, and to be checked by Asano and Aiqi</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
   </si>
   <si>
     <t>No longer exists. Chee Fan will re-route the assignment group</t>
-  </si>
-  <si>
-    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP</t>
   </si>
   <si>
     <t>Access</t>
@@ -339,13 +333,7 @@
     <t>FNOW</t>
   </si>
   <si>
-    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN</t>
-  </si>
-  <si>
     <t>Payment tracking file</t>
-  </si>
-  <si>
-    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\15 PAYMENT TRACKING</t>
   </si>
   <si>
     <t>https://alcon365.sharepoint.com/sites/al-fnp-it/SiteAssets/Search/Onboarding/SuperUser.aspx</t>
@@ -1168,14 +1156,469 @@
     <t>GRC</t>
   </si>
   <si>
-    <t>https://grc.alcon.net/nwbc/?sap-client=010&amp;sap-language=JA&amp;sap-nwbc-node=root&amp;sap-theme=sap_corbu</t>
+    <t xml:space="preserve">TnE KPI </t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\02 MONTHLY REPORTING\T&amp;E KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://grc.alcon.net/nwbc </t>
+  </si>
+  <si>
+    <t>GRC Traning</t>
+  </si>
+  <si>
+    <t>https://alcon365eur-my.sharepoint.com/:p:/r/personal/asanome1_alcon_net/_layouts/15/Doc.aspx?sourcedoc=%7BF44BEACC-3235-4EC7-AE75-3BFBD5A892A3%7D&amp;file=Super%20user%20training%20-%20GRC.pptx&amp;action=edit&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>Super user</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/SitePages/291/SAPAccessReq/main.aspx</t>
+  </si>
+  <si>
+    <t>Concur Freeze Period</t>
+  </si>
+  <si>
+    <t>All report will be stop posting to SAP from WD-3 6AM to WD+2 10AM</t>
+  </si>
+  <si>
+    <t>SN APAC Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We no longer use this assignment group. </t>
+  </si>
+  <si>
+    <t>Japan.APteam@alcon.com</t>
+  </si>
+  <si>
+    <t>If there is an inquiry from users sent to this generic mailbox, please create a FNOW ticket on their behalf</t>
+  </si>
+  <si>
+    <t>VIM training</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM</t>
+  </si>
+  <si>
+    <t>PO cancellation</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304</t>
+  </si>
+  <si>
+    <t>Vendor list</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BC9C19F99-FE47-47CC-8383-5ED97D9C3F7E%7D&amp;file=vendor%20master_1019%20JA.xlsx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>GR Reversal</t>
+  </si>
+  <si>
+    <t>When requestor do GR reversal, they have to input only order quantity in SRM system, which will automatically reflect the total amount. If IR has already been processed, the reversed GR total amount will be automatically the same with IR amount, even the initial GR is different.</t>
+  </si>
+  <si>
+    <t>New Joiner Access Request</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING
+File : New Joiner Access Request Guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To raise ticket in Saviynt &amp; add assignment group to the new user:
+(1) SN_APAC_TE_Team
+(2) SN_APAC_AP_Team
+(3) SN_APAC_Solution_Team
+Saviynt : https://ssm-alcon.saviyntcloud.com/ECM/workflowmanagement/requesthome?menu=1
+</t>
+  </si>
+  <si>
+    <t>Purecloud Access Request</t>
+  </si>
+  <si>
+    <t>FNOW Access Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) To setting Jabber configuration (IT NOW).
+Description (例):
+Please help to configure the Jabber Account to user, Detail as below
+60327826942
+AUYONAI1
+R2P Senior Specialist
+Jabber Config. : https://alcon.service-now.com/alconservicemanagement?id=sc_cat_item&amp;sys_id=04ec774a1ba7e780cd6562007e4bcb61&amp;referrer=popular_items
+(2) Proceed to Purecloud access request (IT NOW)
+-Request Type : User Management
+-User Management Options : User Account
+-MACD : Add
+-Special Instruction : Please approve immediately for the new joiner to be able using Purecloud as soon as possible.
+Purecloud access req. link : https://alcon.service-now.com/alconservicemanagement?id=sc_cat_item&amp;sys_id=e59f74301b1a04d0abf164207e4bcb28
+</t>
+  </si>
+  <si>
+    <t>GRIR Blocked Payment</t>
+  </si>
+  <si>
+    <t>PO payment will be blocked if :
+(1)IR amount exceeding GR amount &gt;10万円
+OR
+(2)IR amount exceeding GR amount &gt;10%</t>
+  </si>
+  <si>
+    <t>E2E session notes</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN
+File : E2E Academy Notes</t>
+  </si>
+  <si>
+    <t>Posted PO amendment</t>
+  </si>
+  <si>
+    <t>User do not need to submit Credit Memo for PO, even it already been Posted. Taking PO3004445315 as example, the flow are as below :
+-PSC reverse IR first
+-then user deleted the wrong GR
+-user to add new line details for correct GR
+-PSC will create new OAWD using the same invoice, and matched with the new GR</t>
+  </si>
+  <si>
+    <t>KL Shared folder access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To raise Saviynt Ticket to new user. 
+Assign all groups to new user by refer here:
+https://alcon365.sharepoint.com/sites/al-fnp-it/SiteAssets/Search/AppList/Application%20Search.aspx?isSPOFile=1&amp;OR=Teams-HL&amp;CT=1633681095365
+filter Location = AGS KL, Application name = Share drive
+Search Saviynt Group Name by refering to GMT_Saviynt Group Name excel, as attached in New Joiner Access Request Guidance file.
+</t>
+  </si>
+  <si>
+    <t>ITSM Ticket</t>
+  </si>
+  <si>
+    <t>https://itsm.alcon.net/sap(bD1lbiZjPTAxMCZkPW1pbg==)/crm_logon/default.htm
+Service Catalog : Business Support w/o quote (0-8 Hrs)
+Description : (Write the key issue shortly)
+Requesting Organization:JPTO_SLA Japan Tokyo</t>
+  </si>
+  <si>
+    <t>FNOW VIP user</t>
+  </si>
+  <si>
+    <t>Can check VIP list via Saviynt/ServiceNow
+List is synced from Saviynt to ServiceNow, take 2 hours</t>
+  </si>
+  <si>
+    <t>https://share.streamlit.io/maedako1/r2p-chatbot/main/R2P_chatbot_v2.py</t>
+  </si>
+  <si>
+    <t>Link/Comment</t>
+  </si>
+  <si>
+    <t>Finance master data</t>
+  </si>
+  <si>
+    <t>Approval table maintenance</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Approval Table Maintenance Communication.msg</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>BSR</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\R2R\04.BSR\Global BSR</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Global BSR</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\R2R\04.BSR\CFO review</t>
+  </si>
+  <si>
+    <t>CFO review</t>
+  </si>
+  <si>
+    <t>Global BSR SOP</t>
+  </si>
+  <si>
+    <t>Open [Report Summary for AP Balance  GRIR Clearing] for 2021 Q3, go to Instruction tab.
+File path : \\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\R2R\04.BSR\Global BSR</t>
+  </si>
+  <si>
+    <t>Reverse GR</t>
+  </si>
+  <si>
+    <t>If GR is accidentally reversed after the PO has completed payment, the reversal line will appear as open item. 
+User have to re-add the GR with same quantity as IR, otherwise the item will remain as open item. 
+Please refer PO3004454079 (details 5) for sample case.</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\08 支払チェック\QC Update</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\12 エラー\ERROR TRACKING.xlsx</t>
+  </si>
+  <si>
+    <t>Error tracking</t>
+  </si>
+  <si>
+    <t>Task List</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\50 TASK LIST</t>
+  </si>
+  <si>
+    <t>VIM access application</t>
+  </si>
+  <si>
+    <t>I:\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\14 KT with Asano san\VIM access application.xlsx</t>
+  </si>
+  <si>
+    <t>Meals with HCP</t>
+  </si>
+  <si>
+    <t>Kindly refer LENS/Local compliance policy
+Reference:
+Business meals￥10,000(excl.tax)
+Meals after meetings / seminars
+(information exchange, thank you dinner, meal after ad
+board etc.)￥20,000(excl.tax)</t>
+  </si>
+  <si>
+    <t>Meal External Domestic/International</t>
+  </si>
+  <si>
+    <t>Individual Meal Domestic</t>
+  </si>
+  <si>
+    <t>3,600/day or1,800 if meal is provided
+(SR, ASM, DSM: no allowance for day trips;
+Others: no allowance for day trips &lt;100km one-way) G</t>
+  </si>
+  <si>
+    <t>Lunchbox</t>
+  </si>
+  <si>
+    <t>Pls enter either when selected lunchbox with HCP
+・Web/Seminar
+・Exp mtg/Wet lab  Kindly refer LENS/Local compliance policy
+Reference JPY3,000(excle.tax)</t>
+  </si>
+  <si>
+    <t>Individual Meal International</t>
+  </si>
+  <si>
+    <t>USD100(￥10,540, incl tax and service fee,excl tip)
+USD 100 should generally be 20:30:50 (Breakfast:
+Lunch: Dinner)</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>Please check Attendees Details between Alcon employee, HCP or Non-HCP. Refer to Global End User Training Page 52</t>
+  </si>
+  <si>
+    <t>SN GLOBAL ACC</t>
+  </si>
+  <si>
+    <t>Other PO number</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\other PO number.xlsx</t>
+  </si>
+  <si>
+    <t>For tickets assigned to SN_Global_ACC, just let the tickets unassigned until someone from our time zone deal with it. Do not assign to Carlos</t>
+  </si>
+  <si>
+    <t>Max flight amount</t>
+  </si>
+  <si>
+    <t>Boarding ticket
+Need preapproval ＞7,000 USD from Alcon Japan CCFO</t>
+  </si>
+  <si>
+    <t>FNOW video learning</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/learning-login/share?account=2154545&amp;forceAccount=true&amp;redirect=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fcollections%2F6865856845236588544%3Ftrk%3Dshare_collection_url%26shareId%3Dk358NvJmT%252ByAVH9rLQr6dg%253D%253D</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\snow_1stconfiguration.mp4</t>
+  </si>
+  <si>
+    <t>Brand is the data of Alcon products, therefore
+Please select the product discussion when conducting sales activities.
+If you have more than one product, please select one of them.
+Plus, if product discussion category is not relevant, please choose the Brand below:
+E91000000000 "Other Brand Group"</t>
+  </si>
+  <si>
+    <t>QC file</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\staff_list.xlsx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\Agent Training - Quick Reference Guides - v2 - new SLA definitions for JUL release.pptx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\NOVEMBER21 AGSKL PAYMENT TRACKING.xlsx</t>
+  </si>
+  <si>
+    <t>Immediate Payment Request</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/SitePages/239/R2P%20VIM.aspx</t>
+  </si>
+  <si>
+    <t>VIM FAQ</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B08A0073F-49E9-4566-BA12-D8ADD4F43CD0%7D&amp;file=IRIS%20VIM%20FAQ_Ver5.xlsx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>SRM Downpayment</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Netting process.docx</t>
+  </si>
+  <si>
+    <t>Egencia</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\10 JAPAN T&amp;E\08 EGENCIA</t>
+  </si>
+  <si>
+    <t>HR Announcement letter</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\浅野さん人事異動のご連絡.msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRed or not </t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\E2E ACADEMY\GR済みかの確認手順.docx</t>
+  </si>
+  <si>
+    <t>Procurement Collaboration</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\12 JAPAN R2P\09 PROCUMENTMENT COLLABOLATION MTG</t>
+  </si>
+  <si>
+    <t>New Joiner TnE</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\新入社員_請求書処理方法の確認.msg</t>
+  </si>
+  <si>
+    <t>New Joiner T&amp;E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurement training </t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\12 JAPAN R2P\09 PROCUMENTMENT COLLABOLATION MTG\20211115 EMEA Alcon Business user Procurement Training 2021.pdf</t>
+  </si>
+  <si>
+    <t>Procurement training material</t>
+  </si>
+  <si>
+    <t>BMG Token</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\BMG Token.msg</t>
+  </si>
+  <si>
+    <t>Payment cycle</t>
+  </si>
+  <si>
+    <t>5th, 10th, 20th, 25th and the end of month</t>
+  </si>
+  <si>
+    <t>Japan payment cycle</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\39 VOICE OF CUSTOMER</t>
+  </si>
+  <si>
+    <t>Voice of Customer</t>
+  </si>
+  <si>
+    <t>Sales Office</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\SALES OFFICE</t>
+  </si>
+  <si>
+    <t>2021 Payment Schedule</t>
+  </si>
+  <si>
+    <t>WHT working file</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\12 JAPAN R2P\11 WHT</t>
+  </si>
+  <si>
+    <t>RTV</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\20211101 FW Enhancement Live Return to Vendor Template in Multiple Languages.msg</t>
+  </si>
+  <si>
+    <t>Return to Vendor</t>
+  </si>
+  <si>
+    <t>MANPOWER</t>
+  </si>
+  <si>
+    <t>Japan MANPOWER</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\04 KPI\01 GLOBAL KPI\10 OCT 2021</t>
+  </si>
+  <si>
+    <t>KPI Dashboard</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\05 AED</t>
+  </si>
+  <si>
+    <t>AED Survey</t>
+  </si>
+  <si>
+    <t>T&amp;E Governance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,8 +1707,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,6 +1756,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1314,7 +1780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1384,13 +1850,28 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1418,13 +1899,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2698750</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>876300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1791,8 +2272,8 @@
   <dimension ref="A1:H10001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
+      <pane ySplit="8" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1827,18 +2308,18 @@
         <v>29</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -1848,22 +2329,22 @@
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G8" si="0">+COUNTIF($D:$D,F2)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="23">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28">
         <f>SUM(G2:G8)</f>
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -1873,19 +2354,19 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H3" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -1897,17 +2378,17 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
+        <v>384</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -1917,19 +2398,19 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H5" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>387</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1939,19 +2420,19 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H6" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -1961,16 +2442,16 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H7" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1983,16 +2464,16 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H8" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -2003,10 +2484,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -2017,10 +2498,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -2031,10 +2512,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -2045,10 +2526,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -2059,10 +2540,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -2073,10 +2554,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -2087,10 +2568,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -2101,10 +2582,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -2171,10 +2652,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>31</v>
@@ -2185,10 +2666,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
@@ -2247,10 +2728,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -2261,10 +2742,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>36</v>
@@ -2275,10 +2756,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>36</v>
@@ -2289,10 +2770,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2303,10 +2784,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
@@ -2314,10 +2795,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -2328,10 +2809,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
@@ -2339,13 +2820,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
@@ -2353,13 +2834,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
@@ -2367,13 +2848,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
@@ -2381,13 +2862,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
@@ -2395,10 +2876,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
@@ -2409,13 +2890,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
@@ -2423,10 +2904,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>27</v>
@@ -2434,10 +2915,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
@@ -2445,13 +2926,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
@@ -2459,10 +2940,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
@@ -2470,10 +2951,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
@@ -2484,13 +2965,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>22</v>
@@ -2498,13 +2979,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>22</v>
@@ -2512,13 +2993,13 @@
     </row>
     <row r="48" spans="1:4" ht="58">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>22</v>
@@ -2526,10 +3007,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
@@ -2540,13 +3021,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>22</v>
@@ -2554,10 +3035,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>31</v>
@@ -2568,13 +3049,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>22</v>
@@ -2582,10 +3063,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
@@ -2596,10 +3077,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -2610,10 +3091,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
@@ -2624,10 +3105,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
@@ -2638,10 +3119,10 @@
     </row>
     <row r="57" spans="1:4" ht="72.5">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -2652,13 +3133,13 @@
     </row>
     <row r="58" spans="1:4" ht="87">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>23</v>
@@ -2666,13 +3147,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>23</v>
@@ -2680,13 +3161,13 @@
     </row>
     <row r="60" spans="1:4" ht="43.5">
       <c r="A60" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>27</v>
@@ -2694,10 +3175,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>32</v>
@@ -2708,10 +3189,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>32</v>
@@ -2722,10 +3203,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>32</v>
@@ -2736,10 +3217,10 @@
     </row>
     <row r="64" spans="1:4" ht="101.5">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>32</v>
@@ -2750,13 +3231,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>24</v>
@@ -2764,10 +3245,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>32</v>
@@ -2778,10 +3259,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>32</v>
@@ -2792,10 +3273,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>32</v>
@@ -2806,10 +3287,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>32</v>
@@ -2820,10 +3301,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>32</v>
@@ -2834,10 +3315,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>31</v>
@@ -2848,10 +3329,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>31</v>
@@ -2862,13 +3343,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>25</v>
@@ -2876,13 +3357,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>22</v>
@@ -2890,13 +3371,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>22</v>
@@ -2904,13 +3385,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>22</v>
@@ -2918,10 +3399,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>31</v>
@@ -2932,13 +3413,13 @@
     </row>
     <row r="78" spans="1:4" s="21" customFormat="1">
       <c r="A78" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>22</v>
@@ -2946,13 +3427,13 @@
     </row>
     <row r="79" spans="1:4" s="21" customFormat="1">
       <c r="A79" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>22</v>
@@ -2960,13 +3441,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>22</v>
@@ -2974,13 +3455,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>22</v>
@@ -2988,13 +3469,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>22</v>
@@ -3002,13 +3483,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>22</v>
@@ -3016,13 +3497,13 @@
     </row>
     <row r="84" spans="1:4" s="21" customFormat="1">
       <c r="A84" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>23</v>
@@ -3030,13 +3511,13 @@
     </row>
     <row r="85" spans="1:4" s="21" customFormat="1">
       <c r="A85" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>23</v>
@@ -3044,13 +3525,13 @@
     </row>
     <row r="86" spans="1:4" s="21" customFormat="1">
       <c r="A86" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B86" s="19" t="s">
-        <v>213</v>
-      </c>
       <c r="C86" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>23</v>
@@ -3058,13 +3539,13 @@
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1">
       <c r="A87" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>23</v>
@@ -3072,13 +3553,13 @@
     </row>
     <row r="88" spans="1:4" s="21" customFormat="1">
       <c r="A88" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>215</v>
-      </c>
       <c r="C88" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>23</v>
@@ -3086,13 +3567,13 @@
     </row>
     <row r="89" spans="1:4" s="21" customFormat="1">
       <c r="A89" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>23</v>
@@ -3100,13 +3581,13 @@
     </row>
     <row r="90" spans="1:4" s="21" customFormat="1">
       <c r="A90" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>23</v>
@@ -3114,13 +3595,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>23</v>
@@ -3128,13 +3609,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>23</v>
@@ -3142,13 +3623,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>23</v>
@@ -3156,13 +3637,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>23</v>
@@ -3170,13 +3651,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>23</v>
@@ -3184,13 +3665,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>23</v>
@@ -3198,13 +3679,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>23</v>
@@ -3212,13 +3693,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>23</v>
@@ -3226,10 +3707,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
@@ -3240,10 +3721,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>32</v>
@@ -3254,13 +3735,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>24</v>
@@ -3268,10 +3749,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -3282,10 +3763,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>32</v>
@@ -3296,10 +3777,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>32</v>
@@ -3310,10 +3791,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>32</v>
@@ -3324,10 +3805,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>32</v>
@@ -3338,13 +3819,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -3352,13 +3833,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>28</v>
@@ -3366,13 +3847,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>28</v>
@@ -3380,13 +3861,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>28</v>
@@ -3394,13 +3875,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>28</v>
@@ -3408,13 +3889,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>28</v>
@@ -3422,13 +3903,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>28</v>
@@ -3436,13 +3917,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>28</v>
@@ -3450,13 +3931,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -3464,13 +3945,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>28</v>
@@ -3478,13 +3959,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>28</v>
@@ -3492,10 +3973,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>31</v>
@@ -3506,10 +3987,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
@@ -3520,13 +4001,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>28</v>
@@ -3534,10 +4015,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>31</v>
@@ -3548,13 +4029,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>28</v>
@@ -3562,13 +4043,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>28</v>
@@ -3576,13 +4057,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>27</v>
@@ -3590,13 +4071,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>27</v>
@@ -3604,13 +4085,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>27</v>
@@ -3618,13 +4099,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>27</v>
@@ -3632,13 +4113,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>27</v>
@@ -3646,13 +4127,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>28</v>
@@ -3660,13 +4141,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>28</v>
@@ -3674,13 +4155,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>28</v>
@@ -3688,13 +4169,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>25</v>
@@ -3702,13 +4183,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>25</v>
@@ -3716,13 +4197,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>25</v>
@@ -3730,13 +4211,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>25</v>
@@ -3744,10 +4225,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
@@ -3758,13 +4239,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>25</v>
@@ -3772,10 +4253,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>32</v>
@@ -3786,13 +4267,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>28</v>
@@ -3800,297 +4281,999 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="1:7" ht="15" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1">
+      <c r="A160" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="1"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1">
+      <c r="A166" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1">
+      <c r="A167" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="29">
+      <c r="A180" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="A200" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="1"/>
-      <c r="D201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="A204" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="A205" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="1"/>
-      <c r="D207" s="1"/>
+      <c r="A207" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="1"/>
-      <c r="D210" s="1"/>
+      <c r="A210" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1"/>
@@ -43257,12 +44440,26 @@
       <c r="D10001" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D136"/>
+  <autoFilter ref="A1:D210"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G2:G8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F392510-C64E-4DBE-8038-D4031C49F74D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G158">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -43271,7 +44468,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9F392510-C64E-4DBE-8038-D4031C49F74D}</x14:id>
+          <x14:id>{3FB01497-E984-4BAD-A8F7-39415467035E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -43287,96 +44484,138 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B19" r:id="rId3"/>
     <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B23" r:id="rId8"/>
-    <hyperlink ref="B2" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B9" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
-    <hyperlink ref="B11" r:id="rId13"/>
-    <hyperlink ref="B13" r:id="rId14"/>
-    <hyperlink ref="B14" r:id="rId15"/>
-    <hyperlink ref="B15" r:id="rId16"/>
-    <hyperlink ref="B16" r:id="rId17" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B17" r:id="rId18"/>
-    <hyperlink ref="B28" r:id="rId19"/>
-    <hyperlink ref="B29" r:id="rId20"/>
-    <hyperlink ref="B30" r:id="rId21"/>
-    <hyperlink ref="B31" r:id="rId22"/>
-    <hyperlink ref="B33" r:id="rId23"/>
-    <hyperlink ref="B34" r:id="rId24"/>
-    <hyperlink ref="B36" r:id="rId25"/>
-    <hyperlink ref="B37" r:id="rId26"/>
-    <hyperlink ref="B38" r:id="rId27"/>
-    <hyperlink ref="B39" r:id="rId28"/>
-    <hyperlink ref="B40" r:id="rId29"/>
-    <hyperlink ref="B41" r:id="rId30"/>
-    <hyperlink ref="B42" r:id="rId31"/>
-    <hyperlink ref="B44" r:id="rId32"/>
-    <hyperlink ref="B45" r:id="rId33" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B46" r:id="rId34" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B61" r:id="rId35"/>
-    <hyperlink ref="B62" r:id="rId36"/>
-    <hyperlink ref="B63" r:id="rId37" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B65" r:id="rId38" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
-    <hyperlink ref="B66" r:id="rId39" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;"/>
-    <hyperlink ref="B67" r:id="rId40" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
-    <hyperlink ref="B68" r:id="rId41"/>
-    <hyperlink ref="B69" r:id="rId42"/>
-    <hyperlink ref="B70" r:id="rId43"/>
-    <hyperlink ref="B71" r:id="rId44"/>
-    <hyperlink ref="B72" r:id="rId45"/>
-    <hyperlink ref="B73" r:id="rId46"/>
-    <hyperlink ref="B99" r:id="rId47"/>
-    <hyperlink ref="B100" r:id="rId48"/>
-    <hyperlink ref="B101" r:id="rId49"/>
-    <hyperlink ref="B102" r:id="rId50"/>
-    <hyperlink ref="B103" r:id="rId51"/>
-    <hyperlink ref="B104" r:id="rId52"/>
-    <hyperlink ref="B105" r:id="rId53"/>
-    <hyperlink ref="B106" r:id="rId54"/>
-    <hyperlink ref="B107" r:id="rId55"/>
-    <hyperlink ref="B108" r:id="rId56"/>
-    <hyperlink ref="B109" r:id="rId57"/>
-    <hyperlink ref="B111" r:id="rId58"/>
-    <hyperlink ref="B112" r:id="rId59"/>
-    <hyperlink ref="B114" r:id="rId60"/>
-    <hyperlink ref="B115" r:id="rId61"/>
-    <hyperlink ref="B116" r:id="rId62"/>
-    <hyperlink ref="B117" r:id="rId63"/>
-    <hyperlink ref="B118" r:id="rId64"/>
-    <hyperlink ref="B119" r:id="rId65"/>
-    <hyperlink ref="B120" r:id="rId66"/>
-    <hyperlink ref="B121" r:id="rId67"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B28" r:id="rId15"/>
+    <hyperlink ref="B29" r:id="rId16"/>
+    <hyperlink ref="B30" r:id="rId17"/>
+    <hyperlink ref="B31" r:id="rId18"/>
+    <hyperlink ref="B33" r:id="rId19"/>
+    <hyperlink ref="B34" r:id="rId20"/>
+    <hyperlink ref="B36" r:id="rId21"/>
+    <hyperlink ref="B37" r:id="rId22"/>
+    <hyperlink ref="B38" r:id="rId23"/>
+    <hyperlink ref="B39" r:id="rId24"/>
+    <hyperlink ref="B40" r:id="rId25"/>
+    <hyperlink ref="B41" r:id="rId26"/>
+    <hyperlink ref="B42" r:id="rId27"/>
+    <hyperlink ref="B44" r:id="rId28"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
+    <hyperlink ref="B61" r:id="rId31"/>
+    <hyperlink ref="B62" r:id="rId32"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
+    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;"/>
+    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
+    <hyperlink ref="B68" r:id="rId37"/>
+    <hyperlink ref="B69" r:id="rId38"/>
+    <hyperlink ref="B70" r:id="rId39"/>
+    <hyperlink ref="B71" r:id="rId40"/>
+    <hyperlink ref="B72" r:id="rId41"/>
+    <hyperlink ref="B73" r:id="rId42"/>
+    <hyperlink ref="B99" r:id="rId43"/>
+    <hyperlink ref="B100" r:id="rId44"/>
+    <hyperlink ref="B101" r:id="rId45"/>
+    <hyperlink ref="B102" r:id="rId46"/>
+    <hyperlink ref="B103" r:id="rId47"/>
+    <hyperlink ref="B104" r:id="rId48"/>
+    <hyperlink ref="B105" r:id="rId49"/>
+    <hyperlink ref="B106" r:id="rId50"/>
+    <hyperlink ref="B107" r:id="rId51"/>
+    <hyperlink ref="B108" r:id="rId52"/>
+    <hyperlink ref="B109" r:id="rId53"/>
+    <hyperlink ref="B111" r:id="rId54"/>
+    <hyperlink ref="B112" r:id="rId55"/>
+    <hyperlink ref="B114" r:id="rId56"/>
+    <hyperlink ref="B115" r:id="rId57"/>
+    <hyperlink ref="B116" r:id="rId58"/>
+    <hyperlink ref="B117" r:id="rId59"/>
+    <hyperlink ref="B118" r:id="rId60"/>
+    <hyperlink ref="B119" r:id="rId61"/>
+    <hyperlink ref="B120" r:id="rId62"/>
+    <hyperlink ref="B121" r:id="rId63"/>
     <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
-    <hyperlink ref="B113" r:id="rId68"/>
-    <hyperlink ref="B123" r:id="rId69"/>
-    <hyperlink ref="B124" r:id="rId70"/>
-    <hyperlink ref="B125" r:id="rId71"/>
-    <hyperlink ref="B126" r:id="rId72"/>
-    <hyperlink ref="B127" r:id="rId73" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
-    <hyperlink ref="B128" r:id="rId74"/>
-    <hyperlink ref="B110" r:id="rId75"/>
-    <hyperlink ref="B129" r:id="rId76"/>
-    <hyperlink ref="B130" r:id="rId77"/>
-    <hyperlink ref="B131" r:id="rId78"/>
-    <hyperlink ref="B132" r:id="rId79"/>
-    <hyperlink ref="B133" r:id="rId80"/>
-    <hyperlink ref="B134" r:id="rId81"/>
-    <hyperlink ref="B135" r:id="rId82"/>
-    <hyperlink ref="B136" r:id="rId83"/>
-    <hyperlink ref="B137" r:id="rId84"/>
-    <hyperlink ref="B138" r:id="rId85"/>
-    <hyperlink ref="B139" r:id="rId86"/>
-    <hyperlink ref="B140" r:id="rId87"/>
+    <hyperlink ref="B113" r:id="rId64"/>
+    <hyperlink ref="B123" r:id="rId65"/>
+    <hyperlink ref="B124" r:id="rId66"/>
+    <hyperlink ref="B125" r:id="rId67"/>
+    <hyperlink ref="B126" r:id="rId68"/>
+    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
+    <hyperlink ref="B128" r:id="rId70"/>
+    <hyperlink ref="B110" r:id="rId71"/>
+    <hyperlink ref="B129" r:id="rId72"/>
+    <hyperlink ref="B130" r:id="rId73"/>
+    <hyperlink ref="B131" r:id="rId74"/>
+    <hyperlink ref="B132" r:id="rId75"/>
+    <hyperlink ref="B133" r:id="rId76"/>
+    <hyperlink ref="B134" r:id="rId77"/>
+    <hyperlink ref="B135" r:id="rId78"/>
+    <hyperlink ref="B136" r:id="rId79"/>
+    <hyperlink ref="B137" r:id="rId80"/>
+    <hyperlink ref="B138" r:id="rId81"/>
+    <hyperlink ref="B139" r:id="rId82"/>
+    <hyperlink ref="B140" r:id="rId83"/>
+    <hyperlink ref="B141" r:id="rId84"/>
+    <hyperlink ref="B142" r:id="rId85"/>
+    <hyperlink ref="B143" r:id="rId86"/>
+    <hyperlink ref="A146" r:id="rId87"/>
+    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
+    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304"/>
+    <hyperlink ref="B149" r:id="rId90"/>
+    <hyperlink ref="B158" r:id="rId91"/>
+    <hyperlink ref="B161" r:id="rId92"/>
+    <hyperlink ref="B162" r:id="rId93"/>
+    <hyperlink ref="B168" r:id="rId94"/>
+    <hyperlink ref="B169" r:id="rId95"/>
+    <hyperlink ref="B170" r:id="rId96"/>
+    <hyperlink ref="B171" r:id="rId97"/>
+    <hyperlink ref="B179" r:id="rId98"/>
+    <hyperlink ref="B181" r:id="rId99"/>
+    <hyperlink ref="B5" r:id="rId100"/>
+    <hyperlink ref="B6" r:id="rId101"/>
+    <hyperlink ref="B7" r:id="rId102"/>
+    <hyperlink ref="B23" r:id="rId103"/>
+    <hyperlink ref="B182" r:id="rId104"/>
+    <hyperlink ref="B183" r:id="rId105"/>
+    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true"/>
+    <hyperlink ref="B185" r:id="rId107"/>
+    <hyperlink ref="B186" r:id="rId108"/>
+    <hyperlink ref="B187" r:id="rId109"/>
+    <hyperlink ref="B188" r:id="rId110"/>
+    <hyperlink ref="B189" r:id="rId111"/>
+    <hyperlink ref="B190" r:id="rId112"/>
+    <hyperlink ref="B191" r:id="rId113"/>
+    <hyperlink ref="B192" r:id="rId114"/>
+    <hyperlink ref="B193" r:id="rId115"/>
+    <hyperlink ref="B194" r:id="rId116"/>
+    <hyperlink ref="B197" r:id="rId117"/>
+    <hyperlink ref="B198" r:id="rId118"/>
+    <hyperlink ref="B199" r:id="rId119"/>
+    <hyperlink ref="B201" r:id="rId120"/>
+    <hyperlink ref="B202" r:id="rId121"/>
+    <hyperlink ref="B203" r:id="rId122"/>
+    <hyperlink ref="B204" r:id="rId123"/>
+    <hyperlink ref="B205" r:id="rId124"/>
+    <hyperlink ref="B206" r:id="rId125"/>
+    <hyperlink ref="B207" r:id="rId126"/>
+    <hyperlink ref="B208" r:id="rId127"/>
+    <hyperlink ref="B209" r:id="rId128"/>
+    <hyperlink ref="B210" r:id="rId129"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId130"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId89"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId90"/>
+    <customPr name="_pios_id" r:id="rId131"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId132"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -43398,6 +44637,23 @@
           </x14:cfRule>
           <xm:sqref>G2:G8</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3FB01497-E984-4BAD-A8F7-39415467035E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G158</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -43406,7 +44662,7 @@
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -43419,7 +44675,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -43441,7 +44697,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.5">
@@ -43462,7 +44718,7 @@
     </row>
     <row r="5" spans="1:2" ht="18.5">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
@@ -43494,58 +44750,58 @@
     </row>
     <row r="9" spans="1:2" ht="18.5">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18">
       <c r="A10" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18">
       <c r="A12" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18">
       <c r="A13" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18">
       <c r="A14" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18">
       <c r="A15" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="6" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -43553,93 +44809,105 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
     <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="41" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="41" customHeight="1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="87">
-      <c r="A6">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="87">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72.5">
-      <c r="A7">
+      <c r="B7" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72.5">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>150</v>
+      <c r="B8" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -17,7 +17,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$241</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="473">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -791,9 +791,6 @@
     <t>Refund without fee</t>
   </si>
   <si>
-    <t>未コーデイング 未承認 Data</t>
-  </si>
-  <si>
     <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\01  AP\01  AP Job Aid
 File : WD-2 未コーデイングと未承認</t>
   </si>
@@ -1612,6 +1609,126 @@
   </si>
   <si>
     <t>T&amp;E Governance</t>
+  </si>
+  <si>
+    <t>Concur report storage</t>
+  </si>
+  <si>
+    <t>G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0207_旧Concur\020701_Concur\住友倉庫保管状況</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SUMITOMO WAREHOUSE Co., Ltd.
+　　Hanyu Archives Dai2 Center
+　　Uchida Masako
+　　TEL     048-560-5555
+　　FAX     048-560-5556
+　　MAIL    uchida_st＠sumitomo-soko.co.jp
+</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP
+File : Downpayment Clearing (海外)</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP
+File : Downpayment Clearing (国内)</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP
+File : F44 Refund Clearing (手数料あり)</t>
+  </si>
+  <si>
+    <t>Blackline Upload Tutorial</t>
+  </si>
+  <si>
+    <t>寄付金</t>
+  </si>
+  <si>
+    <t>Invoice Processing SOP</t>
+  </si>
+  <si>
+    <t>Refund no charge</t>
+  </si>
+  <si>
+    <t>GRIR</t>
+  </si>
+  <si>
+    <t>F-44</t>
+  </si>
+  <si>
+    <t>源泉税</t>
+  </si>
+  <si>
+    <t>PO Cancellation</t>
+  </si>
+  <si>
+    <t>Change PO</t>
+  </si>
+  <si>
+    <t>Downpayment Foreign Currency</t>
+  </si>
+  <si>
+    <t>Downpayment Domestic</t>
+  </si>
+  <si>
+    <t>Refund with charge</t>
+  </si>
+  <si>
+    <t>Uncoded Data</t>
+  </si>
+  <si>
+    <t>Unapproved Data</t>
+  </si>
+  <si>
+    <t>Auto reply</t>
+  </si>
+  <si>
+    <t>PH bulk announcement</t>
+  </si>
+  <si>
+    <t>PH single announcement</t>
+  </si>
+  <si>
+    <t>GRIR reconciliation</t>
+  </si>
+  <si>
+    <t>AP Trade reconciliation</t>
+  </si>
+  <si>
+    <t>GR Cancel</t>
+  </si>
+  <si>
+    <t>Access Request</t>
+  </si>
+  <si>
+    <t>SNOW Access Request</t>
+  </si>
+  <si>
+    <t>Hotline Access Request</t>
+  </si>
+  <si>
+    <t>PO Blocked Payment</t>
+  </si>
+  <si>
+    <t>E2E</t>
+  </si>
+  <si>
+    <t>Posted PO</t>
+  </si>
+  <si>
+    <t>KL Shared folder</t>
+  </si>
+  <si>
+    <t>ITSM</t>
+  </si>
+  <si>
+    <t>AGSKL Training</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\02 AGS TRAINING\20211130 UNCONCIOUS BIAS</t>
+  </si>
+  <si>
+    <t>Training folder</t>
   </si>
 </sst>
 </file>
@@ -2269,11 +2386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10001"/>
+  <dimension ref="A1:H9992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2333,12 +2450,12 @@
       </c>
       <c r="H2" s="28">
         <f>SUM(G2:G8)</f>
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -2354,7 +2471,7 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H3" s="28"/>
     </row>
@@ -2385,7 +2502,7 @@
         <v>171</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>56</v>
@@ -2407,7 +2524,7 @@
         <v>170</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -2429,7 +2546,7 @@
         <v>173</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>56</v>
@@ -2442,7 +2559,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="28"/>
     </row>
@@ -2464,7 +2581,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" s="28"/>
     </row>
@@ -2669,7 +2786,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
@@ -3122,7 +3239,7 @@
         <v>139</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -3136,7 +3253,7 @@
         <v>140</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>117</v>
@@ -3153,7 +3270,7 @@
         <v>142</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>23</v>
@@ -3399,10 +3516,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>31</v>
@@ -3413,10 +3530,10 @@
     </row>
     <row r="78" spans="1:4" s="21" customFormat="1">
       <c r="A78" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>123</v>
@@ -3427,10 +3544,10 @@
     </row>
     <row r="79" spans="1:4" s="21" customFormat="1">
       <c r="A79" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>123</v>
@@ -3441,10 +3558,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>123</v>
@@ -3455,13 +3572,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="C81" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>22</v>
@@ -3469,13 +3586,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>22</v>
@@ -3483,13 +3600,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>22</v>
@@ -3497,13 +3614,13 @@
     </row>
     <row r="84" spans="1:4" s="21" customFormat="1">
       <c r="A84" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>202</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>203</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>23</v>
@@ -3511,13 +3628,13 @@
     </row>
     <row r="85" spans="1:4" s="21" customFormat="1">
       <c r="A85" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>23</v>
@@ -3525,13 +3642,13 @@
     </row>
     <row r="86" spans="1:4" s="21" customFormat="1">
       <c r="A86" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>23</v>
@@ -3539,13 +3656,13 @@
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1">
       <c r="A87" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>23</v>
@@ -3553,13 +3670,13 @@
     </row>
     <row r="88" spans="1:4" s="21" customFormat="1">
       <c r="A88" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>23</v>
@@ -3567,13 +3684,13 @@
     </row>
     <row r="89" spans="1:4" s="21" customFormat="1">
       <c r="A89" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>23</v>
@@ -3581,13 +3698,13 @@
     </row>
     <row r="90" spans="1:4" s="21" customFormat="1">
       <c r="A90" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>23</v>
@@ -3595,13 +3712,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>23</v>
@@ -3609,13 +3726,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>23</v>
@@ -3623,13 +3740,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>23</v>
@@ -3637,13 +3754,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>23</v>
@@ -3651,13 +3768,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>23</v>
@@ -3665,13 +3782,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>23</v>
@@ -3679,13 +3796,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>23</v>
@@ -3693,13 +3810,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>23</v>
@@ -3707,10 +3824,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
@@ -3721,10 +3838,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>32</v>
@@ -3735,10 +3852,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>123</v>
@@ -3749,10 +3866,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -3763,10 +3880,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>32</v>
@@ -3777,10 +3894,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>32</v>
@@ -3791,10 +3908,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>32</v>
@@ -3805,10 +3922,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>32</v>
@@ -3819,10 +3936,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>123</v>
@@ -3833,10 +3950,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>179</v>
@@ -3847,10 +3964,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>123</v>
@@ -3861,10 +3978,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>123</v>
@@ -3875,10 +3992,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>179</v>
@@ -3889,10 +4006,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>123</v>
@@ -3903,10 +4020,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>123</v>
@@ -3917,10 +4034,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>123</v>
@@ -3931,13 +4048,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>251</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -3945,10 +4062,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>123</v>
@@ -3959,10 +4076,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>123</v>
@@ -3973,10 +4090,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>31</v>
@@ -3987,10 +4104,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
@@ -4001,10 +4118,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>123</v>
@@ -4015,10 +4132,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>31</v>
@@ -4029,10 +4146,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>123</v>
@@ -4043,13 +4160,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>269</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>28</v>
@@ -4057,10 +4174,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>123</v>
@@ -4071,10 +4188,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>123</v>
@@ -4085,10 +4202,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>123</v>
@@ -4099,10 +4216,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>123</v>
@@ -4113,10 +4230,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>123</v>
@@ -4127,10 +4244,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>123</v>
@@ -4141,10 +4258,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>123</v>
@@ -4155,10 +4272,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>123</v>
@@ -4169,10 +4286,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>56</v>
@@ -4183,10 +4300,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>56</v>
@@ -4197,10 +4314,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>291</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>56</v>
@@ -4211,10 +4328,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>56</v>
@@ -4225,10 +4342,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B136" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
@@ -4239,13 +4356,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>25</v>
@@ -4253,10 +4370,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>32</v>
@@ -4267,10 +4384,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>123</v>
@@ -4281,10 +4398,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>51</v>
@@ -4295,10 +4412,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>32</v>
@@ -4309,10 +4426,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B142" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>51</v>
@@ -4323,10 +4440,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>51</v>
@@ -4337,10 +4454,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>34</v>
@@ -4351,10 +4468,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>56</v>
@@ -4365,10 +4482,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>56</v>
@@ -4379,10 +4496,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>31</v>
@@ -4393,10 +4510,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>31</v>
@@ -4407,10 +4524,10 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
@@ -4421,10 +4538,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>33</v>
@@ -4435,10 +4552,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>51</v>
@@ -4449,10 +4566,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>51</v>
@@ -4463,10 +4580,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>51</v>
@@ -4477,10 +4594,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>33</v>
@@ -4491,10 +4608,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>123</v>
@@ -4505,10 +4622,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>33</v>
@@ -4519,10 +4636,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>51</v>
@@ -4533,10 +4650,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>123</v>
@@ -4549,10 +4666,10 @@
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>32</v>
@@ -4563,10 +4680,10 @@
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="23" t="s">
         <v>340</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>341</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>56</v>
@@ -4577,10 +4694,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>51</v>
@@ -4591,10 +4708,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>346</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>51</v>
@@ -4605,13 +4722,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="C163" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
@@ -4619,13 +4736,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>22</v>
@@ -4633,13 +4750,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
@@ -4647,13 +4764,13 @@
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B166" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B166" s="23" t="s">
-        <v>355</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>22</v>
@@ -4661,10 +4778,10 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B167" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="B167" s="23" t="s">
-        <v>357</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>33</v>
@@ -4675,13 +4792,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>25</v>
@@ -4689,13 +4806,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>25</v>
@@ -4703,10 +4820,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>123</v>
@@ -4717,10 +4834,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>51</v>
@@ -4731,10 +4848,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>32</v>
@@ -4745,10 +4862,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>32</v>
@@ -4759,10 +4876,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>32</v>
@@ -4773,10 +4890,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>32</v>
@@ -4787,10 +4904,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>32</v>
@@ -4801,10 +4918,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>32</v>
@@ -4815,10 +4932,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>56</v>
@@ -4829,10 +4946,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -4843,10 +4960,10 @@
     </row>
     <row r="180" spans="1:4" ht="29">
       <c r="A180" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B180" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="B180" s="17" t="s">
-        <v>381</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>32</v>
@@ -4857,10 +4974,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>56</v>
@@ -4871,10 +4988,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>31</v>
@@ -4885,10 +5002,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B183" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>31</v>
@@ -4899,10 +5016,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>33</v>
@@ -4913,13 +5030,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B185" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="C185" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>27</v>
@@ -4927,10 +5044,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B186" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>32</v>
@@ -4941,10 +5058,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B187" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>123</v>
@@ -4955,10 +5072,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B188" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>403</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>33</v>
@@ -4969,10 +5086,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B189" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>405</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>123</v>
@@ -4983,10 +5100,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B190" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>32</v>
@@ -4997,10 +5114,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>32</v>
@@ -5011,10 +5128,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B192" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>33</v>
@@ -5025,10 +5142,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>33</v>
@@ -5039,13 +5156,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B194" s="12" t="s">
-        <v>413</v>
-      </c>
       <c r="C194" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>28</v>
@@ -5053,13 +5170,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>28</v>
@@ -5067,13 +5184,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>28</v>
@@ -5081,10 +5198,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B197" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>418</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>123</v>
@@ -5095,10 +5212,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>123</v>
@@ -5109,10 +5226,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B199" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>421</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>123</v>
@@ -5123,13 +5240,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>28</v>
@@ -5137,10 +5254,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B201" s="12" t="s">
         <v>423</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>424</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>31</v>
@@ -5151,10 +5268,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B202" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="B202" s="12" t="s">
-        <v>426</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>31</v>
@@ -5165,10 +5282,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>31</v>
@@ -5179,10 +5296,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>123</v>
@@ -5193,10 +5310,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>123</v>
@@ -5207,10 +5324,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>431</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>123</v>
@@ -5221,10 +5338,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>123</v>
@@ -5235,10 +5352,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B208" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>123</v>
@@ -5247,12 +5364,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>123</v>
@@ -5261,12 +5378,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>32</v>
@@ -5275,129 +5392,493 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="1"/>
-      <c r="D211" s="1"/>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="1"/>
-      <c r="D212" s="1"/>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="1"/>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="1"/>
-      <c r="D214" s="1"/>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="1"/>
-      <c r="D215" s="1"/>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="1"/>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1"/>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="1"/>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="1"/>
-      <c r="D219" s="1"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="1"/>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="1"/>
-      <c r="D221" s="1"/>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="1"/>
-      <c r="D222" s="1"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="1"/>
-      <c r="D223" s="1"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="1"/>
-      <c r="D224" s="1"/>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1"/>
-      <c r="D225" s="1"/>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1"/>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1"/>
-      <c r="D227" s="1"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="1"/>
-      <c r="D228" s="1"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="1"/>
-      <c r="D229" s="1"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1"/>
-      <c r="D230" s="1"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1"/>
-      <c r="D231" s="1"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1"/>
-      <c r="D232" s="1"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="1"/>
-      <c r="D233" s="1"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="1"/>
-      <c r="D234" s="1"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="1"/>
-      <c r="D235" s="1"/>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="1"/>
-      <c r="D236" s="1"/>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="1"/>
-      <c r="D237" s="1"/>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="1"/>
-      <c r="D238" s="1"/>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="1"/>
-      <c r="D239" s="1"/>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="1"/>
-      <c r="D240" s="1"/>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="101.5">
+      <c r="A212" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="11"/>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="11"/>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" s="11"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" s="11"/>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" s="11"/>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="11"/>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" s="11"/>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220" s="11"/>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" s="11"/>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" s="11"/>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" s="11"/>
+      <c r="G223" s="10"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="11"/>
+      <c r="G224" s="10"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" s="11"/>
+      <c r="G225" s="10"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="11"/>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="11"/>
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="11"/>
+      <c r="G228" s="10"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="11"/>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="11"/>
+      <c r="G230" s="10"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="11"/>
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" s="11"/>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="11"/>
+      <c r="G233" s="10"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="11"/>
+      <c r="G234" s="10"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="11"/>
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="11"/>
+      <c r="G236" s="10"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="11"/>
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" s="11"/>
+      <c r="G238" s="10"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="11"/>
+      <c r="G239" s="10"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="A241" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1"/>
@@ -44403,50 +44884,14 @@
       <c r="A9992" s="1"/>
       <c r="D9992" s="1"/>
     </row>
-    <row r="9993" spans="1:4">
-      <c r="A9993" s="1"/>
-      <c r="D9993" s="1"/>
-    </row>
-    <row r="9994" spans="1:4">
-      <c r="A9994" s="1"/>
-      <c r="D9994" s="1"/>
-    </row>
-    <row r="9995" spans="1:4">
-      <c r="A9995" s="1"/>
-      <c r="D9995" s="1"/>
-    </row>
-    <row r="9996" spans="1:4">
-      <c r="A9996" s="1"/>
-      <c r="D9996" s="1"/>
-    </row>
-    <row r="9997" spans="1:4">
-      <c r="A9997" s="1"/>
-      <c r="D9997" s="1"/>
-    </row>
-    <row r="9998" spans="1:4">
-      <c r="A9998" s="1"/>
-      <c r="D9998" s="1"/>
-    </row>
-    <row r="9999" spans="1:4">
-      <c r="A9999" s="1"/>
-      <c r="D9999" s="1"/>
-    </row>
-    <row r="10000" spans="1:4">
-      <c r="A10000" s="1"/>
-      <c r="D10000" s="1"/>
-    </row>
-    <row r="10001" spans="1:4">
-      <c r="A10001" s="1"/>
-      <c r="D10001" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D210"/>
+  <autoFilter ref="A1:D241"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G2:G8">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="G2:G8 G213:G239">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -44460,7 +44905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G158">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -44610,12 +45055,14 @@
     <hyperlink ref="B208" r:id="rId127"/>
     <hyperlink ref="B209" r:id="rId128"/>
     <hyperlink ref="B210" r:id="rId129"/>
+    <hyperlink ref="B240" r:id="rId130"/>
+    <hyperlink ref="B241" r:id="rId131"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId130"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId132"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId131"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId132"/>
+    <customPr name="_pios_id" r:id="rId133"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId134"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -44635,7 +45082,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G8</xm:sqref>
+          <xm:sqref>G2:G8 G213:G239</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3FB01497-E984-4BAD-A8F7-39415467035E}">
@@ -44697,7 +45144,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.5">
@@ -44788,20 +45235,20 @@
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -44832,7 +45279,7 @@
     <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -44844,7 +45291,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1725,10 +1725,10 @@
     <t>AGSKL Training</t>
   </si>
   <si>
-    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\02 AGS TRAINING\20211130 UNCONCIOUS BIAS</t>
-  </si>
-  <si>
     <t>Training folder</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\02 AGS TRAINING</t>
   </si>
 </sst>
 </file>
@@ -2389,8 +2389,8 @@
   <dimension ref="A1:H9992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
+      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5857,7 +5857,7 @@
         <v>470</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>123</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B241" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>471</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>123</v>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579485E1-95CA-43FE-BF79-0C1B0F5062B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -17,9 +18,9 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$386</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="699">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -855,12 +856,6 @@
     <t>Netting Process Procedure</t>
   </si>
   <si>
-    <t>口座振替 Reminder Email</t>
-  </si>
-  <si>
-    <t>納付書 Reminder Email</t>
-  </si>
-  <si>
     <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT 
 File : :AGSKL 支払の下準備</t>
   </si>
@@ -876,27 +871,6 @@
     <t>Payment Task Introduction</t>
   </si>
   <si>
-    <t>社員経費(H) Task Procedure</t>
-  </si>
-  <si>
-    <t>口座振替(F) Task Procedure</t>
-  </si>
-  <si>
-    <t>納付書(C) Task Procedure</t>
-  </si>
-  <si>
-    <t>業者支払い(H) Task Procedure</t>
-  </si>
-  <si>
-    <t>PMDA,Rick,Terri(T) Payment Task Procedure</t>
-  </si>
-  <si>
-    <t>海外送金(J) Task Procedure</t>
-  </si>
-  <si>
-    <t>海外送金(E) Task Procedure</t>
-  </si>
-  <si>
     <t>Netting(Z) Task Procedure</t>
   </si>
   <si>
@@ -925,9 +899,6 @@
   </si>
   <si>
     <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\02 MONTHLY REPORTING\KPI Slides updates.xlsx"</t>
-  </si>
-  <si>
-    <t>TnE KPI Slides Updates</t>
   </si>
   <si>
     <t>Validation Sample Evidence</t>
@@ -1593,9 +1564,6 @@
     <t>KPI</t>
   </si>
   <si>
-    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\04 KPI\01 GLOBAL KPI\10 OCT 2021</t>
-  </si>
-  <si>
     <t>KPI Dashboard</t>
   </si>
   <si>
@@ -1730,11 +1698,724 @@
   <si>
     <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\02 AGS TRAINING</t>
   </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:w:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B128634DB-39C4-4E53-84F0-672C95CA4D19%7D&amp;file=%E6%94%AF%E6%89%95%E6%97%A5%E7%A2%BA%E8%AA%8D%E6%96%B9%E6%B3%953.docx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\04 KPI\01 GLOBAL KPI</t>
+  </si>
+  <si>
+    <t>Runbook file upload</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Runbook\File upload.mp4</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/taxes/shiraberu/sodan/denwa-sodan/case1.htm#a-02</t>
+  </si>
+  <si>
+    <t>Genaral questions about W/H tax
+Shiba Tax Office
+Tel：03-3455-0551（See below the link）</t>
+  </si>
+  <si>
+    <t>Withholding tax</t>
+  </si>
+  <si>
+    <t>MEC Blackline</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Blackline\MEC Blackline.docx</t>
+  </si>
+  <si>
+    <t>Auto Debit(F) Procedure</t>
+  </si>
+  <si>
+    <t>Payment Slip(C) Procedure</t>
+  </si>
+  <si>
+    <t>Vendor Payment(H) Procedure</t>
+  </si>
+  <si>
+    <t>TnE Payment(H) Procedure</t>
+  </si>
+  <si>
+    <t>Foreign Transfer(J) Procedure</t>
+  </si>
+  <si>
+    <t>PMDA,Rick,Terri(T) Payment Procedure</t>
+  </si>
+  <si>
+    <t>Foreign Transfer(E) Procedure</t>
+  </si>
+  <si>
+    <t>Payment Slip Reminder Email</t>
+  </si>
+  <si>
+    <t>Auto Debit Reminder Email</t>
+  </si>
+  <si>
+    <t>Kouzafurikae Reminder Email</t>
+  </si>
+  <si>
+    <t>Noufusyou Reminder Email</t>
+  </si>
+  <si>
+    <t>shiharai Task Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to prepare an excel file </t>
+  </si>
+  <si>
+    <t>Payment Procedure</t>
+  </si>
+  <si>
+    <t>Payment error code list</t>
+  </si>
+  <si>
+    <t>VIM Portal</t>
+  </si>
+  <si>
+    <t>https://irisportal.alcon.net/</t>
+  </si>
+  <si>
+    <t>SRM Portal</t>
+  </si>
+  <si>
+    <t>BizStation Link</t>
+  </si>
+  <si>
+    <t>https://bizstation.bk.mufg.jp/</t>
+  </si>
+  <si>
+    <t>Bank code checking</t>
+  </si>
+  <si>
+    <t>https://zengin.ajtw.net/</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>PO Cancel</t>
+  </si>
+  <si>
+    <t>Kaigaisoukin E</t>
+  </si>
+  <si>
+    <t>Kaigaisoukin J</t>
+  </si>
+  <si>
+    <t>PMDA,Rick,Terri T Payment</t>
+  </si>
+  <si>
+    <t>Shainkeihi H</t>
+  </si>
+  <si>
+    <t>Gyoushashiharai H</t>
+  </si>
+  <si>
+    <t>Noufusyou C</t>
+  </si>
+  <si>
+    <t>Kouzafurikae F</t>
+  </si>
+  <si>
+    <t>GR Acceptance and Cancellation</t>
+  </si>
+  <si>
+    <t>GR Acceptance</t>
+  </si>
+  <si>
+    <t>GR Cancellation</t>
+  </si>
+  <si>
+    <t>F Payment</t>
+  </si>
+  <si>
+    <t>C Payment</t>
+  </si>
+  <si>
+    <t>H Payment</t>
+  </si>
+  <si>
+    <t>T Payment</t>
+  </si>
+  <si>
+    <t>J Payment</t>
+  </si>
+  <si>
+    <t>E Payment</t>
+  </si>
+  <si>
+    <t>Shiba Zeimusyo</t>
+  </si>
+  <si>
+    <t>LSI</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0248_LSI</t>
+  </si>
+  <si>
+    <t>LSI sharepoint</t>
+  </si>
+  <si>
+    <t>http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE.0B71356C74BA4D9BA5C01CFEF17939EC</t>
+  </si>
+  <si>
+    <t>Stepout</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\12 JAPAN R2P\01 STEPOUT &amp; LSI</t>
+  </si>
+  <si>
+    <t>Global Travel Policy</t>
+  </si>
+  <si>
+    <t>F111 R2R Process</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\F111 R2R Process.docx</t>
+  </si>
+  <si>
+    <t>"I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Hakimi\VOC_questionnaire.xlsx"</t>
+  </si>
+  <si>
+    <t>VOC survey</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\81 FIT</t>
+  </si>
+  <si>
+    <t>FIT site</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/CIT/Pages/CITHome.aspx</t>
+  </si>
+  <si>
+    <t>FIT training material</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\81 FIT\20210928 FIT - Finance Ideation Tool Training materials 2021.pptx</t>
+  </si>
+  <si>
+    <t>LSI site</t>
+  </si>
+  <si>
+    <t>Concur manager override</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\FIKO\Concur override manager table.docx</t>
+  </si>
+  <si>
+    <t>Stop transaction</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\How to stop transactions.docx</t>
+  </si>
+  <si>
+    <t>Concur envelopes</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\T&amp;E\Concur専用封筒.docx</t>
+  </si>
+  <si>
+    <t>SRM type</t>
+  </si>
+  <si>
+    <t>CC OR ZOR</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SRM\SRM.docx</t>
+  </si>
+  <si>
+    <t>OT Claim</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\RE_ 残業時のタクシー代・食事代取り扱いについて.msg</t>
+  </si>
+  <si>
+    <t>Personal Expense</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\RE_ CONCURの問い合わせ.msg"</t>
+  </si>
+  <si>
+    <t>Credit Card Assign</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\RE  カードデータの精算方法.msg"</t>
+  </si>
+  <si>
+    <t>Personal Card Expense</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FW  Concurについて（教えてください・・・）.msg"</t>
+  </si>
+  <si>
+    <t>Settlement procedures</t>
+  </si>
+  <si>
+    <t>Summary Expense usage</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\01  TnE JOB AID\Alcon Japan How to use expense_202101.pdf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settle business trip expenses </t>
+  </si>
+  <si>
+    <t>Settle rewards</t>
+  </si>
+  <si>
+    <t>Concur VIM SRM</t>
+  </si>
+  <si>
+    <t>FRA Dashboard Training</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\01  TnE JOB AID\Global FRA OPS dashboard training.pptx"</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\01  TnE JOB AID\TnE Expense Manual -2019071.pdf"</t>
+  </si>
+  <si>
+    <t>TnE Expense Manual</t>
+  </si>
+  <si>
+    <t>My TnE Bank Account Guide</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\01  TnE JOB AID\OneDrive - AlconAlconMY TE Bank Account アプリ_ユーザーガイド.pdf"</t>
+  </si>
+  <si>
+    <t>My TnE Bank Account FAQ</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\01  TnE JOB AID\MY TE Bank Account アプリ　よくある質問.pdf"</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\Travel Provider change from CWT to Egencia coming in 2022!.msg"</t>
+  </si>
+  <si>
+    <t>Travel Provider Egencia</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs</t>
+  </si>
+  <si>
+    <t>TnE Policy FAQ (Japanese)</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs</t>
+  </si>
+  <si>
+    <t>TnE Policy FAQ (English)</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14</t>
+  </si>
+  <si>
+    <t>Concur Mobile App</t>
+  </si>
+  <si>
+    <t>TnE KPI Monitoring</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\12 PROJECT\concur KPI (syahmi).xlsx"</t>
+  </si>
+  <si>
+    <t>End User FAQ (Japanese)</t>
+  </si>
+  <si>
+    <t>End User FAQ (English)</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\10 JAPAN T&amp;E\02 T&amp;E SAMPLING CRITERIA\Appzen Configuration Log JP23.xlsx"</t>
+  </si>
+  <si>
+    <t>KPI Slides Updates</t>
+  </si>
+  <si>
+    <t>Configuration Log JP23</t>
+  </si>
+  <si>
+    <t>GRIR Introduction</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\GRIR Introduction to GRIR Aged PO Control.pdf"</t>
+  </si>
+  <si>
+    <t>Local Procurement Procedure</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Local Procurement Procedures V1.1_APAC.pdf"</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\IRIS_SAP104_Idoc Basics_WBT_v1.pdf"</t>
+  </si>
+  <si>
+    <t>IDOC Basics SAP</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\QRC_FIN101_T-codes.pdf"</t>
+  </si>
+  <si>
+    <t>IRIS Market Codes</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\QRC_FIN101_IRIS and Market Codes.pdf"</t>
+  </si>
+  <si>
+    <t>Finance Key Terms</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\QRC_FIN101_Key Terms.pdf"</t>
+  </si>
+  <si>
+    <t>Finance T-codes overview</t>
+  </si>
+  <si>
+    <t>General Finance Overview</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\IRIS_FIN101_General_Finance_Overview_WBT.pdf"</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\QRC_R2P101_Key Terms.pdf"</t>
+  </si>
+  <si>
+    <t>R2P Key Terms</t>
+  </si>
+  <si>
+    <t>R2P Overview</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\IRIS_R2P101_Direct Procurement Request to Pay Overview_WBT.pdf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITSM Training </t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\ITSM -Training - Super User.pdf"</t>
+  </si>
+  <si>
+    <t>PureCloud Training</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\PureCloud Agent Training 201911206.pdf"</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Veeva Training - Learner Training Deck.pdf"</t>
+  </si>
+  <si>
+    <t>Veeva Vault Training</t>
+  </si>
+  <si>
+    <t>SAP Logonpad Update</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\SAP Logonpad Update Knowledge article.pdf"</t>
+  </si>
+  <si>
+    <t>Abbreviations and Acronyms</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Acronyms.pdf"</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\英語日本語切替.pdf"</t>
+  </si>
+  <si>
+    <t>Concur Language Settings</t>
+  </si>
+  <si>
+    <t>Credit Card Application</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\URL_passcode_ CC application.pdf"</t>
+  </si>
+  <si>
+    <t>Appzen Model Overview</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\20201007 Appzen Models Overview.pdf"</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\AppZen Manual for T&amp;E Team.pdf"</t>
+  </si>
+  <si>
+    <t>Appzen Manual TnE</t>
+  </si>
+  <si>
+    <t>OT Process Practice</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\01  TnE JOB AID\Master_Compilation of OT-cost Process Practice APAC.xlsx"</t>
+  </si>
+  <si>
+    <t>R2P Training</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/IRIS/ES/_layouts/15/Doc.aspx?sourcedoc=%7BB042D2C4-8823-4898-85CE-18FB08D0BF49%7D&amp;file=IRIS%20SRM%20Training.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1</t>
+  </si>
+  <si>
+    <t>Payment advice</t>
+  </si>
+  <si>
+    <t>FNOW user</t>
+  </si>
+  <si>
+    <t>50 M</t>
+  </si>
+  <si>
+    <t>Payment tracking</t>
+  </si>
+  <si>
+    <t>FNOW Training</t>
+  </si>
+  <si>
+    <t>Phone ticket</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Flight amount</t>
+  </si>
+  <si>
+    <t>Searching other PO</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Servicenow training</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/282DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F282DocLib%2FSRM%E3%83%BBSIM%2FSRM%2F6%2E%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB%2F1%2D6%5Fthree%20way%20match%E3%81%A8PO%E3%82%AF%E3%83%AD%E3%83%BC%E3%82%BA%2Epdf&amp;parent=%2Fsites%2FInSight%2F282DocLib%2FSRM%E3%83%BBSIM%2FSRM%2F6%2E%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB</t>
+  </si>
+  <si>
+    <t>3-way Match PO</t>
+  </si>
+  <si>
+    <t>Match PO</t>
+  </si>
+  <si>
+    <t>https://alcon.service-now.com/fpportal?id=sc_category&amp;sys_id=70ef1cbd1b684050cd6562007e4bcbe6&amp;catalog_id=-1</t>
+  </si>
+  <si>
+    <t>Supplier ticket</t>
+  </si>
+  <si>
+    <t>VRT ticket</t>
+  </si>
+  <si>
+    <t>Supplier update ticket</t>
+  </si>
+  <si>
+    <t>Update supplier</t>
+  </si>
+  <si>
+    <t>https://alcon.service-now.com/fpportal?id=sc_cat_item&amp;sys_id=7591abe11b7d8050cd6562007e4bcbc2&amp;sysparm_category=70ef1cbd1b684050cd6562007e4bcbe6</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B4ED28F7E-B291-42F6-AFD8-A0D23566F99C%7D&amp;file=PO%20non%20PO%20Decision%20Tree_rev_201908.pptx&amp;action=edit&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>PO/NPO Decision Tree</t>
+  </si>
+  <si>
+    <t>PO/NPO</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B2AD05C6B-6F4E-482E-A788-3A10D7C6E185%7D&amp;file=FinanceNow%20key%20service%20catelogue.xlsx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>FNOW Service Catalog</t>
+  </si>
+  <si>
+    <t>FNOW manual</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\Snow_Tickets_Analysis.xlsx</t>
+  </si>
+  <si>
+    <t>FNOW ticket analysis</t>
+  </si>
+  <si>
+    <t>FNOW analysis</t>
+  </si>
+  <si>
+    <t>Vendor Master list</t>
+  </si>
+  <si>
+    <t>Aiqi\23Nov_ (Updated) Vendor Master_Requestor.xlsx</t>
+  </si>
+  <si>
+    <t>POT KPI calculation</t>
+  </si>
+  <si>
+    <t>Buffer of +/- 7 days from invoice due date</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\RE_ Report ID_ 207821B2D8C3449698B1　登録免許税 PMDA.msg"</t>
+  </si>
+  <si>
+    <t>PMDA Claim</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\05  CONCUR\TnE Quarterly Accrual"</t>
+  </si>
+  <si>
+    <t>TnE Accrual</t>
+  </si>
+  <si>
+    <t>Duplicate Audit Tool</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\01  AP\02  Duplicate Invoice\Trade AP Duplicate Audit SG17 SG18  09.11.2021.xlsm"</t>
+  </si>
+  <si>
+    <t>DAT Rules</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\01  AP\02  Duplicate Invoice\DAT Rules.docx"</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\01  AP\02  Duplicate Invoice\20211109 Duplicate Audit Tool Demo.MP4"</t>
+  </si>
+  <si>
+    <t>DAT Demo</t>
+  </si>
+  <si>
+    <t>Finding user roles</t>
+  </si>
+  <si>
+    <t>T-code:SUIM</t>
+  </si>
+  <si>
+    <t>Offset personal expense</t>
+  </si>
+  <si>
+    <t>Offset personal card</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\T&amp;E\Offset personal expense.docx</t>
+  </si>
+  <si>
+    <t>Offset private use</t>
+  </si>
+  <si>
+    <t>Offset private card</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\RE_ Reporting managerとRegional headの承認について：教えてください。（航空運賃 7000USD以上）.msg"</t>
+  </si>
+  <si>
+    <t>Flight above threshold</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FNOW%2FFinanceNow%20key%20service%20catelogue%5FNov2021%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FNOW</t>
+  </si>
+  <si>
+    <t>Approval mail sample</t>
+  </si>
+  <si>
+    <t>W/H tax mail</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\上長承認依頼_1110払源泉税.msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To PSC </t>
+  </si>
+  <si>
+    <t>Cording mail</t>
+  </si>
+  <si>
+    <t>W/H vim mail</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg</t>
+  </si>
+  <si>
+    <t>W/H tax manual</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\源泉税納付.docx</t>
+  </si>
+  <si>
+    <t>W/H tax process1</t>
+  </si>
+  <si>
+    <t>W/H tax process2</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\WH tax process.docx</t>
+  </si>
+  <si>
+    <t>W/H tax workflow</t>
+  </si>
+  <si>
+    <t>Internal payment request</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\Internal payment request 税務署.xlsx</t>
+  </si>
+  <si>
+    <t>Withholding tax VIM</t>
+  </si>
+  <si>
+    <t>Withholding tax manual</t>
+  </si>
+  <si>
+    <t>Withholding tax process1</t>
+  </si>
+  <si>
+    <t>Withholding tax process2</t>
+  </si>
+  <si>
+    <t>Withholding tax workflow</t>
+  </si>
+  <si>
+    <t>Unblocking Payment</t>
+  </si>
+  <si>
+    <t>I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Hakimi\Unblocking_payment.mp4</t>
+  </si>
+  <si>
+    <t>GRIR Aging</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\12 JAPAN R2P\12 GRIR AGING</t>
+  </si>
+  <si>
+    <t>T&amp;E KPI Dashboard</t>
+  </si>
+  <si>
+    <t>TnE KPI Dashboard</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\04 KPI\01 GLOBAL KPI\20211125 RE TE KPI- Overview  Training  APJ+ EMEA Region ( Session 1 ) .msg</t>
+  </si>
+  <si>
+    <t>Local Addendum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1897,7 +2578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1981,6 +2662,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2385,12 +3069,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9992"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="8" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2405,7 +3089,7 @@
     <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2428,7 +3112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -2446,16 +3130,16 @@
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G8" si="0">+COUNTIF($D:$D,F2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="28">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>240</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -2473,9 +3157,9 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
@@ -2493,16 +3177,16 @@
       </c>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1">
+        <v>44</v>
+      </c>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>56</v>
@@ -2515,16 +3199,16 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -2537,16 +3221,16 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>56</v>
@@ -2559,9 +3243,9 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H7" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -2581,9 +3265,9 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="H8" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -2767,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2781,15 +3465,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -3122,7 +3806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -3136,7 +3820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
@@ -3150,7 +3834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -3164,7 +3848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -3178,7 +3862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>131</v>
       </c>
@@ -3192,7 +3876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>133</v>
       </c>
@@ -3206,7 +3890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
@@ -3220,7 +3904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -3234,12 +3918,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="72.5">
+    <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -3247,13 +3931,16 @@
       <c r="D57" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="87">
+      <c r="E57" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>117</v>
@@ -3261,8 +3948,11 @@
       <c r="D58" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>141</v>
       </c>
@@ -3276,7 +3966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="43.5">
+    <row r="60" spans="1:5" ht="43.5">
       <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
@@ -3290,7 +3980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>147</v>
       </c>
@@ -3304,7 +3994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>150</v>
       </c>
@@ -3318,7 +4008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>152</v>
       </c>
@@ -3332,7 +4022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="101.5">
+    <row r="64" spans="1:5" ht="101.5">
       <c r="A64" s="1" t="s">
         <v>153</v>
       </c>
@@ -3430,7 +4120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>166</v>
       </c>
@@ -3444,7 +4134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -3452,13 +4142,13 @@
         <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
@@ -3516,7 +4206,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>187</v>
@@ -3612,12 +4302,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="21" customFormat="1">
+    <row r="84" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>202</v>
@@ -3626,12 +4316,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="21" customFormat="1">
+    <row r="85" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>203</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>202</v>
@@ -3640,12 +4330,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="21" customFormat="1">
+    <row r="86" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>204</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>202</v>
@@ -3654,12 +4344,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="21" customFormat="1">
+    <row r="87" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>202</v>
@@ -3668,12 +4358,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="21" customFormat="1">
+    <row r="88" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>206</v>
+        <v>479</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>202</v>
@@ -3682,12 +4372,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="21" customFormat="1">
+    <row r="89" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>209</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>202</v>
@@ -3696,12 +4386,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="21" customFormat="1">
+    <row r="90" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>202</v>
@@ -3710,9 +4400,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>213</v>
+        <v>471</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>142</v>
@@ -3724,9 +4414,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>214</v>
+        <v>472</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>142</v>
@@ -3738,9 +4428,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>215</v>
+        <v>473</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>142</v>
@@ -3752,9 +4442,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>142</v>
@@ -3766,9 +4456,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>216</v>
+        <v>476</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>142</v>
@@ -3780,9 +4470,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>217</v>
+        <v>475</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>142</v>
@@ -3794,9 +4484,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>218</v>
+        <v>477</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>142</v>
@@ -3808,9 +4498,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>142</v>
@@ -3824,10 +4514,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
@@ -3838,10 +4528,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>32</v>
@@ -3852,10 +4542,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>123</v>
@@ -3866,10 +4556,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -3880,10 +4570,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>229</v>
+        <v>576</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>32</v>
@@ -3894,10 +4584,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>32</v>
@@ -3908,10 +4598,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>32</v>
@@ -3922,10 +4612,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>32</v>
@@ -3936,10 +4626,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>123</v>
@@ -3950,10 +4640,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>179</v>
@@ -3964,10 +4654,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>123</v>
@@ -3978,10 +4668,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>123</v>
@@ -3992,10 +4682,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>179</v>
@@ -4006,10 +4696,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>123</v>
@@ -4020,10 +4710,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>123</v>
@@ -4034,10 +4724,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>123</v>
@@ -4048,10 +4738,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>202</v>
@@ -4062,10 +4752,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>123</v>
@@ -4076,10 +4766,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>123</v>
@@ -4090,10 +4780,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>31</v>
@@ -4104,10 +4794,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
@@ -4118,10 +4808,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>123</v>
@@ -4132,10 +4822,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>31</v>
@@ -4146,10 +4836,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>123</v>
@@ -4160,10 +4850,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>202</v>
@@ -4174,10 +4864,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>123</v>
@@ -4188,10 +4878,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>123</v>
@@ -4202,10 +4892,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>123</v>
@@ -4216,10 +4906,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>123</v>
@@ -4230,10 +4920,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>123</v>
@@ -4244,10 +4934,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>123</v>
@@ -4258,10 +4948,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>123</v>
@@ -4272,10 +4962,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>123</v>
@@ -4284,12 +4974,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>56</v>
@@ -4298,12 +4988,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>56</v>
@@ -4312,12 +5002,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>56</v>
@@ -4326,12 +5016,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>56</v>
@@ -4340,12 +5030,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
@@ -4354,12 +5044,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>202</v>
@@ -4370,10 +5060,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>32</v>
@@ -4384,10 +5074,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>123</v>
@@ -4398,10 +5088,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>51</v>
@@ -4412,10 +5102,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>32</v>
@@ -4426,10 +5116,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>51</v>
@@ -4440,10 +5130,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>51</v>
@@ -4454,10 +5144,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>34</v>
@@ -4466,12 +5156,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>56</v>
@@ -4480,12 +5170,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>56</v>
@@ -4494,12 +5184,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" ht="15" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>31</v>
@@ -4508,12 +5198,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>31</v>
@@ -4522,12 +5212,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" ht="15" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
@@ -4538,10 +5228,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>33</v>
@@ -4552,10 +5242,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>51</v>
@@ -4566,10 +5256,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>51</v>
@@ -4580,10 +5270,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>51</v>
@@ -4594,10 +5284,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>33</v>
@@ -4608,10 +5298,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>123</v>
@@ -4622,10 +5312,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>33</v>
@@ -4636,10 +5326,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>51</v>
@@ -4650,10 +5340,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>123</v>
@@ -4666,10 +5356,10 @@
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>32</v>
@@ -4680,10 +5370,10 @@
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>56</v>
@@ -4694,10 +5384,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>51</v>
@@ -4708,10 +5398,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>51</v>
@@ -4722,13 +5412,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
@@ -4736,13 +5426,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>22</v>
@@ -4750,13 +5440,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
@@ -4764,13 +5454,13 @@
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>22</v>
@@ -4778,10 +5468,10 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>33</v>
@@ -4790,12 +5480,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>202</v>
@@ -4804,12 +5494,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>202</v>
@@ -4820,10 +5510,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>123</v>
@@ -4834,10 +5524,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>51</v>
@@ -4848,10 +5538,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>32</v>
@@ -4862,10 +5552,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>32</v>
@@ -4876,10 +5566,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>32</v>
@@ -4890,10 +5580,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>32</v>
@@ -4904,10 +5594,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>32</v>
@@ -4918,10 +5608,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>32</v>
@@ -4930,12 +5620,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>56</v>
@@ -4944,12 +5634,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -4958,12 +5648,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="29">
+    <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>32</v>
@@ -4972,12 +5662,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>56</v>
@@ -4986,12 +5676,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>31</v>
@@ -5000,12 +5690,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>31</v>
@@ -5014,12 +5704,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>33</v>
@@ -5030,10 +5720,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>202</v>
@@ -5044,10 +5734,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>32</v>
@@ -5058,10 +5748,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>123</v>
@@ -5072,10 +5762,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>33</v>
@@ -5086,10 +5776,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>123</v>
@@ -5100,10 +5790,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>32</v>
@@ -5114,10 +5804,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>32</v>
@@ -5128,10 +5818,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>33</v>
@@ -5142,10 +5832,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>33</v>
@@ -5156,10 +5846,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>202</v>
@@ -5170,10 +5860,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>202</v>
@@ -5184,10 +5874,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>202</v>
@@ -5198,10 +5888,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>123</v>
@@ -5212,10 +5902,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>123</v>
@@ -5226,10 +5916,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>123</v>
@@ -5240,10 +5930,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="20" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>202</v>
@@ -5254,10 +5944,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>31</v>
@@ -5268,10 +5958,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>31</v>
@@ -5282,10 +5972,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>31</v>
@@ -5296,10 +5986,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>123</v>
@@ -5310,10 +6000,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>123</v>
@@ -5324,10 +6014,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>123</v>
@@ -5338,10 +6028,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>123</v>
@@ -5352,10 +6042,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>123</v>
@@ -5366,10 +6056,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>123</v>
@@ -5380,10 +6070,10 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>32</v>
@@ -5394,10 +6084,10 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>32</v>
@@ -5408,10 +6098,10 @@
     </row>
     <row r="212" spans="1:7" ht="101.5">
       <c r="A212" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>32</v>
@@ -5422,7 +6112,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>114</v>
@@ -5438,7 +6128,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>128</v>
@@ -5454,7 +6144,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>116</v>
@@ -5470,7 +6160,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>119</v>
@@ -5486,7 +6176,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>129</v>
@@ -5502,7 +6192,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>122</v>
@@ -5518,7 +6208,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>130</v>
@@ -5534,7 +6224,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>132</v>
@@ -5550,7 +6240,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>138</v>
@@ -5566,10 +6256,10 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>179</v>
@@ -5582,10 +6272,10 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>179</v>
@@ -5598,10 +6288,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>118</v>
@@ -5614,7 +6304,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>187</v>
@@ -5630,7 +6320,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B226" s="12" t="s">
         <v>189</v>
@@ -5646,7 +6336,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B227" s="12" t="s">
         <v>190</v>
@@ -5662,7 +6352,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>193</v>
@@ -5678,7 +6368,7 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>195</v>
@@ -5694,7 +6384,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B230" s="12" t="s">
         <v>197</v>
@@ -5710,10 +6400,10 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>33</v>
@@ -5726,10 +6416,10 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>51</v>
@@ -5742,10 +6432,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>51</v>
@@ -5758,10 +6448,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>51</v>
@@ -5774,10 +6464,10 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>33</v>
@@ -5790,10 +6480,10 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>123</v>
@@ -5806,10 +6496,10 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>33</v>
@@ -5822,10 +6512,10 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>51</v>
@@ -5838,10 +6528,10 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>123</v>
@@ -5854,10 +6544,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>123</v>
@@ -5868,10 +6558,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>123</v>
@@ -5880,585 +6570,2032 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1"/>
-      <c r="D242" s="1"/>
+    <row r="242" spans="1:4" ht="15" customHeight="1">
+      <c r="A242" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="1"/>
-      <c r="D243" s="1"/>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="1"/>
-      <c r="D244" s="1"/>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1"/>
-      <c r="D245" s="1"/>
+      <c r="A243" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="43.5">
+      <c r="A244" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="43.5">
+      <c r="A245" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B245" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="1"/>
-      <c r="D246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="1"/>
-      <c r="D247" s="1"/>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="1"/>
-      <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="1"/>
-      <c r="D249" s="1"/>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="1"/>
-      <c r="D250" s="1"/>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="1"/>
-      <c r="D251" s="1"/>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="1"/>
-      <c r="D252" s="1"/>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="1"/>
-      <c r="D253" s="1"/>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="1"/>
-      <c r="D254" s="1"/>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="1"/>
-      <c r="D255" s="1"/>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="1"/>
-      <c r="D256" s="1"/>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="1"/>
-      <c r="D257" s="1"/>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="1"/>
-      <c r="D258" s="1"/>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="1"/>
-      <c r="D259" s="1"/>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="1"/>
-      <c r="D260" s="1"/>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="1"/>
-      <c r="D261" s="1"/>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="1"/>
-      <c r="D262" s="1"/>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="1"/>
-      <c r="D263" s="1"/>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="1"/>
-      <c r="D264" s="1"/>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="1"/>
-      <c r="D265" s="1"/>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="1"/>
-      <c r="D266" s="1"/>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="1"/>
-      <c r="D267" s="1"/>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="1"/>
-      <c r="D268" s="1"/>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="1"/>
-      <c r="D269" s="1"/>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="1"/>
-      <c r="D270" s="1"/>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="1"/>
-      <c r="D271" s="1"/>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="1"/>
-      <c r="D272" s="1"/>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="1"/>
-      <c r="D273" s="1"/>
+      <c r="A247" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1">
+      <c r="A248" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D248" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" customHeight="1">
+      <c r="A249" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C249" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D249" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1">
+      <c r="A250" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C250" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D250" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1">
+      <c r="A251" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C251" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D251" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1">
+      <c r="A252" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C252" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D252" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1">
+      <c r="A253" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C253" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D253" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1">
+      <c r="A254" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C254" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D254" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1">
+      <c r="A255" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D255" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1">
+      <c r="A256" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C256" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D256" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1">
+      <c r="A257" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C257" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D257" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1">
+      <c r="A258" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1">
+      <c r="A259" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1">
+      <c r="A260" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1">
+      <c r="A261" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1">
+      <c r="A262" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1">
+      <c r="A263" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+      <c r="A264" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B264" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" customHeight="1">
+      <c r="A265" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B265" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" customHeight="1">
+      <c r="A266" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B266" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" customHeight="1">
+      <c r="A267" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B267" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" customHeight="1">
+      <c r="A268" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C268" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D268" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" customHeight="1">
+      <c r="A269" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C269" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D269" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1">
+      <c r="A270" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C270" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1">
+      <c r="A271" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C271" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D271" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1">
+      <c r="A272" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C272" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D272" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1">
+      <c r="A273" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C273" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D273" s="20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="1"/>
-      <c r="D274" s="1"/>
+      <c r="A274" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C274" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D274" s="20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="1"/>
-      <c r="D275" s="1"/>
+      <c r="A275" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C275" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="1"/>
-      <c r="D276" s="1"/>
+      <c r="A276" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C276" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="1"/>
-      <c r="D277" s="1"/>
+      <c r="A277" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="1"/>
-      <c r="D278" s="1"/>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="1"/>
-      <c r="D279" s="1"/>
+      <c r="A278" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1">
+      <c r="A279" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="1"/>
-      <c r="D280" s="1"/>
+      <c r="A280" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C280" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="1"/>
-      <c r="D281" s="1"/>
+      <c r="A281" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="1"/>
-      <c r="D282" s="1"/>
+      <c r="A282" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="1"/>
-      <c r="D283" s="1"/>
+      <c r="A283" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C283" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="1"/>
-      <c r="D284" s="1"/>
+      <c r="A284" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="1"/>
-      <c r="D285" s="1"/>
+      <c r="A285" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="1"/>
-      <c r="D286" s="1"/>
+      <c r="A286" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="1"/>
-      <c r="D287" s="1"/>
+      <c r="A287" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="1"/>
-      <c r="D288" s="1"/>
+      <c r="A288" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="1"/>
-      <c r="D289" s="1"/>
+      <c r="A289" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="1"/>
-      <c r="D290" s="1"/>
+      <c r="A290" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="1"/>
-      <c r="D291" s="1"/>
+      <c r="A291" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="1"/>
-      <c r="D292" s="1"/>
+      <c r="A292" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="1"/>
-      <c r="D293" s="1"/>
+      <c r="A293" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="1"/>
-      <c r="D294" s="1"/>
+      <c r="A294" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="1"/>
-      <c r="D295" s="1"/>
+      <c r="A295" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="1"/>
-      <c r="D296" s="1"/>
+      <c r="A296" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="1"/>
-      <c r="D297" s="1"/>
+      <c r="A297" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="1"/>
-      <c r="D298" s="1"/>
+      <c r="A298" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="1"/>
-      <c r="D299" s="1"/>
+      <c r="A299" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="1"/>
-      <c r="D300" s="1"/>
+      <c r="A300" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="1"/>
-      <c r="D301" s="1"/>
+      <c r="A301" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="1"/>
-      <c r="D302" s="1"/>
+      <c r="A302" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="1"/>
-      <c r="D303" s="1"/>
+      <c r="A303" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="1"/>
-      <c r="D304" s="1"/>
+      <c r="A304" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="1"/>
-      <c r="D305" s="1"/>
+      <c r="A305" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="1"/>
-      <c r="D306" s="1"/>
+      <c r="A306" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="1"/>
-      <c r="D307" s="1"/>
+      <c r="A307" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="1"/>
-      <c r="D308" s="1"/>
+      <c r="A308" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="1"/>
-      <c r="D309" s="1"/>
+      <c r="A309" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="1"/>
-      <c r="D310" s="1"/>
+      <c r="A310" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="1"/>
-      <c r="D311" s="1"/>
+      <c r="A311" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="1"/>
-      <c r="D312" s="1"/>
+      <c r="A312" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="1"/>
-      <c r="D313" s="1"/>
+      <c r="A313" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="1"/>
-      <c r="D314" s="1"/>
+      <c r="A314" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="1"/>
-      <c r="D315" s="1"/>
+      <c r="A315" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="1"/>
-      <c r="D316" s="1"/>
+      <c r="A316" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="1"/>
-      <c r="D317" s="1"/>
+      <c r="A317" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="1"/>
-      <c r="D318" s="1"/>
+      <c r="A318" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="1"/>
-      <c r="D319" s="1"/>
+      <c r="A319" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="1"/>
-      <c r="D320" s="1"/>
+      <c r="A320" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="1"/>
-      <c r="D321" s="1"/>
+      <c r="A321" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="1"/>
-      <c r="D322" s="1"/>
+      <c r="A322" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="1"/>
-      <c r="D323" s="1"/>
+      <c r="A323" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="1"/>
-      <c r="D324" s="1"/>
+      <c r="A324" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="1"/>
-      <c r="D325" s="1"/>
+      <c r="A325" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="1"/>
-      <c r="D326" s="1"/>
+      <c r="A326" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="1"/>
-      <c r="D327" s="1"/>
+      <c r="A327" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="1"/>
-      <c r="D328" s="1"/>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="1"/>
-      <c r="D329" s="1"/>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="1"/>
-      <c r="D330" s="1"/>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="1"/>
-      <c r="D331" s="1"/>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="1"/>
-      <c r="D332" s="1"/>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="1"/>
-      <c r="D333" s="1"/>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="1"/>
-      <c r="D334" s="1"/>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="1"/>
-      <c r="D335" s="1"/>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="1"/>
-      <c r="D336" s="1"/>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="1"/>
-      <c r="D337" s="1"/>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="1"/>
-      <c r="D338" s="1"/>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="1"/>
-      <c r="D339" s="1"/>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="1"/>
-      <c r="D340" s="1"/>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="1"/>
-      <c r="D341" s="1"/>
-    </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="1"/>
-      <c r="D342" s="1"/>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="1"/>
-      <c r="D343" s="1"/>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="1"/>
-      <c r="D344" s="1"/>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="1"/>
-      <c r="D345" s="1"/>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="1"/>
-      <c r="D346" s="1"/>
+      <c r="A328" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15" customHeight="1">
+      <c r="A329" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15" customHeight="1">
+      <c r="A330" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="15" customHeight="1">
+      <c r="A331" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15" customHeight="1">
+      <c r="A332" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="15" customHeight="1">
+      <c r="A333" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15" customHeight="1">
+      <c r="A334" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="15" customHeight="1">
+      <c r="A335" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15" customHeight="1">
+      <c r="A336" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="15" customHeight="1">
+      <c r="A337" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="15" customHeight="1">
+      <c r="A338" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="15" customHeight="1">
+      <c r="A339" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="15" customHeight="1">
+      <c r="A340" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="15" customHeight="1">
+      <c r="A341" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="15" customHeight="1">
+      <c r="A342" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="15" customHeight="1">
+      <c r="A343" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="15" customHeight="1">
+      <c r="A344" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="15" customHeight="1">
+      <c r="A345" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="15" customHeight="1">
+      <c r="A346" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="1"/>
-      <c r="D347" s="1"/>
+      <c r="A347" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="1"/>
-      <c r="D348" s="1"/>
+      <c r="A348" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="1"/>
-      <c r="D349" s="1"/>
+      <c r="A349" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="1"/>
-      <c r="D350" s="1"/>
+      <c r="A350" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="1"/>
-      <c r="D351" s="1"/>
+      <c r="A351" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="1"/>
-      <c r="D352" s="1"/>
+      <c r="A352" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="1"/>
-      <c r="D353" s="1"/>
+      <c r="A353" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="1"/>
-      <c r="D354" s="1"/>
+      <c r="A354" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="1"/>
-      <c r="D355" s="1"/>
+      <c r="A355" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="1"/>
-      <c r="D356" s="1"/>
+      <c r="A356" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="1"/>
-      <c r="D357" s="1"/>
+      <c r="A357" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="1"/>
-      <c r="D358" s="1"/>
+      <c r="A358" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="1"/>
-      <c r="D359" s="1"/>
+      <c r="A359" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="1"/>
-      <c r="D360" s="1"/>
+      <c r="A360" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="1"/>
-      <c r="D361" s="1"/>
+      <c r="A361" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="1"/>
-      <c r="D362" s="1"/>
+      <c r="A362" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" s="1"/>
-      <c r="D363" s="1"/>
+      <c r="A363" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="1"/>
-      <c r="D364" s="1"/>
+      <c r="A364" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="365" spans="1:4">
-      <c r="A365" s="1"/>
-      <c r="D365" s="1"/>
+      <c r="A365" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="366" spans="1:4">
-      <c r="A366" s="1"/>
-      <c r="D366" s="1"/>
+      <c r="A366" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="367" spans="1:4">
-      <c r="A367" s="1"/>
-      <c r="D367" s="1"/>
+      <c r="A367" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="1"/>
-      <c r="D368" s="1"/>
+      <c r="A368" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="369" spans="1:4">
-      <c r="A369" s="1"/>
-      <c r="D369" s="1"/>
+      <c r="A369" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="370" spans="1:4">
-      <c r="A370" s="1"/>
-      <c r="D370" s="1"/>
+      <c r="A370" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="1"/>
-      <c r="D371" s="1"/>
+      <c r="A371" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="1"/>
-      <c r="D372" s="1"/>
+      <c r="A372" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="1"/>
-      <c r="D373" s="1"/>
+      <c r="A373" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="1"/>
-      <c r="D374" s="1"/>
+      <c r="A374" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="1"/>
-      <c r="D375" s="1"/>
+      <c r="A375" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="1"/>
-      <c r="D376" s="1"/>
+      <c r="A376" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="377" spans="1:4">
-      <c r="A377" s="1"/>
-      <c r="D377" s="1"/>
+      <c r="A377" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" s="1"/>
-      <c r="D378" s="1"/>
+      <c r="A378" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="1"/>
-      <c r="D379" s="1"/>
+      <c r="A379" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B379" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="1"/>
-      <c r="D380" s="1"/>
+      <c r="A380" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B380" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="1"/>
-      <c r="D381" s="1"/>
+      <c r="A381" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B381" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="1"/>
-      <c r="D382" s="1"/>
+      <c r="A382" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="1"/>
-      <c r="D383" s="1"/>
+      <c r="A383" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="1"/>
-      <c r="D384" s="1"/>
+      <c r="A384" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="1"/>
-      <c r="D385" s="1"/>
+      <c r="A385" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="1"/>
-      <c r="D386" s="1"/>
+      <c r="A386" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1"/>
@@ -44872,20 +47009,8 @@
       <c r="A9989" s="1"/>
       <c r="D9989" s="1"/>
     </row>
-    <row r="9990" spans="1:4">
-      <c r="A9990" s="1"/>
-      <c r="D9990" s="1"/>
-    </row>
-    <row r="9991" spans="1:4">
-      <c r="A9991" s="1"/>
-      <c r="D9991" s="1"/>
-    </row>
-    <row r="9992" spans="1:4">
-      <c r="A9992" s="1"/>
-      <c r="D9992" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D241"/>
+  <autoFilter ref="A1:D386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
@@ -44919,150 +47044,265 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$2:$F$9</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B17" r:id="rId14"/>
-    <hyperlink ref="B28" r:id="rId15"/>
-    <hyperlink ref="B29" r:id="rId16"/>
-    <hyperlink ref="B30" r:id="rId17"/>
-    <hyperlink ref="B31" r:id="rId18"/>
-    <hyperlink ref="B33" r:id="rId19"/>
-    <hyperlink ref="B34" r:id="rId20"/>
-    <hyperlink ref="B36" r:id="rId21"/>
-    <hyperlink ref="B37" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
-    <hyperlink ref="B39" r:id="rId24"/>
-    <hyperlink ref="B40" r:id="rId25"/>
-    <hyperlink ref="B41" r:id="rId26"/>
-    <hyperlink ref="B42" r:id="rId27"/>
-    <hyperlink ref="B44" r:id="rId28"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B61" r:id="rId31"/>
-    <hyperlink ref="B62" r:id="rId32"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
-    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;"/>
-    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
-    <hyperlink ref="B68" r:id="rId37"/>
-    <hyperlink ref="B69" r:id="rId38"/>
-    <hyperlink ref="B70" r:id="rId39"/>
-    <hyperlink ref="B71" r:id="rId40"/>
-    <hyperlink ref="B72" r:id="rId41"/>
-    <hyperlink ref="B73" r:id="rId42"/>
-    <hyperlink ref="B99" r:id="rId43"/>
-    <hyperlink ref="B100" r:id="rId44"/>
-    <hyperlink ref="B101" r:id="rId45"/>
-    <hyperlink ref="B102" r:id="rId46"/>
-    <hyperlink ref="B103" r:id="rId47"/>
-    <hyperlink ref="B104" r:id="rId48"/>
-    <hyperlink ref="B105" r:id="rId49"/>
-    <hyperlink ref="B106" r:id="rId50"/>
-    <hyperlink ref="B107" r:id="rId51"/>
-    <hyperlink ref="B108" r:id="rId52"/>
-    <hyperlink ref="B109" r:id="rId53"/>
-    <hyperlink ref="B111" r:id="rId54"/>
-    <hyperlink ref="B112" r:id="rId55"/>
-    <hyperlink ref="B114" r:id="rId56"/>
-    <hyperlink ref="B115" r:id="rId57"/>
-    <hyperlink ref="B116" r:id="rId58"/>
-    <hyperlink ref="B117" r:id="rId59"/>
-    <hyperlink ref="B118" r:id="rId60"/>
-    <hyperlink ref="B119" r:id="rId61"/>
-    <hyperlink ref="B120" r:id="rId62"/>
-    <hyperlink ref="B121" r:id="rId63"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
-    <hyperlink ref="B113" r:id="rId64"/>
-    <hyperlink ref="B123" r:id="rId65"/>
-    <hyperlink ref="B124" r:id="rId66"/>
-    <hyperlink ref="B125" r:id="rId67"/>
-    <hyperlink ref="B126" r:id="rId68"/>
-    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
-    <hyperlink ref="B128" r:id="rId70"/>
-    <hyperlink ref="B110" r:id="rId71"/>
-    <hyperlink ref="B129" r:id="rId72"/>
-    <hyperlink ref="B130" r:id="rId73"/>
-    <hyperlink ref="B131" r:id="rId74"/>
-    <hyperlink ref="B132" r:id="rId75"/>
-    <hyperlink ref="B133" r:id="rId76"/>
-    <hyperlink ref="B134" r:id="rId77"/>
-    <hyperlink ref="B135" r:id="rId78"/>
-    <hyperlink ref="B136" r:id="rId79"/>
-    <hyperlink ref="B137" r:id="rId80"/>
-    <hyperlink ref="B138" r:id="rId81"/>
-    <hyperlink ref="B139" r:id="rId82"/>
-    <hyperlink ref="B140" r:id="rId83"/>
-    <hyperlink ref="B141" r:id="rId84"/>
-    <hyperlink ref="B142" r:id="rId85"/>
-    <hyperlink ref="B143" r:id="rId86"/>
-    <hyperlink ref="A146" r:id="rId87"/>
-    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304"/>
-    <hyperlink ref="B149" r:id="rId90"/>
-    <hyperlink ref="B158" r:id="rId91"/>
-    <hyperlink ref="B161" r:id="rId92"/>
-    <hyperlink ref="B162" r:id="rId93"/>
-    <hyperlink ref="B168" r:id="rId94"/>
-    <hyperlink ref="B169" r:id="rId95"/>
-    <hyperlink ref="B170" r:id="rId96"/>
-    <hyperlink ref="B171" r:id="rId97"/>
-    <hyperlink ref="B179" r:id="rId98"/>
-    <hyperlink ref="B181" r:id="rId99"/>
-    <hyperlink ref="B5" r:id="rId100"/>
-    <hyperlink ref="B6" r:id="rId101"/>
-    <hyperlink ref="B7" r:id="rId102"/>
-    <hyperlink ref="B23" r:id="rId103"/>
-    <hyperlink ref="B182" r:id="rId104"/>
-    <hyperlink ref="B183" r:id="rId105"/>
-    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true"/>
-    <hyperlink ref="B185" r:id="rId107"/>
-    <hyperlink ref="B186" r:id="rId108"/>
-    <hyperlink ref="B187" r:id="rId109"/>
-    <hyperlink ref="B188" r:id="rId110"/>
-    <hyperlink ref="B189" r:id="rId111"/>
-    <hyperlink ref="B190" r:id="rId112"/>
-    <hyperlink ref="B191" r:id="rId113"/>
-    <hyperlink ref="B192" r:id="rId114"/>
-    <hyperlink ref="B193" r:id="rId115"/>
-    <hyperlink ref="B194" r:id="rId116"/>
-    <hyperlink ref="B197" r:id="rId117"/>
-    <hyperlink ref="B198" r:id="rId118"/>
-    <hyperlink ref="B199" r:id="rId119"/>
-    <hyperlink ref="B201" r:id="rId120"/>
-    <hyperlink ref="B202" r:id="rId121"/>
-    <hyperlink ref="B203" r:id="rId122"/>
-    <hyperlink ref="B204" r:id="rId123"/>
-    <hyperlink ref="B205" r:id="rId124"/>
-    <hyperlink ref="B206" r:id="rId125"/>
-    <hyperlink ref="B207" r:id="rId126"/>
-    <hyperlink ref="B208" r:id="rId127"/>
-    <hyperlink ref="B209" r:id="rId128"/>
-    <hyperlink ref="B210" r:id="rId129"/>
-    <hyperlink ref="B240" r:id="rId130"/>
-    <hyperlink ref="B241" r:id="rId131"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B68" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B70" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B72" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B73" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B99" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B100" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B101" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B102" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B103" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B104" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B105" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B106" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B107" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B108" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B109" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B111" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B112" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B114" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B115" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B116" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B117" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B118" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B119" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B120" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B121" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B123" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B124" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B125" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B126" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B128" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B129" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B130" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B131" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B132" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B133" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B134" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B135" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B136" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B137" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B138" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B139" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B140" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B141" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B142" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B143" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A146" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B149" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B158" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B161" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B162" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B168" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B169" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B170" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B171" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B179" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B181" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B5" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B6" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B7" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B23" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B182" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B183" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B185" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B186" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B187" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B188" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B189" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B190" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B191" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B192" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B193" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B194" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B197" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B198" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B199" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B201" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B202" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B203" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B204" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B205" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B206" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B207" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B208" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B209" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B210" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B240" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B241" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B242" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B243" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B246" r:id="rId134" location="a-02" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B247" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B259" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B274" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B275" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B276" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B277" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B278" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B280" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B281" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B282" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B283" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B284" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B285" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B286" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B287" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B288" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B289" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B290" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B291" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B292" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B293" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B294" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B295" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B296" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B297" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B298" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B299" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B300" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B301" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B302" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B308" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B309" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B310" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B311" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B312" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B313" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B314" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B315" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B316" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B317" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B318" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B319" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B320" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B321" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B322" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B323" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B324" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B325" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B326" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B327" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B328" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B329" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B330" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B331" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B332" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B333" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B334" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B335" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B336" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B338" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B340" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B343" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B344" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B345" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B346" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B347" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B348" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B349" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B350" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B351" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B352" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B353" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B355" r:id="rId217" xr:uid="{07873E95-6A35-48F9-94A5-FC7BB2EFD2F7}"/>
+    <hyperlink ref="B356" r:id="rId218" xr:uid="{D23B161C-A617-4AF6-A4EB-24993F250EFA}"/>
+    <hyperlink ref="B357" r:id="rId219" xr:uid="{4E5EFCFE-53D4-4434-A55E-574856527162}"/>
+    <hyperlink ref="B358" r:id="rId220" xr:uid="{CE687864-9049-43AB-A482-39292E9B98F9}"/>
+    <hyperlink ref="B359" r:id="rId221" xr:uid="{9B559B3B-A141-4C38-8DDC-5C0EE22E2A83}"/>
+    <hyperlink ref="B360" r:id="rId222" xr:uid="{E66CA95A-8C16-4CAB-BEA6-3BCD5B40F503}"/>
+    <hyperlink ref="B361" r:id="rId223" xr:uid="{CE2AE6FF-C439-4CC0-AF0E-DD0A860BE8DA}"/>
+    <hyperlink ref="B362" r:id="rId224" xr:uid="{81B51F6F-7F65-4E68-97BB-C1499A1E387F}"/>
+    <hyperlink ref="B363" r:id="rId225" xr:uid="{CF275007-715B-4793-9699-DAEE800279FC}"/>
+    <hyperlink ref="B364" r:id="rId226" xr:uid="{25B060E7-C4F8-4894-8FF0-AD631F9C7500}"/>
+    <hyperlink ref="B365" r:id="rId227" xr:uid="{0B8BA656-9724-446C-972B-ACB1C1B12755}"/>
+    <hyperlink ref="B366" r:id="rId228" xr:uid="{099973E8-7D8E-4F3E-8312-87C83AA93B16}"/>
+    <hyperlink ref="B367" r:id="rId229" xr:uid="{5ED4402B-3408-4C29-BF16-CFD0D75B4647}"/>
+    <hyperlink ref="B368" r:id="rId230" xr:uid="{FEDB93F7-EEB9-425B-BD02-334777EEAB68}"/>
+    <hyperlink ref="B369" r:id="rId231" xr:uid="{7352C859-A2DF-4276-AE42-B8C03F539981}"/>
+    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{A096E4E5-E07B-465F-BB61-33870E4C253A}"/>
+    <hyperlink ref="B372" r:id="rId233" xr:uid="{52D27C9A-3F0A-4230-A99F-3378BFB37A74}"/>
+    <hyperlink ref="B373" r:id="rId234" xr:uid="{37E35F22-17C5-412C-BCEF-C9B6FAF6E374}"/>
+    <hyperlink ref="B374" r:id="rId235" xr:uid="{8956DBB1-34A6-415A-9F49-FF76980C95C0}"/>
+    <hyperlink ref="B375" r:id="rId236" xr:uid="{F6B8BFDA-F7F5-4A1F-981F-377F1949B749}"/>
+    <hyperlink ref="B376" r:id="rId237" xr:uid="{6FC10921-E30A-4DAA-9E44-593474BACFA3}"/>
+    <hyperlink ref="B377" r:id="rId238" xr:uid="{CC0E966E-F12B-4419-878E-9DDF7B1281E7}"/>
+    <hyperlink ref="B378" r:id="rId239" xr:uid="{A82006B3-3C1E-4115-AD31-E3D9FE6B91DD}"/>
+    <hyperlink ref="B379" r:id="rId240" xr:uid="{B9855E21-66A3-49DC-8946-435E25346391}"/>
+    <hyperlink ref="B380" r:id="rId241" xr:uid="{C776386F-7C5E-4543-9866-AFCB84D70C0C}"/>
+    <hyperlink ref="B381" r:id="rId242" xr:uid="{B43AEDE0-56DB-4BA3-AF92-5462A2A157BC}"/>
+    <hyperlink ref="B383" r:id="rId243" xr:uid="{8251A449-B960-40C3-B812-96F732B8D29E}"/>
+    <hyperlink ref="B384" r:id="rId244" xr:uid="{6CA53032-4124-4A59-B5A6-0CAA27FC6B49}"/>
+    <hyperlink ref="B385" r:id="rId245" xr:uid="{32E89234-6B18-468F-BF58-3FDB62795329}"/>
+    <hyperlink ref="B386" r:id="rId246" xr:uid="{B42E53E2-ABBC-4E25-B130-48FAC1E6D957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId132"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId247"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId133"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId134"/>
+    <customPr name="_pios_id" r:id="rId248"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId249"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -45105,11 +47345,11 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C1048576</xm:sqref>
+          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -45118,12 +47358,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -45144,7 +47382,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.5">
@@ -45235,7 +47473,7 @@
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="6" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -45248,7 +47486,7 @@
         <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -45262,11 +47500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -45279,7 +47517,7 @@
     <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -45291,7 +47529,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
@@ -45347,7 +47585,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579485E1-95CA-43FE-BF79-0C1B0F5062B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B648A6-C107-43E5-B5CE-7FBF68AAC156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$386</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$431</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="764">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -599,9 +599,6 @@
     <t>HQ address</t>
   </si>
   <si>
-    <t>Alcon Bank Account - Refund</t>
-  </si>
-  <si>
     <t>Payment Task SOP</t>
   </si>
   <si>
@@ -1003,19 +1000,6 @@
     <t>https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM</t>
   </si>
   <si>
-    <t>"住所：〒105-6333東京都港区虎ノ門1丁目23番1号　虎ノ門ヒルズ森タワー
-宛名：日本アルコン株式会社　　経理部支払管理グループ経費精算・支払い担当者"
-​</t>
-  </si>
-  <si>
-    <t>"銀行名：三菱UFJ銀行　
-支店名：六本木支店　
-支店番号：045
-口座名：日本アルコン（株）
-口座名（カタカナ）：ﾆﾎﾝｱﾙｺﾝ(ｶ
-口座番号：当座預金1187109"</t>
-  </si>
-  <si>
     <t>Year End Closing</t>
   </si>
   <si>
@@ -2410,6 +2394,224 @@
   </si>
   <si>
     <t>Local Addendum</t>
+  </si>
+  <si>
+    <t>Corporate card admin</t>
+  </si>
+  <si>
+    <t>Corporate card operation</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\T&amp;E\Corporate card admin.docx</t>
+  </si>
+  <si>
+    <t>Alcon Bank Account Refund</t>
+  </si>
+  <si>
+    <t>"G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\Bank and address info.docx"</t>
+  </si>
+  <si>
+    <t>Payment Proposal Task</t>
+  </si>
+  <si>
+    <t>Payment Proposal</t>
+  </si>
+  <si>
+    <t>Additional Payment Task</t>
+  </si>
+  <si>
+    <t>Additional Task</t>
+  </si>
+  <si>
+    <t>Block Payment</t>
+  </si>
+  <si>
+    <t>Block Task</t>
+  </si>
+  <si>
+    <t>G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\01 PROPOSAL\1130-25 Payment Run Proposal Check List.xlsx</t>
+  </si>
+  <si>
+    <t>Pre-proposal Task</t>
+  </si>
+  <si>
+    <t>Preproposal Task</t>
+  </si>
+  <si>
+    <t>"G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\6.Manual payment_F111.docx"</t>
+  </si>
+  <si>
+    <t>F111 Payment</t>
+  </si>
+  <si>
+    <t>F111 Manual Payment</t>
+  </si>
+  <si>
+    <t>FIKO Task</t>
+  </si>
+  <si>
+    <t>FIKO workflow</t>
+  </si>
+  <si>
+    <t>G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\FIKO New Workflow.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday Template </t>
+  </si>
+  <si>
+    <t>"G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\20 Template\Holiday Template for internals and externals user (Auto-reply for generic mailbox alvimsuperuser and alalconmeisai).msg"</t>
+  </si>
+  <si>
+    <t>https://lumen5.com/</t>
+  </si>
+  <si>
+    <t>Video website</t>
+  </si>
+  <si>
+    <t>Create video</t>
+  </si>
+  <si>
+    <t>eTravel Participants Report</t>
+  </si>
+  <si>
+    <t>PF4 T-Code:Z3AF_TM_PARTICIPANTS</t>
+  </si>
+  <si>
+    <t>Sozei joyaku</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:w:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B8C14B8B5-97AB-42CA-B7C0-BA680CF4ED85%7D&amp;file=17_sozeijouyaku.docx&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\租税条約に関する届出書.docx</t>
+  </si>
+  <si>
+    <t>Income tax convention</t>
+  </si>
+  <si>
+    <t>Tax treaty</t>
+  </si>
+  <si>
+    <t>NFCM_THRSLD</t>
+  </si>
+  <si>
+    <t>G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\Approval Maintenance Request FIKO\NFCM_THRSLD.txt</t>
+  </si>
+  <si>
+    <t>Kumimodoshi Draft</t>
+  </si>
+  <si>
+    <t>G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\14 補足\Kumimodosi draft.msg</t>
+  </si>
+  <si>
+    <t>Incentive trip</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Incentive trip\Incentive trip.docx</t>
+  </si>
+  <si>
+    <t>Annual Leave</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING</t>
+  </si>
+  <si>
+    <t>Direct Debit Vendor</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\25 APAC R2P\01 DIRECT DEBIT\APAC Direct Debit Vendor Listing_30.11.2021-JP23 &amp; KR12.xlsx</t>
+  </si>
+  <si>
+    <t>Concur YE annoucement</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/SitePages/282/Forms/FormsHome.aspx</t>
+  </si>
+  <si>
+    <t>Supplier registration form</t>
+  </si>
+  <si>
+    <t>Leave guidance</t>
+  </si>
+  <si>
+    <t>Korea Monthly guidance</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\20211203  중요공지 12월 TE 인보이스 제출기한.msg</t>
+  </si>
+  <si>
+    <t>FNOW access revoke</t>
+  </si>
+  <si>
+    <t>Withholding tax reference</t>
+  </si>
+  <si>
+    <t>Withholding tax ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\7 WHTAX RECON
+File : Withholding tax calculator
+You can enter the net payment amount to vendor or the VIM processed amount
+</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+Please refer file 'ITSM how to input' for the first timer who do not know how to raise ITSM ticket</t>
+  </si>
+  <si>
+    <t>Proceed as the same as requesting new access in Saviynt, however
+instead of adding the assignment group, please remove it out from the related person and submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\7 WHTAX RECON
+File : Withholding tax calculator
+Please refer second tab (Sheet 1) to see calculation sample for vendor 50922973
+</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\7 WHTAX RECON\Year End WHT
+File : Request for export   Contracts in ALEX with Japan HCPs
+we need to send email to request ALEX report from Marki, to check the unsubmitted invoice by year end</t>
+  </si>
+  <si>
+    <t>Withholding tax checking</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\7 WHTAX RECON\Year End WHT
+File : RE  HCP謝礼金支払☑ Withholding Tax
+Year end checking explanation by Asano-san</t>
+  </si>
+  <si>
+    <t>FBRA reversal</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021
+File : 2021-11-26_ Dwnpayment reversal FBRA</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021
+File : ITSM video tutorial</t>
+  </si>
+  <si>
+    <t>ITSM video</t>
+  </si>
+  <si>
+    <t>ITSM tutorial video</t>
+  </si>
+  <si>
+    <t>Alcon Japan Award</t>
+  </si>
+  <si>
+    <t>Hida Memorial</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Alcon Japan Award.docx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\14 KT with Asano san\Training Video</t>
+  </si>
+  <si>
+    <t>KT Asano</t>
   </si>
 </sst>
 </file>
@@ -3073,8 +3275,8 @@
   <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A386"/>
+      <pane ySplit="8" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F430" sqref="F430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3134,12 +3336,12 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>385</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -3155,13 +3357,13 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>50</v>
@@ -3177,16 +3379,16 @@
       </c>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>56</v>
@@ -3205,10 +3407,10 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -3221,16 +3423,16 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>56</v>
@@ -3243,7 +3445,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -3265,7 +3467,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -3470,10 +3672,10 @@
         <v>57</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -3752,7 +3954,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>114</v>
@@ -3780,7 +3982,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>116</v>
@@ -3794,7 +3996,7 @@
     </row>
     <row r="48" spans="1:4" ht="58">
       <c r="A48" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>119</v>
@@ -3922,8 +4124,8 @@
       <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>254</v>
+      <c r="B57" s="18" t="s">
+        <v>700</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -3932,15 +4134,15 @@
         <v>23</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>255</v>
+        <v>699</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>700</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>117</v>
@@ -3949,18 +4151,18 @@
         <v>23</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>23</v>
@@ -3968,10 +4170,10 @@
     </row>
     <row r="60" spans="1:5" ht="43.5">
       <c r="A60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>123</v>
@@ -3982,10 +4184,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>32</v>
@@ -3996,10 +4198,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>32</v>
@@ -4010,10 +4212,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>32</v>
@@ -4024,10 +4226,10 @@
     </row>
     <row r="64" spans="1:5" ht="101.5">
       <c r="A64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>32</v>
@@ -4038,10 +4240,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>123</v>
@@ -4052,10 +4254,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>32</v>
@@ -4066,10 +4268,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>32</v>
@@ -4080,10 +4282,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>32</v>
@@ -4094,10 +4296,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>32</v>
@@ -4108,10 +4310,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>32</v>
@@ -4122,10 +4324,10 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>31</v>
@@ -4136,13 +4338,13 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>25</v>
@@ -4150,10 +4352,10 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>56</v>
@@ -4164,13 +4366,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>22</v>
@@ -4178,13 +4380,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>22</v>
@@ -4192,10 +4394,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>118</v>
@@ -4206,10 +4408,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>31</v>
@@ -4220,10 +4422,10 @@
     </row>
     <row r="78" spans="1:4" s="21" customFormat="1">
       <c r="A78" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>123</v>
@@ -4234,10 +4436,10 @@
     </row>
     <row r="79" spans="1:4" s="21" customFormat="1">
       <c r="A79" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>123</v>
@@ -4248,10 +4450,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>123</v>
@@ -4262,13 +4464,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="C81" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>22</v>
@@ -4276,13 +4478,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>22</v>
@@ -4290,13 +4492,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>22</v>
@@ -4304,13 +4506,13 @@
     </row>
     <row r="84" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>202</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>23</v>
@@ -4318,13 +4520,13 @@
     </row>
     <row r="85" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>23</v>
@@ -4332,13 +4534,13 @@
     </row>
     <row r="86" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>23</v>
@@ -4346,13 +4548,13 @@
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>206</v>
-      </c>
       <c r="C87" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>23</v>
@@ -4360,13 +4562,13 @@
     </row>
     <row r="88" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>23</v>
@@ -4374,13 +4576,13 @@
     </row>
     <row r="89" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>23</v>
@@ -4388,13 +4590,13 @@
     </row>
     <row r="90" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>23</v>
@@ -4402,13 +4604,13 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>23</v>
@@ -4416,13 +4618,13 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>23</v>
@@ -4430,13 +4632,13 @@
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>23</v>
@@ -4444,13 +4646,13 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>23</v>
@@ -4458,13 +4660,13 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>23</v>
@@ -4472,13 +4674,13 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>23</v>
@@ -4486,13 +4688,13 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>23</v>
@@ -4500,13 +4702,13 @@
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>23</v>
@@ -4514,10 +4716,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
@@ -4528,10 +4730,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>32</v>
@@ -4542,10 +4744,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>123</v>
@@ -4556,10 +4758,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -4570,10 +4772,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>32</v>
@@ -4584,10 +4786,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>32</v>
@@ -4598,10 +4800,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>32</v>
@@ -4612,10 +4814,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>32</v>
@@ -4626,10 +4828,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>123</v>
@@ -4640,13 +4842,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>230</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>28</v>
@@ -4654,10 +4856,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>123</v>
@@ -4668,10 +4870,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>123</v>
@@ -4682,13 +4884,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>28</v>
@@ -4696,10 +4898,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>123</v>
@@ -4710,10 +4912,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>123</v>
@@ -4724,10 +4926,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>123</v>
@@ -4738,13 +4940,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>240</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -4752,10 +4954,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>123</v>
@@ -4766,10 +4968,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>123</v>
@@ -4780,10 +4982,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>31</v>
@@ -4794,10 +4996,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
@@ -4808,10 +5010,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>123</v>
@@ -4822,10 +5024,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>31</v>
@@ -4836,10 +5038,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>123</v>
@@ -4850,13 +5052,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>28</v>
@@ -4864,10 +5066,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>123</v>
@@ -4878,10 +5080,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>123</v>
@@ -4892,10 +5094,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>123</v>
@@ -4906,10 +5108,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>123</v>
@@ -4920,10 +5122,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>123</v>
@@ -4934,10 +5136,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>123</v>
@@ -4948,10 +5150,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>123</v>
@@ -4962,10 +5164,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>123</v>
@@ -4976,10 +5178,10 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>56</v>
@@ -4990,10 +5192,10 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>56</v>
@@ -5004,10 +5206,10 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>56</v>
@@ -5018,10 +5220,10 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>56</v>
@@ -5032,10 +5234,10 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
@@ -5046,13 +5248,13 @@
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>25</v>
@@ -5060,10 +5262,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>32</v>
@@ -5074,10 +5276,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>123</v>
@@ -5088,10 +5290,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>51</v>
@@ -5102,10 +5304,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>32</v>
@@ -5116,10 +5318,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>51</v>
@@ -5130,10 +5332,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>51</v>
@@ -5144,10 +5346,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>34</v>
@@ -5158,10 +5360,10 @@
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>56</v>
@@ -5172,10 +5374,10 @@
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>56</v>
@@ -5186,10 +5388,10 @@
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>31</v>
@@ -5200,10 +5402,10 @@
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>31</v>
@@ -5214,10 +5416,10 @@
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
@@ -5228,10 +5430,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>33</v>
@@ -5242,10 +5444,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>51</v>
@@ -5256,10 +5458,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>51</v>
@@ -5270,10 +5472,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>51</v>
@@ -5284,10 +5486,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>33</v>
@@ -5298,10 +5500,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>123</v>
@@ -5312,10 +5514,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>33</v>
@@ -5326,10 +5528,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>51</v>
@@ -5340,10 +5542,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>123</v>
@@ -5356,10 +5558,10 @@
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>32</v>
@@ -5370,10 +5572,10 @@
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>56</v>
@@ -5384,10 +5586,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>51</v>
@@ -5398,10 +5600,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>51</v>
@@ -5412,13 +5614,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
@@ -5426,13 +5628,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>22</v>
@@ -5440,13 +5642,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
@@ -5454,13 +5656,13 @@
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>22</v>
@@ -5468,10 +5670,10 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>33</v>
@@ -5482,13 +5684,13 @@
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>25</v>
@@ -5496,13 +5698,13 @@
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>25</v>
@@ -5510,10 +5712,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>123</v>
@@ -5524,10 +5726,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>51</v>
@@ -5538,10 +5740,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>32</v>
@@ -5552,10 +5754,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>32</v>
@@ -5566,10 +5768,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>32</v>
@@ -5580,10 +5782,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>32</v>
@@ -5594,10 +5796,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>32</v>
@@ -5608,10 +5810,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>32</v>
@@ -5622,10 +5824,10 @@
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>56</v>
@@ -5636,10 +5838,10 @@
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -5650,10 +5852,10 @@
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>32</v>
@@ -5664,10 +5866,10 @@
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>56</v>
@@ -5678,10 +5880,10 @@
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>31</v>
@@ -5692,10 +5894,10 @@
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>31</v>
@@ -5706,10 +5908,10 @@
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>33</v>
@@ -5720,13 +5922,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>27</v>
@@ -5734,10 +5936,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>32</v>
@@ -5748,10 +5950,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>123</v>
@@ -5762,10 +5964,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>33</v>
@@ -5776,10 +5978,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>123</v>
@@ -5790,10 +5992,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>32</v>
@@ -5804,10 +6006,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>32</v>
@@ -5818,10 +6020,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>33</v>
@@ -5832,10 +6034,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>33</v>
@@ -5846,13 +6048,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>28</v>
@@ -5860,13 +6062,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>28</v>
@@ -5874,13 +6076,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>28</v>
@@ -5888,10 +6090,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>123</v>
@@ -5902,10 +6104,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>123</v>
@@ -5916,10 +6118,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>123</v>
@@ -5930,13 +6132,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>28</v>
@@ -5944,10 +6146,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>31</v>
@@ -5958,10 +6160,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>31</v>
@@ -5972,10 +6174,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>31</v>
@@ -5986,10 +6188,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>123</v>
@@ -6000,10 +6202,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>123</v>
@@ -6014,10 +6216,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>123</v>
@@ -6028,10 +6230,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>123</v>
@@ -6042,10 +6244,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>123</v>
@@ -6056,10 +6258,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>123</v>
@@ -6070,10 +6272,10 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>32</v>
@@ -6084,10 +6286,10 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>32</v>
@@ -6098,10 +6300,10 @@
     </row>
     <row r="212" spans="1:7" ht="101.5">
       <c r="A212" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>32</v>
@@ -6112,7 +6314,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>114</v>
@@ -6128,7 +6330,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>128</v>
@@ -6144,7 +6346,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>116</v>
@@ -6160,7 +6362,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>119</v>
@@ -6176,7 +6378,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>129</v>
@@ -6192,7 +6394,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>122</v>
@@ -6208,7 +6410,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>130</v>
@@ -6224,7 +6426,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>132</v>
@@ -6240,7 +6442,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>138</v>
@@ -6256,13 +6458,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>22</v>
@@ -6272,13 +6474,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>22</v>
@@ -6288,10 +6490,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>118</v>
@@ -6304,10 +6506,10 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>31</v>
@@ -6320,10 +6522,10 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>123</v>
@@ -6336,10 +6538,10 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>123</v>
@@ -6352,10 +6554,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>123</v>
@@ -6368,13 +6570,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B229" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>22</v>
@@ -6384,13 +6586,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>22</v>
@@ -6400,10 +6602,10 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>33</v>
@@ -6416,10 +6618,10 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>51</v>
@@ -6432,10 +6634,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>51</v>
@@ -6448,10 +6650,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>51</v>
@@ -6464,10 +6666,10 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>33</v>
@@ -6480,10 +6682,10 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>123</v>
@@ -6496,10 +6698,10 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>33</v>
@@ -6512,10 +6714,10 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>51</v>
@@ -6528,10 +6730,10 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>123</v>
@@ -6544,10 +6746,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>123</v>
@@ -6558,10 +6760,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>123</v>
@@ -6572,13 +6774,13 @@
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>25</v>
@@ -6586,10 +6788,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>123</v>
@@ -6600,10 +6802,10 @@
     </row>
     <row r="244" spans="1:4" ht="43.5">
       <c r="A244" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>127</v>
@@ -6614,10 +6816,10 @@
     </row>
     <row r="245" spans="1:4" ht="43.5">
       <c r="A245" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>127</v>
@@ -6628,10 +6830,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>127</v>
@@ -6642,10 +6844,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>36</v>
@@ -6656,13 +6858,13 @@
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D248" s="20" t="s">
         <v>23</v>
@@ -6670,13 +6872,13 @@
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D249" s="20" t="s">
         <v>23</v>
@@ -6684,13 +6886,13 @@
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D250" s="20" t="s">
         <v>23</v>
@@ -6698,13 +6900,13 @@
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D251" s="20" t="s">
         <v>23</v>
@@ -6712,13 +6914,13 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D252" s="20" t="s">
         <v>23</v>
@@ -6726,13 +6928,13 @@
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D253" s="20" t="s">
         <v>23</v>
@@ -6740,13 +6942,13 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C254" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D254" s="20" t="s">
         <v>23</v>
@@ -6754,13 +6956,13 @@
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D255" s="20" t="s">
         <v>23</v>
@@ -6768,13 +6970,13 @@
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D256" s="20" t="s">
         <v>23</v>
@@ -6782,13 +6984,13 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D257" s="20" t="s">
         <v>23</v>
@@ -6796,13 +6998,13 @@
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>23</v>
@@ -6810,13 +7012,13 @@
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>23</v>
@@ -6824,10 +7026,10 @@
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>31</v>
@@ -6838,10 +7040,10 @@
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>33</v>
@@ -6852,13 +7054,13 @@
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>23</v>
@@ -6866,13 +7068,13 @@
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>23</v>
@@ -6880,7 +7082,7 @@
     </row>
     <row r="264" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B264" s="28" t="s">
         <v>132</v>
@@ -6894,10 +7096,10 @@
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>33</v>
@@ -6908,7 +7110,7 @@
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B266" s="28" t="s">
         <v>132</v>
@@ -6922,7 +7124,7 @@
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B267" s="28" t="s">
         <v>132</v>
@@ -6936,13 +7138,13 @@
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D268" s="20" t="s">
         <v>23</v>
@@ -6950,13 +7152,13 @@
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D269" s="20" t="s">
         <v>23</v>
@@ -6964,13 +7166,13 @@
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D270" s="20" t="s">
         <v>23</v>
@@ -6978,13 +7180,13 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D271" s="20" t="s">
         <v>23</v>
@@ -6992,13 +7194,13 @@
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C272" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D272" s="20" t="s">
         <v>23</v>
@@ -7006,13 +7208,13 @@
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D273" s="20" t="s">
         <v>23</v>
@@ -7020,10 +7222,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>123</v>
@@ -7034,10 +7236,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>123</v>
@@ -7048,10 +7250,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>123</v>
@@ -7062,7 +7264,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>65</v>
@@ -7076,13 +7278,13 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>27</v>
@@ -7090,10 +7292,10 @@
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>56</v>
@@ -7104,10 +7306,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>123</v>
@@ -7118,10 +7320,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>123</v>
@@ -7132,10 +7334,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>123</v>
@@ -7146,10 +7348,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>123</v>
@@ -7160,10 +7362,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>34</v>
@@ -7174,10 +7376,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>123</v>
@@ -7188,10 +7390,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>34</v>
@@ -7202,10 +7404,10 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>33</v>
@@ -7216,10 +7418,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>33</v>
@@ -7230,10 +7432,10 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>32</v>
@@ -7244,10 +7446,10 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>32</v>
@@ -7258,10 +7460,10 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>32</v>
@@ -7272,10 +7474,10 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>32</v>
@@ -7286,10 +7488,10 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>32</v>
@@ -7300,10 +7502,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>32</v>
@@ -7314,10 +7516,10 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>32</v>
@@ -7328,10 +7530,10 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>32</v>
@@ -7342,10 +7544,10 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>123</v>
@@ -7356,13 +7558,13 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>24</v>
@@ -7370,10 +7572,10 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>32</v>
@@ -7384,10 +7586,10 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>32</v>
@@ -7398,10 +7600,10 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>32</v>
@@ -7412,10 +7614,10 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>32</v>
@@ -7426,10 +7628,10 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>34</v>
@@ -7440,10 +7642,10 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>34</v>
@@ -7454,10 +7656,10 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>32</v>
@@ -7468,10 +7670,10 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>32</v>
@@ -7482,10 +7684,10 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>34</v>
@@ -7496,13 +7698,13 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>24</v>
@@ -7510,10 +7712,10 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>35</v>
@@ -7524,10 +7726,10 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>33</v>
@@ -7538,10 +7740,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>123</v>
@@ -7552,10 +7754,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>123</v>
@@ -7566,10 +7768,10 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>123</v>
@@ -7580,10 +7782,10 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>123</v>
@@ -7594,10 +7796,10 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>123</v>
@@ -7608,10 +7810,10 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>123</v>
@@ -7622,10 +7824,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>123</v>
@@ -7636,10 +7838,10 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>123</v>
@@ -7650,10 +7852,10 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>51</v>
@@ -7664,10 +7866,10 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>123</v>
@@ -7678,10 +7880,10 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>123</v>
@@ -7692,10 +7894,10 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>123</v>
@@ -7706,10 +7908,10 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>123</v>
@@ -7720,10 +7922,10 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>34</v>
@@ -7734,10 +7936,10 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>32</v>
@@ -7748,10 +7950,10 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>35</v>
@@ -7762,10 +7964,10 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>35</v>
@@ -7776,10 +7978,10 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>32</v>
@@ -7790,10 +7992,10 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>33</v>
@@ -7804,13 +8006,13 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>25</v>
@@ -7818,10 +8020,10 @@
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>56</v>
@@ -7832,13 +8034,13 @@
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>25</v>
@@ -7846,13 +8048,13 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>25</v>
@@ -7860,10 +8062,10 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>56</v>
@@ -7874,10 +8076,10 @@
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>56</v>
@@ -7888,13 +8090,13 @@
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>25</v>
@@ -7902,10 +8104,10 @@
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>32</v>
@@ -7916,10 +8118,10 @@
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>31</v>
@@ -7930,7 +8132,7 @@
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B339" s="12" t="s">
         <v>48</v>
@@ -7944,10 +8146,10 @@
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>56</v>
@@ -7958,10 +8160,10 @@
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>33</v>
@@ -7972,10 +8174,10 @@
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>33</v>
@@ -7986,10 +8188,10 @@
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>33</v>
@@ -8000,10 +8202,10 @@
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>33</v>
@@ -8014,10 +8216,10 @@
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>33</v>
@@ -8028,10 +8230,10 @@
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>33</v>
@@ -8042,10 +8244,10 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>33</v>
@@ -8056,10 +8258,10 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>33</v>
@@ -8070,10 +8272,10 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>56</v>
@@ -8084,10 +8286,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>56</v>
@@ -8098,10 +8300,10 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>56</v>
@@ -8112,10 +8314,10 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>56</v>
@@ -8126,10 +8328,10 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>26</v>
@@ -8137,13 +8339,13 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>26</v>
@@ -8151,10 +8353,10 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>32</v>
@@ -8165,10 +8367,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>32</v>
@@ -8179,10 +8381,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>117</v>
@@ -8193,10 +8395,10 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>117</v>
@@ -8207,10 +8409,10 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>117</v>
@@ -8221,10 +8423,10 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>51</v>
@@ -8235,10 +8437,10 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>32</v>
@@ -8249,10 +8451,10 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>32</v>
@@ -8263,10 +8465,10 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>32</v>
@@ -8277,10 +8479,10 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>32</v>
@@ -8291,10 +8493,10 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>32</v>
@@ -8305,10 +8507,10 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>56</v>
@@ -8319,10 +8521,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>127</v>
@@ -8333,10 +8535,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>127</v>
@@ -8347,10 +8549,10 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B369" s="12" t="s">
         <v>674</v>
-      </c>
-      <c r="B369" s="12" t="s">
-        <v>677</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>127</v>
@@ -8361,10 +8563,10 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>127</v>
@@ -8375,10 +8577,10 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>127</v>
@@ -8389,10 +8591,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>127</v>
@@ -8403,10 +8605,10 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>127</v>
@@ -8417,10 +8619,10 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>127</v>
@@ -8431,10 +8633,10 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>127</v>
@@ -8445,10 +8647,10 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>127</v>
@@ -8459,10 +8661,10 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>127</v>
@@ -8473,10 +8675,10 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>127</v>
@@ -8487,10 +8689,10 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>127</v>
@@ -8501,10 +8703,10 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>127</v>
@@ -8515,10 +8717,10 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>127</v>
@@ -8529,13 +8731,13 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>25</v>
@@ -8543,10 +8745,10 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>33</v>
@@ -8557,10 +8759,10 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>32</v>
@@ -8571,10 +8773,10 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>32</v>
@@ -8585,7 +8787,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B386" s="12" t="s">
         <v>66</v>
@@ -8598,184 +8800,634 @@
       </c>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="1"/>
-      <c r="D387" s="1"/>
+      <c r="A387" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B387" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="1"/>
-      <c r="D388" s="1"/>
+      <c r="A388" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="1"/>
-      <c r="D389" s="1"/>
+      <c r="A389" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="1"/>
-      <c r="D390" s="1"/>
+      <c r="A390" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="1"/>
-      <c r="D391" s="1"/>
+      <c r="A391" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="1"/>
-      <c r="D392" s="1"/>
+      <c r="A392" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="1"/>
-      <c r="D393" s="1"/>
+      <c r="A393" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="1"/>
-      <c r="D394" s="1"/>
+      <c r="A394" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="1"/>
-      <c r="D395" s="1"/>
+      <c r="A395" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="1"/>
-      <c r="D396" s="1"/>
+      <c r="A396" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="1"/>
-      <c r="D397" s="1"/>
+      <c r="A397" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="1"/>
-      <c r="D398" s="1"/>
+      <c r="A398" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="1"/>
-      <c r="D399" s="1"/>
+      <c r="A399" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="1"/>
-      <c r="D400" s="1"/>
+      <c r="A400" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="1"/>
-      <c r="D401" s="1"/>
+      <c r="A401" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="1"/>
-      <c r="D402" s="1"/>
+      <c r="A402" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B402" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="1"/>
-      <c r="D403" s="1"/>
+      <c r="A403" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B403" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="1"/>
-      <c r="D404" s="1"/>
+      <c r="A404" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="1"/>
-      <c r="D405" s="1"/>
+      <c r="A405" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B405" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="1"/>
-      <c r="D406" s="1"/>
+      <c r="A406" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B406" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="1"/>
-      <c r="D407" s="1"/>
+      <c r="A407" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="1"/>
-      <c r="D408" s="1"/>
+      <c r="A408" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="1"/>
-      <c r="D409" s="1"/>
+      <c r="A409" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="1"/>
-      <c r="D410" s="1"/>
+      <c r="A410" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="1"/>
-      <c r="D411" s="1"/>
+      <c r="A411" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="1"/>
-      <c r="D412" s="1"/>
+      <c r="A412" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="1"/>
-      <c r="D413" s="1"/>
+      <c r="A413" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B413" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="1"/>
-      <c r="D414" s="1"/>
+      <c r="A414" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="415" spans="1:4">
-      <c r="A415" s="1"/>
-      <c r="D415" s="1"/>
+      <c r="A415" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B415" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="1"/>
-      <c r="D416" s="1"/>
+      <c r="A416" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="417" spans="1:4">
-      <c r="A417" s="1"/>
-      <c r="D417" s="1"/>
+      <c r="A417" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B417" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="1"/>
-      <c r="D418" s="1"/>
+      <c r="A418" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B418" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="1"/>
-      <c r="D419" s="1"/>
+      <c r="A419" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="1"/>
-      <c r="D420" s="1"/>
+      <c r="A420" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421" s="1"/>
-      <c r="D421" s="1"/>
+      <c r="A421" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="1"/>
-      <c r="D422" s="1"/>
+      <c r="A422" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="423" spans="1:4">
-      <c r="A423" s="1"/>
-      <c r="D423" s="1"/>
+      <c r="A423" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="1"/>
-      <c r="D424" s="1"/>
+      <c r="A424" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="425" spans="1:4">
-      <c r="A425" s="1"/>
-      <c r="D425" s="1"/>
+      <c r="A425" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="426" spans="1:4">
-      <c r="A426" s="1"/>
-      <c r="D426" s="1"/>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="1"/>
-      <c r="D427" s="1"/>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="1"/>
-      <c r="D428" s="1"/>
+      <c r="A426" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="72.5">
+      <c r="A427" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B427" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="72.5">
+      <c r="A428" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B428" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="1"/>
-      <c r="D429" s="1"/>
+      <c r="A429" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B429" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="1"/>
-      <c r="D430" s="1"/>
+      <c r="A430" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="1"/>
-      <c r="D431" s="1"/>
+      <c r="A431" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B431" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1"/>
@@ -47010,7 +47662,7 @@
       <c r="D9989" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D431" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
@@ -47267,42 +47919,74 @@
     <hyperlink ref="B351" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
     <hyperlink ref="B352" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
     <hyperlink ref="B353" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B355" r:id="rId217" xr:uid="{07873E95-6A35-48F9-94A5-FC7BB2EFD2F7}"/>
-    <hyperlink ref="B356" r:id="rId218" xr:uid="{D23B161C-A617-4AF6-A4EB-24993F250EFA}"/>
-    <hyperlink ref="B357" r:id="rId219" xr:uid="{4E5EFCFE-53D4-4434-A55E-574856527162}"/>
-    <hyperlink ref="B358" r:id="rId220" xr:uid="{CE687864-9049-43AB-A482-39292E9B98F9}"/>
-    <hyperlink ref="B359" r:id="rId221" xr:uid="{9B559B3B-A141-4C38-8DDC-5C0EE22E2A83}"/>
-    <hyperlink ref="B360" r:id="rId222" xr:uid="{E66CA95A-8C16-4CAB-BEA6-3BCD5B40F503}"/>
-    <hyperlink ref="B361" r:id="rId223" xr:uid="{CE2AE6FF-C439-4CC0-AF0E-DD0A860BE8DA}"/>
-    <hyperlink ref="B362" r:id="rId224" xr:uid="{81B51F6F-7F65-4E68-97BB-C1499A1E387F}"/>
-    <hyperlink ref="B363" r:id="rId225" xr:uid="{CF275007-715B-4793-9699-DAEE800279FC}"/>
-    <hyperlink ref="B364" r:id="rId226" xr:uid="{25B060E7-C4F8-4894-8FF0-AD631F9C7500}"/>
-    <hyperlink ref="B365" r:id="rId227" xr:uid="{0B8BA656-9724-446C-972B-ACB1C1B12755}"/>
-    <hyperlink ref="B366" r:id="rId228" xr:uid="{099973E8-7D8E-4F3E-8312-87C83AA93B16}"/>
-    <hyperlink ref="B367" r:id="rId229" xr:uid="{5ED4402B-3408-4C29-BF16-CFD0D75B4647}"/>
-    <hyperlink ref="B368" r:id="rId230" xr:uid="{FEDB93F7-EEB9-425B-BD02-334777EEAB68}"/>
-    <hyperlink ref="B369" r:id="rId231" xr:uid="{7352C859-A2DF-4276-AE42-B8C03F539981}"/>
-    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{A096E4E5-E07B-465F-BB61-33870E4C253A}"/>
-    <hyperlink ref="B372" r:id="rId233" xr:uid="{52D27C9A-3F0A-4230-A99F-3378BFB37A74}"/>
-    <hyperlink ref="B373" r:id="rId234" xr:uid="{37E35F22-17C5-412C-BCEF-C9B6FAF6E374}"/>
-    <hyperlink ref="B374" r:id="rId235" xr:uid="{8956DBB1-34A6-415A-9F49-FF76980C95C0}"/>
-    <hyperlink ref="B375" r:id="rId236" xr:uid="{F6B8BFDA-F7F5-4A1F-981F-377F1949B749}"/>
-    <hyperlink ref="B376" r:id="rId237" xr:uid="{6FC10921-E30A-4DAA-9E44-593474BACFA3}"/>
-    <hyperlink ref="B377" r:id="rId238" xr:uid="{CC0E966E-F12B-4419-878E-9DDF7B1281E7}"/>
-    <hyperlink ref="B378" r:id="rId239" xr:uid="{A82006B3-3C1E-4115-AD31-E3D9FE6B91DD}"/>
-    <hyperlink ref="B379" r:id="rId240" xr:uid="{B9855E21-66A3-49DC-8946-435E25346391}"/>
-    <hyperlink ref="B380" r:id="rId241" xr:uid="{C776386F-7C5E-4543-9866-AFCB84D70C0C}"/>
-    <hyperlink ref="B381" r:id="rId242" xr:uid="{B43AEDE0-56DB-4BA3-AF92-5462A2A157BC}"/>
-    <hyperlink ref="B383" r:id="rId243" xr:uid="{8251A449-B960-40C3-B812-96F732B8D29E}"/>
-    <hyperlink ref="B384" r:id="rId244" xr:uid="{6CA53032-4124-4A59-B5A6-0CAA27FC6B49}"/>
-    <hyperlink ref="B385" r:id="rId245" xr:uid="{32E89234-6B18-468F-BF58-3FDB62795329}"/>
-    <hyperlink ref="B386" r:id="rId246" xr:uid="{B42E53E2-ABBC-4E25-B130-48FAC1E6D957}"/>
+    <hyperlink ref="B355" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B356" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B357" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B358" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B359" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B360" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B361" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B362" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B363" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B364" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B365" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B366" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B367" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B368" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B369" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B372" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B373" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B374" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B375" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B376" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B377" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B378" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B379" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B380" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B381" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B383" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B384" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B385" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B386" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B387" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B388" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B58" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B57" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B395" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B396" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B397" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B398" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B399" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B400" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B401" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B402" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B403" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B405" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B406" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B407" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B408" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B409" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B410" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B411" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B412" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B413" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B414" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B415" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B416" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B417" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B418" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B419" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B421" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B429" r:id="rId276" xr:uid="{8A21E637-A51F-45A7-9F4B-45A0B84AA672}"/>
+    <hyperlink ref="B430" r:id="rId277" xr:uid="{CA40BD1E-94BF-456E-92C4-48591712F27B}"/>
+    <hyperlink ref="B431" r:id="rId278" xr:uid="{783F305C-64D1-4267-AED1-930CEB9C76AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId247"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId279"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId248"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId249"/>
+    <customPr name="_pios_id" r:id="rId280"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId281"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -47382,7 +48066,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.5">
@@ -47468,25 +48152,25 @@
     </row>
     <row r="15" spans="1:2" ht="18">
       <c r="A15" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -47517,7 +48201,7 @@
     <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -47529,7 +48213,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
@@ -47572,7 +48256,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72.5">
@@ -47580,7 +48264,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B648A6-C107-43E5-B5CE-7FBF68AAC156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6A38E-D5A3-4820-BB26-9263038585DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$431</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$485</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="854">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -1120,9 +1120,6 @@
     <t>GRC Traning</t>
   </si>
   <si>
-    <t>https://alcon365eur-my.sharepoint.com/:p:/r/personal/asanome1_alcon_net/_layouts/15/Doc.aspx?sourcedoc=%7BF44BEACC-3235-4EC7-AE75-3BFBD5A892A3%7D&amp;file=Super%20user%20training%20-%20GRC.pptx&amp;action=edit&amp;mobileredirect=true</t>
-  </si>
-  <si>
     <t>Super user</t>
   </si>
   <si>
@@ -2612,6 +2609,283 @@
   </si>
   <si>
     <t>KT Asano</t>
+  </si>
+  <si>
+    <t>Incentive trip video</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\14 KT with Asano san\Training Video\1206_Incentive Trip.mp4</t>
+  </si>
+  <si>
+    <t>AFCM Run Book</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0252_AFCM Run Book</t>
+  </si>
+  <si>
+    <t>WBS Element</t>
+  </si>
+  <si>
+    <t>Unassigned Credit Card date for runbook</t>
+  </si>
+  <si>
+    <t>Do not specify date</t>
+  </si>
+  <si>
+    <t>521ID Search</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday</t>
+  </si>
+  <si>
+    <t>Employee Data Search</t>
+  </si>
+  <si>
+    <t>521ID</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/IRIS/LATAM/_layouts/15/Doc.aspx?sourcedoc=%7BC85BBB5E-7E97-4F49-87BB-7312D65496F3%7D&amp;file=GRC%20Requester%20training.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1</t>
+  </si>
+  <si>
+    <t>User Authorazation</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\GRC\SUIM.docx</t>
+  </si>
+  <si>
+    <t>Alcon Japan company code:17001</t>
+  </si>
+  <si>
+    <t>Information Security Threat</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Information Security Threats_1.pdf"</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Alcon Workday Job Aid - Time Off 060920.pdf"</t>
+  </si>
+  <si>
+    <t>Time Off</t>
+  </si>
+  <si>
+    <t>Vendor master data</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\EMEA Alcon Business user Procurement Training 2021.pdf"</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Alcon MyBenefits Navigation Guide.pdf"</t>
+  </si>
+  <si>
+    <t>MyBenefits Navigation Guide</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\AIA Benefits- 2021.pdf"</t>
+  </si>
+  <si>
+    <t>AIA Benefits</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\GRC\設定.docx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\租税条約に関する届出書_iptor.pdf</t>
+  </si>
+  <si>
+    <t>T&amp;E Fnow</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\20211216 FNOW Expense &amp; Claim Mgmt_Design and WF_28102021.pptx</t>
+  </si>
+  <si>
+    <t>TnE Fnow</t>
+  </si>
+  <si>
+    <t>Action Tracker</t>
+  </si>
+  <si>
+    <t>KPI Action Tracker</t>
+  </si>
+  <si>
+    <t>COGNOS Access</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\20211214 Cognos Access for Japan  Korea Team.msg</t>
+  </si>
+  <si>
+    <t>COGNOS Access List</t>
+  </si>
+  <si>
+    <t>Invoice VAT</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\KOTA\20211208 インボイス方式.pptx</t>
+  </si>
+  <si>
+    <t>SRM APAC page</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/SitePages/281/ProcurementASIAHome.aspx</t>
+  </si>
+  <si>
+    <t>Post GR</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/281DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F281DocLib%2FTraining%2FFAQs%2FPost%20GR%2Epdf&amp;parent=%2Fsites%2FInSight%2F281DocLib%2FTraining%2FFAQs</t>
+  </si>
+  <si>
+    <t>https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDG </t>
+  </si>
+  <si>
+    <t>https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu</t>
+  </si>
+  <si>
+    <t>GRC page</t>
+  </si>
+  <si>
+    <t>TnE Myapp</t>
+  </si>
+  <si>
+    <t>https://myapprovals.alcon.net/sap/bc/ui5_ui5/ui2/ushell/shells/abap/FioriLaunchpad.html?appState=lean#ZMYBANK-display</t>
+  </si>
+  <si>
+    <t>Change PO details</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B70EBE5A3-222F-47ED-8703-FC221200DAE4%7D&amp;file=Change%20Order.pptx&amp;action=edit&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>BPA page</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/SitePages/239/BPA.aspx</t>
+  </si>
+  <si>
+    <t>R2R page</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/SitePages/239/R2R.aspx</t>
+  </si>
+  <si>
+    <t>Cost centre inquiry</t>
+  </si>
+  <si>
+    <t>Tax inquiry</t>
+  </si>
+  <si>
+    <t>Guide user to ask maiko.okamoto@alcon.com</t>
+  </si>
+  <si>
+    <t>Guide user to ask tetsufumi.akimoto@alcon.com</t>
+  </si>
+  <si>
+    <t>FIKO form sample</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM</t>
+  </si>
+  <si>
+    <t>FIKO form</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/SitePages/239/R2P%E6%8B%85%E5%BD%93%E8%80%85%E4%B8%80%E8%A6%A7.aspx</t>
+  </si>
+  <si>
+    <t>Person in charge</t>
+  </si>
+  <si>
+    <t>1）レポート原本領収書は緑封筒で虎ノ門本社の経理部へご送付ください。
+2）住所：
+電話番号：0120-199-773
+住所：〒105-6333東京都港区虎ノ門1丁目23番1号　虎ノ門ヒルズ森タワー
+宛名：日本アルコン株式会社　　経理部支払管理グループ</t>
+  </si>
+  <si>
+    <t>Address for sending receipt</t>
+  </si>
+  <si>
+    <t>Internal order support</t>
+  </si>
+  <si>
+    <t>COGNOS</t>
+  </si>
+  <si>
+    <t>Only be accessed from IE</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\T&amp;E\COGNOS.mp4</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\T&amp;E\Proxy.mp4</t>
+  </si>
+  <si>
+    <t>TnE review</t>
+  </si>
+  <si>
+    <t>NFCM_THRSLD manual</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\Approval Maintenance Request FIKO\NFCM_THRSLD.docx</t>
+  </si>
+  <si>
+    <t>Concur user manual</t>
+  </si>
+  <si>
+    <t>Concur user manual JP</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents</t>
+  </si>
+  <si>
+    <t>JP Concur user manual</t>
+  </si>
+  <si>
+    <t>SOP folder</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP</t>
+  </si>
+  <si>
+    <t>T&amp;E:Concur( -April2017) eTravel(May2017-Oct2020) Concur(Nov2020-)</t>
+  </si>
+  <si>
+    <t>Invoice:JDE,ASW(-April 2017)VIM(May2020-)</t>
+  </si>
+  <si>
+    <t>T&amp;E System log</t>
+  </si>
+  <si>
+    <t>VIM System log</t>
+  </si>
+  <si>
+    <t>TnE System log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BizStation Access </t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\92 APPLICATION ACCESS\14 BIZ STATION</t>
+  </si>
+  <si>
+    <t>BizStation Account checking</t>
+  </si>
+  <si>
+    <t>COGNOS Platform</t>
+  </si>
+  <si>
+    <t>COGNOS Access process</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\92 APPLICATION ACCESS\15 COGNOS</t>
   </si>
 </sst>
 </file>
@@ -3275,8 +3549,8 @@
   <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F430" sqref="F430"/>
+      <pane ySplit="8" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3336,7 +3610,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>430</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -3388,7 +3662,7 @@
         <v>170</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>56</v>
@@ -3401,7 +3675,7 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -3410,7 +3684,7 @@
         <v>169</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -3423,7 +3697,7 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3432,7 +3706,7 @@
         <v>172</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>56</v>
@@ -3445,7 +3719,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -3467,7 +3741,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -3672,7 +3946,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>201</v>
@@ -4125,7 +4399,7 @@
         <v>139</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -4134,15 +4408,15 @@
         <v>23</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>699</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>700</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>117</v>
@@ -4151,7 +4425,7 @@
         <v>23</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
@@ -4408,7 +4682,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>186</v>
@@ -4562,7 +4836,7 @@
     </row>
     <row r="88" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>207</v>
@@ -4576,7 +4850,7 @@
     </row>
     <row r="89" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>206</v>
@@ -4604,7 +4878,7 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>141</v>
@@ -4618,7 +4892,7 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>141</v>
@@ -4632,7 +4906,7 @@
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>141</v>
@@ -4646,7 +4920,7 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>141</v>
@@ -4660,7 +4934,7 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>141</v>
@@ -4674,7 +4948,7 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>141</v>
@@ -4688,7 +4962,7 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>141</v>
@@ -4772,7 +5046,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>218</v>
@@ -5321,7 +5595,7 @@
         <v>292</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>293</v>
+        <v>774</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>51</v>
@@ -5332,10 +5606,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>51</v>
@@ -5346,10 +5620,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>34</v>
@@ -5360,10 +5634,10 @@
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>56</v>
@@ -5374,10 +5648,10 @@
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>56</v>
@@ -5388,10 +5662,10 @@
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1">
       <c r="A147" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>303</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>31</v>
@@ -5402,10 +5676,10 @@
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>31</v>
@@ -5416,10 +5690,10 @@
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1">
       <c r="A149" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
@@ -5430,10 +5704,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>33</v>
@@ -5444,10 +5718,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>51</v>
@@ -5458,10 +5732,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>51</v>
@@ -5472,10 +5746,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>51</v>
@@ -5486,10 +5760,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>33</v>
@@ -5500,10 +5774,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>123</v>
@@ -5514,10 +5788,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>33</v>
@@ -5528,10 +5802,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>51</v>
@@ -5542,10 +5816,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>123</v>
@@ -5558,10 +5832,10 @@
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>32</v>
@@ -5572,10 +5846,10 @@
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B160" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>327</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>56</v>
@@ -5586,10 +5860,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>51</v>
@@ -5600,10 +5874,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>332</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>51</v>
@@ -5614,13 +5888,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="C163" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
@@ -5628,13 +5902,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>22</v>
@@ -5642,13 +5916,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
@@ -5656,13 +5930,13 @@
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B166" s="23" t="s">
-        <v>341</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>22</v>
@@ -5670,10 +5944,10 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B167" s="23" t="s">
         <v>342</v>
-      </c>
-      <c r="B167" s="23" t="s">
-        <v>343</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>33</v>
@@ -5684,10 +5958,10 @@
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>201</v>
@@ -5698,10 +5972,10 @@
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>201</v>
@@ -5712,10 +5986,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>347</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>348</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>123</v>
@@ -5726,10 +6000,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>51</v>
@@ -5740,10 +6014,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>32</v>
@@ -5754,10 +6028,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>32</v>
@@ -5768,10 +6042,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>32</v>
@@ -5782,10 +6056,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>32</v>
@@ -5796,10 +6070,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>32</v>
@@ -5810,10 +6084,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>32</v>
@@ -5824,10 +6098,10 @@
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>56</v>
@@ -5838,10 +6112,10 @@
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -5852,10 +6126,10 @@
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B180" s="17" t="s">
         <v>366</v>
-      </c>
-      <c r="B180" s="17" t="s">
-        <v>367</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>32</v>
@@ -5866,10 +6140,10 @@
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>369</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>56</v>
@@ -5880,10 +6154,10 @@
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>377</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>31</v>
@@ -5894,10 +6168,10 @@
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B183" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>379</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>31</v>
@@ -5908,10 +6182,10 @@
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>33</v>
@@ -5922,10 +6196,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>201</v>
@@ -5936,10 +6210,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B186" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>32</v>
@@ -5950,10 +6224,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B187" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>123</v>
@@ -5964,10 +6238,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B188" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>33</v>
@@ -5978,10 +6252,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B189" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>123</v>
@@ -5992,10 +6266,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B190" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>32</v>
@@ -6006,10 +6280,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>32</v>
@@ -6020,10 +6294,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B192" s="12" t="s">
         <v>395</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>396</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>33</v>
@@ -6034,10 +6308,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>33</v>
@@ -6048,10 +6322,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B194" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>201</v>
@@ -6062,10 +6336,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>201</v>
@@ -6076,10 +6350,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>201</v>
@@ -6090,10 +6364,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B197" s="12" t="s">
         <v>403</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>404</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>123</v>
@@ -6104,10 +6378,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>123</v>
@@ -6118,10 +6392,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B199" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>123</v>
@@ -6132,7 +6406,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>205</v>
@@ -6146,10 +6420,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>31</v>
@@ -6160,10 +6434,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="B202" s="12" t="s">
-        <v>412</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>31</v>
@@ -6174,10 +6448,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>31</v>
@@ -6188,7 +6462,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>268</v>
@@ -6202,7 +6476,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>268</v>
@@ -6216,10 +6490,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>123</v>
@@ -6230,10 +6504,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>123</v>
@@ -6244,10 +6518,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>123</v>
@@ -6258,10 +6532,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>123</v>
@@ -6272,7 +6546,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B210" s="12" t="s">
         <v>285</v>
@@ -6286,10 +6560,10 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>32</v>
@@ -6300,10 +6574,10 @@
     </row>
     <row r="212" spans="1:7" ht="101.5">
       <c r="A212" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>32</v>
@@ -6314,7 +6588,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>114</v>
@@ -6330,7 +6604,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>128</v>
@@ -6346,7 +6620,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>116</v>
@@ -6362,7 +6636,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>119</v>
@@ -6378,7 +6652,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>129</v>
@@ -6394,7 +6668,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>122</v>
@@ -6410,7 +6684,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>130</v>
@@ -6426,7 +6700,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>132</v>
@@ -6442,7 +6716,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>138</v>
@@ -6458,10 +6732,10 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>178</v>
@@ -6474,10 +6748,10 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>178</v>
@@ -6490,10 +6764,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>118</v>
@@ -6506,7 +6780,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>186</v>
@@ -6522,7 +6796,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B226" s="12" t="s">
         <v>188</v>
@@ -6538,7 +6812,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B227" s="12" t="s">
         <v>189</v>
@@ -6554,7 +6828,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>192</v>
@@ -6570,7 +6844,7 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>194</v>
@@ -6586,7 +6860,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B230" s="12" t="s">
         <v>196</v>
@@ -6602,10 +6876,10 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>33</v>
@@ -6618,10 +6892,10 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>51</v>
@@ -6634,10 +6908,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>51</v>
@@ -6650,10 +6924,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>51</v>
@@ -6666,10 +6940,10 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>33</v>
@@ -6682,10 +6956,10 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>123</v>
@@ -6698,10 +6972,10 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>33</v>
@@ -6714,10 +6988,10 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>51</v>
@@ -6730,10 +7004,10 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>123</v>
@@ -6746,10 +7020,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>123</v>
@@ -6760,10 +7034,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B241" s="12" t="s">
         <v>457</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>458</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>123</v>
@@ -6777,7 +7051,7 @@
         <v>254</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>201</v>
@@ -6788,10 +7062,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B243" s="12" t="s">
         <v>461</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>462</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>123</v>
@@ -6802,10 +7076,10 @@
     </row>
     <row r="244" spans="1:4" ht="43.5">
       <c r="A244" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>127</v>
@@ -6816,10 +7090,10 @@
     </row>
     <row r="245" spans="1:4" ht="43.5">
       <c r="A245" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>127</v>
@@ -6830,10 +7104,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>127</v>
@@ -6844,10 +7118,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B247" s="12" t="s">
         <v>466</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>467</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>36</v>
@@ -6858,7 +7132,7 @@
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B248" s="19" t="s">
         <v>207</v>
@@ -6872,7 +7146,7 @@
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>206</v>
@@ -6886,7 +7160,7 @@
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>205</v>
@@ -6900,7 +7174,7 @@
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B251" s="12" t="s">
         <v>141</v>
@@ -6914,7 +7188,7 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B252" s="12" t="s">
         <v>141</v>
@@ -6928,7 +7202,7 @@
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B253" s="12" t="s">
         <v>141</v>
@@ -6942,7 +7216,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B254" s="12" t="s">
         <v>141</v>
@@ -6956,7 +7230,7 @@
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B255" s="12" t="s">
         <v>141</v>
@@ -6970,7 +7244,7 @@
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B256" s="12" t="s">
         <v>141</v>
@@ -6984,7 +7258,7 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B257" s="12" t="s">
         <v>141</v>
@@ -6998,7 +7272,7 @@
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B258" s="12" t="s">
         <v>141</v>
@@ -7012,10 +7286,10 @@
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>201</v>
@@ -7026,10 +7300,10 @@
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>31</v>
@@ -7040,10 +7314,10 @@
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>33</v>
@@ -7054,10 +7328,10 @@
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>201</v>
@@ -7068,10 +7342,10 @@
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>201</v>
@@ -7082,7 +7356,7 @@
     </row>
     <row r="264" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B264" s="28" t="s">
         <v>132</v>
@@ -7096,10 +7370,10 @@
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>33</v>
@@ -7110,7 +7384,7 @@
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B266" s="28" t="s">
         <v>132</v>
@@ -7124,7 +7398,7 @@
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B267" s="28" t="s">
         <v>132</v>
@@ -7138,7 +7412,7 @@
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B268" s="12" t="s">
         <v>141</v>
@@ -7152,7 +7426,7 @@
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B269" s="12" t="s">
         <v>141</v>
@@ -7166,7 +7440,7 @@
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B270" s="12" t="s">
         <v>141</v>
@@ -7180,7 +7454,7 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B271" s="12" t="s">
         <v>141</v>
@@ -7194,7 +7468,7 @@
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B272" s="12" t="s">
         <v>141</v>
@@ -7208,7 +7482,7 @@
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B273" s="12" t="s">
         <v>141</v>
@@ -7222,10 +7496,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B274" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>123</v>
@@ -7236,10 +7510,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B275" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>123</v>
@@ -7250,10 +7524,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B276" s="12" t="s">
         <v>513</v>
-      </c>
-      <c r="B276" s="12" t="s">
-        <v>514</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>123</v>
@@ -7264,7 +7538,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>65</v>
@@ -7278,10 +7552,10 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B278" s="12" t="s">
         <v>516</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>517</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>201</v>
@@ -7292,10 +7566,10 @@
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>56</v>
@@ -7306,10 +7580,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B280" s="12" t="s">
         <v>520</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>521</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>123</v>
@@ -7320,10 +7594,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B281" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>123</v>
@@ -7334,10 +7608,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B282" s="12" t="s">
         <v>524</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>525</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>123</v>
@@ -7348,10 +7622,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>123</v>
@@ -7362,10 +7636,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B284" s="12" t="s">
         <v>527</v>
-      </c>
-      <c r="B284" s="12" t="s">
-        <v>528</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>34</v>
@@ -7376,10 +7650,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B285" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="B285" s="12" t="s">
-        <v>530</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>123</v>
@@ -7390,10 +7664,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B286" s="12" t="s">
         <v>531</v>
-      </c>
-      <c r="B286" s="12" t="s">
-        <v>532</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>34</v>
@@ -7404,10 +7678,10 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>33</v>
@@ -7418,10 +7692,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>534</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>535</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>33</v>
@@ -7432,10 +7706,10 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B289" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>537</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>32</v>
@@ -7446,10 +7720,10 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>539</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>32</v>
@@ -7460,10 +7734,10 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B291" s="12" t="s">
         <v>540</v>
-      </c>
-      <c r="B291" s="12" t="s">
-        <v>541</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>32</v>
@@ -7474,10 +7748,10 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B292" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="B292" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>32</v>
@@ -7488,10 +7762,10 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B293" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>32</v>
@@ -7502,10 +7776,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>32</v>
@@ -7516,10 +7790,10 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>32</v>
@@ -7530,10 +7804,10 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>32</v>
@@ -7544,10 +7818,10 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>123</v>
@@ -7558,13 +7832,13 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B298" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="B298" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="C298" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>24</v>
@@ -7572,10 +7846,10 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>32</v>
@@ -7586,10 +7860,10 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B300" s="12" t="s">
         <v>554</v>
-      </c>
-      <c r="B300" s="12" t="s">
-        <v>555</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>32</v>
@@ -7600,10 +7874,10 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B301" s="12" t="s">
         <v>556</v>
-      </c>
-      <c r="B301" s="12" t="s">
-        <v>557</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>32</v>
@@ -7614,10 +7888,10 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>32</v>
@@ -7628,10 +7902,10 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>34</v>
@@ -7642,10 +7916,10 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>34</v>
@@ -7656,10 +7930,10 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>32</v>
@@ -7670,10 +7944,10 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>32</v>
@@ -7684,10 +7958,10 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>34</v>
@@ -7698,13 +7972,13 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B308" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="B308" s="12" t="s">
-        <v>569</v>
-      </c>
       <c r="C308" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>24</v>
@@ -7712,10 +7986,10 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>35</v>
@@ -7726,10 +8000,10 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B310" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="B310" s="12" t="s">
-        <v>576</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>33</v>
@@ -7740,10 +8014,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B311" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="B311" s="12" t="s">
-        <v>578</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>123</v>
@@ -7754,10 +8028,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>123</v>
@@ -7768,10 +8042,10 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>123</v>
@@ -7782,10 +8056,10 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B314" s="12" t="s">
         <v>582</v>
-      </c>
-      <c r="B314" s="12" t="s">
-        <v>583</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>123</v>
@@ -7796,10 +8070,10 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B315" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="B315" s="12" t="s">
-        <v>585</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>123</v>
@@ -7810,10 +8084,10 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B316" s="12" t="s">
         <v>587</v>
-      </c>
-      <c r="B316" s="12" t="s">
-        <v>588</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>123</v>
@@ -7824,10 +8098,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>123</v>
@@ -7838,10 +8112,10 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B318" s="12" t="s">
         <v>591</v>
-      </c>
-      <c r="B318" s="12" t="s">
-        <v>592</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>123</v>
@@ -7852,10 +8126,10 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B319" s="12" t="s">
         <v>593</v>
-      </c>
-      <c r="B319" s="12" t="s">
-        <v>594</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>51</v>
@@ -7866,10 +8140,10 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B320" s="12" t="s">
         <v>595</v>
-      </c>
-      <c r="B320" s="12" t="s">
-        <v>596</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>123</v>
@@ -7880,10 +8154,10 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>123</v>
@@ -7894,10 +8168,10 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B322" s="12" t="s">
         <v>599</v>
-      </c>
-      <c r="B322" s="12" t="s">
-        <v>600</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>123</v>
@@ -7908,10 +8182,10 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B323" s="12" t="s">
         <v>601</v>
-      </c>
-      <c r="B323" s="12" t="s">
-        <v>602</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>123</v>
@@ -7922,10 +8196,10 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>34</v>
@@ -7936,10 +8210,10 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B325" s="12" t="s">
         <v>605</v>
-      </c>
-      <c r="B325" s="12" t="s">
-        <v>606</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>32</v>
@@ -7950,10 +8224,10 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B326" s="12" t="s">
         <v>607</v>
-      </c>
-      <c r="B326" s="12" t="s">
-        <v>608</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>35</v>
@@ -7964,10 +8238,10 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>35</v>
@@ -7978,10 +8252,10 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B328" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="B328" s="12" t="s">
-        <v>612</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>32</v>
@@ -7992,10 +8266,10 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1">
       <c r="A329" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B329" s="12" t="s">
         <v>613</v>
-      </c>
-      <c r="B329" s="12" t="s">
-        <v>614</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>33</v>
@@ -8006,7 +8280,7 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B330" s="12" t="s">
         <v>166</v>
@@ -8020,10 +8294,10 @@
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>56</v>
@@ -8034,7 +8308,7 @@
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B332" s="12" t="s">
         <v>167</v>
@@ -8048,10 +8322,10 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>201</v>
@@ -8062,10 +8336,10 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>56</v>
@@ -8076,7 +8350,7 @@
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B335" s="12" t="s">
         <v>279</v>
@@ -8090,10 +8364,10 @@
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>201</v>
@@ -8104,10 +8378,10 @@
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>32</v>
@@ -8118,10 +8392,10 @@
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>31</v>
@@ -8132,7 +8406,7 @@
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B339" s="12" t="s">
         <v>48</v>
@@ -8146,10 +8420,10 @@
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>56</v>
@@ -8160,10 +8434,10 @@
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>33</v>
@@ -8174,10 +8448,10 @@
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>33</v>
@@ -8188,10 +8462,10 @@
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>33</v>
@@ -8202,10 +8476,10 @@
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>33</v>
@@ -8216,10 +8490,10 @@
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>33</v>
@@ -8230,10 +8504,10 @@
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1">
       <c r="A346" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B346" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>634</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>33</v>
@@ -8244,10 +8518,10 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>33</v>
@@ -8258,10 +8532,10 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>33</v>
@@ -8272,10 +8546,10 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>56</v>
@@ -8286,10 +8560,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>56</v>
@@ -8300,10 +8574,10 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>56</v>
@@ -8314,10 +8588,10 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>56</v>
@@ -8328,10 +8602,10 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B353" s="12" t="s">
         <v>644</v>
-      </c>
-      <c r="B353" s="12" t="s">
-        <v>645</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>26</v>
@@ -8339,13 +8613,13 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="C354" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>26</v>
@@ -8353,10 +8627,10 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>32</v>
@@ -8367,10 +8641,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>32</v>
@@ -8381,10 +8655,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B357" s="12" t="s">
         <v>652</v>
-      </c>
-      <c r="B357" s="12" t="s">
-        <v>653</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>117</v>
@@ -8395,10 +8669,10 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B358" s="12" t="s">
         <v>654</v>
-      </c>
-      <c r="B358" s="12" t="s">
-        <v>655</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>117</v>
@@ -8409,10 +8683,10 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>117</v>
@@ -8423,10 +8697,10 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B360" s="12" t="s">
         <v>658</v>
-      </c>
-      <c r="B360" s="12" t="s">
-        <v>659</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>51</v>
@@ -8437,10 +8711,10 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>32</v>
@@ -8451,10 +8725,10 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B362" s="12" t="s">
         <v>661</v>
-      </c>
-      <c r="B362" s="12" t="s">
-        <v>662</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>32</v>
@@ -8465,10 +8739,10 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>32</v>
@@ -8479,10 +8753,10 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>32</v>
@@ -8493,10 +8767,10 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>32</v>
@@ -8507,10 +8781,10 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>56</v>
@@ -8521,10 +8795,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>127</v>
@@ -8535,10 +8809,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B368" s="12" t="s">
         <v>669</v>
-      </c>
-      <c r="B368" s="12" t="s">
-        <v>670</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>127</v>
@@ -8549,10 +8823,10 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>127</v>
@@ -8563,10 +8837,10 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>127</v>
@@ -8577,10 +8851,10 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B371" s="12" t="s">
         <v>673</v>
-      </c>
-      <c r="B371" s="12" t="s">
-        <v>674</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>127</v>
@@ -8591,10 +8865,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B372" s="12" t="s">
         <v>675</v>
-      </c>
-      <c r="B372" s="12" t="s">
-        <v>676</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>127</v>
@@ -8605,10 +8879,10 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>127</v>
@@ -8619,10 +8893,10 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B374" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="B374" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>127</v>
@@ -8633,10 +8907,10 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>127</v>
@@ -8647,10 +8921,10 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B376" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="B376" s="12" t="s">
-        <v>682</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>127</v>
@@ -8661,10 +8935,10 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>127</v>
@@ -8675,10 +8949,10 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>127</v>
@@ -8689,10 +8963,10 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>127</v>
@@ -8703,10 +8977,10 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>127</v>
@@ -8717,10 +8991,10 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>127</v>
@@ -8731,10 +9005,10 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>201</v>
@@ -8745,10 +9019,10 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B383" s="12" t="s">
         <v>690</v>
-      </c>
-      <c r="B383" s="12" t="s">
-        <v>691</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>33</v>
@@ -8759,10 +9033,10 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B384" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="B384" s="12" t="s">
-        <v>694</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>32</v>
@@ -8773,10 +9047,10 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>32</v>
@@ -8787,7 +9061,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B386" s="12" t="s">
         <v>66</v>
@@ -8801,10 +9075,10 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>32</v>
@@ -8815,10 +9089,10 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B388" s="12" t="s">
         <v>697</v>
-      </c>
-      <c r="B388" s="12" t="s">
-        <v>698</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>32</v>
@@ -8829,7 +9103,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B389" s="12" t="s">
         <v>141</v>
@@ -8843,7 +9117,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B390" s="12" t="s">
         <v>141</v>
@@ -8857,7 +9131,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>141</v>
@@ -8871,7 +9145,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>141</v>
@@ -8885,7 +9159,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>141</v>
@@ -8899,7 +9173,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B394" s="12" t="s">
         <v>141</v>
@@ -8913,10 +9187,10 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>201</v>
@@ -8927,10 +9201,10 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B396" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>201</v>
@@ -8941,10 +9215,10 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B397" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>201</v>
@@ -8955,10 +9229,10 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B398" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>201</v>
@@ -8969,10 +9243,10 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B399" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>51</v>
@@ -8983,10 +9257,10 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B400" s="12" t="s">
         <v>714</v>
-      </c>
-      <c r="B400" s="12" t="s">
-        <v>715</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>51</v>
@@ -8997,10 +9271,10 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B401" s="12" t="s">
         <v>716</v>
-      </c>
-      <c r="B401" s="12" t="s">
-        <v>717</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>123</v>
@@ -9011,10 +9285,10 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B402" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>123</v>
@@ -9025,10 +9299,10 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B403" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>123</v>
@@ -9039,10 +9313,10 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>32</v>
@@ -9053,10 +9327,10 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B405" s="12" t="s">
         <v>723</v>
-      </c>
-      <c r="B405" s="12" t="s">
-        <v>724</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>127</v>
@@ -9067,10 +9341,10 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B406" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>127</v>
@@ -9081,10 +9355,10 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B407" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>127</v>
@@ -9095,10 +9369,10 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B408" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>127</v>
@@ -9109,10 +9383,10 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B409" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>127</v>
@@ -9123,10 +9397,10 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>127</v>
@@ -9137,10 +9411,10 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B411" s="12" t="s">
         <v>728</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>729</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>51</v>
@@ -9151,10 +9425,10 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B412" s="12" t="s">
         <v>730</v>
-      </c>
-      <c r="B412" s="12" t="s">
-        <v>731</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>201</v>
@@ -9165,10 +9439,10 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B413" s="12" t="s">
         <v>732</v>
-      </c>
-      <c r="B413" s="12" t="s">
-        <v>733</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>123</v>
@@ -9179,10 +9453,10 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B414" s="12" t="s">
         <v>734</v>
-      </c>
-      <c r="B414" s="12" t="s">
-        <v>735</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>123</v>
@@ -9193,10 +9467,10 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B415" s="12" t="s">
         <v>736</v>
-      </c>
-      <c r="B415" s="12" t="s">
-        <v>737</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>201</v>
@@ -9207,7 +9481,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B416" s="12" t="s">
         <v>235</v>
@@ -9221,10 +9495,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>33</v>
@@ -9235,10 +9509,10 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B418" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>123</v>
@@ -9249,10 +9523,10 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B419" s="12" t="s">
         <v>742</v>
-      </c>
-      <c r="B419" s="12" t="s">
-        <v>743</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>123</v>
@@ -9263,10 +9537,10 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>127</v>
@@ -9277,10 +9551,10 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>123</v>
@@ -9291,10 +9565,10 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>56</v>
@@ -9305,10 +9579,10 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>127</v>
@@ -9319,10 +9593,10 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>127</v>
@@ -9333,10 +9607,10 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>127</v>
@@ -9347,10 +9621,10 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>31</v>
@@ -9361,10 +9635,10 @@
     </row>
     <row r="427" spans="1:4" ht="72.5">
       <c r="A427" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B427" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>123</v>
@@ -9375,10 +9649,10 @@
     </row>
     <row r="428" spans="1:4" ht="72.5">
       <c r="A428" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>123</v>
@@ -9389,10 +9663,10 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B429" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>123</v>
@@ -9403,10 +9677,10 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B430" s="12" t="s">
         <v>760</v>
-      </c>
-      <c r="B430" s="12" t="s">
-        <v>761</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>123</v>
@@ -9417,10 +9691,10 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B431" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>123</v>
@@ -9430,224 +9704,771 @@
       </c>
     </row>
     <row r="432" spans="1:4">
-      <c r="A432" s="1"/>
-      <c r="D432" s="1"/>
+      <c r="A432" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="1"/>
-      <c r="D433" s="1"/>
+      <c r="A433" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B433" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="1"/>
-      <c r="D434" s="1"/>
+      <c r="A434" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="1"/>
-      <c r="D435" s="1"/>
+      <c r="A435" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="1"/>
-      <c r="D436" s="1"/>
+      <c r="A436" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B436" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="1"/>
-      <c r="D437" s="1"/>
+      <c r="A437" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B437" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="1"/>
-      <c r="D438" s="1"/>
+      <c r="A438" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B438" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="439" spans="1:4">
-      <c r="A439" s="1"/>
-      <c r="D439" s="1"/>
+      <c r="A439" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B439" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="440" spans="1:4">
-      <c r="A440" s="1"/>
-      <c r="D440" s="1"/>
+      <c r="A440" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="1"/>
-      <c r="D441" s="1"/>
+      <c r="A441" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B441" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="1"/>
-      <c r="D442" s="1"/>
+      <c r="A442" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="443" spans="1:4">
-      <c r="A443" s="1"/>
-      <c r="D443" s="1"/>
+      <c r="A443" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="1"/>
-      <c r="D444" s="1"/>
+      <c r="A444" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="1"/>
-      <c r="D445" s="1"/>
+      <c r="A445" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B445" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="1"/>
-      <c r="D446" s="1"/>
+      <c r="A446" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B446" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="1"/>
-      <c r="D447" s="1"/>
+      <c r="A447" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B447" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="1"/>
-      <c r="D448" s="1"/>
+      <c r="A448" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B448" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="1"/>
-      <c r="D449" s="1"/>
+      <c r="A449" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B449" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="1"/>
-      <c r="D450" s="1"/>
+      <c r="A450" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B450" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="1"/>
-      <c r="D451" s="1"/>
+      <c r="A451" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B451" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="1"/>
-      <c r="D452" s="1"/>
+      <c r="A452" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="1"/>
-      <c r="D453" s="1"/>
+      <c r="A453" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="1"/>
-      <c r="D454" s="1"/>
+      <c r="A454" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="1"/>
-      <c r="D455" s="1"/>
+      <c r="A455" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B455" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="1"/>
-      <c r="D456" s="1"/>
+      <c r="A456" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="1"/>
-      <c r="D457" s="1"/>
+      <c r="A457" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B457" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="1"/>
-      <c r="D458" s="1"/>
+      <c r="A458" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B458" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="459" spans="1:4">
-      <c r="A459" s="1"/>
-      <c r="D459" s="1"/>
+      <c r="A459" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B459" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="460" spans="1:4">
-      <c r="A460" s="1"/>
-      <c r="D460" s="1"/>
+      <c r="A460" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B460" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="461" spans="1:4">
-      <c r="A461" s="1"/>
-      <c r="D461" s="1"/>
+      <c r="A461" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B461" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="1"/>
-      <c r="D462" s="1"/>
+      <c r="A462" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B462" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="1"/>
-      <c r="D463" s="1"/>
+      <c r="A463" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B463" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="1"/>
-      <c r="D464" s="1"/>
+      <c r="A464" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B464" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="1"/>
-      <c r="D465" s="1"/>
+      <c r="A465" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B465" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="1"/>
-      <c r="D466" s="1"/>
+      <c r="A466" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="1"/>
-      <c r="D467" s="1"/>
+      <c r="A467" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B467" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="1"/>
-      <c r="D468" s="1"/>
+      <c r="A468" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B468" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="1"/>
-      <c r="D469" s="1"/>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="1"/>
-      <c r="D470" s="1"/>
+      <c r="A469" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="17.5" customHeight="1">
+      <c r="A470" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B470" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="1"/>
-      <c r="D471" s="1"/>
+      <c r="A471" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B471" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="1"/>
-      <c r="D472" s="1"/>
+      <c r="A472" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="473" spans="1:4">
-      <c r="A473" s="1"/>
-      <c r="D473" s="1"/>
+      <c r="A473" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B473" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="474" spans="1:4">
-      <c r="A474" s="1"/>
-      <c r="D474" s="1"/>
+      <c r="A474" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B474" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="1"/>
-      <c r="D475" s="1"/>
+      <c r="A475" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B475" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="1"/>
-      <c r="D476" s="1"/>
+      <c r="A476" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B476" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="1"/>
-      <c r="D477" s="1"/>
+      <c r="A477" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B477" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="1"/>
-      <c r="D478" s="1"/>
+      <c r="A478" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="1"/>
-      <c r="D479" s="1"/>
+      <c r="A479" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B479" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="1"/>
-      <c r="D480" s="1"/>
+      <c r="A480" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B480" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="1"/>
-      <c r="D481" s="1"/>
+      <c r="A481" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="1"/>
-      <c r="D482" s="1"/>
+      <c r="A482" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="1"/>
-      <c r="D483" s="1"/>
+      <c r="A483" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="1"/>
-      <c r="D484" s="1"/>
+      <c r="A484" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B484" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="1"/>
-      <c r="D485" s="1"/>
+      <c r="A485" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B485" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="1"/>
-      <c r="D486" s="1"/>
+      <c r="A486" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B486" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1"/>
@@ -47662,7 +48483,7 @@
       <c r="D9989" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D431" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D485" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
@@ -47981,12 +48802,58 @@
     <hyperlink ref="B429" r:id="rId276" xr:uid="{8A21E637-A51F-45A7-9F4B-45A0B84AA672}"/>
     <hyperlink ref="B430" r:id="rId277" xr:uid="{CA40BD1E-94BF-456E-92C4-48591712F27B}"/>
     <hyperlink ref="B431" r:id="rId278" xr:uid="{783F305C-64D1-4267-AED1-930CEB9C76AD}"/>
+    <hyperlink ref="B432" r:id="rId279" xr:uid="{C9FBF0A0-3782-4A9A-87C1-D24399E572DB}"/>
+    <hyperlink ref="B433" r:id="rId280" xr:uid="{2C6503FD-E031-4631-A77C-9A8BF17E563E}"/>
+    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{6D3581B2-0A38-4876-98AD-56D18ECF0E8F}"/>
+    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{E53D5D56-5471-440C-9B4F-800D2D31C846}"/>
+    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{33A138CE-D5E4-4DB4-B763-08E45B6772DE}"/>
+    <hyperlink ref="B439" r:id="rId284" xr:uid="{431155E6-D195-47E4-9AF9-B3DE3462222D}"/>
+    <hyperlink ref="B441" r:id="rId285" xr:uid="{BE773164-83FE-4794-9678-713E4940E68F}"/>
+    <hyperlink ref="B442" r:id="rId286" xr:uid="{3CEFA3FA-C03D-4967-A4E1-6D9827E81180}"/>
+    <hyperlink ref="B443" r:id="rId287" xr:uid="{4763D4AC-D6A5-414A-BB83-66FE07BD0988}"/>
+    <hyperlink ref="B444" r:id="rId288" xr:uid="{5910F8C8-F0D6-4812-9CDD-73E692CBF84E}"/>
+    <hyperlink ref="B445" r:id="rId289" xr:uid="{68A27682-DCD6-4F6D-91E0-9046D6AE9B41}"/>
+    <hyperlink ref="B446" r:id="rId290" xr:uid="{0B2D8634-805C-411C-AD45-3A3D7CA5CA20}"/>
+    <hyperlink ref="B447" r:id="rId291" xr:uid="{80F72DAB-138C-4685-AA12-A69FD0B24347}"/>
+    <hyperlink ref="B448" r:id="rId292" xr:uid="{A8C8DE87-4362-439F-BF5E-EA9461C000AA}"/>
+    <hyperlink ref="B449" r:id="rId293" xr:uid="{C94C5006-2272-4899-A7F0-D2655BCE1ADB}"/>
+    <hyperlink ref="B450" r:id="rId294" xr:uid="{5E15790A-F91B-4478-B49F-20DFB54D2B29}"/>
+    <hyperlink ref="B451" r:id="rId295" xr:uid="{DF548003-E918-499B-9042-5C7BF1C6EE41}"/>
+    <hyperlink ref="B452" r:id="rId296" xr:uid="{3C1D0DEC-B3F7-443E-9BFB-982775A8328C}"/>
+    <hyperlink ref="B453" r:id="rId297" xr:uid="{E2FAAD11-6768-4342-8B03-3FA290C0B788}"/>
+    <hyperlink ref="B454" r:id="rId298" xr:uid="{A0AFCE3E-9671-4DFC-B50C-7351EBAE6700}"/>
+    <hyperlink ref="B455" r:id="rId299" xr:uid="{20D88159-8104-4417-B61F-8FE8EA50EA92}"/>
+    <hyperlink ref="B456" r:id="rId300" xr:uid="{47513BE4-03F1-4F2F-B4A4-FBE6C3E5878B}"/>
+    <hyperlink ref="B457" r:id="rId301" xr:uid="{2D183776-EE1D-4778-B0F9-8607171F3912}"/>
+    <hyperlink ref="B458" r:id="rId302" xr:uid="{81704A1B-1B36-4E33-A5DD-83FDFD07EBAD}"/>
+    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{7C177AF8-FB5F-403C-83F6-8321EFE4105B}"/>
+    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{7E311857-DF87-43A9-AD50-3D892D2C4D00}"/>
+    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display" xr:uid="{7B8A74AA-C537-4A46-8737-B0579F150512}"/>
+    <hyperlink ref="B462" r:id="rId306" xr:uid="{5F231DE0-16DB-4988-9B7E-FEB161801697}"/>
+    <hyperlink ref="B463" r:id="rId307" xr:uid="{3C200A2F-8372-4FA3-BB72-56C8D85A700E}"/>
+    <hyperlink ref="B464" r:id="rId308" xr:uid="{1A9116B9-F636-4891-B52C-18047EF5E652}"/>
+    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com" xr:uid="{CF751A7D-28F4-4EE9-8C73-025A8D6B8EF5}"/>
+    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{81D49FDC-527A-457F-91CF-BCBC5774761A}"/>
+    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{B1842729-30A4-488D-8B1F-27865B6D35E8}"/>
+    <hyperlink ref="B469" r:id="rId312" xr:uid="{1C973E10-CB85-4D58-A3D9-02274E127B08}"/>
+    <hyperlink ref="B471" r:id="rId313" xr:uid="{90D08D8F-1C99-4930-A666-D82F96F83F33}"/>
+    <hyperlink ref="B473" r:id="rId314" xr:uid="{8BBC36BD-8D7A-4C82-BAFB-EE351D1B8C36}"/>
+    <hyperlink ref="B474" r:id="rId315" xr:uid="{FDA454B7-876C-401B-A081-28CEFA80B0DA}"/>
+    <hyperlink ref="B475" r:id="rId316" xr:uid="{125F55EB-10B8-45E7-96EA-FE822468F62C}"/>
+    <hyperlink ref="B476" r:id="rId317" xr:uid="{0A8B6650-4018-4737-8210-AEBDB8C23E11}"/>
+    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{E8745A05-4CEA-4C62-9EB5-05EA5A02694B}"/>
+    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{A02BDC58-9BC7-4EEB-AE89-7A8F05C8B81A}"/>
+    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{423646F6-D236-410F-9C39-F882505D09D6}"/>
+    <hyperlink ref="B480" r:id="rId321" xr:uid="{BFD3D358-7B69-4BBE-8AF0-AB609B431670}"/>
+    <hyperlink ref="B484" r:id="rId322" xr:uid="{27069D77-595B-4575-8191-029ECA0CBEDF}"/>
+    <hyperlink ref="B485" r:id="rId323" xr:uid="{7FE4B831-BB1D-4394-8630-3D90EC986C07}"/>
+    <hyperlink ref="B486" r:id="rId324" xr:uid="{EC076AE4-F7A3-4C5F-9490-856CE13CA761}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId279"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId325"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId280"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId281"/>
+    <customPr name="_pios_id" r:id="rId326"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId327"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -48033,7 +48900,7 @@
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C1048576</xm:sqref>
+          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C431 C436:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -48157,7 +49024,7 @@
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -48201,7 +49068,7 @@
     <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -48213,7 +49080,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6A38E-D5A3-4820-BB26-9263038585DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89371170-F008-427B-BC92-61FAA7345CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="855">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -2886,6 +2886,9 @@
   </si>
   <si>
     <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\92 APPLICATION ACCESS\15 COGNOS</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -3549,8 +3552,8 @@
   <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="8" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B486" sqref="B486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -9734,6 +9737,9 @@
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
         <v>767</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>31</v>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89371170-F008-427B-BC92-61FAA7345CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9609D2-BF7D-456B-8431-997CA1E523FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$485</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$486</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="858">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -2889,6 +2889,15 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>KPI Tableau</t>
+  </si>
+  <si>
+    <t>https://tableau.bi.alconcloud.com/#/site/FRAGlobal/workbooks/8033/views</t>
+  </si>
+  <si>
+    <t>FRA KPI Tableau</t>
   </si>
 </sst>
 </file>
@@ -3552,8 +3561,8 @@
   <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B486" sqref="B486"/>
+      <pane ySplit="8" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3613,7 +3622,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -3744,7 +3753,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -10477,12 +10486,32 @@
       </c>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="1"/>
-      <c r="D487" s="1"/>
+      <c r="A487" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B487" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="1"/>
-      <c r="D488" s="1"/>
+      <c r="A488" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B488" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1"/>
@@ -48489,7 +48518,7 @@
       <c r="D9989" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D485" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D486" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
@@ -48854,12 +48883,14 @@
     <hyperlink ref="B484" r:id="rId322" xr:uid="{27069D77-595B-4575-8191-029ECA0CBEDF}"/>
     <hyperlink ref="B485" r:id="rId323" xr:uid="{7FE4B831-BB1D-4394-8630-3D90EC986C07}"/>
     <hyperlink ref="B486" r:id="rId324" xr:uid="{EC076AE4-F7A3-4C5F-9490-856CE13CA761}"/>
+    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{45D05C47-B66F-4AFE-8400-89C4B056679A}"/>
+    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{05342276-7BF8-446A-8757-ACF9F57C52AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId325"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId327"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId326"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId327"/>
+    <customPr name="_pios_id" r:id="rId328"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId329"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9609D2-BF7D-456B-8431-997CA1E523FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,9 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$486</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$494</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="870">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -2899,11 +2898,48 @@
   <si>
     <t>FRA KPI Tableau</t>
   </si>
+  <si>
+    <t>GRC training</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\GRC\GRC Training.docx</t>
+  </si>
+  <si>
+    <t>YE Closing Calendar</t>
+  </si>
+  <si>
+    <t>GR Awaiting List</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SRM\GR Awaiting list.mp4</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\T&amp;E\CBCP Clearing account.mp4</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\T&amp;E\Unasigned Card Transactions.mp4</t>
+  </si>
+  <si>
+    <t>Pillar Model</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\PILLAR MODEL</t>
+  </si>
+  <si>
+    <t>Downpayment Note</t>
+  </si>
+  <si>
+    <t>Downpayment Case Study</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\01  AP\01  AP Job Aid
+File : Downpayment Notes (cases study)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -3557,12 +3593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A489" sqref="A489"/>
+      <pane ySplit="8" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A495" sqref="A495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3622,7 +3658,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -3643,7 +3679,7 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="29"/>
     </row>
@@ -3731,7 +3767,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -3753,7 +3789,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -10514,36 +10550,116 @@
       </c>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="1"/>
-      <c r="D489" s="1"/>
+      <c r="A489" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B489" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="1"/>
-      <c r="D490" s="1"/>
+      <c r="A490" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B490" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="1"/>
-      <c r="D491" s="1"/>
+      <c r="A491" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B491" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="1"/>
-      <c r="D492" s="1"/>
+      <c r="A492" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B492" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="1"/>
-      <c r="D493" s="1"/>
+      <c r="A493" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B493" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="1"/>
-      <c r="D494" s="1"/>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="1"/>
-      <c r="D495" s="1"/>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="1"/>
-      <c r="D496" s="1"/>
+      <c r="A494" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B494" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="58">
+      <c r="A495" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B495" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="58">
+      <c r="A496" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B496" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1"/>
@@ -48518,7 +48634,7 @@
       <c r="D9989" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D486" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D494"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
@@ -48552,345 +48668,351 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>$F$2:$F$9</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B68" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B70" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B72" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B73" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B99" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B100" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B101" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B102" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B103" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B104" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B105" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B106" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B107" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B108" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B109" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B111" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B112" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B114" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B115" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B116" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B117" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B118" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B119" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B120" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B121" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B123" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B124" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B125" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B126" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B128" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B129" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B130" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B131" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B132" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B133" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B134" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B135" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B136" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B137" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B138" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B139" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B140" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B141" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B142" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B143" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A146" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B149" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B158" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B161" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B162" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B168" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B169" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B170" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B171" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B179" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B181" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B5" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B6" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B7" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B23" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B182" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B183" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B185" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B186" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B187" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B188" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B189" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B190" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B191" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B192" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B193" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B194" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B197" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B198" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B199" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B201" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B202" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B203" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B204" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B205" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B206" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B207" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B208" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B209" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B210" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B240" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B241" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B242" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B243" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B246" r:id="rId134" location="a-02" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B247" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B259" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B274" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B275" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B276" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B277" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B278" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B280" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B281" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B282" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B283" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B284" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B285" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B286" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B287" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B288" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B289" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B290" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B291" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B292" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B293" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B294" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B295" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B296" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B297" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B298" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B299" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B300" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B301" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B302" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B308" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B309" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B310" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B311" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B312" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B313" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B314" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B315" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B316" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B317" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B318" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B319" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B320" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B321" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B322" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B323" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B324" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B325" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B326" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B327" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B328" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B329" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B330" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B331" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B332" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B333" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B334" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B335" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B336" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B338" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B340" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B343" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B344" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B345" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B346" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B347" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B348" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B349" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B350" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B351" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B352" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B353" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B355" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B356" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B357" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B358" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B359" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B360" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B361" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B362" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B363" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B364" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B365" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B366" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B367" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B368" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B369" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B372" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B373" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B374" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B375" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B376" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B377" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B378" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B379" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B380" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B381" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B383" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B384" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B385" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B386" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B387" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B388" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B58" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B57" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B395" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B396" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B397" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B398" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B399" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B400" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B401" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B402" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B403" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B405" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B406" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B407" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B408" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B409" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B410" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B411" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B412" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B413" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B414" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B415" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B416" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B417" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B418" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B419" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B421" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B429" r:id="rId276" xr:uid="{8A21E637-A51F-45A7-9F4B-45A0B84AA672}"/>
-    <hyperlink ref="B430" r:id="rId277" xr:uid="{CA40BD1E-94BF-456E-92C4-48591712F27B}"/>
-    <hyperlink ref="B431" r:id="rId278" xr:uid="{783F305C-64D1-4267-AED1-930CEB9C76AD}"/>
-    <hyperlink ref="B432" r:id="rId279" xr:uid="{C9FBF0A0-3782-4A9A-87C1-D24399E572DB}"/>
-    <hyperlink ref="B433" r:id="rId280" xr:uid="{2C6503FD-E031-4631-A77C-9A8BF17E563E}"/>
-    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{6D3581B2-0A38-4876-98AD-56D18ECF0E8F}"/>
-    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{E53D5D56-5471-440C-9B4F-800D2D31C846}"/>
-    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{33A138CE-D5E4-4DB4-B763-08E45B6772DE}"/>
-    <hyperlink ref="B439" r:id="rId284" xr:uid="{431155E6-D195-47E4-9AF9-B3DE3462222D}"/>
-    <hyperlink ref="B441" r:id="rId285" xr:uid="{BE773164-83FE-4794-9678-713E4940E68F}"/>
-    <hyperlink ref="B442" r:id="rId286" xr:uid="{3CEFA3FA-C03D-4967-A4E1-6D9827E81180}"/>
-    <hyperlink ref="B443" r:id="rId287" xr:uid="{4763D4AC-D6A5-414A-BB83-66FE07BD0988}"/>
-    <hyperlink ref="B444" r:id="rId288" xr:uid="{5910F8C8-F0D6-4812-9CDD-73E692CBF84E}"/>
-    <hyperlink ref="B445" r:id="rId289" xr:uid="{68A27682-DCD6-4F6D-91E0-9046D6AE9B41}"/>
-    <hyperlink ref="B446" r:id="rId290" xr:uid="{0B2D8634-805C-411C-AD45-3A3D7CA5CA20}"/>
-    <hyperlink ref="B447" r:id="rId291" xr:uid="{80F72DAB-138C-4685-AA12-A69FD0B24347}"/>
-    <hyperlink ref="B448" r:id="rId292" xr:uid="{A8C8DE87-4362-439F-BF5E-EA9461C000AA}"/>
-    <hyperlink ref="B449" r:id="rId293" xr:uid="{C94C5006-2272-4899-A7F0-D2655BCE1ADB}"/>
-    <hyperlink ref="B450" r:id="rId294" xr:uid="{5E15790A-F91B-4478-B49F-20DFB54D2B29}"/>
-    <hyperlink ref="B451" r:id="rId295" xr:uid="{DF548003-E918-499B-9042-5C7BF1C6EE41}"/>
-    <hyperlink ref="B452" r:id="rId296" xr:uid="{3C1D0DEC-B3F7-443E-9BFB-982775A8328C}"/>
-    <hyperlink ref="B453" r:id="rId297" xr:uid="{E2FAAD11-6768-4342-8B03-3FA290C0B788}"/>
-    <hyperlink ref="B454" r:id="rId298" xr:uid="{A0AFCE3E-9671-4DFC-B50C-7351EBAE6700}"/>
-    <hyperlink ref="B455" r:id="rId299" xr:uid="{20D88159-8104-4417-B61F-8FE8EA50EA92}"/>
-    <hyperlink ref="B456" r:id="rId300" xr:uid="{47513BE4-03F1-4F2F-B4A4-FBE6C3E5878B}"/>
-    <hyperlink ref="B457" r:id="rId301" xr:uid="{2D183776-EE1D-4778-B0F9-8607171F3912}"/>
-    <hyperlink ref="B458" r:id="rId302" xr:uid="{81704A1B-1B36-4E33-A5DD-83FDFD07EBAD}"/>
-    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{7C177AF8-FB5F-403C-83F6-8321EFE4105B}"/>
-    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{7E311857-DF87-43A9-AD50-3D892D2C4D00}"/>
-    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display" xr:uid="{7B8A74AA-C537-4A46-8737-B0579F150512}"/>
-    <hyperlink ref="B462" r:id="rId306" xr:uid="{5F231DE0-16DB-4988-9B7E-FEB161801697}"/>
-    <hyperlink ref="B463" r:id="rId307" xr:uid="{3C200A2F-8372-4FA3-BB72-56C8D85A700E}"/>
-    <hyperlink ref="B464" r:id="rId308" xr:uid="{1A9116B9-F636-4891-B52C-18047EF5E652}"/>
-    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com" xr:uid="{CF751A7D-28F4-4EE9-8C73-025A8D6B8EF5}"/>
-    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{81D49FDC-527A-457F-91CF-BCBC5774761A}"/>
-    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{B1842729-30A4-488D-8B1F-27865B6D35E8}"/>
-    <hyperlink ref="B469" r:id="rId312" xr:uid="{1C973E10-CB85-4D58-A3D9-02274E127B08}"/>
-    <hyperlink ref="B471" r:id="rId313" xr:uid="{90D08D8F-1C99-4930-A666-D82F96F83F33}"/>
-    <hyperlink ref="B473" r:id="rId314" xr:uid="{8BBC36BD-8D7A-4C82-BAFB-EE351D1B8C36}"/>
-    <hyperlink ref="B474" r:id="rId315" xr:uid="{FDA454B7-876C-401B-A081-28CEFA80B0DA}"/>
-    <hyperlink ref="B475" r:id="rId316" xr:uid="{125F55EB-10B8-45E7-96EA-FE822468F62C}"/>
-    <hyperlink ref="B476" r:id="rId317" xr:uid="{0A8B6650-4018-4737-8210-AEBDB8C23E11}"/>
-    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{E8745A05-4CEA-4C62-9EB5-05EA5A02694B}"/>
-    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{A02BDC58-9BC7-4EEB-AE89-7A8F05C8B81A}"/>
-    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{423646F6-D236-410F-9C39-F882505D09D6}"/>
-    <hyperlink ref="B480" r:id="rId321" xr:uid="{BFD3D358-7B69-4BBE-8AF0-AB609B431670}"/>
-    <hyperlink ref="B484" r:id="rId322" xr:uid="{27069D77-595B-4575-8191-029ECA0CBEDF}"/>
-    <hyperlink ref="B485" r:id="rId323" xr:uid="{7FE4B831-BB1D-4394-8630-3D90EC986C07}"/>
-    <hyperlink ref="B486" r:id="rId324" xr:uid="{EC076AE4-F7A3-4C5F-9490-856CE13CA761}"/>
-    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{45D05C47-B66F-4AFE-8400-89C4B056679A}"/>
-    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{05342276-7BF8-446A-8757-ACF9F57C52AD}"/>
+    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B28" r:id="rId15"/>
+    <hyperlink ref="B29" r:id="rId16"/>
+    <hyperlink ref="B30" r:id="rId17"/>
+    <hyperlink ref="B31" r:id="rId18"/>
+    <hyperlink ref="B33" r:id="rId19"/>
+    <hyperlink ref="B34" r:id="rId20"/>
+    <hyperlink ref="B36" r:id="rId21"/>
+    <hyperlink ref="B37" r:id="rId22"/>
+    <hyperlink ref="B38" r:id="rId23"/>
+    <hyperlink ref="B39" r:id="rId24"/>
+    <hyperlink ref="B40" r:id="rId25"/>
+    <hyperlink ref="B41" r:id="rId26"/>
+    <hyperlink ref="B42" r:id="rId27"/>
+    <hyperlink ref="B44" r:id="rId28"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
+    <hyperlink ref="B61" r:id="rId31"/>
+    <hyperlink ref="B62" r:id="rId32"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
+    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;"/>
+    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
+    <hyperlink ref="B68" r:id="rId37"/>
+    <hyperlink ref="B69" r:id="rId38"/>
+    <hyperlink ref="B70" r:id="rId39"/>
+    <hyperlink ref="B71" r:id="rId40"/>
+    <hyperlink ref="B72" r:id="rId41"/>
+    <hyperlink ref="B73" r:id="rId42"/>
+    <hyperlink ref="B99" r:id="rId43"/>
+    <hyperlink ref="B100" r:id="rId44"/>
+    <hyperlink ref="B101" r:id="rId45"/>
+    <hyperlink ref="B102" r:id="rId46"/>
+    <hyperlink ref="B103" r:id="rId47"/>
+    <hyperlink ref="B104" r:id="rId48"/>
+    <hyperlink ref="B105" r:id="rId49"/>
+    <hyperlink ref="B106" r:id="rId50"/>
+    <hyperlink ref="B107" r:id="rId51"/>
+    <hyperlink ref="B108" r:id="rId52"/>
+    <hyperlink ref="B109" r:id="rId53"/>
+    <hyperlink ref="B111" r:id="rId54"/>
+    <hyperlink ref="B112" r:id="rId55"/>
+    <hyperlink ref="B114" r:id="rId56"/>
+    <hyperlink ref="B115" r:id="rId57"/>
+    <hyperlink ref="B116" r:id="rId58"/>
+    <hyperlink ref="B117" r:id="rId59"/>
+    <hyperlink ref="B118" r:id="rId60"/>
+    <hyperlink ref="B119" r:id="rId61"/>
+    <hyperlink ref="B120" r:id="rId62"/>
+    <hyperlink ref="B121" r:id="rId63"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
+    <hyperlink ref="B113" r:id="rId64"/>
+    <hyperlink ref="B123" r:id="rId65"/>
+    <hyperlink ref="B124" r:id="rId66"/>
+    <hyperlink ref="B125" r:id="rId67"/>
+    <hyperlink ref="B126" r:id="rId68"/>
+    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
+    <hyperlink ref="B128" r:id="rId70"/>
+    <hyperlink ref="B110" r:id="rId71"/>
+    <hyperlink ref="B129" r:id="rId72"/>
+    <hyperlink ref="B130" r:id="rId73"/>
+    <hyperlink ref="B131" r:id="rId74"/>
+    <hyperlink ref="B132" r:id="rId75"/>
+    <hyperlink ref="B133" r:id="rId76"/>
+    <hyperlink ref="B134" r:id="rId77"/>
+    <hyperlink ref="B135" r:id="rId78"/>
+    <hyperlink ref="B136" r:id="rId79"/>
+    <hyperlink ref="B137" r:id="rId80"/>
+    <hyperlink ref="B138" r:id="rId81"/>
+    <hyperlink ref="B139" r:id="rId82"/>
+    <hyperlink ref="B140" r:id="rId83"/>
+    <hyperlink ref="B141" r:id="rId84"/>
+    <hyperlink ref="B142" r:id="rId85"/>
+    <hyperlink ref="B143" r:id="rId86"/>
+    <hyperlink ref="A146" r:id="rId87"/>
+    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
+    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304"/>
+    <hyperlink ref="B149" r:id="rId90"/>
+    <hyperlink ref="B158" r:id="rId91"/>
+    <hyperlink ref="B161" r:id="rId92"/>
+    <hyperlink ref="B162" r:id="rId93"/>
+    <hyperlink ref="B168" r:id="rId94"/>
+    <hyperlink ref="B169" r:id="rId95"/>
+    <hyperlink ref="B170" r:id="rId96"/>
+    <hyperlink ref="B171" r:id="rId97"/>
+    <hyperlink ref="B179" r:id="rId98"/>
+    <hyperlink ref="B181" r:id="rId99"/>
+    <hyperlink ref="B5" r:id="rId100"/>
+    <hyperlink ref="B6" r:id="rId101"/>
+    <hyperlink ref="B7" r:id="rId102"/>
+    <hyperlink ref="B23" r:id="rId103"/>
+    <hyperlink ref="B182" r:id="rId104"/>
+    <hyperlink ref="B183" r:id="rId105"/>
+    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true"/>
+    <hyperlink ref="B185" r:id="rId107"/>
+    <hyperlink ref="B186" r:id="rId108"/>
+    <hyperlink ref="B187" r:id="rId109"/>
+    <hyperlink ref="B188" r:id="rId110"/>
+    <hyperlink ref="B189" r:id="rId111"/>
+    <hyperlink ref="B190" r:id="rId112"/>
+    <hyperlink ref="B191" r:id="rId113"/>
+    <hyperlink ref="B192" r:id="rId114"/>
+    <hyperlink ref="B193" r:id="rId115"/>
+    <hyperlink ref="B194" r:id="rId116"/>
+    <hyperlink ref="B197" r:id="rId117"/>
+    <hyperlink ref="B198" r:id="rId118"/>
+    <hyperlink ref="B199" r:id="rId119"/>
+    <hyperlink ref="B201" r:id="rId120"/>
+    <hyperlink ref="B202" r:id="rId121"/>
+    <hyperlink ref="B203" r:id="rId122"/>
+    <hyperlink ref="B204" r:id="rId123"/>
+    <hyperlink ref="B205" r:id="rId124"/>
+    <hyperlink ref="B206" r:id="rId125"/>
+    <hyperlink ref="B207" r:id="rId126"/>
+    <hyperlink ref="B208" r:id="rId127"/>
+    <hyperlink ref="B209" r:id="rId128"/>
+    <hyperlink ref="B210" r:id="rId129"/>
+    <hyperlink ref="B240" r:id="rId130"/>
+    <hyperlink ref="B241" r:id="rId131"/>
+    <hyperlink ref="B242" r:id="rId132"/>
+    <hyperlink ref="B243" r:id="rId133"/>
+    <hyperlink ref="B246" r:id="rId134" location="a-02"/>
+    <hyperlink ref="B247" r:id="rId135"/>
+    <hyperlink ref="B259" r:id="rId136"/>
+    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B274" r:id="rId141"/>
+    <hyperlink ref="B275" r:id="rId142"/>
+    <hyperlink ref="B276" r:id="rId143"/>
+    <hyperlink ref="B277" r:id="rId144"/>
+    <hyperlink ref="B278" r:id="rId145"/>
+    <hyperlink ref="B280" r:id="rId146"/>
+    <hyperlink ref="B281" r:id="rId147"/>
+    <hyperlink ref="B282" r:id="rId148"/>
+    <hyperlink ref="B283" r:id="rId149"/>
+    <hyperlink ref="B284" r:id="rId150"/>
+    <hyperlink ref="B285" r:id="rId151"/>
+    <hyperlink ref="B286" r:id="rId152"/>
+    <hyperlink ref="B287" r:id="rId153"/>
+    <hyperlink ref="B288" r:id="rId154"/>
+    <hyperlink ref="B289" r:id="rId155"/>
+    <hyperlink ref="B290" r:id="rId156"/>
+    <hyperlink ref="B291" r:id="rId157"/>
+    <hyperlink ref="B292" r:id="rId158"/>
+    <hyperlink ref="B293" r:id="rId159"/>
+    <hyperlink ref="B294" r:id="rId160"/>
+    <hyperlink ref="B295" r:id="rId161"/>
+    <hyperlink ref="B296" r:id="rId162"/>
+    <hyperlink ref="B297" r:id="rId163"/>
+    <hyperlink ref="B298" r:id="rId164"/>
+    <hyperlink ref="B299" r:id="rId165"/>
+    <hyperlink ref="B300" r:id="rId166"/>
+    <hyperlink ref="B301" r:id="rId167"/>
+    <hyperlink ref="B302" r:id="rId168"/>
+    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
+    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
+    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14"/>
+    <hyperlink ref="B308" r:id="rId174"/>
+    <hyperlink ref="B309" r:id="rId175"/>
+    <hyperlink ref="B310" r:id="rId176"/>
+    <hyperlink ref="B311" r:id="rId177"/>
+    <hyperlink ref="B312" r:id="rId178"/>
+    <hyperlink ref="B313" r:id="rId179"/>
+    <hyperlink ref="B314" r:id="rId180"/>
+    <hyperlink ref="B315" r:id="rId181"/>
+    <hyperlink ref="B316" r:id="rId182"/>
+    <hyperlink ref="B317" r:id="rId183"/>
+    <hyperlink ref="B318" r:id="rId184"/>
+    <hyperlink ref="B319" r:id="rId185"/>
+    <hyperlink ref="B320" r:id="rId186"/>
+    <hyperlink ref="B321" r:id="rId187"/>
+    <hyperlink ref="B322" r:id="rId188"/>
+    <hyperlink ref="B323" r:id="rId189"/>
+    <hyperlink ref="B324" r:id="rId190"/>
+    <hyperlink ref="B325" r:id="rId191"/>
+    <hyperlink ref="B326" r:id="rId192"/>
+    <hyperlink ref="B327" r:id="rId193"/>
+    <hyperlink ref="B328" r:id="rId194"/>
+    <hyperlink ref="B329" r:id="rId195"/>
+    <hyperlink ref="B330" r:id="rId196"/>
+    <hyperlink ref="B331" r:id="rId197"/>
+    <hyperlink ref="B332" r:id="rId198"/>
+    <hyperlink ref="B333" r:id="rId199"/>
+    <hyperlink ref="B334" r:id="rId200"/>
+    <hyperlink ref="B335" r:id="rId201"/>
+    <hyperlink ref="B336" r:id="rId202"/>
+    <hyperlink ref="B338" r:id="rId203"/>
+    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
+    <hyperlink ref="B340" r:id="rId205"/>
+    <hyperlink ref="B343" r:id="rId206"/>
+    <hyperlink ref="B344" r:id="rId207"/>
+    <hyperlink ref="B345" r:id="rId208"/>
+    <hyperlink ref="B346" r:id="rId209"/>
+    <hyperlink ref="B347" r:id="rId210"/>
+    <hyperlink ref="B348" r:id="rId211"/>
+    <hyperlink ref="B349" r:id="rId212"/>
+    <hyperlink ref="B350" r:id="rId213"/>
+    <hyperlink ref="B351" r:id="rId214"/>
+    <hyperlink ref="B352" r:id="rId215"/>
+    <hyperlink ref="B353" r:id="rId216"/>
+    <hyperlink ref="B355" r:id="rId217"/>
+    <hyperlink ref="B356" r:id="rId218"/>
+    <hyperlink ref="B357" r:id="rId219"/>
+    <hyperlink ref="B358" r:id="rId220"/>
+    <hyperlink ref="B359" r:id="rId221"/>
+    <hyperlink ref="B360" r:id="rId222"/>
+    <hyperlink ref="B361" r:id="rId223"/>
+    <hyperlink ref="B362" r:id="rId224"/>
+    <hyperlink ref="B363" r:id="rId225"/>
+    <hyperlink ref="B364" r:id="rId226"/>
+    <hyperlink ref="B365" r:id="rId227"/>
+    <hyperlink ref="B366" r:id="rId228"/>
+    <hyperlink ref="B367" r:id="rId229"/>
+    <hyperlink ref="B368" r:id="rId230"/>
+    <hyperlink ref="B369" r:id="rId231"/>
+    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg"/>
+    <hyperlink ref="B372" r:id="rId233"/>
+    <hyperlink ref="B373" r:id="rId234"/>
+    <hyperlink ref="B374" r:id="rId235"/>
+    <hyperlink ref="B375" r:id="rId236"/>
+    <hyperlink ref="B376" r:id="rId237"/>
+    <hyperlink ref="B377" r:id="rId238"/>
+    <hyperlink ref="B378" r:id="rId239"/>
+    <hyperlink ref="B379" r:id="rId240"/>
+    <hyperlink ref="B380" r:id="rId241"/>
+    <hyperlink ref="B381" r:id="rId242"/>
+    <hyperlink ref="B383" r:id="rId243"/>
+    <hyperlink ref="B384" r:id="rId244"/>
+    <hyperlink ref="B385" r:id="rId245"/>
+    <hyperlink ref="B386" r:id="rId246"/>
+    <hyperlink ref="B387" r:id="rId247"/>
+    <hyperlink ref="B388" r:id="rId248"/>
+    <hyperlink ref="B58" r:id="rId249"/>
+    <hyperlink ref="B57" r:id="rId250"/>
+    <hyperlink ref="B395" r:id="rId251"/>
+    <hyperlink ref="B396" r:id="rId252"/>
+    <hyperlink ref="B397" r:id="rId253"/>
+    <hyperlink ref="B398" r:id="rId254"/>
+    <hyperlink ref="B399" r:id="rId255"/>
+    <hyperlink ref="B400" r:id="rId256"/>
+    <hyperlink ref="B401" r:id="rId257"/>
+    <hyperlink ref="B402" r:id="rId258"/>
+    <hyperlink ref="B403" r:id="rId259"/>
+    <hyperlink ref="B405" r:id="rId260"/>
+    <hyperlink ref="B406" r:id="rId261"/>
+    <hyperlink ref="B407" r:id="rId262"/>
+    <hyperlink ref="B408" r:id="rId263"/>
+    <hyperlink ref="B409" r:id="rId264"/>
+    <hyperlink ref="B410" r:id="rId265"/>
+    <hyperlink ref="B411" r:id="rId266"/>
+    <hyperlink ref="B412" r:id="rId267"/>
+    <hyperlink ref="B413" r:id="rId268"/>
+    <hyperlink ref="B414" r:id="rId269"/>
+    <hyperlink ref="B415" r:id="rId270"/>
+    <hyperlink ref="B416" r:id="rId271"/>
+    <hyperlink ref="B417" r:id="rId272"/>
+    <hyperlink ref="B418" r:id="rId273"/>
+    <hyperlink ref="B419" r:id="rId274"/>
+    <hyperlink ref="B421" r:id="rId275"/>
+    <hyperlink ref="B429" r:id="rId276"/>
+    <hyperlink ref="B430" r:id="rId277"/>
+    <hyperlink ref="B431" r:id="rId278"/>
+    <hyperlink ref="B432" r:id="rId279"/>
+    <hyperlink ref="B433" r:id="rId280"/>
+    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
+    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
+    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
+    <hyperlink ref="B439" r:id="rId284"/>
+    <hyperlink ref="B441" r:id="rId285"/>
+    <hyperlink ref="B442" r:id="rId286"/>
+    <hyperlink ref="B443" r:id="rId287"/>
+    <hyperlink ref="B444" r:id="rId288"/>
+    <hyperlink ref="B445" r:id="rId289"/>
+    <hyperlink ref="B446" r:id="rId290"/>
+    <hyperlink ref="B447" r:id="rId291"/>
+    <hyperlink ref="B448" r:id="rId292"/>
+    <hyperlink ref="B449" r:id="rId293"/>
+    <hyperlink ref="B450" r:id="rId294"/>
+    <hyperlink ref="B451" r:id="rId295"/>
+    <hyperlink ref="B452" r:id="rId296"/>
+    <hyperlink ref="B453" r:id="rId297"/>
+    <hyperlink ref="B454" r:id="rId298"/>
+    <hyperlink ref="B455" r:id="rId299"/>
+    <hyperlink ref="B456" r:id="rId300"/>
+    <hyperlink ref="B457" r:id="rId301"/>
+    <hyperlink ref="B458" r:id="rId302"/>
+    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102"/>
+    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu"/>
+    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display"/>
+    <hyperlink ref="B462" r:id="rId306"/>
+    <hyperlink ref="B463" r:id="rId307"/>
+    <hyperlink ref="B464" r:id="rId308"/>
+    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com"/>
+    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
+    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
+    <hyperlink ref="B469" r:id="rId312"/>
+    <hyperlink ref="B471" r:id="rId313"/>
+    <hyperlink ref="B473" r:id="rId314"/>
+    <hyperlink ref="B474" r:id="rId315"/>
+    <hyperlink ref="B475" r:id="rId316"/>
+    <hyperlink ref="B476" r:id="rId317"/>
+    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
+    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
+    <hyperlink ref="B480" r:id="rId321"/>
+    <hyperlink ref="B484" r:id="rId322"/>
+    <hyperlink ref="B485" r:id="rId323"/>
+    <hyperlink ref="B486" r:id="rId324"/>
+    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views"/>
+    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views"/>
+    <hyperlink ref="B489" r:id="rId327"/>
+    <hyperlink ref="B490" r:id="rId328"/>
+    <hyperlink ref="B491" r:id="rId329"/>
+    <hyperlink ref="B492" r:id="rId330"/>
+    <hyperlink ref="B493" r:id="rId331"/>
+    <hyperlink ref="B494" r:id="rId332"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId327"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId333"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId328"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId329"/>
+    <customPr name="_pios_id" r:id="rId334"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId335"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -48933,7 +49055,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
@@ -48946,7 +49068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
@@ -49082,13 +49204,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -49173,14 +49294,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2DB74-4B45-4CB6-B2AE-00BDBE2E6CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$494</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="913">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -2935,11 +2936,154 @@
     <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\01  AP\01  AP Job Aid
 File : Downpayment Notes (cases study)</t>
   </si>
+  <si>
+    <t>Email open prevention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outlook&gt;Option&gt;Advanced&gt;Reading Pane&gt;Uncheck the next two checkboxes ”Mark items as read when viewed in the Reading Pane/Mark item as read when selection changes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kumimodoshi local</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\09B 組戻し国内支払</t>
+  </si>
+  <si>
+    <t>Kumimodoshi manual</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\kumimodoshi_manual.docx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\5 PAYMENT\09A 組戻し海外送金</t>
+  </si>
+  <si>
+    <t>Kumimodoshi overseas</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\FNOW_ticket_update.mp4</t>
+  </si>
+  <si>
+    <t>FNOW ticket update video</t>
+  </si>
+  <si>
+    <t>Year end closing</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\11  Others
+File : 202112_Japan Closing Calendar_v3</t>
+  </si>
+  <si>
+    <t>Year end schedule</t>
+  </si>
+  <si>
+    <t>Generic mailbox access</t>
+  </si>
+  <si>
+    <t>Shared mailbox access</t>
+  </si>
+  <si>
+    <t>Go to IT NOW (https://alcon.service-now.com/alconservicemanagement)
+Click Request Something
+at 'I want to request...', input 'o365'
+Input each items accrodingly and submit</t>
+  </si>
+  <si>
+    <t>GMB access request</t>
+  </si>
+  <si>
+    <t>Item Class Subtype</t>
+  </si>
+  <si>
+    <t>https://alcon.service-now.com/alconservicemanagement
+Click Request Something
+at 'I want to request...', input 'o365'
+Input each items accrodingly and submit</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\6 ACCOUNT RECON
+File : Item Class and Sub type reference</t>
+  </si>
+  <si>
+    <t>Item Class reference</t>
+  </si>
+  <si>
+    <t>Subtype reference</t>
+  </si>
+  <si>
+    <t>Blackline Required Adjustment</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\6 ACCOUNT RECON
+File : Blackline advise from Morozumi</t>
+  </si>
+  <si>
+    <t>Blackline Morozumi</t>
+  </si>
+  <si>
+    <t>Reconciliation tips</t>
+  </si>
+  <si>
+    <t>Reconciliation Syahmi</t>
+  </si>
+  <si>
+    <t>2 Downpayment accounts : email to Minato
+2 AP accounts : just upload supporting in Blackline (no need to prepare Blackline upload sheet as it is auto certified)
+2 GRIR accounts : upload details &amp; supporting in Blackline</t>
+  </si>
+  <si>
+    <t>Year end reporting</t>
+  </si>
+  <si>
+    <t>Digicert</t>
+  </si>
+  <si>
+    <t>PDF digital certification</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\11  Others
+File : Digicert</t>
+  </si>
+  <si>
+    <t>Digitcert password reset</t>
+  </si>
+  <si>
+    <t>Search 'Digicert PKI Client' in window and click 'reset your PIN'</t>
+  </si>
+  <si>
+    <t>Digicert PIN</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\14 KT with Asano san\Training Video\PO_IncentiveTrip.mp4</t>
+  </si>
+  <si>
+    <t>Po Video</t>
+  </si>
+  <si>
+    <t>"I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Hakimi\Ordering a PO.mp4"</t>
+  </si>
+  <si>
+    <t>Ordering PO video</t>
+  </si>
+  <si>
+    <t>Appzen Configuration Management Process</t>
+  </si>
+  <si>
+    <t>&lt;a href = "\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx"&gt;Management Process&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Seat and Group</t>
+  </si>
+  <si>
+    <t>&lt;a href = ""\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\Team &amp; Workstation No.xlsx""&gt;Management Process&lt;/a&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -3593,19 +3737,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A495" sqref="A495"/>
+      <pane ySplit="8" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" style="2" customWidth="1"/>
     <col min="5" max="6" width="8.81640625" style="2"/>
     <col min="7" max="7" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
@@ -3658,7 +3802,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>495</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -3679,7 +3823,7 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H3" s="29"/>
     </row>
@@ -3745,7 +3889,7 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3767,7 +3911,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -3789,7 +3933,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -4010,7 +4154,9 @@
       <c r="B24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
@@ -4022,7 +4168,9 @@
       <c r="B25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4182,9 @@
       <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +4196,9 @@
       <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
@@ -10661,109 +10813,375 @@
         <v>22</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="1"/>
-      <c r="D497" s="1"/>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="1"/>
-      <c r="D498" s="1"/>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="1"/>
-      <c r="D499" s="1"/>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="1"/>
-      <c r="D500" s="1"/>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="1"/>
-      <c r="D501" s="1"/>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="A502" s="1"/>
-      <c r="D502" s="1"/>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="A503" s="1"/>
-      <c r="D503" s="1"/>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="1"/>
-      <c r="D504" s="1"/>
-    </row>
-    <row r="505" spans="1:4">
-      <c r="A505" s="1"/>
-      <c r="D505" s="1"/>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="1"/>
-      <c r="D506" s="1"/>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="A507" s="1"/>
-      <c r="D507" s="1"/>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="1"/>
-      <c r="D508" s="1"/>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="A509" s="1"/>
-      <c r="D509" s="1"/>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="1"/>
-      <c r="D510" s="1"/>
-    </row>
-    <row r="511" spans="1:4">
-      <c r="A511" s="1"/>
-      <c r="D511" s="1"/>
-    </row>
-    <row r="512" spans="1:4">
-      <c r="A512" s="1"/>
-      <c r="D512" s="1"/>
+    <row r="497" spans="1:7">
+      <c r="A497" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="A498" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B498" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="A500" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B500" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="A501" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B501" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="A502" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B502" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="A503" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B503" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7">
+      <c r="A504" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
+      <c r="A505" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="A506" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="A507" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B507" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F507" s="11"/>
+      <c r="G507" s="10"/>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="A508" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B508" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="A509" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B509" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="A510" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B510" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F510" s="11"/>
+      <c r="G510" s="10"/>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="A511" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B511" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F511" s="11"/>
+      <c r="G511" s="10"/>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="513" spans="1:4">
-      <c r="A513" s="1"/>
-      <c r="D513" s="1"/>
+      <c r="A513" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="514" spans="1:4">
-      <c r="A514" s="1"/>
-      <c r="D514" s="1"/>
+      <c r="A514" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B514" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="515" spans="1:4">
-      <c r="A515" s="1"/>
-      <c r="D515" s="1"/>
+      <c r="A515" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B515" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="516" spans="1:4">
-      <c r="A516" s="1"/>
-      <c r="D516" s="1"/>
+      <c r="A516" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B516" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="517" spans="1:4">
-      <c r="A517" s="1"/>
-      <c r="D517" s="1"/>
+      <c r="A517" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="518" spans="1:4">
-      <c r="A518" s="1"/>
-      <c r="D518" s="1"/>
+      <c r="A518" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="519" spans="1:4">
-      <c r="A519" s="1"/>
-      <c r="D519" s="1"/>
+      <c r="A519" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B519" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="520" spans="1:4">
-      <c r="A520" s="1"/>
-      <c r="D520" s="1"/>
+      <c r="A520" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="521" spans="1:4">
-      <c r="A521" s="1"/>
-      <c r="D521" s="1"/>
+      <c r="A521" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B521" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="1"/>
-      <c r="D522" s="1"/>
+      <c r="A522" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B522" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1"/>
@@ -48634,13 +49052,13 @@
       <c r="D9989" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D494"/>
+  <autoFilter ref="A1:D494" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G2:G8 G213:G239">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -48654,7 +49072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G158">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -48667,352 +49085,387 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G507">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{50A97AA6-E1D1-4DE7-8CB5-11782BF30170}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G510:G511">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E55A187E-F054-4BCD-B100-657200EB70BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$2:$F$9</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B17" r:id="rId14"/>
-    <hyperlink ref="B28" r:id="rId15"/>
-    <hyperlink ref="B29" r:id="rId16"/>
-    <hyperlink ref="B30" r:id="rId17"/>
-    <hyperlink ref="B31" r:id="rId18"/>
-    <hyperlink ref="B33" r:id="rId19"/>
-    <hyperlink ref="B34" r:id="rId20"/>
-    <hyperlink ref="B36" r:id="rId21"/>
-    <hyperlink ref="B37" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
-    <hyperlink ref="B39" r:id="rId24"/>
-    <hyperlink ref="B40" r:id="rId25"/>
-    <hyperlink ref="B41" r:id="rId26"/>
-    <hyperlink ref="B42" r:id="rId27"/>
-    <hyperlink ref="B44" r:id="rId28"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B61" r:id="rId31"/>
-    <hyperlink ref="B62" r:id="rId32"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
-    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;"/>
-    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
-    <hyperlink ref="B68" r:id="rId37"/>
-    <hyperlink ref="B69" r:id="rId38"/>
-    <hyperlink ref="B70" r:id="rId39"/>
-    <hyperlink ref="B71" r:id="rId40"/>
-    <hyperlink ref="B72" r:id="rId41"/>
-    <hyperlink ref="B73" r:id="rId42"/>
-    <hyperlink ref="B99" r:id="rId43"/>
-    <hyperlink ref="B100" r:id="rId44"/>
-    <hyperlink ref="B101" r:id="rId45"/>
-    <hyperlink ref="B102" r:id="rId46"/>
-    <hyperlink ref="B103" r:id="rId47"/>
-    <hyperlink ref="B104" r:id="rId48"/>
-    <hyperlink ref="B105" r:id="rId49"/>
-    <hyperlink ref="B106" r:id="rId50"/>
-    <hyperlink ref="B107" r:id="rId51"/>
-    <hyperlink ref="B108" r:id="rId52"/>
-    <hyperlink ref="B109" r:id="rId53"/>
-    <hyperlink ref="B111" r:id="rId54"/>
-    <hyperlink ref="B112" r:id="rId55"/>
-    <hyperlink ref="B114" r:id="rId56"/>
-    <hyperlink ref="B115" r:id="rId57"/>
-    <hyperlink ref="B116" r:id="rId58"/>
-    <hyperlink ref="B117" r:id="rId59"/>
-    <hyperlink ref="B118" r:id="rId60"/>
-    <hyperlink ref="B119" r:id="rId61"/>
-    <hyperlink ref="B120" r:id="rId62"/>
-    <hyperlink ref="B121" r:id="rId63"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
-    <hyperlink ref="B113" r:id="rId64"/>
-    <hyperlink ref="B123" r:id="rId65"/>
-    <hyperlink ref="B124" r:id="rId66"/>
-    <hyperlink ref="B125" r:id="rId67"/>
-    <hyperlink ref="B126" r:id="rId68"/>
-    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
-    <hyperlink ref="B128" r:id="rId70"/>
-    <hyperlink ref="B110" r:id="rId71"/>
-    <hyperlink ref="B129" r:id="rId72"/>
-    <hyperlink ref="B130" r:id="rId73"/>
-    <hyperlink ref="B131" r:id="rId74"/>
-    <hyperlink ref="B132" r:id="rId75"/>
-    <hyperlink ref="B133" r:id="rId76"/>
-    <hyperlink ref="B134" r:id="rId77"/>
-    <hyperlink ref="B135" r:id="rId78"/>
-    <hyperlink ref="B136" r:id="rId79"/>
-    <hyperlink ref="B137" r:id="rId80"/>
-    <hyperlink ref="B138" r:id="rId81"/>
-    <hyperlink ref="B139" r:id="rId82"/>
-    <hyperlink ref="B140" r:id="rId83"/>
-    <hyperlink ref="B141" r:id="rId84"/>
-    <hyperlink ref="B142" r:id="rId85"/>
-    <hyperlink ref="B143" r:id="rId86"/>
-    <hyperlink ref="A146" r:id="rId87"/>
-    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304"/>
-    <hyperlink ref="B149" r:id="rId90"/>
-    <hyperlink ref="B158" r:id="rId91"/>
-    <hyperlink ref="B161" r:id="rId92"/>
-    <hyperlink ref="B162" r:id="rId93"/>
-    <hyperlink ref="B168" r:id="rId94"/>
-    <hyperlink ref="B169" r:id="rId95"/>
-    <hyperlink ref="B170" r:id="rId96"/>
-    <hyperlink ref="B171" r:id="rId97"/>
-    <hyperlink ref="B179" r:id="rId98"/>
-    <hyperlink ref="B181" r:id="rId99"/>
-    <hyperlink ref="B5" r:id="rId100"/>
-    <hyperlink ref="B6" r:id="rId101"/>
-    <hyperlink ref="B7" r:id="rId102"/>
-    <hyperlink ref="B23" r:id="rId103"/>
-    <hyperlink ref="B182" r:id="rId104"/>
-    <hyperlink ref="B183" r:id="rId105"/>
-    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true"/>
-    <hyperlink ref="B185" r:id="rId107"/>
-    <hyperlink ref="B186" r:id="rId108"/>
-    <hyperlink ref="B187" r:id="rId109"/>
-    <hyperlink ref="B188" r:id="rId110"/>
-    <hyperlink ref="B189" r:id="rId111"/>
-    <hyperlink ref="B190" r:id="rId112"/>
-    <hyperlink ref="B191" r:id="rId113"/>
-    <hyperlink ref="B192" r:id="rId114"/>
-    <hyperlink ref="B193" r:id="rId115"/>
-    <hyperlink ref="B194" r:id="rId116"/>
-    <hyperlink ref="B197" r:id="rId117"/>
-    <hyperlink ref="B198" r:id="rId118"/>
-    <hyperlink ref="B199" r:id="rId119"/>
-    <hyperlink ref="B201" r:id="rId120"/>
-    <hyperlink ref="B202" r:id="rId121"/>
-    <hyperlink ref="B203" r:id="rId122"/>
-    <hyperlink ref="B204" r:id="rId123"/>
-    <hyperlink ref="B205" r:id="rId124"/>
-    <hyperlink ref="B206" r:id="rId125"/>
-    <hyperlink ref="B207" r:id="rId126"/>
-    <hyperlink ref="B208" r:id="rId127"/>
-    <hyperlink ref="B209" r:id="rId128"/>
-    <hyperlink ref="B210" r:id="rId129"/>
-    <hyperlink ref="B240" r:id="rId130"/>
-    <hyperlink ref="B241" r:id="rId131"/>
-    <hyperlink ref="B242" r:id="rId132"/>
-    <hyperlink ref="B243" r:id="rId133"/>
-    <hyperlink ref="B246" r:id="rId134" location="a-02"/>
-    <hyperlink ref="B247" r:id="rId135"/>
-    <hyperlink ref="B259" r:id="rId136"/>
-    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B274" r:id="rId141"/>
-    <hyperlink ref="B275" r:id="rId142"/>
-    <hyperlink ref="B276" r:id="rId143"/>
-    <hyperlink ref="B277" r:id="rId144"/>
-    <hyperlink ref="B278" r:id="rId145"/>
-    <hyperlink ref="B280" r:id="rId146"/>
-    <hyperlink ref="B281" r:id="rId147"/>
-    <hyperlink ref="B282" r:id="rId148"/>
-    <hyperlink ref="B283" r:id="rId149"/>
-    <hyperlink ref="B284" r:id="rId150"/>
-    <hyperlink ref="B285" r:id="rId151"/>
-    <hyperlink ref="B286" r:id="rId152"/>
-    <hyperlink ref="B287" r:id="rId153"/>
-    <hyperlink ref="B288" r:id="rId154"/>
-    <hyperlink ref="B289" r:id="rId155"/>
-    <hyperlink ref="B290" r:id="rId156"/>
-    <hyperlink ref="B291" r:id="rId157"/>
-    <hyperlink ref="B292" r:id="rId158"/>
-    <hyperlink ref="B293" r:id="rId159"/>
-    <hyperlink ref="B294" r:id="rId160"/>
-    <hyperlink ref="B295" r:id="rId161"/>
-    <hyperlink ref="B296" r:id="rId162"/>
-    <hyperlink ref="B297" r:id="rId163"/>
-    <hyperlink ref="B298" r:id="rId164"/>
-    <hyperlink ref="B299" r:id="rId165"/>
-    <hyperlink ref="B300" r:id="rId166"/>
-    <hyperlink ref="B301" r:id="rId167"/>
-    <hyperlink ref="B302" r:id="rId168"/>
-    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14"/>
-    <hyperlink ref="B308" r:id="rId174"/>
-    <hyperlink ref="B309" r:id="rId175"/>
-    <hyperlink ref="B310" r:id="rId176"/>
-    <hyperlink ref="B311" r:id="rId177"/>
-    <hyperlink ref="B312" r:id="rId178"/>
-    <hyperlink ref="B313" r:id="rId179"/>
-    <hyperlink ref="B314" r:id="rId180"/>
-    <hyperlink ref="B315" r:id="rId181"/>
-    <hyperlink ref="B316" r:id="rId182"/>
-    <hyperlink ref="B317" r:id="rId183"/>
-    <hyperlink ref="B318" r:id="rId184"/>
-    <hyperlink ref="B319" r:id="rId185"/>
-    <hyperlink ref="B320" r:id="rId186"/>
-    <hyperlink ref="B321" r:id="rId187"/>
-    <hyperlink ref="B322" r:id="rId188"/>
-    <hyperlink ref="B323" r:id="rId189"/>
-    <hyperlink ref="B324" r:id="rId190"/>
-    <hyperlink ref="B325" r:id="rId191"/>
-    <hyperlink ref="B326" r:id="rId192"/>
-    <hyperlink ref="B327" r:id="rId193"/>
-    <hyperlink ref="B328" r:id="rId194"/>
-    <hyperlink ref="B329" r:id="rId195"/>
-    <hyperlink ref="B330" r:id="rId196"/>
-    <hyperlink ref="B331" r:id="rId197"/>
-    <hyperlink ref="B332" r:id="rId198"/>
-    <hyperlink ref="B333" r:id="rId199"/>
-    <hyperlink ref="B334" r:id="rId200"/>
-    <hyperlink ref="B335" r:id="rId201"/>
-    <hyperlink ref="B336" r:id="rId202"/>
-    <hyperlink ref="B338" r:id="rId203"/>
-    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B340" r:id="rId205"/>
-    <hyperlink ref="B343" r:id="rId206"/>
-    <hyperlink ref="B344" r:id="rId207"/>
-    <hyperlink ref="B345" r:id="rId208"/>
-    <hyperlink ref="B346" r:id="rId209"/>
-    <hyperlink ref="B347" r:id="rId210"/>
-    <hyperlink ref="B348" r:id="rId211"/>
-    <hyperlink ref="B349" r:id="rId212"/>
-    <hyperlink ref="B350" r:id="rId213"/>
-    <hyperlink ref="B351" r:id="rId214"/>
-    <hyperlink ref="B352" r:id="rId215"/>
-    <hyperlink ref="B353" r:id="rId216"/>
-    <hyperlink ref="B355" r:id="rId217"/>
-    <hyperlink ref="B356" r:id="rId218"/>
-    <hyperlink ref="B357" r:id="rId219"/>
-    <hyperlink ref="B358" r:id="rId220"/>
-    <hyperlink ref="B359" r:id="rId221"/>
-    <hyperlink ref="B360" r:id="rId222"/>
-    <hyperlink ref="B361" r:id="rId223"/>
-    <hyperlink ref="B362" r:id="rId224"/>
-    <hyperlink ref="B363" r:id="rId225"/>
-    <hyperlink ref="B364" r:id="rId226"/>
-    <hyperlink ref="B365" r:id="rId227"/>
-    <hyperlink ref="B366" r:id="rId228"/>
-    <hyperlink ref="B367" r:id="rId229"/>
-    <hyperlink ref="B368" r:id="rId230"/>
-    <hyperlink ref="B369" r:id="rId231"/>
-    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg"/>
-    <hyperlink ref="B372" r:id="rId233"/>
-    <hyperlink ref="B373" r:id="rId234"/>
-    <hyperlink ref="B374" r:id="rId235"/>
-    <hyperlink ref="B375" r:id="rId236"/>
-    <hyperlink ref="B376" r:id="rId237"/>
-    <hyperlink ref="B377" r:id="rId238"/>
-    <hyperlink ref="B378" r:id="rId239"/>
-    <hyperlink ref="B379" r:id="rId240"/>
-    <hyperlink ref="B380" r:id="rId241"/>
-    <hyperlink ref="B381" r:id="rId242"/>
-    <hyperlink ref="B383" r:id="rId243"/>
-    <hyperlink ref="B384" r:id="rId244"/>
-    <hyperlink ref="B385" r:id="rId245"/>
-    <hyperlink ref="B386" r:id="rId246"/>
-    <hyperlink ref="B387" r:id="rId247"/>
-    <hyperlink ref="B388" r:id="rId248"/>
-    <hyperlink ref="B58" r:id="rId249"/>
-    <hyperlink ref="B57" r:id="rId250"/>
-    <hyperlink ref="B395" r:id="rId251"/>
-    <hyperlink ref="B396" r:id="rId252"/>
-    <hyperlink ref="B397" r:id="rId253"/>
-    <hyperlink ref="B398" r:id="rId254"/>
-    <hyperlink ref="B399" r:id="rId255"/>
-    <hyperlink ref="B400" r:id="rId256"/>
-    <hyperlink ref="B401" r:id="rId257"/>
-    <hyperlink ref="B402" r:id="rId258"/>
-    <hyperlink ref="B403" r:id="rId259"/>
-    <hyperlink ref="B405" r:id="rId260"/>
-    <hyperlink ref="B406" r:id="rId261"/>
-    <hyperlink ref="B407" r:id="rId262"/>
-    <hyperlink ref="B408" r:id="rId263"/>
-    <hyperlink ref="B409" r:id="rId264"/>
-    <hyperlink ref="B410" r:id="rId265"/>
-    <hyperlink ref="B411" r:id="rId266"/>
-    <hyperlink ref="B412" r:id="rId267"/>
-    <hyperlink ref="B413" r:id="rId268"/>
-    <hyperlink ref="B414" r:id="rId269"/>
-    <hyperlink ref="B415" r:id="rId270"/>
-    <hyperlink ref="B416" r:id="rId271"/>
-    <hyperlink ref="B417" r:id="rId272"/>
-    <hyperlink ref="B418" r:id="rId273"/>
-    <hyperlink ref="B419" r:id="rId274"/>
-    <hyperlink ref="B421" r:id="rId275"/>
-    <hyperlink ref="B429" r:id="rId276"/>
-    <hyperlink ref="B430" r:id="rId277"/>
-    <hyperlink ref="B431" r:id="rId278"/>
-    <hyperlink ref="B432" r:id="rId279"/>
-    <hyperlink ref="B433" r:id="rId280"/>
-    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B439" r:id="rId284"/>
-    <hyperlink ref="B441" r:id="rId285"/>
-    <hyperlink ref="B442" r:id="rId286"/>
-    <hyperlink ref="B443" r:id="rId287"/>
-    <hyperlink ref="B444" r:id="rId288"/>
-    <hyperlink ref="B445" r:id="rId289"/>
-    <hyperlink ref="B446" r:id="rId290"/>
-    <hyperlink ref="B447" r:id="rId291"/>
-    <hyperlink ref="B448" r:id="rId292"/>
-    <hyperlink ref="B449" r:id="rId293"/>
-    <hyperlink ref="B450" r:id="rId294"/>
-    <hyperlink ref="B451" r:id="rId295"/>
-    <hyperlink ref="B452" r:id="rId296"/>
-    <hyperlink ref="B453" r:id="rId297"/>
-    <hyperlink ref="B454" r:id="rId298"/>
-    <hyperlink ref="B455" r:id="rId299"/>
-    <hyperlink ref="B456" r:id="rId300"/>
-    <hyperlink ref="B457" r:id="rId301"/>
-    <hyperlink ref="B458" r:id="rId302"/>
-    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102"/>
-    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu"/>
-    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display"/>
-    <hyperlink ref="B462" r:id="rId306"/>
-    <hyperlink ref="B463" r:id="rId307"/>
-    <hyperlink ref="B464" r:id="rId308"/>
-    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com"/>
-    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B469" r:id="rId312"/>
-    <hyperlink ref="B471" r:id="rId313"/>
-    <hyperlink ref="B473" r:id="rId314"/>
-    <hyperlink ref="B474" r:id="rId315"/>
-    <hyperlink ref="B475" r:id="rId316"/>
-    <hyperlink ref="B476" r:id="rId317"/>
-    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B480" r:id="rId321"/>
-    <hyperlink ref="B484" r:id="rId322"/>
-    <hyperlink ref="B485" r:id="rId323"/>
-    <hyperlink ref="B486" r:id="rId324"/>
-    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views"/>
-    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views"/>
-    <hyperlink ref="B489" r:id="rId327"/>
-    <hyperlink ref="B490" r:id="rId328"/>
-    <hyperlink ref="B491" r:id="rId329"/>
-    <hyperlink ref="B492" r:id="rId330"/>
-    <hyperlink ref="B493" r:id="rId331"/>
-    <hyperlink ref="B494" r:id="rId332"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B68" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B70" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B72" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B73" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B99" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B100" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B101" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B102" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B103" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B104" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B105" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B106" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B107" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B108" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B109" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B111" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B112" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B114" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B115" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B116" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B117" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B118" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B119" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B120" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B121" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B123" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B124" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B125" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B126" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B128" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B129" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B130" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B131" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B132" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B133" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B134" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B135" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B136" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B137" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B138" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B139" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B140" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B141" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B142" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B143" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A146" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B149" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B158" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B161" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B162" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B168" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B169" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B170" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B171" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B179" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B181" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B5" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B6" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B7" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B23" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B182" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B183" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B185" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B186" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B187" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B188" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B189" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B190" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B191" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B192" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B193" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B194" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B197" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B198" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B199" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B201" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B202" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B203" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B204" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B205" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B206" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B207" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B208" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B209" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B210" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B240" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B241" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B242" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B243" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B246" r:id="rId134" location="a-02" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B247" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B259" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B274" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B275" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B276" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B277" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B278" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B280" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B281" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B282" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B283" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B284" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B285" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B286" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B287" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B288" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B289" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B290" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B291" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B292" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B293" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B294" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B295" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B296" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B297" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B298" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B299" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B300" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B301" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B302" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B308" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B309" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B310" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B311" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B312" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B313" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B314" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B315" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B316" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B317" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B318" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B319" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B320" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B321" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B322" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B323" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B324" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B325" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B326" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B327" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B328" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B329" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B330" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B331" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B332" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B333" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B334" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B335" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B336" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B338" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B340" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B343" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B344" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B345" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B346" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B347" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B348" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B349" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B350" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B351" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B352" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B353" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B355" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B356" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B357" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B358" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B359" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B360" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B361" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B362" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B363" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B364" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B365" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B366" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B367" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B368" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B369" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B372" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B373" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B374" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B375" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B376" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B377" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B378" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B379" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B380" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B381" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B383" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B384" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B385" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B386" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B387" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B388" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B58" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B57" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B395" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B396" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B397" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B398" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B399" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B400" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B401" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B402" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B403" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B405" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B406" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B407" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B408" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B409" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B410" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B411" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B412" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B413" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B414" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B415" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B416" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B417" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B418" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B419" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B421" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B429" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B430" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B431" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B432" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B433" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B439" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B441" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B442" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B443" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B444" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B445" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B446" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B447" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B448" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B449" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B450" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B451" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B452" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B453" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B454" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B455" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B456" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B457" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B458" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B462" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B463" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B464" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B469" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B471" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B473" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B474" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B475" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B476" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B480" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B484" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B485" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B486" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B489" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B490" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B491" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B492" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B493" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B494" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B498" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B500" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B501" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B506" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B519" r:id="rId337" xr:uid="{F720CA53-E902-4015-99E7-CF7ED36AC79D}"/>
+    <hyperlink ref="B521" r:id="rId338" display="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx" xr:uid="{3CCDE37B-D158-43AD-A978-3B78F9D9BA39}"/>
+    <hyperlink ref="B522" r:id="rId339" display="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx" xr:uid="{ADF26670-EF5D-48BD-A644-A0CF8811E942}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId333"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId340"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId334"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId335"/>
+    <customPr name="_pios_id" r:id="rId341"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId342"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -49051,15 +49504,49 @@
           </x14:cfRule>
           <xm:sqref>G158</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{50A97AA6-E1D1-4DE7-8CB5-11782BF30170}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G507</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E55A187E-F054-4BCD-B100-657200EB70BE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G510:G511</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C431 C436:C1048576</xm:sqref>
+          <xm:sqref>C436:C1048576 C151:C158 C161:C171 C181:C336 C339:C431 C1:C144</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -49068,7 +49555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
@@ -49076,7 +49563,7 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="64.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.5">
@@ -49200,16 +49687,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -49293,14 +49782,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2DB74-4B45-4CB6-B2AE-00BDBE2E6CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD3F5B5-1E7D-4689-9D71-AD63AAA3E2FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3071,13 +3071,13 @@
     <t>Appzen Configuration Management Process</t>
   </si>
   <si>
-    <t>&lt;a href = "\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx"&gt;Management Process&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Seat and Group</t>
   </si>
   <si>
-    <t>&lt;a href = ""\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\Team &amp; Workstation No.xlsx""&gt;Management Process&lt;/a&gt;</t>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\Team &amp; Workstation No.xlsx</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx</t>
   </si>
 </sst>
 </file>
@@ -11160,7 +11160,7 @@
         <v>909</v>
       </c>
       <c r="B521" s="12" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>32</v>
@@ -11171,10 +11171,10 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B522" s="12" t="s">
         <v>911</v>
-      </c>
-      <c r="B522" s="12" t="s">
-        <v>912</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>123</v>
@@ -49459,7 +49459,7 @@
     <hyperlink ref="B506" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
     <hyperlink ref="B519" r:id="rId337" xr:uid="{F720CA53-E902-4015-99E7-CF7ED36AC79D}"/>
     <hyperlink ref="B521" r:id="rId338" display="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx" xr:uid="{3CCDE37B-D158-43AD-A978-3B78F9D9BA39}"/>
-    <hyperlink ref="B522" r:id="rId339" display="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx" xr:uid="{ADF26670-EF5D-48BD-A644-A0CF8811E942}"/>
+    <hyperlink ref="B522" r:id="rId339" xr:uid="{ADF26670-EF5D-48BD-A644-A0CF8811E942}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId340"/>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD3F5B5-1E7D-4689-9D71-AD63AAA3E2FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B105ECE0-BDF9-490D-8788-7E95F2120C97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="914">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -3077,7 +3077,10 @@
     <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\Team &amp; Workstation No.xlsx</t>
   </si>
   <si>
-    <t>"\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx</t>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx</t>
+  </si>
+  <si>
+    <t>Group and Seat</t>
   </si>
 </sst>
 </file>
@@ -3741,8 +3744,8 @@
   <dimension ref="A1:H9989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B522" sqref="B522"/>
+      <pane ySplit="8" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3802,7 +3805,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -3933,7 +3936,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -11184,8 +11187,18 @@
       </c>
     </row>
     <row r="523" spans="1:4">
-      <c r="A523" s="1"/>
-      <c r="D523" s="1"/>
+      <c r="A523" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B523" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1"/>
@@ -49458,14 +49471,15 @@
     <hyperlink ref="B501" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
     <hyperlink ref="B506" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
     <hyperlink ref="B519" r:id="rId337" xr:uid="{F720CA53-E902-4015-99E7-CF7ED36AC79D}"/>
-    <hyperlink ref="B521" r:id="rId338" display="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\07 T&amp;E OPERATIONAL GOVERNANCE\20210512 7_TE Operational Governance_12 May..pptx" xr:uid="{3CCDE37B-D158-43AD-A978-3B78F9D9BA39}"/>
+    <hyperlink ref="B521" r:id="rId338" xr:uid="{3CCDE37B-D158-43AD-A978-3B78F9D9BA39}"/>
     <hyperlink ref="B522" r:id="rId339" xr:uid="{ADF26670-EF5D-48BD-A644-A0CF8811E942}"/>
+    <hyperlink ref="B523" r:id="rId340" xr:uid="{7555B120-F5B3-469E-A7E2-CA5642A357B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId340"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId341"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId341"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId342"/>
+    <customPr name="_pios_id" r:id="rId342"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId343"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -49546,7 +49560,7 @@
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C436:C1048576 C151:C158 C161:C171 C181:C336 C339:C431 C1:C144</xm:sqref>
+          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C431 C436:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B4035-513E-4924-AD6C-AC8ED14167CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,9 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$494</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$549</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="981">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="1"/>
@@ -3082,9 +3081,6 @@
     <t>I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Hakimi\VOC</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>VOC meeting notes</t>
   </si>
   <si>
@@ -3092,12 +3088,213 @@
   </si>
   <si>
     <t>Finance Core Portal</t>
+  </si>
+  <si>
+    <t>FIKO table maintenance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\FIKO\20211011_APAC FIKO_EXT PERS_Other Tables Maitenance_V2 のコピー.xlsx</t>
+  </si>
+  <si>
+    <t>CLMD (Credit Limit)</t>
+  </si>
+  <si>
+    <t>DCNT (Debit / Credit note)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOFF (Write offs) </t>
+  </si>
+  <si>
+    <t>Accrual Engine</t>
+  </si>
+  <si>
+    <t>/NVS/NFCM_USR_LT</t>
+  </si>
+  <si>
+    <t>/NVS/ACCR_USER  (table)</t>
+  </si>
+  <si>
+    <t>/NVS/ACCR_COCODE (table)</t>
+  </si>
+  <si>
+    <t>/N/NVS/ACCR_TAB_LOGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/N/NVS/ACCRUAL_ENGINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIKO Limit exceptions </t>
+  </si>
+  <si>
+    <t>APUSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JENT (Journal Entry Workflow). </t>
+  </si>
+  <si>
+    <t>Thresholds for Journal Entries (JENT) Credit Limits (CLMD) AR Write offs (WOFF) Credit/Debit memo request workflows (DCNT)</t>
+  </si>
+  <si>
+    <t>Z8CFFIKO_LIM</t>
+  </si>
+  <si>
+    <t>/NVS/EXT_PERS</t>
+  </si>
+  <si>
+    <t>/NVS/APUSR</t>
+  </si>
+  <si>
+    <t>/NVS/NFCM_THRSLD</t>
+  </si>
+  <si>
+    <t>Hanis</t>
+  </si>
+  <si>
+    <t>Ain</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>Posted Reports Volume</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\10  REPORT\AGS KL T&amp;E Exp Rpt Process 2020 2021.xlsx"</t>
+  </si>
+  <si>
+    <t>eTravel 2020</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\10  REPORT\2020\etravel 2020.xlsx"</t>
+  </si>
+  <si>
+    <t>Direct Session List Name</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\12 PROJECT\Direct Session List Name from Jan 2021.xlsx"</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\12 PROJECT\1205 False Positive.xlsx"</t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\How to call Japanese numbers from Malaysia.docx</t>
+  </si>
+  <si>
+    <t>Purecloud call</t>
+  </si>
+  <si>
+    <t>Payment term</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B897F2C36-6DBE-4A39-AD78-0CE171B4C537%7D&amp;file=Excel%E6%A4%9C%E7%B4%A2%E3%83%84%E3%83%BC%E3%83%AB.xlsm&amp;action=default&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>Identify payment term</t>
+  </si>
+  <si>
+    <t>You can search it via vendor list excel or via SAP T-code FK03</t>
+  </si>
+  <si>
+    <t>POT files</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\15 MONTHLY KPI\POT</t>
+  </si>
+  <si>
+    <t>VRT request manual</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\2  SOP\VMD_request_manual.docx</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team B</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : team A</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : team B</t>
+  </si>
+  <si>
+    <t>Purecloud</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : How to call Japan vendor</t>
+  </si>
+  <si>
+    <t>Purecloud call vendor</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : how to confirm invoice requestor</t>
+  </si>
+  <si>
+    <t>Invoice no PIC</t>
+  </si>
+  <si>
+    <t>Invoice PIC check</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Due Net Calculation</t>
+  </si>
+  <si>
+    <t>Invoice offset</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : Kawami Shouri 56722537</t>
+  </si>
+  <si>
+    <t>Wrong Coding Offset</t>
+  </si>
+  <si>
+    <t>Late Payment Proposal</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : late payment run</t>
+  </si>
+  <si>
+    <t>Late Proposal Iida</t>
+  </si>
+  <si>
+    <t>Malaysia Public Holiday</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File :Malaysia PH 2022</t>
+  </si>
+  <si>
+    <t>Refund fee</t>
+  </si>
+  <si>
+    <t>Henkin Tesuuryou</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : 手数料</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -3456,7 +3653,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3751,12 +3948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9989"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A525" sqref="A525"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="11" topLeftCell="C563" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="E563" sqref="E563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3773,7 +3972,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -3811,15 +4010,15 @@
         <v>25</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G8" si="0">+COUNTIF($D:$D,F2)</f>
+        <f t="shared" ref="G2:G10" si="0">+COUNTIF($D:$D,F2)</f>
         <v>3</v>
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>224</v>
       </c>
@@ -3837,7 +4036,7 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H3" s="29"/>
     </row>
@@ -3881,7 +4080,7 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -3903,7 +4102,7 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -3925,11 +4124,11 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="14.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -3964,6 +4163,14 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -3978,6 +4185,14 @@
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -11213,7 +11428,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>913</v>
@@ -11227,10 +11442,10 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B525" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>122</v>
@@ -11240,160 +11455,544 @@
       </c>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="1"/>
-      <c r="D526" s="1"/>
+      <c r="A526" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B526" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="1"/>
-      <c r="D527" s="1"/>
+      <c r="A527" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="528" spans="1:4">
-      <c r="A528" s="1"/>
-      <c r="D528" s="1"/>
+      <c r="A528" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="1"/>
-      <c r="D529" s="1"/>
+      <c r="A529" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="530" spans="1:4">
-      <c r="A530" s="1"/>
-      <c r="D530" s="1"/>
+      <c r="A530" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="531" spans="1:4">
-      <c r="A531" s="1"/>
-      <c r="D531" s="1"/>
+      <c r="A531" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="532" spans="1:4">
-      <c r="A532" s="1"/>
-      <c r="D532" s="1"/>
+      <c r="A532" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="1"/>
-      <c r="D533" s="1"/>
+      <c r="A533" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="534" spans="1:4">
-      <c r="A534" s="1"/>
-      <c r="D534" s="1"/>
+      <c r="A534" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="535" spans="1:4">
-      <c r="A535" s="1"/>
-      <c r="D535" s="1"/>
+      <c r="A535" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="536" spans="1:4">
-      <c r="A536" s="1"/>
-      <c r="D536" s="1"/>
+      <c r="A536" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="537" spans="1:4">
-      <c r="A537" s="1"/>
-      <c r="D537" s="1"/>
+      <c r="A537" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="538" spans="1:4">
-      <c r="A538" s="1"/>
-      <c r="D538" s="1"/>
+      <c r="A538" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="539" spans="1:4">
-      <c r="A539" s="1"/>
-      <c r="D539" s="1"/>
+      <c r="A539" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B539" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="540" spans="1:4">
-      <c r="A540" s="1"/>
-      <c r="D540" s="1"/>
+      <c r="A540" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B540" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="541" spans="1:4">
-      <c r="A541" s="1"/>
-      <c r="D541" s="1"/>
+      <c r="A541" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B541" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="542" spans="1:4">
-      <c r="A542" s="1"/>
-      <c r="D542" s="1"/>
+      <c r="A542" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B542" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="1"/>
-      <c r="D543" s="1"/>
+      <c r="A543" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B543" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="1"/>
-      <c r="D544" s="1"/>
+      <c r="A544" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B544" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="545" spans="1:4">
-      <c r="A545" s="1"/>
-      <c r="D545" s="1"/>
+      <c r="A545" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="546" spans="1:4">
-      <c r="A546" s="1"/>
-      <c r="D546" s="1"/>
+      <c r="A546" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B546" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="547" spans="1:4">
-      <c r="A547" s="1"/>
-      <c r="D547" s="1"/>
-    </row>
-    <row r="548" spans="1:4">
-      <c r="A548" s="1"/>
-      <c r="D548" s="1"/>
+      <c r="A547" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B547" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="13" customHeight="1">
+      <c r="A548" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="549" spans="1:4">
-      <c r="A549" s="1"/>
-      <c r="D549" s="1"/>
-    </row>
-    <row r="550" spans="1:4">
-      <c r="A550" s="1"/>
-      <c r="D550" s="1"/>
-    </row>
-    <row r="551" spans="1:4">
-      <c r="A551" s="1"/>
-      <c r="D551" s="1"/>
-    </row>
-    <row r="552" spans="1:4">
-      <c r="A552" s="1"/>
-      <c r="D552" s="1"/>
-    </row>
-    <row r="553" spans="1:4">
-      <c r="A553" s="1"/>
-      <c r="D553" s="1"/>
-    </row>
-    <row r="554" spans="1:4">
-      <c r="A554" s="1"/>
-      <c r="D554" s="1"/>
-    </row>
-    <row r="555" spans="1:4">
-      <c r="A555" s="1"/>
-      <c r="D555" s="1"/>
-    </row>
-    <row r="556" spans="1:4">
-      <c r="A556" s="1"/>
-      <c r="D556" s="1"/>
-    </row>
-    <row r="557" spans="1:4">
-      <c r="A557" s="1"/>
-      <c r="D557" s="1"/>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="A558" s="1"/>
-      <c r="D558" s="1"/>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="A559" s="1"/>
-      <c r="D559" s="1"/>
-    </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="1"/>
-      <c r="D560" s="1"/>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="1"/>
-      <c r="D561" s="1"/>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="1"/>
-      <c r="D562" s="1"/>
-    </row>
-    <row r="563" spans="1:4">
-      <c r="A563" s="1"/>
-      <c r="D563" s="1"/>
-    </row>
-    <row r="564" spans="1:4">
-      <c r="A564" s="1"/>
-      <c r="D564" s="1"/>
+      <c r="A549" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="58">
+      <c r="A550" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B550" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="58">
+      <c r="A551" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B551" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="58">
+      <c r="A552" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B552" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="58">
+      <c r="A553" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B553" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="58">
+      <c r="A554" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B554" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="58">
+      <c r="A555" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="58">
+      <c r="A556" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B556" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="58">
+      <c r="A557" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="58">
+      <c r="A558" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B558" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="58">
+      <c r="A559" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="58">
+      <c r="A560" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B560" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="58">
+      <c r="A561" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B561" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="58">
+      <c r="A562" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B562" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="58">
+      <c r="A563" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B563" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="58">
+      <c r="A564" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B564" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="1"/>
@@ -49095,13 +49694,49 @@
       <c r="A9989" s="1"/>
       <c r="D9989" s="1"/>
     </row>
+    <row r="9990" spans="1:4">
+      <c r="A9990" s="1"/>
+      <c r="D9990" s="1"/>
+    </row>
+    <row r="9991" spans="1:4">
+      <c r="A9991" s="1"/>
+      <c r="D9991" s="1"/>
+    </row>
+    <row r="9992" spans="1:4">
+      <c r="A9992" s="1"/>
+      <c r="D9992" s="1"/>
+    </row>
+    <row r="9993" spans="1:4">
+      <c r="A9993" s="1"/>
+      <c r="D9993" s="1"/>
+    </row>
+    <row r="9994" spans="1:4">
+      <c r="A9994" s="1"/>
+      <c r="D9994" s="1"/>
+    </row>
+    <row r="9995" spans="1:4">
+      <c r="A9995" s="1"/>
+      <c r="D9995" s="1"/>
+    </row>
+    <row r="9996" spans="1:4">
+      <c r="A9996" s="1"/>
+      <c r="D9996" s="1"/>
+    </row>
+    <row r="9997" spans="1:4">
+      <c r="A9997" s="1"/>
+      <c r="D9997" s="1"/>
+    </row>
+    <row r="9998" spans="1:4">
+      <c r="A9998" s="1"/>
+      <c r="D9998" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D494" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D549"/>
   <mergeCells count="1">
-    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="H2:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G2:G8 G213:G239">
+  <conditionalFormatting sqref="G213:G239 G2:G10">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -49158,360 +49793,384 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$F$2:$F$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>$F$2:$F$10</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B68" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B70" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B72" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B73" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B99" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B100" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B101" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B102" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B103" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B104" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B105" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B106" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B107" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B108" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B109" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B111" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B112" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B114" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B115" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B116" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B117" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B118" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B119" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B120" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B121" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B123" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B124" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B125" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B126" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B128" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B129" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B130" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B131" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B132" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B133" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B134" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B135" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B136" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B137" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B138" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B139" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B140" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B141" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B142" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B143" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A146" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B149" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B158" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B161" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B162" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B168" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B169" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B170" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B171" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B179" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B181" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B5" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B6" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B7" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B23" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B182" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B183" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B185" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B186" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B187" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B188" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B189" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B190" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B191" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B192" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B193" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B194" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B197" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B198" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B199" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B201" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B202" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B203" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B204" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B205" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B206" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B207" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B208" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B209" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B210" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B240" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B241" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B242" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B243" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B246" r:id="rId134" location="a-02" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B247" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B259" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B274" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B275" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B276" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B277" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B278" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B280" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B281" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B282" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B283" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B284" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B285" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B286" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B287" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B288" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B289" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B290" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B291" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B292" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B293" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B294" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B295" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B296" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B297" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B298" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B299" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B300" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B301" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B302" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B308" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B309" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B310" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B311" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B312" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B313" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B314" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B315" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B316" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B317" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B318" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B319" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B320" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B321" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B322" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B323" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B324" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B325" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B326" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B327" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B328" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B329" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B330" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B331" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B332" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B333" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B334" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B335" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B336" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B338" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B340" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B343" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B344" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B345" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B346" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B347" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B348" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B349" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B350" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B351" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B352" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B353" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B355" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B356" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B357" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B358" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B359" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B360" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B361" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B362" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B363" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B364" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B365" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B366" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B367" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B368" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B369" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B372" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B373" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B374" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B375" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B376" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B377" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B378" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B379" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B380" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B381" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B383" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B384" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B385" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B386" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B387" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B388" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B58" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B57" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B395" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B396" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B397" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B398" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B399" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B400" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B401" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B402" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B403" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B405" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B406" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B407" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B408" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B409" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B410" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B411" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B412" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B413" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B414" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B415" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B416" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B417" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B418" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B419" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B421" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B429" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B430" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B431" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B432" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B433" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B439" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B441" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B442" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B443" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B444" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B445" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B446" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B447" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B448" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B449" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B450" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B451" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B452" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B453" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B454" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B455" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B456" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B457" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B458" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B462" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B463" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B464" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B469" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B471" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B473" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B474" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B475" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B476" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B480" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B484" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B485" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B486" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B489" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B490" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B491" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B492" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B493" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B494" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B498" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B500" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B501" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B506" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B519" r:id="rId337" xr:uid="{F720CA53-E902-4015-99E7-CF7ED36AC79D}"/>
-    <hyperlink ref="B521" r:id="rId338" xr:uid="{3CCDE37B-D158-43AD-A978-3B78F9D9BA39}"/>
-    <hyperlink ref="B522" r:id="rId339" xr:uid="{ADF26670-EF5D-48BD-A644-A0CF8811E942}"/>
-    <hyperlink ref="B523" r:id="rId340" xr:uid="{7555B120-F5B3-469E-A7E2-CA5642A357B9}"/>
-    <hyperlink ref="B525" r:id="rId341" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE" xr:uid="{CAEC30DB-069F-48E1-9F54-0FE5126ED1C6}"/>
+    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B28" r:id="rId15"/>
+    <hyperlink ref="B29" r:id="rId16"/>
+    <hyperlink ref="B30" r:id="rId17"/>
+    <hyperlink ref="B31" r:id="rId18"/>
+    <hyperlink ref="B33" r:id="rId19"/>
+    <hyperlink ref="B34" r:id="rId20"/>
+    <hyperlink ref="B36" r:id="rId21"/>
+    <hyperlink ref="B37" r:id="rId22"/>
+    <hyperlink ref="B38" r:id="rId23"/>
+    <hyperlink ref="B39" r:id="rId24"/>
+    <hyperlink ref="B40" r:id="rId25"/>
+    <hyperlink ref="B41" r:id="rId26"/>
+    <hyperlink ref="B42" r:id="rId27"/>
+    <hyperlink ref="B44" r:id="rId28"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
+    <hyperlink ref="B61" r:id="rId31"/>
+    <hyperlink ref="B62" r:id="rId32"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
+    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;"/>
+    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
+    <hyperlink ref="B68" r:id="rId37"/>
+    <hyperlink ref="B69" r:id="rId38"/>
+    <hyperlink ref="B70" r:id="rId39"/>
+    <hyperlink ref="B71" r:id="rId40"/>
+    <hyperlink ref="B72" r:id="rId41"/>
+    <hyperlink ref="B73" r:id="rId42"/>
+    <hyperlink ref="B99" r:id="rId43"/>
+    <hyperlink ref="B100" r:id="rId44"/>
+    <hyperlink ref="B101" r:id="rId45"/>
+    <hyperlink ref="B102" r:id="rId46"/>
+    <hyperlink ref="B103" r:id="rId47"/>
+    <hyperlink ref="B104" r:id="rId48"/>
+    <hyperlink ref="B105" r:id="rId49"/>
+    <hyperlink ref="B106" r:id="rId50"/>
+    <hyperlink ref="B107" r:id="rId51"/>
+    <hyperlink ref="B108" r:id="rId52"/>
+    <hyperlink ref="B109" r:id="rId53"/>
+    <hyperlink ref="B111" r:id="rId54"/>
+    <hyperlink ref="B112" r:id="rId55"/>
+    <hyperlink ref="B114" r:id="rId56"/>
+    <hyperlink ref="B115" r:id="rId57"/>
+    <hyperlink ref="B116" r:id="rId58"/>
+    <hyperlink ref="B117" r:id="rId59"/>
+    <hyperlink ref="B118" r:id="rId60"/>
+    <hyperlink ref="B119" r:id="rId61"/>
+    <hyperlink ref="B120" r:id="rId62"/>
+    <hyperlink ref="B121" r:id="rId63"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
+    <hyperlink ref="B113" r:id="rId64"/>
+    <hyperlink ref="B123" r:id="rId65"/>
+    <hyperlink ref="B124" r:id="rId66"/>
+    <hyperlink ref="B125" r:id="rId67"/>
+    <hyperlink ref="B126" r:id="rId68"/>
+    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
+    <hyperlink ref="B128" r:id="rId70"/>
+    <hyperlink ref="B110" r:id="rId71"/>
+    <hyperlink ref="B129" r:id="rId72"/>
+    <hyperlink ref="B130" r:id="rId73"/>
+    <hyperlink ref="B131" r:id="rId74"/>
+    <hyperlink ref="B132" r:id="rId75"/>
+    <hyperlink ref="B133" r:id="rId76"/>
+    <hyperlink ref="B134" r:id="rId77"/>
+    <hyperlink ref="B135" r:id="rId78"/>
+    <hyperlink ref="B136" r:id="rId79"/>
+    <hyperlink ref="B137" r:id="rId80"/>
+    <hyperlink ref="B138" r:id="rId81"/>
+    <hyperlink ref="B139" r:id="rId82"/>
+    <hyperlink ref="B140" r:id="rId83"/>
+    <hyperlink ref="B141" r:id="rId84"/>
+    <hyperlink ref="B142" r:id="rId85"/>
+    <hyperlink ref="B143" r:id="rId86"/>
+    <hyperlink ref="A146" r:id="rId87"/>
+    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
+    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304"/>
+    <hyperlink ref="B149" r:id="rId90"/>
+    <hyperlink ref="B158" r:id="rId91"/>
+    <hyperlink ref="B161" r:id="rId92"/>
+    <hyperlink ref="B162" r:id="rId93"/>
+    <hyperlink ref="B168" r:id="rId94"/>
+    <hyperlink ref="B169" r:id="rId95"/>
+    <hyperlink ref="B170" r:id="rId96"/>
+    <hyperlink ref="B171" r:id="rId97"/>
+    <hyperlink ref="B179" r:id="rId98"/>
+    <hyperlink ref="B181" r:id="rId99"/>
+    <hyperlink ref="B5" r:id="rId100"/>
+    <hyperlink ref="B6" r:id="rId101"/>
+    <hyperlink ref="B7" r:id="rId102"/>
+    <hyperlink ref="B23" r:id="rId103"/>
+    <hyperlink ref="B182" r:id="rId104"/>
+    <hyperlink ref="B183" r:id="rId105"/>
+    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true"/>
+    <hyperlink ref="B185" r:id="rId107"/>
+    <hyperlink ref="B186" r:id="rId108"/>
+    <hyperlink ref="B187" r:id="rId109"/>
+    <hyperlink ref="B188" r:id="rId110"/>
+    <hyperlink ref="B189" r:id="rId111"/>
+    <hyperlink ref="B190" r:id="rId112"/>
+    <hyperlink ref="B191" r:id="rId113"/>
+    <hyperlink ref="B192" r:id="rId114"/>
+    <hyperlink ref="B193" r:id="rId115"/>
+    <hyperlink ref="B194" r:id="rId116"/>
+    <hyperlink ref="B197" r:id="rId117"/>
+    <hyperlink ref="B198" r:id="rId118"/>
+    <hyperlink ref="B199" r:id="rId119"/>
+    <hyperlink ref="B201" r:id="rId120"/>
+    <hyperlink ref="B202" r:id="rId121"/>
+    <hyperlink ref="B203" r:id="rId122"/>
+    <hyperlink ref="B204" r:id="rId123"/>
+    <hyperlink ref="B205" r:id="rId124"/>
+    <hyperlink ref="B206" r:id="rId125"/>
+    <hyperlink ref="B207" r:id="rId126"/>
+    <hyperlink ref="B208" r:id="rId127"/>
+    <hyperlink ref="B209" r:id="rId128"/>
+    <hyperlink ref="B210" r:id="rId129"/>
+    <hyperlink ref="B240" r:id="rId130"/>
+    <hyperlink ref="B241" r:id="rId131"/>
+    <hyperlink ref="B242" r:id="rId132"/>
+    <hyperlink ref="B243" r:id="rId133"/>
+    <hyperlink ref="B246" r:id="rId134" location="a-02"/>
+    <hyperlink ref="B247" r:id="rId135"/>
+    <hyperlink ref="B259" r:id="rId136"/>
+    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
+    <hyperlink ref="B274" r:id="rId141"/>
+    <hyperlink ref="B275" r:id="rId142"/>
+    <hyperlink ref="B276" r:id="rId143"/>
+    <hyperlink ref="B277" r:id="rId144"/>
+    <hyperlink ref="B278" r:id="rId145"/>
+    <hyperlink ref="B280" r:id="rId146"/>
+    <hyperlink ref="B281" r:id="rId147"/>
+    <hyperlink ref="B282" r:id="rId148"/>
+    <hyperlink ref="B283" r:id="rId149"/>
+    <hyperlink ref="B284" r:id="rId150"/>
+    <hyperlink ref="B285" r:id="rId151"/>
+    <hyperlink ref="B286" r:id="rId152"/>
+    <hyperlink ref="B287" r:id="rId153"/>
+    <hyperlink ref="B288" r:id="rId154"/>
+    <hyperlink ref="B289" r:id="rId155"/>
+    <hyperlink ref="B290" r:id="rId156"/>
+    <hyperlink ref="B291" r:id="rId157"/>
+    <hyperlink ref="B292" r:id="rId158"/>
+    <hyperlink ref="B293" r:id="rId159"/>
+    <hyperlink ref="B294" r:id="rId160"/>
+    <hyperlink ref="B295" r:id="rId161"/>
+    <hyperlink ref="B296" r:id="rId162"/>
+    <hyperlink ref="B297" r:id="rId163"/>
+    <hyperlink ref="B298" r:id="rId164"/>
+    <hyperlink ref="B299" r:id="rId165"/>
+    <hyperlink ref="B300" r:id="rId166"/>
+    <hyperlink ref="B301" r:id="rId167"/>
+    <hyperlink ref="B302" r:id="rId168"/>
+    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
+    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
+    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14"/>
+    <hyperlink ref="B308" r:id="rId174"/>
+    <hyperlink ref="B309" r:id="rId175"/>
+    <hyperlink ref="B310" r:id="rId176"/>
+    <hyperlink ref="B311" r:id="rId177"/>
+    <hyperlink ref="B312" r:id="rId178"/>
+    <hyperlink ref="B313" r:id="rId179"/>
+    <hyperlink ref="B314" r:id="rId180"/>
+    <hyperlink ref="B315" r:id="rId181"/>
+    <hyperlink ref="B316" r:id="rId182"/>
+    <hyperlink ref="B317" r:id="rId183"/>
+    <hyperlink ref="B318" r:id="rId184"/>
+    <hyperlink ref="B319" r:id="rId185"/>
+    <hyperlink ref="B320" r:id="rId186"/>
+    <hyperlink ref="B321" r:id="rId187"/>
+    <hyperlink ref="B322" r:id="rId188"/>
+    <hyperlink ref="B323" r:id="rId189"/>
+    <hyperlink ref="B324" r:id="rId190"/>
+    <hyperlink ref="B325" r:id="rId191"/>
+    <hyperlink ref="B326" r:id="rId192"/>
+    <hyperlink ref="B327" r:id="rId193"/>
+    <hyperlink ref="B328" r:id="rId194"/>
+    <hyperlink ref="B329" r:id="rId195"/>
+    <hyperlink ref="B330" r:id="rId196"/>
+    <hyperlink ref="B331" r:id="rId197"/>
+    <hyperlink ref="B332" r:id="rId198"/>
+    <hyperlink ref="B333" r:id="rId199"/>
+    <hyperlink ref="B334" r:id="rId200"/>
+    <hyperlink ref="B335" r:id="rId201"/>
+    <hyperlink ref="B336" r:id="rId202"/>
+    <hyperlink ref="B338" r:id="rId203"/>
+    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
+    <hyperlink ref="B340" r:id="rId205"/>
+    <hyperlink ref="B343" r:id="rId206"/>
+    <hyperlink ref="B344" r:id="rId207"/>
+    <hyperlink ref="B345" r:id="rId208"/>
+    <hyperlink ref="B346" r:id="rId209"/>
+    <hyperlink ref="B347" r:id="rId210"/>
+    <hyperlink ref="B348" r:id="rId211"/>
+    <hyperlink ref="B349" r:id="rId212"/>
+    <hyperlink ref="B350" r:id="rId213"/>
+    <hyperlink ref="B351" r:id="rId214"/>
+    <hyperlink ref="B352" r:id="rId215"/>
+    <hyperlink ref="B353" r:id="rId216"/>
+    <hyperlink ref="B355" r:id="rId217"/>
+    <hyperlink ref="B356" r:id="rId218"/>
+    <hyperlink ref="B357" r:id="rId219"/>
+    <hyperlink ref="B358" r:id="rId220"/>
+    <hyperlink ref="B359" r:id="rId221"/>
+    <hyperlink ref="B360" r:id="rId222"/>
+    <hyperlink ref="B361" r:id="rId223"/>
+    <hyperlink ref="B362" r:id="rId224"/>
+    <hyperlink ref="B363" r:id="rId225"/>
+    <hyperlink ref="B364" r:id="rId226"/>
+    <hyperlink ref="B365" r:id="rId227"/>
+    <hyperlink ref="B366" r:id="rId228"/>
+    <hyperlink ref="B367" r:id="rId229"/>
+    <hyperlink ref="B368" r:id="rId230"/>
+    <hyperlink ref="B369" r:id="rId231"/>
+    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg"/>
+    <hyperlink ref="B372" r:id="rId233"/>
+    <hyperlink ref="B373" r:id="rId234"/>
+    <hyperlink ref="B374" r:id="rId235"/>
+    <hyperlink ref="B375" r:id="rId236"/>
+    <hyperlink ref="B376" r:id="rId237"/>
+    <hyperlink ref="B377" r:id="rId238"/>
+    <hyperlink ref="B378" r:id="rId239"/>
+    <hyperlink ref="B379" r:id="rId240"/>
+    <hyperlink ref="B380" r:id="rId241"/>
+    <hyperlink ref="B381" r:id="rId242"/>
+    <hyperlink ref="B383" r:id="rId243"/>
+    <hyperlink ref="B384" r:id="rId244"/>
+    <hyperlink ref="B385" r:id="rId245"/>
+    <hyperlink ref="B386" r:id="rId246"/>
+    <hyperlink ref="B387" r:id="rId247"/>
+    <hyperlink ref="B388" r:id="rId248"/>
+    <hyperlink ref="B58" r:id="rId249"/>
+    <hyperlink ref="B57" r:id="rId250"/>
+    <hyperlink ref="B395" r:id="rId251"/>
+    <hyperlink ref="B396" r:id="rId252"/>
+    <hyperlink ref="B397" r:id="rId253"/>
+    <hyperlink ref="B398" r:id="rId254"/>
+    <hyperlink ref="B399" r:id="rId255"/>
+    <hyperlink ref="B400" r:id="rId256"/>
+    <hyperlink ref="B401" r:id="rId257"/>
+    <hyperlink ref="B402" r:id="rId258"/>
+    <hyperlink ref="B403" r:id="rId259"/>
+    <hyperlink ref="B405" r:id="rId260"/>
+    <hyperlink ref="B406" r:id="rId261"/>
+    <hyperlink ref="B407" r:id="rId262"/>
+    <hyperlink ref="B408" r:id="rId263"/>
+    <hyperlink ref="B409" r:id="rId264"/>
+    <hyperlink ref="B410" r:id="rId265"/>
+    <hyperlink ref="B411" r:id="rId266"/>
+    <hyperlink ref="B412" r:id="rId267"/>
+    <hyperlink ref="B413" r:id="rId268"/>
+    <hyperlink ref="B414" r:id="rId269"/>
+    <hyperlink ref="B415" r:id="rId270"/>
+    <hyperlink ref="B416" r:id="rId271"/>
+    <hyperlink ref="B417" r:id="rId272"/>
+    <hyperlink ref="B418" r:id="rId273"/>
+    <hyperlink ref="B419" r:id="rId274"/>
+    <hyperlink ref="B421" r:id="rId275"/>
+    <hyperlink ref="B429" r:id="rId276"/>
+    <hyperlink ref="B430" r:id="rId277"/>
+    <hyperlink ref="B431" r:id="rId278"/>
+    <hyperlink ref="B432" r:id="rId279"/>
+    <hyperlink ref="B433" r:id="rId280"/>
+    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
+    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
+    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
+    <hyperlink ref="B439" r:id="rId284"/>
+    <hyperlink ref="B441" r:id="rId285"/>
+    <hyperlink ref="B442" r:id="rId286"/>
+    <hyperlink ref="B443" r:id="rId287"/>
+    <hyperlink ref="B444" r:id="rId288"/>
+    <hyperlink ref="B445" r:id="rId289"/>
+    <hyperlink ref="B446" r:id="rId290"/>
+    <hyperlink ref="B447" r:id="rId291"/>
+    <hyperlink ref="B448" r:id="rId292"/>
+    <hyperlink ref="B449" r:id="rId293"/>
+    <hyperlink ref="B450" r:id="rId294"/>
+    <hyperlink ref="B451" r:id="rId295"/>
+    <hyperlink ref="B452" r:id="rId296"/>
+    <hyperlink ref="B453" r:id="rId297"/>
+    <hyperlink ref="B454" r:id="rId298"/>
+    <hyperlink ref="B455" r:id="rId299"/>
+    <hyperlink ref="B456" r:id="rId300"/>
+    <hyperlink ref="B457" r:id="rId301"/>
+    <hyperlink ref="B458" r:id="rId302"/>
+    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102"/>
+    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu"/>
+    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display"/>
+    <hyperlink ref="B462" r:id="rId306"/>
+    <hyperlink ref="B463" r:id="rId307"/>
+    <hyperlink ref="B464" r:id="rId308"/>
+    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com"/>
+    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
+    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
+    <hyperlink ref="B469" r:id="rId312"/>
+    <hyperlink ref="B471" r:id="rId313"/>
+    <hyperlink ref="B473" r:id="rId314"/>
+    <hyperlink ref="B474" r:id="rId315"/>
+    <hyperlink ref="B475" r:id="rId316"/>
+    <hyperlink ref="B476" r:id="rId317"/>
+    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
+    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
+    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
+    <hyperlink ref="B480" r:id="rId321"/>
+    <hyperlink ref="B484" r:id="rId322"/>
+    <hyperlink ref="B485" r:id="rId323"/>
+    <hyperlink ref="B486" r:id="rId324"/>
+    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views"/>
+    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views"/>
+    <hyperlink ref="B489" r:id="rId327"/>
+    <hyperlink ref="B490" r:id="rId328"/>
+    <hyperlink ref="B491" r:id="rId329"/>
+    <hyperlink ref="B492" r:id="rId330"/>
+    <hyperlink ref="B493" r:id="rId331"/>
+    <hyperlink ref="B494" r:id="rId332"/>
+    <hyperlink ref="B498" r:id="rId333"/>
+    <hyperlink ref="B500" r:id="rId334"/>
+    <hyperlink ref="B501" r:id="rId335"/>
+    <hyperlink ref="B506" r:id="rId336"/>
+    <hyperlink ref="B519" r:id="rId337"/>
+    <hyperlink ref="B521" r:id="rId338"/>
+    <hyperlink ref="B522" r:id="rId339"/>
+    <hyperlink ref="B523" r:id="rId340"/>
+    <hyperlink ref="B525" r:id="rId341" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE"/>
+    <hyperlink ref="B526" r:id="rId342"/>
+    <hyperlink ref="B539" r:id="rId343"/>
+    <hyperlink ref="B540" r:id="rId344"/>
+    <hyperlink ref="B541" r:id="rId345"/>
+    <hyperlink ref="B543" r:id="rId346"/>
+    <hyperlink ref="B542" r:id="rId347"/>
+    <hyperlink ref="B544" r:id="rId348"/>
+    <hyperlink ref="B546" r:id="rId349"/>
+    <hyperlink ref="B547" r:id="rId350"/>
+    <hyperlink ref="B550" r:id="rId351"/>
+    <hyperlink ref="B551" r:id="rId352"/>
+    <hyperlink ref="B552" r:id="rId353"/>
+    <hyperlink ref="B553" r:id="rId354"/>
+    <hyperlink ref="B554" r:id="rId355"/>
+    <hyperlink ref="B555" r:id="rId356"/>
+    <hyperlink ref="B556" r:id="rId357"/>
+    <hyperlink ref="B557" r:id="rId358"/>
+    <hyperlink ref="B558" r:id="rId359"/>
+    <hyperlink ref="B559" r:id="rId360"/>
+    <hyperlink ref="B560" r:id="rId361"/>
+    <hyperlink ref="B561" r:id="rId362"/>
+    <hyperlink ref="B562" r:id="rId363"/>
+    <hyperlink ref="B563" r:id="rId364"/>
+    <hyperlink ref="B564" r:id="rId365"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId342"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId366"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId343"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId344"/>
+    <customPr name="_pios_id" r:id="rId367"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId368"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -49531,7 +50190,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G8 G213:G239</xm:sqref>
+          <xm:sqref>G213:G239 G2:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3FB01497-E984-4BAD-A8F7-39415467035E}">
@@ -49588,7 +50247,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
@@ -49601,10 +50260,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -49738,13 +50399,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -49830,14 +50490,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E0118-8352-411C-B2B3-0C42BD6F4B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -17,9 +18,9 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$D$549</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$570</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,18 +39,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1017">
   <si>
     <t>Kota</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Answer</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\37 FIKO\Approval_Table_Maintence.pdf</t>
@@ -2933,11 +2934,11 @@
   </si>
   <si>
     <t>Email open prevention</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Outlook&gt;Option&gt;Advanced&gt;Reading Pane&gt;Uncheck the next two checkboxes ”Mark items as read when viewed in the Reading Pane/Mark item as read when selection changes</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Kumimodoshi local</t>
@@ -3091,7 +3092,7 @@
   </si>
   <si>
     <t>FIKO table maintenance</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\FIKO\20211011_APAC FIKO_EXT PERS_Other Tables Maitenance_V2 のコピー.xlsx</t>
@@ -3152,9 +3153,6 @@
   </si>
   <si>
     <t>Ain</t>
-  </si>
-  <si>
-    <t>xxxx</t>
   </si>
   <si>
     <t>Posted Reports Volume</t>
@@ -3289,12 +3287,132 @@
   <si>
     <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
 File : 手数料</t>
+  </si>
+  <si>
+    <t>Global KPI</t>
+  </si>
+  <si>
+    <t>Attached Invoice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4</t>
+  </si>
+  <si>
+    <t>To find invoices</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp5</t>
+  </si>
+  <si>
+    <t>Invoice for each payment</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp6</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA Operations%2FGPO%2FT%26E%2FT%26E JAPAN%2F1_General Documents%2FNew Global Travel Expense Policy_Effective August 1 2020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA Operations%2FGPO%2FT%26E%2FT%26E JAPAN%2F1_General Documents</t>
+  </si>
+  <si>
+    <t>Travel Global Policy</t>
+  </si>
+  <si>
+    <t>Travel claim</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\11  Others\Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBRA video </t>
+  </si>
+  <si>
+    <t>BI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Value date: This is the date on which bank has to dispatch the money to payee account.
+This date doesn’t get entered in vendor invoice as this will be based on when F110 (Payment run) will be executed and hence not available in FBL1N. 
+Clearing date : This is date on which vendor invoice is cleared by payment document created by F110  .
+Normally value date in report will match with clearing date in vendor invoice .
+In some exceptional cases value date will be in future . For JP23 payment method D will have value date in future .
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COVID-19 Duty Protocol</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/000DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F000DocLib%2FCV%2FFitforDuty.pdf&amp;parent=%2Fsites%2FInSight%2F000DocLib%2FCV</t>
+  </si>
+  <si>
+    <t>COVID-19 Related Cases</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/000DocLib/CV/IfSuspectedConfirmedWorkplace.pdf?csf=1&amp;e=fww0C1&amp;cid=9378f09c-b627-439a-9925-a41a254cc5a9&amp;cid=C90D3A9D-9FB8-4D68-9B6B-088746B5C7A4&amp;CT=1642753778974&amp;OR=Outlook-Body</t>
+  </si>
+  <si>
+    <t>COVID-19 Next Steps</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/000DocLib/CV/NextStepsLevelOneCovidContacts.pdf?cid=a1744887-0cf9-45ca-996d-737229b13ac2&amp;cid=7A5AABCB-1ACE-4BD6-8908-C315F2266817&amp;CT=1642753785455&amp;OR=Outlook-Body</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/000DocLib/Forms/AllItems.aspx?id=/sites/InSight/000DocLib/CV/PayGuidance.pdf&amp;parent=/sites/InSight/000DocLib/CV</t>
+  </si>
+  <si>
+    <t>COVID-19 Pay Guidance</t>
+  </si>
+  <si>
+    <t>Appzen Rejection Template</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\10  REPORT\Rejection Sample.xlsx"</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\10  REPORT\2021\T&amp;E report_Approval status 2021.xlsx"</t>
+  </si>
+  <si>
+    <t>Approved Reports 2021</t>
+  </si>
+  <si>
+    <t>AGSKL Expense Reports 2020/2021</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\12 PROJECT\Paperless Project</t>
+  </si>
+  <si>
+    <t>Paperless Projects</t>
+  </si>
+  <si>
+    <t>What is R2P</t>
+  </si>
+  <si>
+    <t>Request to Pay. Also known as Account Payable (AP). AP spans from how they process suppliers/vendors invoice to how they timely pay these invoices.</t>
+  </si>
+  <si>
+    <t>What is AFCM</t>
+  </si>
+  <si>
+    <t>Alcon Financial Cash Management.</t>
+  </si>
+  <si>
+    <t>What is SNOW</t>
+  </si>
+  <si>
+    <t>One-stop shop that provides an efficient and improved capability to manage Finance and Procurement requests, including but not limited to supplier inquiries, Accounts Payable and T&amp;E.</t>
+  </si>
+  <si>
+    <t>T&amp;E process diagram</t>
+  </si>
+  <si>
+    <t>http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE.164BA4CACCEA4131A7590FA35E984BCC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -3302,6 +3420,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3378,13 +3503,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3453,7 +3571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3461,25 +3579,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3488,46 +3606,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="11" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3542,10 +3660,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3948,14 +4066,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C563" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="11" topLeftCell="C576" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="E563" sqref="E563"/>
+      <selection pane="bottomRight" activeCell="F583" sqref="F583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3972,7 +4090,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -4015,7 +4133,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(G2:G8)</f>
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
@@ -4080,7 +4198,7 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -4102,7 +4220,7 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -4124,7 +4242,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -4146,7 +4264,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -4190,7 +4308,7 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" s="29"/>
     </row>
@@ -11638,10 +11756,10 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B539" s="12" t="s">
         <v>939</v>
-      </c>
-      <c r="B539" s="12" t="s">
-        <v>940</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>31</v>
@@ -11652,10 +11770,10 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B540" s="12" t="s">
         <v>941</v>
-      </c>
-      <c r="B540" s="12" t="s">
-        <v>942</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>31</v>
@@ -11666,10 +11784,10 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B541" s="12" t="s">
         <v>943</v>
-      </c>
-      <c r="B541" s="12" t="s">
-        <v>944</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>31</v>
@@ -11680,10 +11798,10 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B542" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>55</v>
@@ -11694,10 +11812,10 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B543" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>34</v>
@@ -11708,10 +11826,10 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B544" s="12" t="s">
         <v>950</v>
-      </c>
-      <c r="B544" s="12" t="s">
-        <v>951</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>32</v>
@@ -11722,10 +11840,10 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B545" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="B545" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>32</v>
@@ -11736,10 +11854,10 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B546" s="12" t="s">
         <v>954</v>
-      </c>
-      <c r="B546" s="12" t="s">
-        <v>955</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>200</v>
@@ -11750,10 +11868,10 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B547" s="12" t="s">
         <v>956</v>
-      </c>
-      <c r="B547" s="12" t="s">
-        <v>957</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>32</v>
@@ -11775,10 +11893,13 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B549" s="2" t="s">
-        <v>938</v>
+        <v>989</v>
+      </c>
+      <c r="B549" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>937</v>
@@ -11786,10 +11907,10 @@
     </row>
     <row r="550" spans="1:4" ht="58">
       <c r="A550" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B550" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>122</v>
@@ -11800,10 +11921,10 @@
     </row>
     <row r="551" spans="1:4" ht="58">
       <c r="A551" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B551" s="18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>122</v>
@@ -11814,10 +11935,10 @@
     </row>
     <row r="552" spans="1:4" ht="58">
       <c r="A552" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B552" s="18" t="s">
         <v>962</v>
-      </c>
-      <c r="B552" s="18" t="s">
-        <v>963</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>122</v>
@@ -11828,10 +11949,10 @@
     </row>
     <row r="553" spans="1:4" ht="58">
       <c r="A553" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B553" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>122</v>
@@ -11842,10 +11963,10 @@
     </row>
     <row r="554" spans="1:4" ht="58">
       <c r="A554" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B554" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>116</v>
@@ -11856,10 +11977,10 @@
     </row>
     <row r="555" spans="1:4" ht="58">
       <c r="A555" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B555" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>116</v>
@@ -11870,10 +11991,10 @@
     </row>
     <row r="556" spans="1:4" ht="58">
       <c r="A556" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B556" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>30</v>
@@ -11884,10 +12005,10 @@
     </row>
     <row r="557" spans="1:4" ht="58">
       <c r="A557" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B557" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>30</v>
@@ -11898,10 +12019,10 @@
     </row>
     <row r="558" spans="1:4" ht="58">
       <c r="A558" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B558" s="18" t="s">
         <v>970</v>
-      </c>
-      <c r="B558" s="18" t="s">
-        <v>971</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>30</v>
@@ -11912,10 +12033,10 @@
     </row>
     <row r="559" spans="1:4" ht="58">
       <c r="A559" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B559" s="18" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>30</v>
@@ -11926,10 +12047,10 @@
     </row>
     <row r="560" spans="1:4" ht="58">
       <c r="A560" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B560" s="18" t="s">
         <v>973</v>
-      </c>
-      <c r="B560" s="18" t="s">
-        <v>974</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>200</v>
@@ -11940,10 +12061,10 @@
     </row>
     <row r="561" spans="1:4" ht="58">
       <c r="A561" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>200</v>
@@ -11954,10 +12075,10 @@
     </row>
     <row r="562" spans="1:4" ht="58">
       <c r="A562" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B562" s="18" t="s">
         <v>976</v>
-      </c>
-      <c r="B562" s="18" t="s">
-        <v>977</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>122</v>
@@ -11968,10 +12089,10 @@
     </row>
     <row r="563" spans="1:4" ht="58">
       <c r="A563" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>117</v>
@@ -11982,10 +12103,10 @@
     </row>
     <row r="564" spans="1:4" ht="58">
       <c r="A564" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B564" s="18" t="s">
         <v>979</v>
-      </c>
-      <c r="B564" s="18" t="s">
-        <v>980</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>117</v>
@@ -11995,80 +12116,270 @@
       </c>
     </row>
     <row r="565" spans="1:4">
-      <c r="A565" s="1"/>
-      <c r="D565" s="1"/>
+      <c r="A565" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B565" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="566" spans="1:4">
-      <c r="A566" s="1"/>
-      <c r="D566" s="1"/>
+      <c r="A566" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B566" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="567" spans="1:4">
-      <c r="A567" s="1"/>
-      <c r="D567" s="1"/>
+      <c r="A567" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B567" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="568" spans="1:4">
-      <c r="A568" s="1"/>
-      <c r="D568" s="1"/>
+      <c r="A568" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B568" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="569" spans="1:4">
-      <c r="A569" s="1"/>
-      <c r="D569" s="1"/>
+      <c r="A569" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="570" spans="1:4">
-      <c r="A570" s="1"/>
-      <c r="D570" s="1"/>
-    </row>
-    <row r="571" spans="1:4">
-      <c r="A571" s="1"/>
-      <c r="D571" s="1"/>
+      <c r="A570" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="203">
+      <c r="A571" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B571" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="572" spans="1:4">
-      <c r="A572" s="1"/>
-      <c r="D572" s="1"/>
+      <c r="A572" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B572" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="573" spans="1:4">
-      <c r="A573" s="1"/>
-      <c r="D573" s="1"/>
+      <c r="A573" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B573" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="574" spans="1:4">
-      <c r="A574" s="1"/>
-      <c r="D574" s="1"/>
+      <c r="A574" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B574" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="575" spans="1:4">
-      <c r="A575" s="1"/>
-      <c r="D575" s="1"/>
+      <c r="A575" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B575" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="576" spans="1:4">
-      <c r="A576" s="1"/>
-      <c r="D576" s="1"/>
+      <c r="A576" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B576" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="577" spans="1:4">
-      <c r="A577" s="1"/>
-      <c r="D577" s="1"/>
+      <c r="A577" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B577" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="578" spans="1:4">
-      <c r="A578" s="1"/>
-      <c r="D578" s="1"/>
+      <c r="A578" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B578" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="579" spans="1:4">
-      <c r="A579" s="1"/>
-      <c r="D579" s="1"/>
+      <c r="A579" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B579" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="580" spans="1:4">
-      <c r="A580" s="1"/>
-      <c r="D580" s="1"/>
+      <c r="A580" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="581" spans="1:4">
-      <c r="A581" s="1"/>
-      <c r="D581" s="1"/>
+      <c r="A581" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="582" spans="1:4">
-      <c r="A582" s="1"/>
-      <c r="D582" s="1"/>
+      <c r="A582" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="583" spans="1:4">
-      <c r="A583" s="1"/>
-      <c r="D583" s="1"/>
+      <c r="A583" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="1"/>
@@ -49731,11 +50042,11 @@
       <c r="D9998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D549"/>
+  <autoFilter ref="A1:H570" xr:uid="{633D4895-6898-4EFA-8CD2-C0F639B41191}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H10"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="G213:G239 G2:G10">
     <cfRule type="dataBar" priority="6">
       <dataBar>
@@ -49793,384 +50104,399 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$2:$F$10</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B17" r:id="rId14"/>
-    <hyperlink ref="B28" r:id="rId15"/>
-    <hyperlink ref="B29" r:id="rId16"/>
-    <hyperlink ref="B30" r:id="rId17"/>
-    <hyperlink ref="B31" r:id="rId18"/>
-    <hyperlink ref="B33" r:id="rId19"/>
-    <hyperlink ref="B34" r:id="rId20"/>
-    <hyperlink ref="B36" r:id="rId21"/>
-    <hyperlink ref="B37" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
-    <hyperlink ref="B39" r:id="rId24"/>
-    <hyperlink ref="B40" r:id="rId25"/>
-    <hyperlink ref="B41" r:id="rId26"/>
-    <hyperlink ref="B42" r:id="rId27"/>
-    <hyperlink ref="B44" r:id="rId28"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B61" r:id="rId31"/>
-    <hyperlink ref="B62" r:id="rId32"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
-    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;"/>
-    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
-    <hyperlink ref="B68" r:id="rId37"/>
-    <hyperlink ref="B69" r:id="rId38"/>
-    <hyperlink ref="B70" r:id="rId39"/>
-    <hyperlink ref="B71" r:id="rId40"/>
-    <hyperlink ref="B72" r:id="rId41"/>
-    <hyperlink ref="B73" r:id="rId42"/>
-    <hyperlink ref="B99" r:id="rId43"/>
-    <hyperlink ref="B100" r:id="rId44"/>
-    <hyperlink ref="B101" r:id="rId45"/>
-    <hyperlink ref="B102" r:id="rId46"/>
-    <hyperlink ref="B103" r:id="rId47"/>
-    <hyperlink ref="B104" r:id="rId48"/>
-    <hyperlink ref="B105" r:id="rId49"/>
-    <hyperlink ref="B106" r:id="rId50"/>
-    <hyperlink ref="B107" r:id="rId51"/>
-    <hyperlink ref="B108" r:id="rId52"/>
-    <hyperlink ref="B109" r:id="rId53"/>
-    <hyperlink ref="B111" r:id="rId54"/>
-    <hyperlink ref="B112" r:id="rId55"/>
-    <hyperlink ref="B114" r:id="rId56"/>
-    <hyperlink ref="B115" r:id="rId57"/>
-    <hyperlink ref="B116" r:id="rId58"/>
-    <hyperlink ref="B117" r:id="rId59"/>
-    <hyperlink ref="B118" r:id="rId60"/>
-    <hyperlink ref="B119" r:id="rId61"/>
-    <hyperlink ref="B120" r:id="rId62"/>
-    <hyperlink ref="B121" r:id="rId63"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
-    <hyperlink ref="B113" r:id="rId64"/>
-    <hyperlink ref="B123" r:id="rId65"/>
-    <hyperlink ref="B124" r:id="rId66"/>
-    <hyperlink ref="B125" r:id="rId67"/>
-    <hyperlink ref="B126" r:id="rId68"/>
-    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
-    <hyperlink ref="B128" r:id="rId70"/>
-    <hyperlink ref="B110" r:id="rId71"/>
-    <hyperlink ref="B129" r:id="rId72"/>
-    <hyperlink ref="B130" r:id="rId73"/>
-    <hyperlink ref="B131" r:id="rId74"/>
-    <hyperlink ref="B132" r:id="rId75"/>
-    <hyperlink ref="B133" r:id="rId76"/>
-    <hyperlink ref="B134" r:id="rId77"/>
-    <hyperlink ref="B135" r:id="rId78"/>
-    <hyperlink ref="B136" r:id="rId79"/>
-    <hyperlink ref="B137" r:id="rId80"/>
-    <hyperlink ref="B138" r:id="rId81"/>
-    <hyperlink ref="B139" r:id="rId82"/>
-    <hyperlink ref="B140" r:id="rId83"/>
-    <hyperlink ref="B141" r:id="rId84"/>
-    <hyperlink ref="B142" r:id="rId85"/>
-    <hyperlink ref="B143" r:id="rId86"/>
-    <hyperlink ref="A146" r:id="rId87"/>
-    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304"/>
-    <hyperlink ref="B149" r:id="rId90"/>
-    <hyperlink ref="B158" r:id="rId91"/>
-    <hyperlink ref="B161" r:id="rId92"/>
-    <hyperlink ref="B162" r:id="rId93"/>
-    <hyperlink ref="B168" r:id="rId94"/>
-    <hyperlink ref="B169" r:id="rId95"/>
-    <hyperlink ref="B170" r:id="rId96"/>
-    <hyperlink ref="B171" r:id="rId97"/>
-    <hyperlink ref="B179" r:id="rId98"/>
-    <hyperlink ref="B181" r:id="rId99"/>
-    <hyperlink ref="B5" r:id="rId100"/>
-    <hyperlink ref="B6" r:id="rId101"/>
-    <hyperlink ref="B7" r:id="rId102"/>
-    <hyperlink ref="B23" r:id="rId103"/>
-    <hyperlink ref="B182" r:id="rId104"/>
-    <hyperlink ref="B183" r:id="rId105"/>
-    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true"/>
-    <hyperlink ref="B185" r:id="rId107"/>
-    <hyperlink ref="B186" r:id="rId108"/>
-    <hyperlink ref="B187" r:id="rId109"/>
-    <hyperlink ref="B188" r:id="rId110"/>
-    <hyperlink ref="B189" r:id="rId111"/>
-    <hyperlink ref="B190" r:id="rId112"/>
-    <hyperlink ref="B191" r:id="rId113"/>
-    <hyperlink ref="B192" r:id="rId114"/>
-    <hyperlink ref="B193" r:id="rId115"/>
-    <hyperlink ref="B194" r:id="rId116"/>
-    <hyperlink ref="B197" r:id="rId117"/>
-    <hyperlink ref="B198" r:id="rId118"/>
-    <hyperlink ref="B199" r:id="rId119"/>
-    <hyperlink ref="B201" r:id="rId120"/>
-    <hyperlink ref="B202" r:id="rId121"/>
-    <hyperlink ref="B203" r:id="rId122"/>
-    <hyperlink ref="B204" r:id="rId123"/>
-    <hyperlink ref="B205" r:id="rId124"/>
-    <hyperlink ref="B206" r:id="rId125"/>
-    <hyperlink ref="B207" r:id="rId126"/>
-    <hyperlink ref="B208" r:id="rId127"/>
-    <hyperlink ref="B209" r:id="rId128"/>
-    <hyperlink ref="B210" r:id="rId129"/>
-    <hyperlink ref="B240" r:id="rId130"/>
-    <hyperlink ref="B241" r:id="rId131"/>
-    <hyperlink ref="B242" r:id="rId132"/>
-    <hyperlink ref="B243" r:id="rId133"/>
-    <hyperlink ref="B246" r:id="rId134" location="a-02"/>
-    <hyperlink ref="B247" r:id="rId135"/>
-    <hyperlink ref="B259" r:id="rId136"/>
-    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B274" r:id="rId141"/>
-    <hyperlink ref="B275" r:id="rId142"/>
-    <hyperlink ref="B276" r:id="rId143"/>
-    <hyperlink ref="B277" r:id="rId144"/>
-    <hyperlink ref="B278" r:id="rId145"/>
-    <hyperlink ref="B280" r:id="rId146"/>
-    <hyperlink ref="B281" r:id="rId147"/>
-    <hyperlink ref="B282" r:id="rId148"/>
-    <hyperlink ref="B283" r:id="rId149"/>
-    <hyperlink ref="B284" r:id="rId150"/>
-    <hyperlink ref="B285" r:id="rId151"/>
-    <hyperlink ref="B286" r:id="rId152"/>
-    <hyperlink ref="B287" r:id="rId153"/>
-    <hyperlink ref="B288" r:id="rId154"/>
-    <hyperlink ref="B289" r:id="rId155"/>
-    <hyperlink ref="B290" r:id="rId156"/>
-    <hyperlink ref="B291" r:id="rId157"/>
-    <hyperlink ref="B292" r:id="rId158"/>
-    <hyperlink ref="B293" r:id="rId159"/>
-    <hyperlink ref="B294" r:id="rId160"/>
-    <hyperlink ref="B295" r:id="rId161"/>
-    <hyperlink ref="B296" r:id="rId162"/>
-    <hyperlink ref="B297" r:id="rId163"/>
-    <hyperlink ref="B298" r:id="rId164"/>
-    <hyperlink ref="B299" r:id="rId165"/>
-    <hyperlink ref="B300" r:id="rId166"/>
-    <hyperlink ref="B301" r:id="rId167"/>
-    <hyperlink ref="B302" r:id="rId168"/>
-    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14"/>
-    <hyperlink ref="B308" r:id="rId174"/>
-    <hyperlink ref="B309" r:id="rId175"/>
-    <hyperlink ref="B310" r:id="rId176"/>
-    <hyperlink ref="B311" r:id="rId177"/>
-    <hyperlink ref="B312" r:id="rId178"/>
-    <hyperlink ref="B313" r:id="rId179"/>
-    <hyperlink ref="B314" r:id="rId180"/>
-    <hyperlink ref="B315" r:id="rId181"/>
-    <hyperlink ref="B316" r:id="rId182"/>
-    <hyperlink ref="B317" r:id="rId183"/>
-    <hyperlink ref="B318" r:id="rId184"/>
-    <hyperlink ref="B319" r:id="rId185"/>
-    <hyperlink ref="B320" r:id="rId186"/>
-    <hyperlink ref="B321" r:id="rId187"/>
-    <hyperlink ref="B322" r:id="rId188"/>
-    <hyperlink ref="B323" r:id="rId189"/>
-    <hyperlink ref="B324" r:id="rId190"/>
-    <hyperlink ref="B325" r:id="rId191"/>
-    <hyperlink ref="B326" r:id="rId192"/>
-    <hyperlink ref="B327" r:id="rId193"/>
-    <hyperlink ref="B328" r:id="rId194"/>
-    <hyperlink ref="B329" r:id="rId195"/>
-    <hyperlink ref="B330" r:id="rId196"/>
-    <hyperlink ref="B331" r:id="rId197"/>
-    <hyperlink ref="B332" r:id="rId198"/>
-    <hyperlink ref="B333" r:id="rId199"/>
-    <hyperlink ref="B334" r:id="rId200"/>
-    <hyperlink ref="B335" r:id="rId201"/>
-    <hyperlink ref="B336" r:id="rId202"/>
-    <hyperlink ref="B338" r:id="rId203"/>
-    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B340" r:id="rId205"/>
-    <hyperlink ref="B343" r:id="rId206"/>
-    <hyperlink ref="B344" r:id="rId207"/>
-    <hyperlink ref="B345" r:id="rId208"/>
-    <hyperlink ref="B346" r:id="rId209"/>
-    <hyperlink ref="B347" r:id="rId210"/>
-    <hyperlink ref="B348" r:id="rId211"/>
-    <hyperlink ref="B349" r:id="rId212"/>
-    <hyperlink ref="B350" r:id="rId213"/>
-    <hyperlink ref="B351" r:id="rId214"/>
-    <hyperlink ref="B352" r:id="rId215"/>
-    <hyperlink ref="B353" r:id="rId216"/>
-    <hyperlink ref="B355" r:id="rId217"/>
-    <hyperlink ref="B356" r:id="rId218"/>
-    <hyperlink ref="B357" r:id="rId219"/>
-    <hyperlink ref="B358" r:id="rId220"/>
-    <hyperlink ref="B359" r:id="rId221"/>
-    <hyperlink ref="B360" r:id="rId222"/>
-    <hyperlink ref="B361" r:id="rId223"/>
-    <hyperlink ref="B362" r:id="rId224"/>
-    <hyperlink ref="B363" r:id="rId225"/>
-    <hyperlink ref="B364" r:id="rId226"/>
-    <hyperlink ref="B365" r:id="rId227"/>
-    <hyperlink ref="B366" r:id="rId228"/>
-    <hyperlink ref="B367" r:id="rId229"/>
-    <hyperlink ref="B368" r:id="rId230"/>
-    <hyperlink ref="B369" r:id="rId231"/>
-    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg"/>
-    <hyperlink ref="B372" r:id="rId233"/>
-    <hyperlink ref="B373" r:id="rId234"/>
-    <hyperlink ref="B374" r:id="rId235"/>
-    <hyperlink ref="B375" r:id="rId236"/>
-    <hyperlink ref="B376" r:id="rId237"/>
-    <hyperlink ref="B377" r:id="rId238"/>
-    <hyperlink ref="B378" r:id="rId239"/>
-    <hyperlink ref="B379" r:id="rId240"/>
-    <hyperlink ref="B380" r:id="rId241"/>
-    <hyperlink ref="B381" r:id="rId242"/>
-    <hyperlink ref="B383" r:id="rId243"/>
-    <hyperlink ref="B384" r:id="rId244"/>
-    <hyperlink ref="B385" r:id="rId245"/>
-    <hyperlink ref="B386" r:id="rId246"/>
-    <hyperlink ref="B387" r:id="rId247"/>
-    <hyperlink ref="B388" r:id="rId248"/>
-    <hyperlink ref="B58" r:id="rId249"/>
-    <hyperlink ref="B57" r:id="rId250"/>
-    <hyperlink ref="B395" r:id="rId251"/>
-    <hyperlink ref="B396" r:id="rId252"/>
-    <hyperlink ref="B397" r:id="rId253"/>
-    <hyperlink ref="B398" r:id="rId254"/>
-    <hyperlink ref="B399" r:id="rId255"/>
-    <hyperlink ref="B400" r:id="rId256"/>
-    <hyperlink ref="B401" r:id="rId257"/>
-    <hyperlink ref="B402" r:id="rId258"/>
-    <hyperlink ref="B403" r:id="rId259"/>
-    <hyperlink ref="B405" r:id="rId260"/>
-    <hyperlink ref="B406" r:id="rId261"/>
-    <hyperlink ref="B407" r:id="rId262"/>
-    <hyperlink ref="B408" r:id="rId263"/>
-    <hyperlink ref="B409" r:id="rId264"/>
-    <hyperlink ref="B410" r:id="rId265"/>
-    <hyperlink ref="B411" r:id="rId266"/>
-    <hyperlink ref="B412" r:id="rId267"/>
-    <hyperlink ref="B413" r:id="rId268"/>
-    <hyperlink ref="B414" r:id="rId269"/>
-    <hyperlink ref="B415" r:id="rId270"/>
-    <hyperlink ref="B416" r:id="rId271"/>
-    <hyperlink ref="B417" r:id="rId272"/>
-    <hyperlink ref="B418" r:id="rId273"/>
-    <hyperlink ref="B419" r:id="rId274"/>
-    <hyperlink ref="B421" r:id="rId275"/>
-    <hyperlink ref="B429" r:id="rId276"/>
-    <hyperlink ref="B430" r:id="rId277"/>
-    <hyperlink ref="B431" r:id="rId278"/>
-    <hyperlink ref="B432" r:id="rId279"/>
-    <hyperlink ref="B433" r:id="rId280"/>
-    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B439" r:id="rId284"/>
-    <hyperlink ref="B441" r:id="rId285"/>
-    <hyperlink ref="B442" r:id="rId286"/>
-    <hyperlink ref="B443" r:id="rId287"/>
-    <hyperlink ref="B444" r:id="rId288"/>
-    <hyperlink ref="B445" r:id="rId289"/>
-    <hyperlink ref="B446" r:id="rId290"/>
-    <hyperlink ref="B447" r:id="rId291"/>
-    <hyperlink ref="B448" r:id="rId292"/>
-    <hyperlink ref="B449" r:id="rId293"/>
-    <hyperlink ref="B450" r:id="rId294"/>
-    <hyperlink ref="B451" r:id="rId295"/>
-    <hyperlink ref="B452" r:id="rId296"/>
-    <hyperlink ref="B453" r:id="rId297"/>
-    <hyperlink ref="B454" r:id="rId298"/>
-    <hyperlink ref="B455" r:id="rId299"/>
-    <hyperlink ref="B456" r:id="rId300"/>
-    <hyperlink ref="B457" r:id="rId301"/>
-    <hyperlink ref="B458" r:id="rId302"/>
-    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102"/>
-    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu"/>
-    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display"/>
-    <hyperlink ref="B462" r:id="rId306"/>
-    <hyperlink ref="B463" r:id="rId307"/>
-    <hyperlink ref="B464" r:id="rId308"/>
-    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com"/>
-    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B469" r:id="rId312"/>
-    <hyperlink ref="B471" r:id="rId313"/>
-    <hyperlink ref="B473" r:id="rId314"/>
-    <hyperlink ref="B474" r:id="rId315"/>
-    <hyperlink ref="B475" r:id="rId316"/>
-    <hyperlink ref="B476" r:id="rId317"/>
-    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B480" r:id="rId321"/>
-    <hyperlink ref="B484" r:id="rId322"/>
-    <hyperlink ref="B485" r:id="rId323"/>
-    <hyperlink ref="B486" r:id="rId324"/>
-    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views"/>
-    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views"/>
-    <hyperlink ref="B489" r:id="rId327"/>
-    <hyperlink ref="B490" r:id="rId328"/>
-    <hyperlink ref="B491" r:id="rId329"/>
-    <hyperlink ref="B492" r:id="rId330"/>
-    <hyperlink ref="B493" r:id="rId331"/>
-    <hyperlink ref="B494" r:id="rId332"/>
-    <hyperlink ref="B498" r:id="rId333"/>
-    <hyperlink ref="B500" r:id="rId334"/>
-    <hyperlink ref="B501" r:id="rId335"/>
-    <hyperlink ref="B506" r:id="rId336"/>
-    <hyperlink ref="B519" r:id="rId337"/>
-    <hyperlink ref="B521" r:id="rId338"/>
-    <hyperlink ref="B522" r:id="rId339"/>
-    <hyperlink ref="B523" r:id="rId340"/>
-    <hyperlink ref="B525" r:id="rId341" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE"/>
-    <hyperlink ref="B526" r:id="rId342"/>
-    <hyperlink ref="B539" r:id="rId343"/>
-    <hyperlink ref="B540" r:id="rId344"/>
-    <hyperlink ref="B541" r:id="rId345"/>
-    <hyperlink ref="B543" r:id="rId346"/>
-    <hyperlink ref="B542" r:id="rId347"/>
-    <hyperlink ref="B544" r:id="rId348"/>
-    <hyperlink ref="B546" r:id="rId349"/>
-    <hyperlink ref="B547" r:id="rId350"/>
-    <hyperlink ref="B550" r:id="rId351"/>
-    <hyperlink ref="B551" r:id="rId352"/>
-    <hyperlink ref="B552" r:id="rId353"/>
-    <hyperlink ref="B553" r:id="rId354"/>
-    <hyperlink ref="B554" r:id="rId355"/>
-    <hyperlink ref="B555" r:id="rId356"/>
-    <hyperlink ref="B556" r:id="rId357"/>
-    <hyperlink ref="B557" r:id="rId358"/>
-    <hyperlink ref="B558" r:id="rId359"/>
-    <hyperlink ref="B559" r:id="rId360"/>
-    <hyperlink ref="B560" r:id="rId361"/>
-    <hyperlink ref="B561" r:id="rId362"/>
-    <hyperlink ref="B562" r:id="rId363"/>
-    <hyperlink ref="B563" r:id="rId364"/>
-    <hyperlink ref="B564" r:id="rId365"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B66" r:id="rId35" display="&quot;I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\08  MAIL RELATED\FR0179446 - Flight ticket reimburse.msg&quot;" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B67" r:id="rId36" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B68" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B70" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B72" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B73" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B99" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B100" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B101" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B102" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B103" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B104" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B105" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B106" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B107" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B108" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B109" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B111" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B112" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B114" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B115" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B116" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B117" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B118" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B119" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B120" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B121" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B123" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B124" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B125" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B126" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B127" r:id="rId69" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B128" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B129" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B130" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B131" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B132" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B133" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B134" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B135" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B136" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B137" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B138" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B139" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B140" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B141" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B142" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B143" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A146" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B147" r:id="rId88" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B148" r:id="rId89" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B149" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B158" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B161" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B162" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B168" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B169" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B170" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B171" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B179" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B181" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B5" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B6" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B7" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B23" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B182" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B183" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B184" r:id="rId106" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B185" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B186" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B187" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B188" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B189" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B190" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B191" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B192" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B193" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B194" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B197" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B198" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B199" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B201" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B202" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B203" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B204" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B205" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B206" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B207" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B208" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B209" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B210" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B240" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B241" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B242" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B243" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B246" r:id="rId134" location="a-02" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B247" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B259" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B264" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B265" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B266" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B267" r:id="rId140" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B274" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B275" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B276" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B277" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B278" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B280" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B281" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B282" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B283" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B284" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B285" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B286" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B287" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B288" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B289" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B290" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B291" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B292" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B293" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B294" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B295" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B296" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B297" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B298" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B299" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B300" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B301" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B302" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B303" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B304" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B305" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B306" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B307" r:id="rId173" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B308" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B309" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B310" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B311" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B312" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B313" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B314" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B315" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B316" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B317" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B318" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B319" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B320" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B321" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B322" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B323" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B324" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B325" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B326" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B327" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B328" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B329" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B330" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B331" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B332" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B333" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B334" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B335" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B336" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B338" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B339" r:id="rId204" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B340" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B343" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B344" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B345" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B346" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B347" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B348" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B349" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B350" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B351" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B352" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B353" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B355" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B356" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B357" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B358" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B359" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B360" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B361" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B362" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B363" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B364" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B365" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B366" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B367" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B368" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B369" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B370:B371" r:id="rId232" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B372" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B373" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B374" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B375" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B376" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B377" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B378" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B379" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B380" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B381" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B383" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B384" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B385" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B386" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B387" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B388" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B58" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B57" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B395" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B396" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B397" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B398" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B399" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B400" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B401" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B402" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B403" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B405" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B406" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B407" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B408" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B409" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B410" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B411" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B412" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B413" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B414" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B415" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B416" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B417" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B418" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B419" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B421" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B429" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B430" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B431" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B432" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B433" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B436" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B437" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B438" r:id="rId283" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B439" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B441" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B442" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B443" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B444" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B445" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B446" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B447" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B448" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B449" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B450" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B451" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B452" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B453" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B454" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B455" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B456" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B457" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B458" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B459" r:id="rId303" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B460" r:id="rId304" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B461" r:id="rId305" location="ZMYBANK-display" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B462" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B463" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B464" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B465" r:id="rId309" display="maiko.okamoto@alcon.com" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B467" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B468" r:id="rId311" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B469" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B471" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B473" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B474" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B475" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B476" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B477" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B478" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B479" r:id="rId320" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B480" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B484" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B485" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B486" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B487" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B488" r:id="rId326" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B489" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B490" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B491" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B492" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B493" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B494" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B498" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B500" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B501" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B506" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B519" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B521" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B522" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B523" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B525" r:id="rId341" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B526" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B539" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B540" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B541" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B543" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B542" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B544" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B546" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B547" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B550" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B551" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B552" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B553" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B554" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B555" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B556" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B557" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B558" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B559" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B560" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B561" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B562" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B563" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B564" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B565" r:id="rId366" xr:uid="{2CF43044-CBA9-486E-9866-725D07DEC91A}"/>
+    <hyperlink ref="B566" r:id="rId367" xr:uid="{51F63FB9-B3E7-4DF3-BE7A-D17C5DE6C06D}"/>
+    <hyperlink ref="B567" r:id="rId368" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{3BE7BB3B-4252-4749-8C6D-781BDDE3A0B9}"/>
+    <hyperlink ref="B568" r:id="rId369" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{E5C641A5-02E0-475F-AC7F-5078C75D2437}"/>
+    <hyperlink ref="B569" r:id="rId370" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA Operations%2FGPO%2FT%26E%2FT%26E JAPAN%2F1_General Documents%2FNew Global Travel Expense Policy_Effective August 1 2020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA Operations%2FGPO%2FT%26E%2FT%26E JAPAN%2F1_General Documents" xr:uid="{57E38EEC-F527-4806-A955-CB9F54FE53EE}"/>
+    <hyperlink ref="B549" r:id="rId371" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{790C1DF7-5E3C-41BF-A8DF-CAF503C7D5DC}"/>
+    <hyperlink ref="B572" r:id="rId372" xr:uid="{7BF1A194-8B37-4659-B785-C38FDE46D0CE}"/>
+    <hyperlink ref="B573" r:id="rId373" xr:uid="{489A7FDC-B0F0-40EE-891B-4091380E6127}"/>
+    <hyperlink ref="B574" r:id="rId374" xr:uid="{75F1A2A1-1B47-4ABB-A8B4-E4BA5A1A4B2E}"/>
+    <hyperlink ref="B575" r:id="rId375" xr:uid="{ED34BA91-19DE-4131-AA76-2650140FEC4F}"/>
+    <hyperlink ref="B576" r:id="rId376" xr:uid="{DDE98B3C-FD9E-4812-BB57-B9B18B67AA4D}"/>
+    <hyperlink ref="B577" r:id="rId377" xr:uid="{379A4842-ECDD-468F-A84A-848C84A584E9}"/>
+    <hyperlink ref="B578" r:id="rId378" xr:uid="{8A5E5B2C-DD70-4B23-A2B7-8BC51F67B98F}"/>
+    <hyperlink ref="B579" r:id="rId379" xr:uid="{6142C4BF-65EC-4E4E-A467-18589605C406}"/>
+    <hyperlink ref="B583" r:id="rId380" xr:uid="{EBEB2199-FD16-499A-8F48-72AD1E53B445}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId366"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId381"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId367"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId368"/>
+    <customPr name="_pios_id" r:id="rId382"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId383"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -50247,7 +50573,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
@@ -50260,11 +50586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -50394,17 +50720,18 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -50488,15 +50815,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C683E-F658-45EE-AB46-55DE51431C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$657</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="1182">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="2"/>
@@ -3946,7 +3947,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -4612,14 +4613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C662" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C660" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G670" sqref="G670"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -12743,7 +12744,9 @@
       <c r="A570" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B570" s="3"/>
+      <c r="B570" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="C570" s="2" t="s">
         <v>199</v>
       </c>
@@ -51504,7 +51507,7 @@
       <c r="D9998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H657"/>
+  <autoFilter ref="A1:H657" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H11"/>
   </mergeCells>
@@ -51566,432 +51569,432 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D613 D617:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D613 D617:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$2:$F$11</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B17" r:id="rId14"/>
-    <hyperlink ref="B28" r:id="rId15"/>
-    <hyperlink ref="B29" r:id="rId16"/>
-    <hyperlink ref="B30" r:id="rId17"/>
-    <hyperlink ref="B31" r:id="rId18"/>
-    <hyperlink ref="B33" r:id="rId19"/>
-    <hyperlink ref="B34" r:id="rId20"/>
-    <hyperlink ref="B36" r:id="rId21"/>
-    <hyperlink ref="B37" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
-    <hyperlink ref="B39" r:id="rId24"/>
-    <hyperlink ref="B40" r:id="rId25"/>
-    <hyperlink ref="B41" r:id="rId26"/>
-    <hyperlink ref="B42" r:id="rId27"/>
-    <hyperlink ref="B44" r:id="rId28"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021"/>
-    <hyperlink ref="B61" r:id="rId31"/>
-    <hyperlink ref="B62" r:id="rId32"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations"/>
-    <hyperlink ref="B67" r:id="rId35" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG"/>
-    <hyperlink ref="B68" r:id="rId36"/>
-    <hyperlink ref="B69" r:id="rId37"/>
-    <hyperlink ref="B70" r:id="rId38"/>
-    <hyperlink ref="B71" r:id="rId39"/>
-    <hyperlink ref="B72" r:id="rId40"/>
-    <hyperlink ref="B73" r:id="rId41"/>
-    <hyperlink ref="B99" r:id="rId42"/>
-    <hyperlink ref="B100" r:id="rId43"/>
-    <hyperlink ref="B101" r:id="rId44"/>
-    <hyperlink ref="B102" r:id="rId45"/>
-    <hyperlink ref="B103" r:id="rId46"/>
-    <hyperlink ref="B104" r:id="rId47"/>
-    <hyperlink ref="B105" r:id="rId48"/>
-    <hyperlink ref="B106" r:id="rId49"/>
-    <hyperlink ref="B107" r:id="rId50"/>
-    <hyperlink ref="B108" r:id="rId51"/>
-    <hyperlink ref="B109" r:id="rId52"/>
-    <hyperlink ref="B111" r:id="rId53"/>
-    <hyperlink ref="B112" r:id="rId54"/>
-    <hyperlink ref="B114" r:id="rId55"/>
-    <hyperlink ref="B115" r:id="rId56"/>
-    <hyperlink ref="B116" r:id="rId57"/>
-    <hyperlink ref="B117" r:id="rId58"/>
-    <hyperlink ref="B118" r:id="rId59"/>
-    <hyperlink ref="B119" r:id="rId60"/>
-    <hyperlink ref="B120" r:id="rId61"/>
-    <hyperlink ref="B121" r:id="rId62"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI"/>
-    <hyperlink ref="B113" r:id="rId63"/>
-    <hyperlink ref="B123" r:id="rId64"/>
-    <hyperlink ref="B124" r:id="rId65"/>
-    <hyperlink ref="B125" r:id="rId66"/>
-    <hyperlink ref="B126" r:id="rId67"/>
-    <hyperlink ref="B127" r:id="rId68" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx"/>
-    <hyperlink ref="B128" r:id="rId69"/>
-    <hyperlink ref="B110" r:id="rId70"/>
-    <hyperlink ref="B129" r:id="rId71"/>
-    <hyperlink ref="B130" r:id="rId72"/>
-    <hyperlink ref="B131" r:id="rId73"/>
-    <hyperlink ref="B132" r:id="rId74"/>
-    <hyperlink ref="B133" r:id="rId75"/>
-    <hyperlink ref="B134" r:id="rId76"/>
-    <hyperlink ref="B135" r:id="rId77"/>
-    <hyperlink ref="B136" r:id="rId78"/>
-    <hyperlink ref="B137" r:id="rId79"/>
-    <hyperlink ref="B138" r:id="rId80"/>
-    <hyperlink ref="B139" r:id="rId81"/>
-    <hyperlink ref="B140" r:id="rId82"/>
-    <hyperlink ref="B141" r:id="rId83"/>
-    <hyperlink ref="B142" r:id="rId84"/>
-    <hyperlink ref="B143" r:id="rId85"/>
-    <hyperlink ref="A146" r:id="rId86"/>
-    <hyperlink ref="B147" r:id="rId87" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B148" r:id="rId88" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304"/>
-    <hyperlink ref="B149" r:id="rId89"/>
-    <hyperlink ref="B158" r:id="rId90"/>
-    <hyperlink ref="B161" r:id="rId91"/>
-    <hyperlink ref="B162" r:id="rId92"/>
-    <hyperlink ref="B168" r:id="rId93"/>
-    <hyperlink ref="B169" r:id="rId94"/>
-    <hyperlink ref="B170" r:id="rId95"/>
-    <hyperlink ref="B171" r:id="rId96"/>
-    <hyperlink ref="B179" r:id="rId97"/>
-    <hyperlink ref="B181" r:id="rId98"/>
-    <hyperlink ref="B5" r:id="rId99"/>
-    <hyperlink ref="B6" r:id="rId100"/>
-    <hyperlink ref="B7" r:id="rId101"/>
-    <hyperlink ref="B23" r:id="rId102"/>
-    <hyperlink ref="B182" r:id="rId103"/>
-    <hyperlink ref="B183" r:id="rId104"/>
-    <hyperlink ref="B184" r:id="rId105" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true"/>
-    <hyperlink ref="B185" r:id="rId106"/>
-    <hyperlink ref="B186" r:id="rId107"/>
-    <hyperlink ref="B187" r:id="rId108"/>
-    <hyperlink ref="B188" r:id="rId109"/>
-    <hyperlink ref="B189" r:id="rId110"/>
-    <hyperlink ref="B190" r:id="rId111"/>
-    <hyperlink ref="B191" r:id="rId112"/>
-    <hyperlink ref="B192" r:id="rId113"/>
-    <hyperlink ref="B193" r:id="rId114"/>
-    <hyperlink ref="B194" r:id="rId115"/>
-    <hyperlink ref="B197" r:id="rId116"/>
-    <hyperlink ref="B198" r:id="rId117"/>
-    <hyperlink ref="B199" r:id="rId118"/>
-    <hyperlink ref="B201" r:id="rId119"/>
-    <hyperlink ref="B202" r:id="rId120"/>
-    <hyperlink ref="B203" r:id="rId121"/>
-    <hyperlink ref="B204" r:id="rId122"/>
-    <hyperlink ref="B205" r:id="rId123"/>
-    <hyperlink ref="B206" r:id="rId124"/>
-    <hyperlink ref="B207" r:id="rId125"/>
-    <hyperlink ref="B208" r:id="rId126"/>
-    <hyperlink ref="B209" r:id="rId127"/>
-    <hyperlink ref="B210" r:id="rId128"/>
-    <hyperlink ref="B240" r:id="rId129"/>
-    <hyperlink ref="B241" r:id="rId130"/>
-    <hyperlink ref="B242" r:id="rId131"/>
-    <hyperlink ref="B243" r:id="rId132"/>
-    <hyperlink ref="B246" r:id="rId133" location="a-02"/>
-    <hyperlink ref="B247" r:id="rId134"/>
-    <hyperlink ref="B259" r:id="rId135"/>
-    <hyperlink ref="B264" r:id="rId136" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B265" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B266" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B267" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww"/>
-    <hyperlink ref="B274" r:id="rId140"/>
-    <hyperlink ref="B275" r:id="rId141"/>
-    <hyperlink ref="B276" r:id="rId142"/>
-    <hyperlink ref="B277" r:id="rId143"/>
-    <hyperlink ref="B278" r:id="rId144"/>
-    <hyperlink ref="B280" r:id="rId145"/>
-    <hyperlink ref="B281" r:id="rId146"/>
-    <hyperlink ref="B282" r:id="rId147"/>
-    <hyperlink ref="B283" r:id="rId148"/>
-    <hyperlink ref="B284" r:id="rId149"/>
-    <hyperlink ref="B285" r:id="rId150"/>
-    <hyperlink ref="B286" r:id="rId151"/>
-    <hyperlink ref="B287" r:id="rId152"/>
-    <hyperlink ref="B288" r:id="rId153"/>
-    <hyperlink ref="B289" r:id="rId154"/>
-    <hyperlink ref="B290" r:id="rId155"/>
-    <hyperlink ref="B291" r:id="rId156"/>
-    <hyperlink ref="B292" r:id="rId157"/>
-    <hyperlink ref="B293" r:id="rId158"/>
-    <hyperlink ref="B294" r:id="rId159"/>
-    <hyperlink ref="B295" r:id="rId160"/>
-    <hyperlink ref="B296" r:id="rId161"/>
-    <hyperlink ref="B297" r:id="rId162"/>
-    <hyperlink ref="B298" r:id="rId163"/>
-    <hyperlink ref="B299" r:id="rId164"/>
-    <hyperlink ref="B300" r:id="rId165"/>
-    <hyperlink ref="B301" r:id="rId166"/>
-    <hyperlink ref="B302" r:id="rId167"/>
-    <hyperlink ref="B303" r:id="rId168" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B304" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B305" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B306" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs"/>
-    <hyperlink ref="B307" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14"/>
-    <hyperlink ref="B308" r:id="rId173"/>
-    <hyperlink ref="B309" r:id="rId174"/>
-    <hyperlink ref="B310" r:id="rId175"/>
-    <hyperlink ref="B311" r:id="rId176"/>
-    <hyperlink ref="B312" r:id="rId177"/>
-    <hyperlink ref="B313" r:id="rId178"/>
-    <hyperlink ref="B314" r:id="rId179"/>
-    <hyperlink ref="B315" r:id="rId180"/>
-    <hyperlink ref="B316" r:id="rId181"/>
-    <hyperlink ref="B317" r:id="rId182"/>
-    <hyperlink ref="B318" r:id="rId183"/>
-    <hyperlink ref="B319" r:id="rId184"/>
-    <hyperlink ref="B320" r:id="rId185"/>
-    <hyperlink ref="B321" r:id="rId186"/>
-    <hyperlink ref="B322" r:id="rId187"/>
-    <hyperlink ref="B323" r:id="rId188"/>
-    <hyperlink ref="B324" r:id="rId189"/>
-    <hyperlink ref="B325" r:id="rId190"/>
-    <hyperlink ref="B326" r:id="rId191"/>
-    <hyperlink ref="B327" r:id="rId192"/>
-    <hyperlink ref="B328" r:id="rId193"/>
-    <hyperlink ref="B329" r:id="rId194"/>
-    <hyperlink ref="B330" r:id="rId195"/>
-    <hyperlink ref="B331" r:id="rId196"/>
-    <hyperlink ref="B332" r:id="rId197"/>
-    <hyperlink ref="B333" r:id="rId198"/>
-    <hyperlink ref="B334" r:id="rId199"/>
-    <hyperlink ref="B335" r:id="rId200"/>
-    <hyperlink ref="B336" r:id="rId201"/>
-    <hyperlink ref="B338" r:id="rId202"/>
-    <hyperlink ref="B339" r:id="rId203" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1"/>
-    <hyperlink ref="B340" r:id="rId204"/>
-    <hyperlink ref="B343" r:id="rId205"/>
-    <hyperlink ref="B344" r:id="rId206"/>
-    <hyperlink ref="B345" r:id="rId207"/>
-    <hyperlink ref="B346" r:id="rId208"/>
-    <hyperlink ref="B347" r:id="rId209"/>
-    <hyperlink ref="B348" r:id="rId210"/>
-    <hyperlink ref="B349" r:id="rId211"/>
-    <hyperlink ref="B350" r:id="rId212"/>
-    <hyperlink ref="B351" r:id="rId213"/>
-    <hyperlink ref="B352" r:id="rId214"/>
-    <hyperlink ref="B353" r:id="rId215"/>
-    <hyperlink ref="B355" r:id="rId216"/>
-    <hyperlink ref="B356" r:id="rId217"/>
-    <hyperlink ref="B357" r:id="rId218"/>
-    <hyperlink ref="B358" r:id="rId219"/>
-    <hyperlink ref="B359" r:id="rId220"/>
-    <hyperlink ref="B360" r:id="rId221"/>
-    <hyperlink ref="B361" r:id="rId222"/>
-    <hyperlink ref="B362" r:id="rId223"/>
-    <hyperlink ref="B363" r:id="rId224"/>
-    <hyperlink ref="B364" r:id="rId225"/>
-    <hyperlink ref="B365" r:id="rId226"/>
-    <hyperlink ref="B366" r:id="rId227"/>
-    <hyperlink ref="B367" r:id="rId228"/>
-    <hyperlink ref="B368" r:id="rId229"/>
-    <hyperlink ref="B369" r:id="rId230"/>
-    <hyperlink ref="B370:B371" r:id="rId231" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg"/>
-    <hyperlink ref="B372" r:id="rId232"/>
-    <hyperlink ref="B373" r:id="rId233"/>
-    <hyperlink ref="B374" r:id="rId234"/>
-    <hyperlink ref="B375" r:id="rId235"/>
-    <hyperlink ref="B376" r:id="rId236"/>
-    <hyperlink ref="B377" r:id="rId237"/>
-    <hyperlink ref="B378" r:id="rId238"/>
-    <hyperlink ref="B379" r:id="rId239"/>
-    <hyperlink ref="B380" r:id="rId240"/>
-    <hyperlink ref="B381" r:id="rId241"/>
-    <hyperlink ref="B383" r:id="rId242"/>
-    <hyperlink ref="B384" r:id="rId243"/>
-    <hyperlink ref="B385" r:id="rId244"/>
-    <hyperlink ref="B386" r:id="rId245"/>
-    <hyperlink ref="B387" r:id="rId246"/>
-    <hyperlink ref="B388" r:id="rId247"/>
-    <hyperlink ref="B58" r:id="rId248"/>
-    <hyperlink ref="B57" r:id="rId249"/>
-    <hyperlink ref="B395" r:id="rId250"/>
-    <hyperlink ref="B396" r:id="rId251"/>
-    <hyperlink ref="B397" r:id="rId252"/>
-    <hyperlink ref="B398" r:id="rId253"/>
-    <hyperlink ref="B399" r:id="rId254"/>
-    <hyperlink ref="B400" r:id="rId255"/>
-    <hyperlink ref="B401" r:id="rId256"/>
-    <hyperlink ref="B402" r:id="rId257"/>
-    <hyperlink ref="B403" r:id="rId258"/>
-    <hyperlink ref="B405" r:id="rId259"/>
-    <hyperlink ref="B406" r:id="rId260"/>
-    <hyperlink ref="B407" r:id="rId261"/>
-    <hyperlink ref="B408" r:id="rId262"/>
-    <hyperlink ref="B409" r:id="rId263"/>
-    <hyperlink ref="B410" r:id="rId264"/>
-    <hyperlink ref="B411" r:id="rId265"/>
-    <hyperlink ref="B412" r:id="rId266"/>
-    <hyperlink ref="B413" r:id="rId267"/>
-    <hyperlink ref="B414" r:id="rId268"/>
-    <hyperlink ref="B415" r:id="rId269"/>
-    <hyperlink ref="B416" r:id="rId270"/>
-    <hyperlink ref="B417" r:id="rId271"/>
-    <hyperlink ref="B418" r:id="rId272"/>
-    <hyperlink ref="B419" r:id="rId273"/>
-    <hyperlink ref="B421" r:id="rId274"/>
-    <hyperlink ref="B429" r:id="rId275"/>
-    <hyperlink ref="B430" r:id="rId276"/>
-    <hyperlink ref="B431" r:id="rId277"/>
-    <hyperlink ref="B432" r:id="rId278"/>
-    <hyperlink ref="B433" r:id="rId279"/>
-    <hyperlink ref="B436" r:id="rId280" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B437" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B438" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday"/>
-    <hyperlink ref="B439" r:id="rId283"/>
-    <hyperlink ref="B441" r:id="rId284"/>
-    <hyperlink ref="B442" r:id="rId285"/>
-    <hyperlink ref="B443" r:id="rId286"/>
-    <hyperlink ref="B444" r:id="rId287"/>
-    <hyperlink ref="B445" r:id="rId288"/>
-    <hyperlink ref="B446" r:id="rId289"/>
-    <hyperlink ref="B447" r:id="rId290"/>
-    <hyperlink ref="B448" r:id="rId291"/>
-    <hyperlink ref="B449" r:id="rId292"/>
-    <hyperlink ref="B450" r:id="rId293"/>
-    <hyperlink ref="B451" r:id="rId294"/>
-    <hyperlink ref="B452" r:id="rId295"/>
-    <hyperlink ref="B453" r:id="rId296"/>
-    <hyperlink ref="B454" r:id="rId297"/>
-    <hyperlink ref="B455" r:id="rId298"/>
-    <hyperlink ref="B456" r:id="rId299"/>
-    <hyperlink ref="B457" r:id="rId300"/>
-    <hyperlink ref="B458" r:id="rId301"/>
-    <hyperlink ref="B459" r:id="rId302" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102"/>
-    <hyperlink ref="B460" r:id="rId303" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu"/>
-    <hyperlink ref="B461" r:id="rId304" location="ZMYBANK-display"/>
-    <hyperlink ref="B462" r:id="rId305"/>
-    <hyperlink ref="B463" r:id="rId306"/>
-    <hyperlink ref="B464" r:id="rId307"/>
-    <hyperlink ref="B465" r:id="rId308" display="maiko.okamoto@alcon.com"/>
-    <hyperlink ref="B467" r:id="rId309" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B468" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM"/>
-    <hyperlink ref="B469" r:id="rId311"/>
-    <hyperlink ref="B471" r:id="rId312"/>
-    <hyperlink ref="B473" r:id="rId313"/>
-    <hyperlink ref="B474" r:id="rId314"/>
-    <hyperlink ref="B475" r:id="rId315"/>
-    <hyperlink ref="B476" r:id="rId316"/>
-    <hyperlink ref="B477" r:id="rId317" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides"/>
-    <hyperlink ref="B478" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B479" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B480" r:id="rId320"/>
-    <hyperlink ref="B484" r:id="rId321"/>
-    <hyperlink ref="B485" r:id="rId322"/>
-    <hyperlink ref="B486" r:id="rId323"/>
-    <hyperlink ref="B487" r:id="rId324" location="/site/FRAGlobal/workbooks/8033/views"/>
-    <hyperlink ref="B488" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views"/>
-    <hyperlink ref="B489" r:id="rId326"/>
-    <hyperlink ref="B490" r:id="rId327"/>
-    <hyperlink ref="B491" r:id="rId328"/>
-    <hyperlink ref="B492" r:id="rId329"/>
-    <hyperlink ref="B493" r:id="rId330"/>
-    <hyperlink ref="B494" r:id="rId331"/>
-    <hyperlink ref="B498" r:id="rId332"/>
-    <hyperlink ref="B500" r:id="rId333"/>
-    <hyperlink ref="B501" r:id="rId334"/>
-    <hyperlink ref="B506" r:id="rId335"/>
-    <hyperlink ref="B519" r:id="rId336"/>
-    <hyperlink ref="B521" r:id="rId337"/>
-    <hyperlink ref="B522" r:id="rId338"/>
-    <hyperlink ref="B523" r:id="rId339"/>
-    <hyperlink ref="B525" r:id="rId340" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE"/>
-    <hyperlink ref="B526" r:id="rId341"/>
-    <hyperlink ref="B539" r:id="rId342"/>
-    <hyperlink ref="B540" r:id="rId343"/>
-    <hyperlink ref="B541" r:id="rId344"/>
-    <hyperlink ref="B543" r:id="rId345"/>
-    <hyperlink ref="B542" r:id="rId346"/>
-    <hyperlink ref="B544" r:id="rId347"/>
-    <hyperlink ref="B546" r:id="rId348"/>
-    <hyperlink ref="B547" r:id="rId349"/>
-    <hyperlink ref="B550" r:id="rId350"/>
-    <hyperlink ref="B551" r:id="rId351"/>
-    <hyperlink ref="B552" r:id="rId352"/>
-    <hyperlink ref="B553" r:id="rId353"/>
-    <hyperlink ref="B554" r:id="rId354"/>
-    <hyperlink ref="B555" r:id="rId355"/>
-    <hyperlink ref="B556" r:id="rId356"/>
-    <hyperlink ref="B557" r:id="rId357"/>
-    <hyperlink ref="B558" r:id="rId358"/>
-    <hyperlink ref="B559" r:id="rId359"/>
-    <hyperlink ref="B560" r:id="rId360"/>
-    <hyperlink ref="B561" r:id="rId361"/>
-    <hyperlink ref="B562" r:id="rId362"/>
-    <hyperlink ref="B563" r:id="rId363"/>
-    <hyperlink ref="B564" r:id="rId364"/>
-    <hyperlink ref="B565" r:id="rId365"/>
-    <hyperlink ref="B566" r:id="rId366"/>
-    <hyperlink ref="B567" r:id="rId367" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4"/>
-    <hyperlink ref="B568" r:id="rId368" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4"/>
-    <hyperlink ref="B549" r:id="rId369" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents"/>
-    <hyperlink ref="B572" r:id="rId370"/>
-    <hyperlink ref="B573" r:id="rId371"/>
-    <hyperlink ref="B574" r:id="rId372"/>
-    <hyperlink ref="B575" r:id="rId373"/>
-    <hyperlink ref="B576" r:id="rId374"/>
-    <hyperlink ref="B577" r:id="rId375"/>
-    <hyperlink ref="B578" r:id="rId376"/>
-    <hyperlink ref="B579" r:id="rId377"/>
-    <hyperlink ref="B583" r:id="rId378"/>
-    <hyperlink ref="B66" r:id="rId379"/>
-    <hyperlink ref="B606" r:id="rId380"/>
-    <hyperlink ref="B607" r:id="rId381"/>
-    <hyperlink ref="B608" r:id="rId382" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing%2F%EF%BC%9CALJ%EF%BC%9E%E7%A4%BE%E5%AE%85%E3%83%BB%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%81%AE%E3%82%AC%E3%82%A4%E3%83%89%E3%83%96%E3%83%83%E3%82%AF_20210414.pdf&amp;parent=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing&amp;isSPOFile=1&amp;OR=Teams-HL&amp;CT=1643358574668&amp;sourceId=&amp;params=%7B%22AppName%22%3A%22Teams-Desktop%22%2C%22AppVersion%22%3A%2227%2F21110108720%22%7D"/>
-    <hyperlink ref="B609" r:id="rId383"/>
-    <hyperlink ref="B610" r:id="rId384"/>
-    <hyperlink ref="B611" r:id="rId385"/>
-    <hyperlink ref="B612" r:id="rId386"/>
-    <hyperlink ref="B613" r:id="rId387"/>
-    <hyperlink ref="B614" r:id="rId388"/>
-    <hyperlink ref="B615" r:id="rId389"/>
-    <hyperlink ref="B616" r:id="rId390"/>
-    <hyperlink ref="B617" r:id="rId391"/>
-    <hyperlink ref="B618" r:id="rId392"/>
-    <hyperlink ref="B619" r:id="rId393"/>
-    <hyperlink ref="B620" r:id="rId394"/>
-    <hyperlink ref="B621" r:id="rId395"/>
-    <hyperlink ref="B645" r:id="rId396" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-essential-training-office-365-microsoft-365%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=UhnPLkJkhVfQ7DsuV1C4Refe45XwAj2HS0fNTkkdPds%3D&amp;reserved=0"/>
-    <hyperlink ref="B646" r:id="rId397" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-pivottables-for-beginners%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=C5bHVDyRfQOXhO%2FZD7XCf4YpTH3VLbLvLcXE3Yz1%2Bv0%3D&amp;reserved=0"/>
-    <hyperlink ref="B647" r:id="rId398" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-introduction-to-formulas-and-functions%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=Iprb6IxgarShNz%2BbY4eV8OwgnxVO1ILXzmeKPDS3eEw%3D&amp;reserved=0"/>
-    <hyperlink ref="B651" r:id="rId399" display="Newjoiner and resigner's expense"/>
-    <hyperlink ref="B652" r:id="rId400"/>
-    <hyperlink ref="B655" r:id="rId401"/>
-    <hyperlink ref="B656" r:id="rId402"/>
-    <hyperlink ref="B657" r:id="rId403"/>
-    <hyperlink ref="B658" r:id="rId404"/>
-    <hyperlink ref="B660" r:id="rId405"/>
-    <hyperlink ref="B661" r:id="rId406"/>
-    <hyperlink ref="B662" r:id="rId407"/>
-    <hyperlink ref="B663" r:id="rId408"/>
-    <hyperlink ref="B664" r:id="rId409"/>
-    <hyperlink ref="B665" r:id="rId410"/>
-    <hyperlink ref="B667" r:id="rId411"/>
-    <hyperlink ref="B668" r:id="rId412"/>
-    <hyperlink ref="B669" r:id="rId413"/>
-    <hyperlink ref="B670" r:id="rId414"/>
-    <hyperlink ref="B671" r:id="rId415"/>
-    <hyperlink ref="B672" r:id="rId416"/>
-    <hyperlink ref="B673" r:id="rId417"/>
-    <hyperlink ref="B674" r:id="rId418"/>
-    <hyperlink ref="B666" r:id="rId419"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B67" r:id="rId35" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B68" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B70" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B71" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B72" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B73" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B99" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B100" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B101" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B102" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B103" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B104" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B105" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B106" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B107" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B108" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B109" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B111" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B112" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B114" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B115" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B116" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B117" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B118" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B119" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B120" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B121" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B123" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B124" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B125" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B126" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B127" r:id="rId68" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B128" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B110" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B129" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B130" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B131" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B132" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B133" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B134" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B135" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B136" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B137" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B138" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B139" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B140" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B141" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B142" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B143" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A146" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B147" r:id="rId87" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B148" r:id="rId88" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B149" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B158" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B161" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B162" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B168" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B169" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B170" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B171" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B179" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B181" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B5" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B6" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B7" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B23" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B182" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B183" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B184" r:id="rId105" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B185" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B186" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B187" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B188" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B189" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B190" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B191" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B192" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B193" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B194" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B197" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B198" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B199" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B201" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B202" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B203" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B204" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B205" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B206" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B207" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B208" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B209" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B210" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B240" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B241" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B242" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B243" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B246" r:id="rId133" location="a-02" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B247" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B259" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B264" r:id="rId136" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B265" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B266" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B267" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B274" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B275" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B276" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B277" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B278" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B280" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B281" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B282" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B283" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B284" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B285" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B286" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B287" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B288" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B289" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B290" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B291" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B292" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B293" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B294" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B295" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B296" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B297" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B298" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B299" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B300" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B301" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B302" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B303" r:id="rId168" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B304" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B305" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B306" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B307" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B308" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B309" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B310" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B311" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B312" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B313" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B314" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B315" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B316" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B317" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B318" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B319" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B320" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B321" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B322" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B323" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B324" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B325" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B326" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B327" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B328" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B329" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B330" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B331" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B332" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B333" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B334" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B335" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B336" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B338" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B339" r:id="rId203" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B340" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B343" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B344" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B345" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B346" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B347" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B348" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B349" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B350" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B351" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B352" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B353" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B355" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B356" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B357" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B358" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B359" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B360" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B361" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B362" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B363" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B364" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B365" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B366" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B367" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B368" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B369" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B370:B371" r:id="rId231" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B372" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B373" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B374" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B375" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B376" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B377" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B378" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B379" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B380" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B381" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B383" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B384" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B385" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B386" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B387" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B388" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B58" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B57" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B395" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B396" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B397" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B398" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B399" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B400" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B401" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B402" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B403" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B405" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B406" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B407" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B408" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B409" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B410" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B411" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B412" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B413" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B414" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B415" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B416" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B417" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B418" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B419" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B421" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B429" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B430" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B431" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B432" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B433" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B436" r:id="rId280" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B437" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B438" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B439" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B441" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B442" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B443" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B444" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B445" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B446" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B447" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B448" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B449" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B450" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B451" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B452" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B453" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B454" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B455" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B456" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B457" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B458" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B459" r:id="rId302" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B460" r:id="rId303" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B461" r:id="rId304" location="ZMYBANK-display" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B462" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B463" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B464" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B465" r:id="rId308" display="maiko.okamoto@alcon.com" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B467" r:id="rId309" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B468" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B469" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B471" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B473" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B474" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B475" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B476" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B477" r:id="rId317" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B478" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B479" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B480" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B484" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B485" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B486" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B487" r:id="rId324" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B488" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B489" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B490" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B491" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B492" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B493" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B494" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B498" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B500" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B501" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B506" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B519" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B521" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B522" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B523" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B525" r:id="rId340" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B526" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B539" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B540" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B541" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B543" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B542" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B544" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B546" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B547" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B550" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B551" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B552" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B553" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B554" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B555" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B556" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B557" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B558" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B559" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B560" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B561" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B562" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B563" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B564" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B565" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B566" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B567" r:id="rId367" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B568" r:id="rId368" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B549" r:id="rId369" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B572" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B573" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B574" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B575" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B576" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B577" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B578" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B579" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B583" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B66" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B606" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B607" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B608" r:id="rId382" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing%2F%EF%BC%9CALJ%EF%BC%9E%E7%A4%BE%E5%AE%85%E3%83%BB%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%81%AE%E3%82%AC%E3%82%A4%E3%83%89%E3%83%96%E3%83%83%E3%82%AF_20210414.pdf&amp;parent=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing&amp;isSPOFile=1&amp;OR=Teams-HL&amp;CT=1643358574668&amp;sourceId=&amp;params=%7B%22AppName%22%3A%22Teams-Desktop%22%2C%22AppVersion%22%3A%2227%2F21110108720%22%7D" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B609" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B610" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B611" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B612" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B613" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B614" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B615" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B616" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B617" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B618" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B619" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B620" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B621" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B645" r:id="rId396" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-essential-training-office-365-microsoft-365%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=UhnPLkJkhVfQ7DsuV1C4Refe45XwAj2HS0fNTkkdPds%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B646" r:id="rId397" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-pivottables-for-beginners%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=C5bHVDyRfQOXhO%2FZD7XCf4YpTH3VLbLvLcXE3Yz1%2Bv0%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B647" r:id="rId398" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-introduction-to-formulas-and-functions%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=Iprb6IxgarShNz%2BbY4eV8OwgnxVO1ILXzmeKPDS3eEw%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B651" r:id="rId399" display="Newjoiner and resigner's expense" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B652" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B655" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B656" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B657" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B658" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B660" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B661" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B662" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B663" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B664" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B665" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B667" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B668" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B669" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B670" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B671" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B672" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B673" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B674" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B666" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId420"/>
@@ -52074,7 +52077,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
@@ -52087,7 +52090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -52236,7 +52239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -52322,7 +52325,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C683E-F658-45EE-AB46-55DE51431C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8F0AC-DD31-4A18-AF82-D4E369AC9894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$657</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$678</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1196">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="2"/>
@@ -3943,12 +3943,59 @@
     <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
 File : VIM coding CF kai jimukyoku</t>
   </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\プロセスまとめ_HCP謝礼金支払から透明性ガイドラインまで.pptx</t>
+  </si>
+  <si>
+    <t>Honorarium to Transparency guidelines</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Process Summary</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vendor change log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\S_ALR_87012089.mp4</t>
+  </si>
+  <si>
+    <t>Employee Information Search</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:b:/r/sites/InSight/263Top%20Resources/JapanHR_Workday/Associate%20Directory.v2_20210916.pdf?csf=1&amp;web=1&amp;e=irHQdQ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Corporate Card folder</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\13 CORPORATE CARD</t>
+  </si>
+  <si>
+    <t>New Employee Checklist</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\13 CORPORATE CARD\Checklist - 退社2022.xlsx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\13 CORPORATE CARD\Form 退会限度額変更.xlsx</t>
+  </si>
+  <si>
+    <t>CC change limit form</t>
+  </si>
+  <si>
+    <t>CC cancellation form</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4060,6 +4107,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4116,7 +4169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4212,6 +4265,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4617,10 +4673,10 @@
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C660" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C675" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B685" sqref="B685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4680,7 +4736,7 @@
       </c>
       <c r="H2" s="31">
         <f>SUM(G2:G11)</f>
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
@@ -4789,7 +4845,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -4855,7 +4911,7 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H10" s="31"/>
     </row>
@@ -14211,36 +14267,116 @@
       </c>
     </row>
     <row r="675" spans="1:4">
-      <c r="A675" s="1"/>
-      <c r="D675" s="1"/>
+      <c r="A675" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B675" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="676" spans="1:4">
-      <c r="A676" s="1"/>
-      <c r="D676" s="1"/>
+      <c r="A676" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B676" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="677" spans="1:4">
-      <c r="A677" s="1"/>
-      <c r="D677" s="1"/>
+      <c r="A677" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B677" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="678" spans="1:4">
-      <c r="A678" s="1"/>
-      <c r="D678" s="1"/>
+      <c r="A678" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B678" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="679" spans="1:4">
-      <c r="A679" s="1"/>
-      <c r="D679" s="1"/>
+      <c r="A679" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B679" s="32" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="680" spans="1:4">
-      <c r="A680" s="1"/>
-      <c r="D680" s="1"/>
+      <c r="A680" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="1"/>
-      <c r="D681" s="1"/>
+      <c r="A681" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="682" spans="1:4">
-      <c r="A682" s="1"/>
-      <c r="D682" s="1"/>
+      <c r="A682" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="1"/>
@@ -51507,7 +51643,7 @@
       <c r="D9998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H657" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H678" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H11"/>
   </mergeCells>
@@ -51995,12 +52131,16 @@
     <hyperlink ref="B673" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
     <hyperlink ref="B674" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
     <hyperlink ref="B666" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B675" r:id="rId420" xr:uid="{B564AA0B-7D53-4665-B0A9-DA1C61B0EF18}"/>
+    <hyperlink ref="B676" r:id="rId421" xr:uid="{52E47412-0444-413E-808F-6C6713393CCF}"/>
+    <hyperlink ref="B677" r:id="rId422" xr:uid="{68A1D903-A99B-405F-A206-87FD5827BD7B}"/>
+    <hyperlink ref="B678" r:id="rId423" xr:uid="{239CB5B5-B93F-4B91-8E5F-B5A211A11AFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId420"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId424"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId421"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId422"/>
+    <customPr name="_pios_id" r:id="rId425"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId426"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -52234,6 +52374,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -52331,7 +52472,8 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8F0AC-DD31-4A18-AF82-D4E369AC9894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D114F4-8A16-405A-9F62-C939FB724CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SOP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$678</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$682</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1204">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="2"/>
@@ -3989,6 +3989,30 @@
   </si>
   <si>
     <t>CC cancellation form</t>
+  </si>
+  <si>
+    <t>Paperless Projects Timeline</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\10 JAPAN T&amp;E\10 PAPERLESS\01 TIMELINE</t>
+  </si>
+  <si>
+    <t>Paperless Projects Deliverable</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\10 JAPAN T&amp;E\10 PAPERLESS\02 DELEVERABLE</t>
+  </si>
+  <si>
+    <t>Paperless Projects T&amp;E</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\10 JAPAN T&amp;E\10 PAPERLESS</t>
+  </si>
+  <si>
+    <t>Paperless Projects AP</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\12 JAPAN R2P\22 FUJIFILM, EXELA</t>
   </si>
 </sst>
 </file>
@@ -4263,11 +4287,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4670,13 +4694,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C675" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C579" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B685" sqref="B685"/>
+      <selection pane="bottomRight" activeCell="A686" sqref="A686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4714,7 +4739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -4734,12 +4759,12 @@
         <f t="shared" ref="G2:G11" si="0">+COUNTIF($D:$D,F2)</f>
         <v>3</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="32">
         <f>SUM(G2:G11)</f>
-        <v>681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" hidden="1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -4759,9 +4784,9 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -4781,9 +4806,9 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -4803,9 +4828,9 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -4825,9 +4850,9 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -4847,9 +4872,9 @@
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" customHeight="1">
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" hidden="1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -4867,11 +4892,11 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" hidden="1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -4891,9 +4916,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" customHeight="1">
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" hidden="1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -4913,9 +4938,9 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -4935,9 +4960,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -4951,7 +4976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -4965,7 +4990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -4979,7 +5004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -5007,7 +5032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -5021,7 +5046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5035,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -5049,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -5063,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -5077,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -5091,7 +5116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5105,7 +5130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -5119,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -5133,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -5147,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -5161,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -5175,7 +5200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -5189,7 +5214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -5203,7 +5228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -5217,7 +5242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -5228,7 +5253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -5242,7 +5267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -5253,7 +5278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -5267,7 +5292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -5281,7 +5306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -5295,7 +5320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -5309,7 +5334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -5323,7 +5348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -5337,7 +5362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -5348,7 +5373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -5359,7 +5384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -5373,7 +5398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -5384,7 +5409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" s="1" t="s">
         <v>174</v>
       </c>
@@ -5398,7 +5423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -5412,7 +5437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -5426,7 +5451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="58">
+    <row r="48" spans="1:4" ht="58" hidden="1">
       <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
@@ -5440,7 +5465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -5454,7 +5479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -5468,7 +5493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -5482,7 +5507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
@@ -5496,7 +5521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -5510,7 +5535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -5524,7 +5549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -5538,7 +5563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -5552,7 +5577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1">
+    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -5569,7 +5594,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1">
+    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>696</v>
       </c>
@@ -5586,7 +5611,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1">
+    <row r="59" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -5600,7 +5625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="43.5">
+    <row r="60" spans="1:5" ht="43.5" hidden="1">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -5614,7 +5639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="1" t="s">
         <v>145</v>
       </c>
@@ -5628,7 +5653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -5642,7 +5667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="1" t="s">
         <v>150</v>
       </c>
@@ -5656,7 +5681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="101.5">
+    <row r="64" spans="1:5" ht="101.5" hidden="1">
       <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
@@ -5670,7 +5695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
@@ -5684,7 +5709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
@@ -5698,7 +5723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
@@ -5712,7 +5737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
@@ -5726,7 +5751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -5740,7 +5765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" s="1" t="s">
         <v>163</v>
       </c>
@@ -5754,7 +5779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
@@ -5768,7 +5793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>167</v>
       </c>
@@ -5782,7 +5807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>173</v>
       </c>
@@ -5796,7 +5821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" s="1" t="s">
         <v>179</v>
       </c>
@@ -5810,7 +5835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" s="1" t="s">
         <v>180</v>
       </c>
@@ -5824,7 +5849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -5838,7 +5863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="1" t="s">
         <v>437</v>
       </c>
@@ -5852,7 +5877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="21" customFormat="1">
+    <row r="78" spans="1:4" s="21" customFormat="1" hidden="1">
       <c r="A78" s="20" t="s">
         <v>185</v>
       </c>
@@ -5866,7 +5891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="21" customFormat="1">
+    <row r="79" spans="1:4" s="21" customFormat="1" hidden="1">
       <c r="A79" s="20" t="s">
         <v>188</v>
       </c>
@@ -5880,7 +5905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
@@ -5894,7 +5919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" s="1" t="s">
         <v>191</v>
       </c>
@@ -5908,7 +5933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" s="1" t="s">
         <v>195</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" s="1" t="s">
         <v>196</v>
       </c>
@@ -5936,7 +5961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>198</v>
       </c>
@@ -5950,7 +5975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>200</v>
       </c>
@@ -5964,7 +5989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>201</v>
       </c>
@@ -5978,7 +6003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>202</v>
       </c>
@@ -5992,7 +6017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="20" t="s">
         <v>473</v>
       </c>
@@ -6006,7 +6031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>472</v>
       </c>
@@ -6020,7 +6045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>206</v>
       </c>
@@ -6034,7 +6059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>465</v>
       </c>
@@ -6048,7 +6073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>466</v>
       </c>
@@ -6062,7 +6087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>467</v>
       </c>
@@ -6076,7 +6101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>468</v>
       </c>
@@ -6090,7 +6115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>470</v>
       </c>
@@ -6104,7 +6129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>469</v>
       </c>
@@ -6118,7 +6143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>471</v>
       </c>
@@ -6132,7 +6157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>207</v>
       </c>
@@ -6146,7 +6171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" s="1" t="s">
         <v>208</v>
       </c>
@@ -6160,7 +6185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" s="1" t="s">
         <v>210</v>
       </c>
@@ -6174,7 +6199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" hidden="1">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -6188,7 +6213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" s="1" t="s">
         <v>214</v>
       </c>
@@ -6202,7 +6227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" s="1" t="s">
         <v>570</v>
       </c>
@@ -6216,7 +6241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" s="1" t="s">
         <v>217</v>
       </c>
@@ -6230,7 +6255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" s="1" t="s">
         <v>220</v>
       </c>
@@ -6244,7 +6269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
@@ -6258,7 +6283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -6272,7 +6297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1">
       <c r="A108" s="1" t="s">
         <v>226</v>
       </c>
@@ -6286,7 +6311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1">
       <c r="A109" s="1" t="s">
         <v>228</v>
       </c>
@@ -6300,7 +6325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1">
       <c r="A110" s="1" t="s">
         <v>265</v>
       </c>
@@ -6314,7 +6339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
@@ -6328,7 +6353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -6342,7 +6367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" hidden="1">
       <c r="A113" s="1" t="s">
         <v>251</v>
       </c>
@@ -6356,7 +6381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" hidden="1">
       <c r="A114" s="1" t="s">
         <v>234</v>
       </c>
@@ -6370,7 +6395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" hidden="1">
       <c r="A115" s="1" t="s">
         <v>236</v>
       </c>
@@ -6384,7 +6409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116" s="1" t="s">
         <v>238</v>
       </c>
@@ -6398,7 +6423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -6412,7 +6437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" hidden="1">
       <c r="A118" s="1" t="s">
         <v>241</v>
       </c>
@@ -6426,7 +6451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" hidden="1">
       <c r="A119" s="1" t="s">
         <v>243</v>
       </c>
@@ -6440,7 +6465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" hidden="1">
       <c r="A120" s="1" t="s">
         <v>245</v>
       </c>
@@ -6454,7 +6479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" hidden="1">
       <c r="A121" s="1" t="s">
         <v>247</v>
       </c>
@@ -6468,7 +6493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" hidden="1">
       <c r="A122" s="1" t="s">
         <v>249</v>
       </c>
@@ -6482,7 +6507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" s="1" t="s">
         <v>252</v>
       </c>
@@ -6496,7 +6521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" hidden="1">
       <c r="A124" s="1" t="s">
         <v>256</v>
       </c>
@@ -6510,7 +6535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" hidden="1">
       <c r="A125" s="1" t="s">
         <v>257</v>
       </c>
@@ -6524,7 +6549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" hidden="1">
       <c r="A126" s="1" t="s">
         <v>259</v>
       </c>
@@ -6538,7 +6563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" s="1" t="s">
         <v>260</v>
       </c>
@@ -6552,7 +6577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" s="1" t="s">
         <v>262</v>
       </c>
@@ -6566,7 +6591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" s="1" t="s">
         <v>264</v>
       </c>
@@ -6580,7 +6605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" s="1" t="s">
         <v>267</v>
       </c>
@@ -6594,7 +6619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" s="1" t="s">
         <v>268</v>
       </c>
@@ -6608,7 +6633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>269</v>
       </c>
@@ -6622,7 +6647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>270</v>
       </c>
@@ -6636,7 +6661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>274</v>
       </c>
@@ -6650,7 +6675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>276</v>
       </c>
@@ -6664,7 +6689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>278</v>
       </c>
@@ -6678,7 +6703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>281</v>
       </c>
@@ -6692,7 +6717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" s="1" t="s">
         <v>282</v>
       </c>
@@ -6706,7 +6731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" s="1" t="s">
         <v>284</v>
       </c>
@@ -6720,7 +6745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
@@ -6734,7 +6759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" s="1" t="s">
         <v>287</v>
       </c>
@@ -6748,7 +6773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" s="1" t="s">
         <v>290</v>
       </c>
@@ -6762,7 +6787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" s="1" t="s">
         <v>291</v>
       </c>
@@ -6776,7 +6801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" s="1" t="s">
         <v>293</v>
       </c>
@@ -6790,7 +6815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1">
+    <row r="145" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>295</v>
       </c>
@@ -6804,7 +6829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1">
+    <row r="146" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>297</v>
       </c>
@@ -6818,7 +6843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1">
+    <row r="147" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>299</v>
       </c>
@@ -6832,7 +6857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1">
+    <row r="148" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>301</v>
       </c>
@@ -6846,7 +6871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1">
+    <row r="149" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>303</v>
       </c>
@@ -6860,7 +6885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150" s="1" t="s">
         <v>305</v>
       </c>
@@ -6874,7 +6899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="58">
+    <row r="151" spans="1:7" ht="58" hidden="1">
       <c r="A151" s="1" t="s">
         <v>307</v>
       </c>
@@ -6888,7 +6913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1">
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
@@ -6902,7 +6927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153" s="1" t="s">
         <v>310</v>
       </c>
@@ -6916,7 +6941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154" s="1" t="s">
         <v>313</v>
       </c>
@@ -6930,7 +6955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1">
       <c r="A155" s="1" t="s">
         <v>315</v>
       </c>
@@ -6944,7 +6969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1">
       <c r="A156" s="1" t="s">
         <v>317</v>
       </c>
@@ -6958,7 +6983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1">
       <c r="A157" s="1" t="s">
         <v>319</v>
       </c>
@@ -6972,7 +6997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1">
       <c r="A158" s="1" t="s">
         <v>321</v>
       </c>
@@ -6988,7 +7013,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1">
+    <row r="159" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>330</v>
       </c>
@@ -7002,7 +7027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1">
+    <row r="160" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -7016,7 +7041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1">
       <c r="A161" s="1" t="s">
         <v>327</v>
       </c>
@@ -7030,7 +7055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1">
       <c r="A162" s="1" t="s">
         <v>328</v>
       </c>
@@ -7044,7 +7069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1">
       <c r="A163" s="1" t="s">
         <v>331</v>
       </c>
@@ -7058,7 +7083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1">
       <c r="A164" s="1" t="s">
         <v>334</v>
       </c>
@@ -7072,7 +7097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1">
       <c r="A165" s="1" t="s">
         <v>336</v>
       </c>
@@ -7086,7 +7111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>337</v>
       </c>
@@ -7100,7 +7125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>339</v>
       </c>
@@ -7114,7 +7139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>369</v>
       </c>
@@ -7128,7 +7153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>343</v>
       </c>
@@ -7142,7 +7167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1">
       <c r="A170" s="1" t="s">
         <v>344</v>
       </c>
@@ -7156,7 +7181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1">
       <c r="A171" s="1" t="s">
         <v>346</v>
       </c>
@@ -7170,7 +7195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1">
       <c r="A172" s="1" t="s">
         <v>348</v>
       </c>
@@ -7184,7 +7209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1">
       <c r="A173" s="1" t="s">
         <v>350</v>
       </c>
@@ -7198,7 +7223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -7212,7 +7237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -7226,7 +7251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -7240,7 +7265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -7254,7 +7279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -7268,7 +7293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>360</v>
       </c>
@@ -7282,7 +7307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -7296,7 +7321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -7310,7 +7335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>373</v>
       </c>
@@ -7324,7 +7349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>375</v>
       </c>
@@ -7338,7 +7363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>378</v>
       </c>
@@ -7352,7 +7377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" s="1" t="s">
         <v>379</v>
       </c>
@@ -7366,7 +7391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" s="1" t="s">
         <v>381</v>
       </c>
@@ -7380,7 +7405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" s="1" t="s">
         <v>383</v>
       </c>
@@ -7394,7 +7419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" s="1" t="s">
         <v>385</v>
       </c>
@@ -7408,7 +7433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" s="1" t="s">
         <v>387</v>
       </c>
@@ -7422,7 +7447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" s="1" t="s">
         <v>389</v>
       </c>
@@ -7436,7 +7461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1">
       <c r="A191" s="1" t="s">
         <v>391</v>
       </c>
@@ -7450,7 +7475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1">
       <c r="A192" s="1" t="s">
         <v>392</v>
       </c>
@@ -7464,7 +7489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" s="1" t="s">
         <v>394</v>
       </c>
@@ -7478,7 +7503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" s="1" t="s">
         <v>395</v>
       </c>
@@ -7492,7 +7517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" s="1" t="s">
         <v>397</v>
       </c>
@@ -7506,7 +7531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" s="1" t="s">
         <v>399</v>
       </c>
@@ -7520,7 +7545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" s="1" t="s">
         <v>400</v>
       </c>
@@ -7534,7 +7559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" s="1" t="s">
         <v>402</v>
       </c>
@@ -7548,7 +7573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
@@ -7562,7 +7587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" s="20" t="s">
         <v>405</v>
       </c>
@@ -7576,7 +7601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1">
       <c r="A201" s="1" t="s">
         <v>406</v>
       </c>
@@ -7590,7 +7615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" s="1" t="s">
         <v>408</v>
       </c>
@@ -7604,7 +7629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" s="1" t="s">
         <v>410</v>
       </c>
@@ -7618,7 +7643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -7632,7 +7657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" s="1" t="s">
         <v>412</v>
       </c>
@@ -7646,7 +7671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" s="1" t="s">
         <v>413</v>
       </c>
@@ -7660,7 +7685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1">
       <c r="A207" s="1" t="s">
         <v>414</v>
       </c>
@@ -7674,7 +7699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1">
       <c r="A208" s="1" t="s">
         <v>415</v>
       </c>
@@ -7688,7 +7713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="1" t="s">
         <v>417</v>
       </c>
@@ -7702,7 +7727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="1" t="s">
         <v>418</v>
       </c>
@@ -7716,7 +7741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="1" t="s">
         <v>419</v>
       </c>
@@ -7730,7 +7755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="101.5">
+    <row r="212" spans="1:7" ht="101.5" hidden="1">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -7744,7 +7769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="1" t="s">
         <v>425</v>
       </c>
@@ -7760,7 +7785,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="1" t="s">
         <v>426</v>
       </c>
@@ -7776,7 +7801,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="10"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="1" t="s">
         <v>427</v>
       </c>
@@ -7792,7 +7817,7 @@
       <c r="F215" s="11"/>
       <c r="G215" s="10"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="1" t="s">
         <v>428</v>
       </c>
@@ -7808,7 +7833,7 @@
       <c r="F216" s="11"/>
       <c r="G216" s="10"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
@@ -7824,7 +7849,7 @@
       <c r="F217" s="11"/>
       <c r="G217" s="10"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="1" t="s">
         <v>430</v>
       </c>
@@ -7840,7 +7865,7 @@
       <c r="F218" s="11"/>
       <c r="G218" s="10"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="1" t="s">
         <v>431</v>
       </c>
@@ -7856,7 +7881,7 @@
       <c r="F219" s="11"/>
       <c r="G219" s="10"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="1" t="s">
         <v>432</v>
       </c>
@@ -7872,7 +7897,7 @@
       <c r="F220" s="11"/>
       <c r="G220" s="10"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="1" t="s">
         <v>433</v>
       </c>
@@ -7888,7 +7913,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="10"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="1" t="s">
         <v>434</v>
       </c>
@@ -7904,7 +7929,7 @@
       <c r="F222" s="11"/>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="1" t="s">
         <v>435</v>
       </c>
@@ -7920,7 +7945,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="10"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="1" t="s">
         <v>436</v>
       </c>
@@ -7936,7 +7961,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="1" t="s">
         <v>438</v>
       </c>
@@ -7952,7 +7977,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="1" t="s">
         <v>439</v>
       </c>
@@ -7968,7 +7993,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="10"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="1" t="s">
         <v>440</v>
       </c>
@@ -7984,7 +8009,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="10"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="1" t="s">
         <v>441</v>
       </c>
@@ -8000,7 +8025,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="10"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="1" t="s">
         <v>442</v>
       </c>
@@ -8016,7 +8041,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="10"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="1" t="s">
         <v>443</v>
       </c>
@@ -8032,7 +8057,7 @@
       <c r="F230" s="11"/>
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="1" t="s">
         <v>444</v>
       </c>
@@ -8048,7 +8073,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="10"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="1" t="s">
         <v>445</v>
       </c>
@@ -8064,7 +8089,7 @@
       <c r="F232" s="11"/>
       <c r="G232" s="10"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="1" t="s">
         <v>446</v>
       </c>
@@ -8080,7 +8105,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="10"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="1" t="s">
         <v>447</v>
       </c>
@@ -8096,7 +8121,7 @@
       <c r="F234" s="11"/>
       <c r="G234" s="10"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="1" t="s">
         <v>448</v>
       </c>
@@ -8112,7 +8137,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="1" t="s">
         <v>449</v>
       </c>
@@ -8128,7 +8153,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="10"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="1" t="s">
         <v>450</v>
       </c>
@@ -8144,7 +8169,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="10"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="1" t="s">
         <v>451</v>
       </c>
@@ -8160,7 +8185,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="10"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="1" t="s">
         <v>452</v>
       </c>
@@ -8176,7 +8201,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="10"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="1" t="s">
         <v>453</v>
       </c>
@@ -8190,7 +8215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" hidden="1">
       <c r="A241" s="1" t="s">
         <v>454</v>
       </c>
@@ -8204,7 +8229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
@@ -8218,7 +8243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" hidden="1">
       <c r="A243" s="1" t="s">
         <v>458</v>
       </c>
@@ -8232,7 +8257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="43.5">
+    <row r="244" spans="1:4" ht="43.5" hidden="1">
       <c r="A244" s="1" t="s">
         <v>462</v>
       </c>
@@ -8246,7 +8271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="43.5">
+    <row r="245" spans="1:4" ht="43.5" hidden="1">
       <c r="A245" s="1" t="s">
         <v>505</v>
       </c>
@@ -8260,7 +8285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" hidden="1">
       <c r="A246" s="1" t="s">
         <v>462</v>
       </c>
@@ -8274,7 +8299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" hidden="1">
       <c r="A247" s="1" t="s">
         <v>463</v>
       </c>
@@ -8288,7 +8313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="20" t="s">
         <v>474</v>
       </c>
@@ -8302,7 +8327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="20" t="s">
         <v>475</v>
       </c>
@@ -8316,7 +8341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="20" t="s">
         <v>476</v>
       </c>
@@ -8330,7 +8355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>495</v>
       </c>
@@ -8344,7 +8369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>494</v>
       </c>
@@ -8358,7 +8383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>493</v>
       </c>
@@ -8372,7 +8397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>492</v>
       </c>
@@ -8386,7 +8411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>491</v>
       </c>
@@ -8400,7 +8425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>490</v>
       </c>
@@ -8414,7 +8439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>489</v>
       </c>
@@ -8428,7 +8453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>478</v>
       </c>
@@ -8442,7 +8467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>479</v>
       </c>
@@ -8456,7 +8481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>480</v>
       </c>
@@ -8470,7 +8495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>482</v>
       </c>
@@ -8484,7 +8509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>483</v>
       </c>
@@ -8498,7 +8523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>485</v>
       </c>
@@ -8512,7 +8537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="264" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>496</v>
       </c>
@@ -8526,7 +8551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>488</v>
       </c>
@@ -8540,7 +8565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>497</v>
       </c>
@@ -8554,7 +8579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>498</v>
       </c>
@@ -8568,7 +8593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>499</v>
       </c>
@@ -8582,7 +8607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>500</v>
       </c>
@@ -8596,7 +8621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>501</v>
       </c>
@@ -8610,7 +8635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>502</v>
       </c>
@@ -8624,7 +8649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>503</v>
       </c>
@@ -8638,7 +8663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>504</v>
       </c>
@@ -8652,7 +8677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" s="1" t="s">
         <v>506</v>
       </c>
@@ -8666,7 +8691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" s="1" t="s">
         <v>508</v>
       </c>
@@ -8680,7 +8705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" s="1" t="s">
         <v>510</v>
       </c>
@@ -8694,7 +8719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" s="1" t="s">
         <v>512</v>
       </c>
@@ -8708,7 +8733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" s="1" t="s">
         <v>513</v>
       </c>
@@ -8722,7 +8747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>516</v>
       </c>
@@ -8736,7 +8761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" s="1" t="s">
         <v>517</v>
       </c>
@@ -8750,7 +8775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" s="1" t="s">
         <v>519</v>
       </c>
@@ -8764,7 +8789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" s="1" t="s">
         <v>521</v>
       </c>
@@ -8778,7 +8803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" s="1" t="s">
         <v>523</v>
       </c>
@@ -8792,7 +8817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" s="1" t="s">
         <v>524</v>
       </c>
@@ -8806,7 +8831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" s="1" t="s">
         <v>526</v>
       </c>
@@ -8820,7 +8845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1">
       <c r="A286" s="1" t="s">
         <v>528</v>
       </c>
@@ -8834,7 +8859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" s="1" t="s">
         <v>530</v>
       </c>
@@ -8848,7 +8873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1">
       <c r="A288" s="1" t="s">
         <v>531</v>
       </c>
@@ -8862,7 +8887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" hidden="1">
       <c r="A289" s="1" t="s">
         <v>533</v>
       </c>
@@ -8876,7 +8901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" hidden="1">
       <c r="A290" s="1" t="s">
         <v>535</v>
       </c>
@@ -8890,7 +8915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" hidden="1">
       <c r="A291" s="1" t="s">
         <v>537</v>
       </c>
@@ -8904,7 +8929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" hidden="1">
       <c r="A292" s="1" t="s">
         <v>539</v>
       </c>
@@ -8918,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" hidden="1">
       <c r="A293" s="1" t="s">
         <v>542</v>
       </c>
@@ -8932,7 +8957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" hidden="1">
       <c r="A294" s="1" t="s">
         <v>541</v>
       </c>
@@ -8946,7 +8971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" hidden="1">
       <c r="A295" s="1" t="s">
         <v>544</v>
       </c>
@@ -8960,7 +8985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" hidden="1">
       <c r="A296" s="1" t="s">
         <v>545</v>
       </c>
@@ -8974,7 +8999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" hidden="1">
       <c r="A297" s="1" t="s">
         <v>546</v>
       </c>
@@ -8988,7 +9013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" hidden="1">
       <c r="A298" s="1" t="s">
         <v>547</v>
       </c>
@@ -9002,7 +9027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" hidden="1">
       <c r="A299" s="1" t="s">
         <v>550</v>
       </c>
@@ -9016,7 +9041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" hidden="1">
       <c r="A300" s="1" t="s">
         <v>551</v>
       </c>
@@ -9030,7 +9055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" hidden="1">
       <c r="A301" s="1" t="s">
         <v>553</v>
       </c>
@@ -9044,7 +9069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" hidden="1">
       <c r="A302" s="1" t="s">
         <v>556</v>
       </c>
@@ -9058,7 +9083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" hidden="1">
       <c r="A303" s="1" t="s">
         <v>567</v>
       </c>
@@ -9072,7 +9097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" hidden="1">
       <c r="A304" s="1" t="s">
         <v>568</v>
       </c>
@@ -9086,7 +9111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" hidden="1">
       <c r="A305" s="1" t="s">
         <v>560</v>
       </c>
@@ -9100,7 +9125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" hidden="1">
       <c r="A306" s="1" t="s">
         <v>562</v>
       </c>
@@ -9114,7 +9139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" hidden="1">
       <c r="A307" s="1" t="s">
         <v>564</v>
       </c>
@@ -9128,7 +9153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" hidden="1">
       <c r="A308" s="1" t="s">
         <v>565</v>
       </c>
@@ -9142,7 +9167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" hidden="1">
       <c r="A309" s="1" t="s">
         <v>571</v>
       </c>
@@ -9156,7 +9181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" hidden="1">
       <c r="A310" s="1" t="s">
         <v>572</v>
       </c>
@@ -9170,7 +9195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" hidden="1">
       <c r="A311" s="1" t="s">
         <v>574</v>
       </c>
@@ -9184,7 +9209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" hidden="1">
       <c r="A312" s="1" t="s">
         <v>577</v>
       </c>
@@ -9198,7 +9223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" hidden="1">
       <c r="A313" s="1" t="s">
         <v>583</v>
       </c>
@@ -9212,7 +9237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" hidden="1">
       <c r="A314" s="1" t="s">
         <v>579</v>
       </c>
@@ -9226,7 +9251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" hidden="1">
       <c r="A315" s="1" t="s">
         <v>581</v>
       </c>
@@ -9240,7 +9265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" hidden="1">
       <c r="A316" s="1" t="s">
         <v>584</v>
       </c>
@@ -9254,7 +9279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" hidden="1">
       <c r="A317" s="1" t="s">
         <v>587</v>
       </c>
@@ -9268,7 +9293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" hidden="1">
       <c r="A318" s="1" t="s">
         <v>588</v>
       </c>
@@ -9282,7 +9307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" hidden="1">
       <c r="A319" s="1" t="s">
         <v>590</v>
       </c>
@@ -9296,7 +9321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" hidden="1">
       <c r="A320" s="1" t="s">
         <v>592</v>
       </c>
@@ -9310,7 +9335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" hidden="1">
       <c r="A321" s="1" t="s">
         <v>595</v>
       </c>
@@ -9324,7 +9349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" hidden="1">
       <c r="A322" s="1" t="s">
         <v>596</v>
       </c>
@@ -9338,7 +9363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" hidden="1">
       <c r="A323" s="1" t="s">
         <v>598</v>
       </c>
@@ -9352,7 +9377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" hidden="1">
       <c r="A324" s="1" t="s">
         <v>601</v>
       </c>
@@ -9366,7 +9391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" hidden="1">
       <c r="A325" s="1" t="s">
         <v>602</v>
       </c>
@@ -9380,7 +9405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" hidden="1">
       <c r="A326" s="1" t="s">
         <v>604</v>
       </c>
@@ -9394,7 +9419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" hidden="1">
       <c r="A327" s="1" t="s">
         <v>607</v>
       </c>
@@ -9408,7 +9433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" hidden="1">
       <c r="A328" s="1" t="s">
         <v>608</v>
       </c>
@@ -9422,7 +9447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1">
+    <row r="329" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>610</v>
       </c>
@@ -9436,7 +9461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1">
+    <row r="330" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>612</v>
       </c>
@@ -9450,7 +9475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1">
+    <row r="331" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>613</v>
       </c>
@@ -9464,7 +9489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1">
+    <row r="332" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>614</v>
       </c>
@@ -9478,7 +9503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1">
+    <row r="333" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>615</v>
       </c>
@@ -9492,7 +9517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1">
+    <row r="334" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>616</v>
       </c>
@@ -9506,7 +9531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1">
+    <row r="335" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>617</v>
       </c>
@@ -9520,7 +9545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1">
+    <row r="336" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>618</v>
       </c>
@@ -9534,7 +9559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1">
+    <row r="337" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>619</v>
       </c>
@@ -9548,7 +9573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1">
+    <row r="338" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>620</v>
       </c>
@@ -9562,7 +9587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1">
+    <row r="339" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>621</v>
       </c>
@@ -9576,7 +9601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1">
+    <row r="340" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>622</v>
       </c>
@@ -9590,7 +9615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1">
+    <row r="341" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>624</v>
       </c>
@@ -9604,7 +9629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1">
+    <row r="342" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>625</v>
       </c>
@@ -9618,7 +9643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1">
+    <row r="343" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>627</v>
       </c>
@@ -9632,7 +9657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1">
+    <row r="344" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>628</v>
       </c>
@@ -9646,7 +9671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1">
+    <row r="345" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>629</v>
       </c>
@@ -9660,7 +9685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1">
+    <row r="346" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>630</v>
       </c>
@@ -9674,7 +9699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" hidden="1">
       <c r="A347" s="1" t="s">
         <v>633</v>
       </c>
@@ -9688,7 +9713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" s="1" t="s">
         <v>634</v>
       </c>
@@ -9702,7 +9727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" s="1" t="s">
         <v>637</v>
       </c>
@@ -9716,7 +9741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" s="1" t="s">
         <v>636</v>
       </c>
@@ -9730,7 +9755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" s="2" t="s">
         <v>639</v>
       </c>
@@ -9744,7 +9769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" s="1" t="s">
         <v>640</v>
       </c>
@@ -9758,7 +9783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" hidden="1">
       <c r="A353" s="1" t="s">
         <v>641</v>
       </c>
@@ -9769,7 +9794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" hidden="1">
       <c r="A354" s="1" t="s">
         <v>643</v>
       </c>
@@ -9783,7 +9808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" hidden="1">
       <c r="A355" s="1" t="s">
         <v>646</v>
       </c>
@@ -9797,7 +9822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" hidden="1">
       <c r="A356" s="1" t="s">
         <v>648</v>
       </c>
@@ -9811,7 +9836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" hidden="1">
       <c r="A357" s="1" t="s">
         <v>649</v>
       </c>
@@ -9825,7 +9850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" hidden="1">
       <c r="A358" s="1" t="s">
         <v>651</v>
       </c>
@@ -9839,7 +9864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" hidden="1">
       <c r="A359" s="1" t="s">
         <v>654</v>
       </c>
@@ -9853,7 +9878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" hidden="1">
       <c r="A360" s="1" t="s">
         <v>655</v>
       </c>
@@ -9867,7 +9892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" hidden="1">
       <c r="A361" s="1" t="s">
         <v>657</v>
       </c>
@@ -9881,7 +9906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" hidden="1">
       <c r="A362" s="1" t="s">
         <v>658</v>
       </c>
@@ -9895,7 +9920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" hidden="1">
       <c r="A363" s="1" t="s">
         <v>660</v>
       </c>
@@ -9909,7 +9934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" hidden="1">
       <c r="A364" s="1" t="s">
         <v>661</v>
       </c>
@@ -9923,7 +9948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" hidden="1">
       <c r="A365" s="1" t="s">
         <v>663</v>
       </c>
@@ -9937,7 +9962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" hidden="1">
       <c r="A366" s="1" t="s">
         <v>636</v>
       </c>
@@ -9951,7 +9976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" hidden="1">
       <c r="A367" s="1" t="s">
         <v>665</v>
       </c>
@@ -9965,7 +9990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" hidden="1">
       <c r="A368" s="1" t="s">
         <v>666</v>
       </c>
@@ -9979,7 +10004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" hidden="1">
       <c r="A369" s="1" t="s">
         <v>668</v>
       </c>
@@ -9993,7 +10018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" hidden="1">
       <c r="A370" s="1" t="s">
         <v>669</v>
       </c>
@@ -10007,7 +10032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" hidden="1">
       <c r="A371" s="1" t="s">
         <v>670</v>
       </c>
@@ -10021,7 +10046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" hidden="1">
       <c r="A372" s="1" t="s">
         <v>672</v>
       </c>
@@ -10035,7 +10060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" hidden="1">
       <c r="A373" s="1" t="s">
         <v>674</v>
       </c>
@@ -10049,7 +10074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" hidden="1">
       <c r="A374" s="1" t="s">
         <v>675</v>
       </c>
@@ -10063,7 +10088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" hidden="1">
       <c r="A375" s="1" t="s">
         <v>677</v>
       </c>
@@ -10077,7 +10102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" hidden="1">
       <c r="A376" s="1" t="s">
         <v>678</v>
       </c>
@@ -10091,7 +10116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" hidden="1">
       <c r="A377" s="1" t="s">
         <v>680</v>
       </c>
@@ -10105,7 +10130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" hidden="1">
       <c r="A378" s="1" t="s">
         <v>681</v>
       </c>
@@ -10119,7 +10144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" hidden="1">
       <c r="A379" s="1" t="s">
         <v>682</v>
       </c>
@@ -10133,7 +10158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" hidden="1">
       <c r="A380" s="1" t="s">
         <v>683</v>
       </c>
@@ -10147,7 +10172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" hidden="1">
       <c r="A381" s="1" t="s">
         <v>684</v>
       </c>
@@ -10161,7 +10186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" hidden="1">
       <c r="A382" s="1" t="s">
         <v>685</v>
       </c>
@@ -10175,7 +10200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" hidden="1">
       <c r="A383" s="1" t="s">
         <v>687</v>
       </c>
@@ -10189,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" hidden="1">
       <c r="A384" s="1" t="s">
         <v>690</v>
       </c>
@@ -10203,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" s="1" t="s">
         <v>689</v>
       </c>
@@ -10217,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" hidden="1">
       <c r="A386" s="1" t="s">
         <v>692</v>
       </c>
@@ -10231,7 +10256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" hidden="1">
       <c r="A387" s="1" t="s">
         <v>693</v>
       </c>
@@ -10245,7 +10270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" hidden="1">
       <c r="A388" s="1" t="s">
         <v>694</v>
       </c>
@@ -10259,7 +10284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" hidden="1">
       <c r="A389" s="1" t="s">
         <v>698</v>
       </c>
@@ -10273,7 +10298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" hidden="1">
       <c r="A390" s="1" t="s">
         <v>699</v>
       </c>
@@ -10287,7 +10312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" hidden="1">
       <c r="A391" s="1" t="s">
         <v>703</v>
       </c>
@@ -10301,7 +10326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" hidden="1">
       <c r="A392" s="1" t="s">
         <v>702</v>
       </c>
@@ -10315,7 +10340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" hidden="1">
       <c r="A393" s="1" t="s">
         <v>701</v>
       </c>
@@ -10329,7 +10354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" hidden="1">
       <c r="A394" s="1" t="s">
         <v>700</v>
       </c>
@@ -10343,7 +10368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" hidden="1">
       <c r="A395" s="1" t="s">
         <v>705</v>
       </c>
@@ -10357,7 +10382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" hidden="1">
       <c r="A396" s="1" t="s">
         <v>706</v>
       </c>
@@ -10371,7 +10396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" hidden="1">
       <c r="A397" s="1" t="s">
         <v>708</v>
       </c>
@@ -10385,7 +10410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" hidden="1">
       <c r="A398" s="1" t="s">
         <v>709</v>
       </c>
@@ -10399,7 +10424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" hidden="1">
       <c r="A399" s="1" t="s">
         <v>710</v>
       </c>
@@ -10413,7 +10438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" hidden="1">
       <c r="A400" s="1" t="s">
         <v>711</v>
       </c>
@@ -10427,7 +10452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" hidden="1">
       <c r="A401" s="1" t="s">
         <v>713</v>
       </c>
@@ -10441,7 +10466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" hidden="1">
       <c r="A402" s="1" t="s">
         <v>716</v>
       </c>
@@ -10455,7 +10480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" hidden="1">
       <c r="A403" s="1" t="s">
         <v>717</v>
       </c>
@@ -10469,7 +10494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" hidden="1">
       <c r="A404" s="1" t="s">
         <v>718</v>
       </c>
@@ -10483,7 +10508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" hidden="1">
       <c r="A405" s="1" t="s">
         <v>720</v>
       </c>
@@ -10497,7 +10522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" hidden="1">
       <c r="A406" s="1" t="s">
         <v>720</v>
       </c>
@@ -10511,7 +10536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" hidden="1">
       <c r="A407" s="1" t="s">
         <v>723</v>
       </c>
@@ -10525,7 +10550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" hidden="1">
       <c r="A408" s="1" t="s">
         <v>723</v>
       </c>
@@ -10539,7 +10564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" hidden="1">
       <c r="A409" s="1" t="s">
         <v>724</v>
       </c>
@@ -10553,7 +10578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" hidden="1">
       <c r="A410" s="1" t="s">
         <v>724</v>
       </c>
@@ -10567,7 +10592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" hidden="1">
       <c r="A411" s="1" t="s">
         <v>725</v>
       </c>
@@ -10581,7 +10606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" hidden="1">
       <c r="A412" s="1" t="s">
         <v>727</v>
       </c>
@@ -10595,7 +10620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" hidden="1">
       <c r="A413" s="1" t="s">
         <v>729</v>
       </c>
@@ -10609,7 +10634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" hidden="1">
       <c r="A414" s="1" t="s">
         <v>731</v>
       </c>
@@ -10623,7 +10648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" hidden="1">
       <c r="A415" s="1" t="s">
         <v>733</v>
       </c>
@@ -10637,7 +10662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" hidden="1">
       <c r="A416" s="1" t="s">
         <v>735</v>
       </c>
@@ -10651,7 +10676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" hidden="1">
       <c r="A417" s="1" t="s">
         <v>737</v>
       </c>
@@ -10665,7 +10690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" hidden="1">
       <c r="A418" s="1" t="s">
         <v>738</v>
       </c>
@@ -10679,7 +10704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" hidden="1">
       <c r="A419" s="1" t="s">
         <v>739</v>
       </c>
@@ -10693,7 +10718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" hidden="1">
       <c r="A420" s="1" t="s">
         <v>462</v>
       </c>
@@ -10707,7 +10732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" hidden="1">
       <c r="A421" s="1" t="s">
         <v>321</v>
       </c>
@@ -10721,7 +10746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" hidden="1">
       <c r="A422" s="1" t="s">
         <v>741</v>
       </c>
@@ -10735,7 +10760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" hidden="1">
       <c r="A423" s="1" t="s">
         <v>742</v>
       </c>
@@ -10749,7 +10774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" hidden="1">
       <c r="A424" s="1" t="s">
         <v>743</v>
       </c>
@@ -10763,7 +10788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" hidden="1">
       <c r="A425" s="1" t="s">
         <v>749</v>
       </c>
@@ -10777,7 +10802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" hidden="1">
       <c r="A426" s="1" t="s">
         <v>751</v>
       </c>
@@ -10791,7 +10816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="72.5">
+    <row r="427" spans="1:4" ht="72.5" hidden="1">
       <c r="A427" s="1" t="s">
         <v>754</v>
       </c>
@@ -10805,7 +10830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="72.5">
+    <row r="428" spans="1:4" ht="72.5" hidden="1">
       <c r="A428" s="1" t="s">
         <v>755</v>
       </c>
@@ -10819,7 +10844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" hidden="1">
       <c r="A429" s="1" t="s">
         <v>756</v>
       </c>
@@ -10833,7 +10858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" hidden="1">
       <c r="A430" s="1" t="s">
         <v>757</v>
       </c>
@@ -10847,7 +10872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" hidden="1">
       <c r="A431" s="1" t="s">
         <v>760</v>
       </c>
@@ -10861,7 +10886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" hidden="1">
       <c r="A432" s="1" t="s">
         <v>761</v>
       </c>
@@ -10875,7 +10900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" hidden="1">
       <c r="A433" s="1" t="s">
         <v>763</v>
       </c>
@@ -10889,7 +10914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" hidden="1">
       <c r="A434" s="1" t="s">
         <v>765</v>
       </c>
@@ -10903,7 +10928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" hidden="1">
       <c r="A435" s="1" t="s">
         <v>766</v>
       </c>
@@ -10917,7 +10942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" hidden="1">
       <c r="A436" s="1" t="s">
         <v>768</v>
       </c>
@@ -10931,7 +10956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" hidden="1">
       <c r="A437" s="1" t="s">
         <v>770</v>
       </c>
@@ -10945,7 +10970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" hidden="1">
       <c r="A438" s="1" t="s">
         <v>771</v>
       </c>
@@ -10959,7 +10984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" hidden="1">
       <c r="A439" s="1" t="s">
         <v>773</v>
       </c>
@@ -10973,7 +10998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" hidden="1">
       <c r="A440" s="1" t="s">
         <v>286</v>
       </c>
@@ -10987,7 +11012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" hidden="1">
       <c r="A441" s="1" t="s">
         <v>773</v>
       </c>
@@ -11001,7 +11026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" hidden="1">
       <c r="A442" s="1" t="s">
         <v>776</v>
       </c>
@@ -11015,7 +11040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" hidden="1">
       <c r="A443" s="1" t="s">
         <v>779</v>
       </c>
@@ -11029,7 +11054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" hidden="1">
       <c r="A444" s="1" t="s">
         <v>780</v>
       </c>
@@ -11043,7 +11068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" hidden="1">
       <c r="A445" s="1" t="s">
         <v>783</v>
       </c>
@@ -11057,7 +11082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" hidden="1">
       <c r="A446" s="1" t="s">
         <v>785</v>
       </c>
@@ -11071,7 +11096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" hidden="1">
       <c r="A447" s="1" t="s">
         <v>286</v>
       </c>
@@ -11085,7 +11110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" hidden="1">
       <c r="A448" s="1" t="s">
         <v>723</v>
       </c>
@@ -11099,7 +11124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" hidden="1">
       <c r="A449" s="1" t="s">
         <v>720</v>
       </c>
@@ -11113,7 +11138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" hidden="1">
       <c r="A450" s="1" t="s">
         <v>788</v>
       </c>
@@ -11127,7 +11152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" hidden="1">
       <c r="A451" s="1" t="s">
         <v>790</v>
       </c>
@@ -11141,7 +11166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" hidden="1">
       <c r="A452" s="1" t="s">
         <v>791</v>
       </c>
@@ -11155,7 +11180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" hidden="1">
       <c r="A453" s="1" t="s">
         <v>792</v>
       </c>
@@ -11169,7 +11194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" hidden="1">
       <c r="A454" s="1" t="s">
         <v>793</v>
       </c>
@@ -11183,7 +11208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" hidden="1">
       <c r="A455" s="1" t="s">
         <v>795</v>
       </c>
@@ -11197,7 +11222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" hidden="1">
       <c r="A456" s="1" t="s">
         <v>796</v>
       </c>
@@ -11211,7 +11236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" hidden="1">
       <c r="A457" s="1" t="s">
         <v>798</v>
       </c>
@@ -11225,7 +11250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" hidden="1">
       <c r="A458" s="1" t="s">
         <v>800</v>
       </c>
@@ -11239,7 +11264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" hidden="1">
       <c r="A459" s="1" t="s">
         <v>803</v>
       </c>
@@ -11253,7 +11278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" hidden="1">
       <c r="A460" s="1" t="s">
         <v>805</v>
       </c>
@@ -11267,7 +11292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" hidden="1">
       <c r="A461" s="1" t="s">
         <v>806</v>
       </c>
@@ -11281,7 +11306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" hidden="1">
       <c r="A462" s="1" t="s">
         <v>808</v>
       </c>
@@ -11295,7 +11320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" hidden="1">
       <c r="A463" s="1" t="s">
         <v>810</v>
       </c>
@@ -11309,7 +11334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" hidden="1">
       <c r="A464" s="1" t="s">
         <v>812</v>
       </c>
@@ -11323,7 +11348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" hidden="1">
       <c r="A465" s="1" t="s">
         <v>814</v>
       </c>
@@ -11337,7 +11362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" hidden="1">
       <c r="A466" s="1" t="s">
         <v>815</v>
       </c>
@@ -11351,7 +11376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" hidden="1">
       <c r="A467" s="1" t="s">
         <v>818</v>
       </c>
@@ -11365,7 +11390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" hidden="1">
       <c r="A468" s="1" t="s">
         <v>820</v>
       </c>
@@ -11379,7 +11404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" hidden="1">
       <c r="A469" s="1" t="s">
         <v>823</v>
       </c>
@@ -11393,7 +11418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="17.5" customHeight="1">
+    <row r="470" spans="1:4" ht="17.5" hidden="1" customHeight="1">
       <c r="A470" s="1" t="s">
         <v>825</v>
       </c>
@@ -11407,7 +11432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" hidden="1">
       <c r="A471" s="1" t="s">
         <v>826</v>
       </c>
@@ -11421,7 +11446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" hidden="1">
       <c r="A472" s="1" t="s">
         <v>849</v>
       </c>
@@ -11435,7 +11460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" hidden="1">
       <c r="A473" s="1" t="s">
         <v>827</v>
       </c>
@@ -11449,7 +11474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" hidden="1">
       <c r="A474" s="1" t="s">
         <v>830</v>
       </c>
@@ -11463,7 +11488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" hidden="1">
       <c r="A475" s="1" t="s">
         <v>832</v>
       </c>
@@ -11477,7 +11502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" hidden="1">
       <c r="A476" s="1" t="s">
         <v>833</v>
       </c>
@@ -11491,7 +11516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" hidden="1">
       <c r="A477" s="1" t="s">
         <v>835</v>
       </c>
@@ -11505,7 +11530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" hidden="1">
       <c r="A478" s="1" t="s">
         <v>836</v>
       </c>
@@ -11519,7 +11544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" hidden="1">
       <c r="A479" s="1" t="s">
         <v>838</v>
       </c>
@@ -11533,7 +11558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" hidden="1">
       <c r="A480" s="1" t="s">
         <v>839</v>
       </c>
@@ -11547,7 +11572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" hidden="1">
       <c r="A481" s="1" t="s">
         <v>843</v>
       </c>
@@ -11561,7 +11586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" hidden="1">
       <c r="A482" s="1" t="s">
         <v>844</v>
       </c>
@@ -11575,7 +11600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" hidden="1">
       <c r="A483" s="1" t="s">
         <v>845</v>
       </c>
@@ -11589,7 +11614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" hidden="1">
       <c r="A484" s="1" t="s">
         <v>846</v>
       </c>
@@ -11603,7 +11628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" hidden="1">
       <c r="A485" s="1" t="s">
         <v>848</v>
       </c>
@@ -11617,7 +11642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" hidden="1">
       <c r="A486" s="1" t="s">
         <v>850</v>
       </c>
@@ -11631,7 +11656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" hidden="1">
       <c r="A487" s="1" t="s">
         <v>853</v>
       </c>
@@ -11645,7 +11670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" hidden="1">
       <c r="A488" s="1" t="s">
         <v>855</v>
       </c>
@@ -11659,7 +11684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" hidden="1">
       <c r="A489" s="1" t="s">
         <v>856</v>
       </c>
@@ -11673,7 +11698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" hidden="1">
       <c r="A490" s="1" t="s">
         <v>858</v>
       </c>
@@ -11687,7 +11712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" hidden="1">
       <c r="A491" s="1" t="s">
         <v>859</v>
       </c>
@@ -11701,7 +11726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" hidden="1">
       <c r="A492" s="1" t="s">
         <v>827</v>
       </c>
@@ -11715,7 +11740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" hidden="1">
       <c r="A493" s="1" t="s">
         <v>827</v>
       </c>
@@ -11729,7 +11754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" hidden="1">
       <c r="A494" s="1" t="s">
         <v>863</v>
       </c>
@@ -11743,7 +11768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="58">
+    <row r="495" spans="1:4" ht="58" hidden="1">
       <c r="A495" s="1" t="s">
         <v>865</v>
       </c>
@@ -11757,7 +11782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="58">
+    <row r="496" spans="1:4" ht="58" hidden="1">
       <c r="A496" s="1" t="s">
         <v>866</v>
       </c>
@@ -11771,7 +11796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" hidden="1">
       <c r="A497" s="1" t="s">
         <v>868</v>
       </c>
@@ -11785,7 +11810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" hidden="1">
       <c r="A498" s="1" t="s">
         <v>870</v>
       </c>
@@ -11799,7 +11824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" hidden="1">
       <c r="A499" s="1" t="s">
         <v>872</v>
       </c>
@@ -11813,7 +11838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" hidden="1">
       <c r="A500" s="1" t="s">
         <v>875</v>
       </c>
@@ -11827,7 +11852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" hidden="1">
       <c r="A501" s="1" t="s">
         <v>877</v>
       </c>
@@ -11841,7 +11866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" hidden="1">
       <c r="A502" s="1" t="s">
         <v>878</v>
       </c>
@@ -11855,7 +11880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" hidden="1">
       <c r="A503" s="1" t="s">
         <v>880</v>
       </c>
@@ -11869,7 +11894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" hidden="1">
       <c r="A504" s="1" t="s">
         <v>881</v>
       </c>
@@ -11883,7 +11908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" hidden="1">
       <c r="A505" s="1" t="s">
         <v>882</v>
       </c>
@@ -11897,7 +11922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" hidden="1">
       <c r="A506" s="1" t="s">
         <v>884</v>
       </c>
@@ -11911,7 +11936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" hidden="1">
       <c r="A507" s="1" t="s">
         <v>885</v>
       </c>
@@ -11927,7 +11952,7 @@
       <c r="F507" s="11"/>
       <c r="G507" s="10"/>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" hidden="1">
       <c r="A508" s="1" t="s">
         <v>888</v>
       </c>
@@ -11941,7 +11966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" hidden="1">
       <c r="A509" s="1" t="s">
         <v>889</v>
       </c>
@@ -11955,7 +11980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" hidden="1">
       <c r="A510" s="1" t="s">
         <v>890</v>
       </c>
@@ -11971,7 +11996,7 @@
       <c r="F510" s="11"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" hidden="1">
       <c r="A511" s="1" t="s">
         <v>892</v>
       </c>
@@ -11987,7 +12012,7 @@
       <c r="F511" s="11"/>
       <c r="G511" s="10"/>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" hidden="1">
       <c r="A512" s="1" t="s">
         <v>893</v>
       </c>
@@ -12001,7 +12026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" hidden="1">
       <c r="A513" s="1" t="s">
         <v>894</v>
       </c>
@@ -12015,7 +12040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" hidden="1">
       <c r="A514" s="1" t="s">
         <v>896</v>
       </c>
@@ -12029,7 +12054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" hidden="1">
       <c r="A515" s="1" t="s">
         <v>897</v>
       </c>
@@ -12043,7 +12068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" hidden="1">
       <c r="A516" s="1" t="s">
         <v>898</v>
       </c>
@@ -12057,7 +12082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" hidden="1">
       <c r="A517" s="1" t="s">
         <v>900</v>
       </c>
@@ -12071,7 +12096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" hidden="1">
       <c r="A518" s="1" t="s">
         <v>902</v>
       </c>
@@ -12085,7 +12110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" hidden="1">
       <c r="A519" s="1" t="s">
         <v>904</v>
       </c>
@@ -12099,7 +12124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" hidden="1">
       <c r="A520" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12113,7 +12138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" hidden="1">
       <c r="A521" s="1" t="s">
         <v>906</v>
       </c>
@@ -12127,7 +12152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" hidden="1">
       <c r="A522" s="1" t="s">
         <v>907</v>
       </c>
@@ -12141,7 +12166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" hidden="1">
       <c r="A523" s="1" t="s">
         <v>910</v>
       </c>
@@ -12155,7 +12180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" hidden="1">
       <c r="A524" s="1" t="s">
         <v>912</v>
       </c>
@@ -12169,7 +12194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" hidden="1">
       <c r="A525" s="1" t="s">
         <v>914</v>
       </c>
@@ -12183,7 +12208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" hidden="1">
       <c r="A526" s="1" t="s">
         <v>915</v>
       </c>
@@ -12197,7 +12222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" hidden="1">
       <c r="A527" s="1" t="s">
         <v>926</v>
       </c>
@@ -12211,7 +12236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" hidden="1">
       <c r="A528" s="1" t="s">
         <v>15</v>
       </c>
@@ -12225,7 +12250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" hidden="1">
       <c r="A529" s="1" t="s">
         <v>927</v>
       </c>
@@ -12239,7 +12264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" hidden="1">
       <c r="A530" s="1" t="s">
         <v>928</v>
       </c>
@@ -12253,7 +12278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" hidden="1">
       <c r="A531" s="1" t="s">
         <v>929</v>
       </c>
@@ -12267,7 +12292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" hidden="1">
       <c r="A532" s="1" t="s">
         <v>917</v>
       </c>
@@ -12281,7 +12306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" hidden="1">
       <c r="A533" s="1" t="s">
         <v>918</v>
       </c>
@@ -12295,7 +12320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" hidden="1">
       <c r="A534" s="1" t="s">
         <v>919</v>
       </c>
@@ -12309,7 +12334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" hidden="1">
       <c r="A535" s="1" t="s">
         <v>920</v>
       </c>
@@ -12323,7 +12348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" hidden="1">
       <c r="A536" s="1" t="s">
         <v>920</v>
       </c>
@@ -12337,7 +12362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" hidden="1">
       <c r="A537" s="1" t="s">
         <v>920</v>
       </c>
@@ -12351,7 +12376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" hidden="1">
       <c r="A538" s="1" t="s">
         <v>920</v>
       </c>
@@ -12365,7 +12390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" hidden="1">
       <c r="A539" s="1" t="s">
         <v>936</v>
       </c>
@@ -12379,7 +12404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" hidden="1">
       <c r="A540" s="1" t="s">
         <v>938</v>
       </c>
@@ -12393,7 +12418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" hidden="1">
       <c r="A541" s="1" t="s">
         <v>940</v>
       </c>
@@ -12407,7 +12432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" hidden="1">
       <c r="A542" s="1" t="s">
         <v>946</v>
       </c>
@@ -12421,7 +12446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" hidden="1">
       <c r="A543" s="1" t="s">
         <v>943</v>
       </c>
@@ -12435,7 +12460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" hidden="1">
       <c r="A544" s="1" t="s">
         <v>947</v>
       </c>
@@ -12449,7 +12474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" hidden="1">
       <c r="A545" s="1" t="s">
         <v>949</v>
       </c>
@@ -12463,7 +12488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" hidden="1">
       <c r="A546" s="1" t="s">
         <v>951</v>
       </c>
@@ -12477,7 +12502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" hidden="1">
       <c r="A547" s="1" t="s">
         <v>953</v>
       </c>
@@ -12491,7 +12516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="13" customHeight="1">
+    <row r="548" spans="1:4" ht="13" hidden="1" customHeight="1">
       <c r="A548" s="1" t="s">
         <v>852</v>
       </c>
@@ -12502,7 +12527,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" hidden="1">
       <c r="A549" s="1" t="s">
         <v>986</v>
       </c>
@@ -12516,7 +12541,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="58">
+    <row r="550" spans="1:4" ht="58" hidden="1">
       <c r="A550" s="1" t="s">
         <v>955</v>
       </c>
@@ -12530,7 +12555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="58">
+    <row r="551" spans="1:4" ht="58" hidden="1">
       <c r="A551" s="1" t="s">
         <v>956</v>
       </c>
@@ -12544,7 +12569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="58">
+    <row r="552" spans="1:4" ht="58" hidden="1">
       <c r="A552" s="1" t="s">
         <v>959</v>
       </c>
@@ -12558,7 +12583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="58">
+    <row r="553" spans="1:4" ht="58" hidden="1">
       <c r="A553" s="1" t="s">
         <v>961</v>
       </c>
@@ -12572,7 +12597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="58">
+    <row r="554" spans="1:4" ht="58" hidden="1">
       <c r="A554" s="1" t="s">
         <v>963</v>
       </c>
@@ -12586,7 +12611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="58">
+    <row r="555" spans="1:4" ht="58" hidden="1">
       <c r="A555" s="1" t="s">
         <v>964</v>
       </c>
@@ -12600,7 +12625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="58">
+    <row r="556" spans="1:4" ht="58" hidden="1">
       <c r="A556" s="1" t="s">
         <v>965</v>
       </c>
@@ -12614,7 +12639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="58">
+    <row r="557" spans="1:4" ht="58" hidden="1">
       <c r="A557" s="1" t="s">
         <v>966</v>
       </c>
@@ -12628,7 +12653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="58">
+    <row r="558" spans="1:4" ht="58" hidden="1">
       <c r="A558" s="1" t="s">
         <v>967</v>
       </c>
@@ -12642,7 +12667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="58">
+    <row r="559" spans="1:4" ht="58" hidden="1">
       <c r="A559" s="1" t="s">
         <v>969</v>
       </c>
@@ -12656,7 +12681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="58">
+    <row r="560" spans="1:4" ht="58" hidden="1">
       <c r="A560" s="1" t="s">
         <v>970</v>
       </c>
@@ -12670,7 +12695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="58">
+    <row r="561" spans="1:4" ht="58" hidden="1">
       <c r="A561" s="1" t="s">
         <v>972</v>
       </c>
@@ -12684,7 +12709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="58">
+    <row r="562" spans="1:4" ht="58" hidden="1">
       <c r="A562" s="1" t="s">
         <v>973</v>
       </c>
@@ -12698,7 +12723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="58">
+    <row r="563" spans="1:4" ht="58" hidden="1">
       <c r="A563" s="1" t="s">
         <v>975</v>
       </c>
@@ -12712,7 +12737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="58">
+    <row r="564" spans="1:4" ht="58" hidden="1">
       <c r="A564" s="1" t="s">
         <v>976</v>
       </c>
@@ -12726,7 +12751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" hidden="1">
       <c r="A565" s="1" t="s">
         <v>978</v>
       </c>
@@ -12740,7 +12765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" hidden="1">
       <c r="A566" s="1" t="s">
         <v>979</v>
       </c>
@@ -12754,7 +12779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" hidden="1">
       <c r="A567" s="1" t="s">
         <v>981</v>
       </c>
@@ -12768,7 +12793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" hidden="1">
       <c r="A568" s="1" t="s">
         <v>983</v>
       </c>
@@ -12782,7 +12807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="145">
+    <row r="569" spans="1:4" ht="145" hidden="1">
       <c r="A569" s="1" t="s">
         <v>985</v>
       </c>
@@ -12796,7 +12821,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="14.5" customHeight="1">
+    <row r="570" spans="1:4" ht="14.5" hidden="1" customHeight="1">
       <c r="A570" s="1" t="s">
         <v>987</v>
       </c>
@@ -12810,7 +12835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="203" customHeight="1">
+    <row r="571" spans="1:4" ht="203" hidden="1" customHeight="1">
       <c r="A571" s="1" t="s">
         <v>988</v>
       </c>
@@ -12824,7 +12849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" hidden="1">
       <c r="A572" s="1" t="s">
         <v>989</v>
       </c>
@@ -12838,7 +12863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" hidden="1">
       <c r="A573" s="1" t="s">
         <v>991</v>
       </c>
@@ -12852,7 +12877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" hidden="1">
       <c r="A574" s="1" t="s">
         <v>993</v>
       </c>
@@ -12866,7 +12891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" hidden="1">
       <c r="A575" s="1" t="s">
         <v>996</v>
       </c>
@@ -12880,7 +12905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" hidden="1">
       <c r="A576" s="1" t="s">
         <v>997</v>
       </c>
@@ -12894,7 +12919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" hidden="1">
       <c r="A577" s="1" t="s">
         <v>1000</v>
       </c>
@@ -12908,7 +12933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" hidden="1">
       <c r="A578" s="1" t="s">
         <v>1001</v>
       </c>
@@ -12936,7 +12961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" hidden="1">
       <c r="A580" s="1" t="s">
         <v>1004</v>
       </c>
@@ -12950,7 +12975,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" hidden="1">
       <c r="A581" s="1" t="s">
         <v>1006</v>
       </c>
@@ -12964,7 +12989,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" hidden="1">
       <c r="A582" s="1" t="s">
         <v>1008</v>
       </c>
@@ -12978,7 +13003,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" hidden="1">
       <c r="A583" s="1" t="s">
         <v>1010</v>
       </c>
@@ -12992,7 +13017,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" hidden="1">
       <c r="A584" s="1" t="s">
         <v>1015</v>
       </c>
@@ -13006,7 +13031,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" hidden="1">
       <c r="A585" s="1" t="s">
         <v>1017</v>
       </c>
@@ -13020,7 +13045,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" hidden="1">
       <c r="A586" s="1" t="s">
         <v>1019</v>
       </c>
@@ -13034,7 +13059,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" hidden="1">
       <c r="A587" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13048,7 +13073,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" hidden="1">
       <c r="A588" s="1" t="s">
         <v>1023</v>
       </c>
@@ -13062,7 +13087,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" hidden="1">
       <c r="A589" s="1" t="s">
         <v>1025</v>
       </c>
@@ -13076,7 +13101,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" hidden="1">
       <c r="A590" s="1" t="s">
         <v>1027</v>
       </c>
@@ -13090,7 +13115,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" hidden="1">
       <c r="A591" s="1" t="s">
         <v>1029</v>
       </c>
@@ -13104,7 +13129,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" hidden="1">
       <c r="A592" s="1" t="s">
         <v>1031</v>
       </c>
@@ -13118,7 +13143,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" hidden="1">
       <c r="A593" s="1" t="s">
         <v>1033</v>
       </c>
@@ -13132,7 +13157,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" hidden="1">
       <c r="A594" s="1" t="s">
         <v>1035</v>
       </c>
@@ -13146,7 +13171,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" hidden="1">
       <c r="A595" s="1" t="s">
         <v>1037</v>
       </c>
@@ -13160,7 +13185,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" hidden="1">
       <c r="A596" s="1" t="s">
         <v>1040</v>
       </c>
@@ -13174,7 +13199,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" hidden="1">
       <c r="A597" s="1" t="s">
         <v>1042</v>
       </c>
@@ -13188,7 +13213,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" hidden="1">
       <c r="A598" s="1" t="s">
         <v>1044</v>
       </c>
@@ -13202,7 +13227,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" hidden="1">
       <c r="A599" s="1" t="s">
         <v>1046</v>
       </c>
@@ -13216,7 +13241,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" hidden="1">
       <c r="A600" s="1" t="s">
         <v>1048</v>
       </c>
@@ -13230,7 +13255,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" hidden="1">
       <c r="A601" s="1" t="s">
         <v>1050</v>
       </c>
@@ -13244,7 +13269,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" hidden="1">
       <c r="A602" s="1" t="s">
         <v>1052</v>
       </c>
@@ -13258,7 +13283,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" hidden="1">
       <c r="A603" s="1" t="s">
         <v>1054</v>
       </c>
@@ -13272,7 +13297,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" hidden="1">
       <c r="A604" s="1" t="s">
         <v>1056</v>
       </c>
@@ -13286,7 +13311,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" hidden="1">
       <c r="A605" s="1" t="s">
         <v>1058</v>
       </c>
@@ -13300,7 +13325,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" hidden="1">
       <c r="A606" s="1" t="s">
         <v>1060</v>
       </c>
@@ -13314,7 +13339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" hidden="1">
       <c r="A607" s="1" t="s">
         <v>1063</v>
       </c>
@@ -13328,7 +13353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" hidden="1">
       <c r="A608" s="1" t="s">
         <v>1065</v>
       </c>
@@ -13342,7 +13367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" hidden="1">
       <c r="A609" s="1" t="s">
         <v>1066</v>
       </c>
@@ -13356,7 +13381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" hidden="1">
       <c r="A610" s="1" t="s">
         <v>1071</v>
       </c>
@@ -13370,7 +13395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" hidden="1">
       <c r="A611" s="1" t="s">
         <v>1069</v>
       </c>
@@ -13384,7 +13409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" hidden="1">
       <c r="A612" s="1" t="s">
         <v>1072</v>
       </c>
@@ -13398,7 +13423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" hidden="1">
       <c r="A613" s="1" t="s">
         <v>1077</v>
       </c>
@@ -13412,7 +13437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" hidden="1">
       <c r="A614" s="1" t="s">
         <v>1078</v>
       </c>
@@ -13426,7 +13451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" hidden="1">
       <c r="A615" s="1" t="s">
         <v>1080</v>
       </c>
@@ -13440,7 +13465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" hidden="1">
       <c r="A616" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13454,7 +13479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" hidden="1">
       <c r="A617" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13468,7 +13493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" hidden="1">
       <c r="A618" s="1" t="s">
         <v>1085</v>
       </c>
@@ -13482,7 +13507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" hidden="1">
       <c r="A619" s="1" t="s">
         <v>1088</v>
       </c>
@@ -13496,7 +13521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" hidden="1">
       <c r="A620" s="1" t="s">
         <v>1090</v>
       </c>
@@ -13510,7 +13535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" hidden="1">
       <c r="A621" s="1" t="s">
         <v>1092</v>
       </c>
@@ -13524,7 +13549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" hidden="1">
       <c r="A622" s="1" t="s">
         <v>1093</v>
       </c>
@@ -13538,7 +13563,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" hidden="1">
       <c r="A623" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13552,7 +13577,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" hidden="1">
       <c r="A624" s="1" t="s">
         <v>1097</v>
       </c>
@@ -13566,7 +13591,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" hidden="1">
       <c r="A625" s="1" t="s">
         <v>1099</v>
       </c>
@@ -13580,7 +13605,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" hidden="1">
       <c r="A626" s="1" t="s">
         <v>1100</v>
       </c>
@@ -13594,7 +13619,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" hidden="1">
       <c r="A627" s="1" t="s">
         <v>1101</v>
       </c>
@@ -13608,7 +13633,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" hidden="1">
       <c r="A628" s="1" t="s">
         <v>1103</v>
       </c>
@@ -13622,7 +13647,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" hidden="1">
       <c r="A629" s="1" t="s">
         <v>1105</v>
       </c>
@@ -13636,7 +13661,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" hidden="1">
       <c r="A630" s="1" t="s">
         <v>1106</v>
       </c>
@@ -13650,7 +13675,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" hidden="1">
       <c r="A631" s="1" t="s">
         <v>1108</v>
       </c>
@@ -13664,7 +13689,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" hidden="1">
       <c r="A632" s="1" t="s">
         <v>1110</v>
       </c>
@@ -13678,7 +13703,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" hidden="1">
       <c r="A633" s="1" t="s">
         <v>1112</v>
       </c>
@@ -13692,7 +13717,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" hidden="1">
       <c r="A634" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13706,7 +13731,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" hidden="1">
       <c r="A635" s="1" t="s">
         <v>1116</v>
       </c>
@@ -13720,7 +13745,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" hidden="1">
       <c r="A636" s="1" t="s">
         <v>1117</v>
       </c>
@@ -13734,7 +13759,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" hidden="1">
       <c r="A637" s="1" t="s">
         <v>274</v>
       </c>
@@ -13748,7 +13773,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" hidden="1">
       <c r="A638" s="1" t="s">
         <v>1119</v>
       </c>
@@ -13762,7 +13787,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" hidden="1">
       <c r="A639" s="1" t="s">
         <v>1120</v>
       </c>
@@ -13776,7 +13801,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" hidden="1">
       <c r="A640" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13790,7 +13815,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" hidden="1">
       <c r="A641" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13804,7 +13829,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" hidden="1">
       <c r="A642" s="1" t="s">
         <v>1124</v>
       </c>
@@ -13818,7 +13843,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" hidden="1">
       <c r="A643" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13832,7 +13857,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" hidden="1">
       <c r="A644" s="1" t="s">
         <v>1127</v>
       </c>
@@ -13846,7 +13871,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" hidden="1">
       <c r="A645" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13860,7 +13885,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" hidden="1">
       <c r="A646" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13874,7 +13899,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" hidden="1">
       <c r="A647" s="1" t="s">
         <v>1135</v>
       </c>
@@ -13888,7 +13913,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" hidden="1">
       <c r="A648" s="1" t="s">
         <v>1137</v>
       </c>
@@ -13902,7 +13927,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" hidden="1">
       <c r="A649" s="1" t="s">
         <v>1139</v>
       </c>
@@ -13916,7 +13941,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" hidden="1">
       <c r="A650" s="1" t="s">
         <v>1141</v>
       </c>
@@ -13930,7 +13955,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" hidden="1">
       <c r="A651" s="1" t="s">
         <v>1143</v>
       </c>
@@ -13944,7 +13969,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" hidden="1">
       <c r="A652" s="1" t="s">
         <v>1145</v>
       </c>
@@ -13958,7 +13983,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" hidden="1">
       <c r="A653" s="1" t="s">
         <v>1146</v>
       </c>
@@ -13972,7 +13997,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" hidden="1">
       <c r="A654" s="30" t="s">
         <v>1148</v>
       </c>
@@ -13986,7 +14011,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" hidden="1">
       <c r="A655" s="1" t="s">
         <v>1150</v>
       </c>
@@ -14000,7 +14025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" hidden="1">
       <c r="A656" s="1" t="s">
         <v>1152</v>
       </c>
@@ -14014,7 +14039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" hidden="1">
       <c r="A657" s="1" t="s">
         <v>1154</v>
       </c>
@@ -14028,7 +14053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" hidden="1">
       <c r="A658" s="1" t="s">
         <v>1156</v>
       </c>
@@ -14042,7 +14067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="116">
+    <row r="659" spans="1:4" ht="116" hidden="1">
       <c r="A659" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14056,7 +14081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" hidden="1">
       <c r="A660" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14070,7 +14095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" hidden="1">
       <c r="A661" s="1" t="s">
         <v>1160</v>
       </c>
@@ -14084,7 +14109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" hidden="1">
       <c r="A662" s="1" t="s">
         <v>1161</v>
       </c>
@@ -14098,7 +14123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" hidden="1">
       <c r="A663" s="1" t="s">
         <v>1162</v>
       </c>
@@ -14112,7 +14137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" hidden="1">
       <c r="A664" s="1" t="s">
         <v>1163</v>
       </c>
@@ -14126,7 +14151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" hidden="1">
       <c r="A665" s="1" t="s">
         <v>1164</v>
       </c>
@@ -14140,7 +14165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" hidden="1">
       <c r="A666" s="1" t="s">
         <v>1164</v>
       </c>
@@ -14154,7 +14179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" hidden="1">
       <c r="A667" s="1" t="s">
         <v>1165</v>
       </c>
@@ -14168,7 +14193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" hidden="1">
       <c r="A668" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14182,7 +14207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" hidden="1">
       <c r="A669" s="1" t="s">
         <v>1167</v>
       </c>
@@ -14196,7 +14221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" hidden="1">
       <c r="A670" s="1" t="s">
         <v>1168</v>
       </c>
@@ -14210,7 +14235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" hidden="1">
       <c r="A671" s="1" t="s">
         <v>1169</v>
       </c>
@@ -14224,7 +14249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" hidden="1">
       <c r="A672" s="1" t="s">
         <v>1170</v>
       </c>
@@ -14238,7 +14263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" hidden="1">
       <c r="A673" s="1" t="s">
         <v>1171</v>
       </c>
@@ -14252,7 +14277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" hidden="1">
       <c r="A674" s="1" t="s">
         <v>1172</v>
       </c>
@@ -14266,7 +14291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" hidden="1">
       <c r="A675" s="1" t="s">
         <v>1183</v>
       </c>
@@ -14280,7 +14305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" hidden="1">
       <c r="A676" s="1" t="s">
         <v>1184</v>
       </c>
@@ -14294,7 +14319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" hidden="1">
       <c r="A677" s="1" t="s">
         <v>1185</v>
       </c>
@@ -14308,7 +14333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" hidden="1">
       <c r="A678" s="1" t="s">
         <v>1187</v>
       </c>
@@ -14322,11 +14347,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" hidden="1">
       <c r="A679" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B679" s="32" t="s">
+      <c r="B679" s="31" t="s">
         <v>1190</v>
       </c>
       <c r="C679" s="2" t="s">
@@ -14336,7 +14361,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" hidden="1">
       <c r="A680" s="1" t="s">
         <v>1191</v>
       </c>
@@ -14350,7 +14375,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" hidden="1">
       <c r="A681" s="1" t="s">
         <v>1195</v>
       </c>
@@ -14364,7 +14389,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" hidden="1">
       <c r="A682" s="1" t="s">
         <v>1194</v>
       </c>
@@ -14379,20 +14404,60 @@
       </c>
     </row>
     <row r="683" spans="1:4">
-      <c r="A683" s="1"/>
-      <c r="D683" s="1"/>
+      <c r="A683" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B683" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="684" spans="1:4">
-      <c r="A684" s="1"/>
-      <c r="D684" s="1"/>
+      <c r="A684" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B684" s="12" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="685" spans="1:4">
-      <c r="A685" s="1"/>
-      <c r="D685" s="1"/>
+      <c r="A685" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B685" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="686" spans="1:4">
-      <c r="A686" s="1"/>
-      <c r="D686" s="1"/>
+      <c r="A686" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B686" s="12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="1"/>
@@ -51643,7 +51708,13 @@
       <c r="D9998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H678" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H682" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Paperless Projects"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="H2:H11"/>
   </mergeCells>
@@ -52135,12 +52206,16 @@
     <hyperlink ref="B676" r:id="rId421" xr:uid="{52E47412-0444-413E-808F-6C6713393CCF}"/>
     <hyperlink ref="B677" r:id="rId422" xr:uid="{68A1D903-A99B-405F-A206-87FD5827BD7B}"/>
     <hyperlink ref="B678" r:id="rId423" xr:uid="{239CB5B5-B93F-4B91-8E5F-B5A211A11AFB}"/>
+    <hyperlink ref="B683" r:id="rId424" xr:uid="{F2D21835-7786-4BFD-AB4C-E12424D32805}"/>
+    <hyperlink ref="B684" r:id="rId425" xr:uid="{52AC0C10-2AF9-46FF-AC65-5E96953A9081}"/>
+    <hyperlink ref="B685" r:id="rId426" xr:uid="{6E279A53-7A3F-480E-BF13-93997E250F28}"/>
+    <hyperlink ref="B686" r:id="rId427" xr:uid="{A42FEA38-1FE0-46B4-BF1E-07B1B04F13E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId424"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId428"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId425"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId426"/>
+    <customPr name="_pios_id" r:id="rId429"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId430"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D114F4-8A16-405A-9F62-C939FB724CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FA2C5-E392-4385-9EAC-A2B7F6B8CB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Category" sheetId="3" r:id="rId2"/>
-    <sheet name="SOP" sheetId="4" r:id="rId3"/>
+    <sheet name="SOP" sheetId="4" r:id="rId1"/>
+    <sheet name="Master" sheetId="1" r:id="rId2"/>
+    <sheet name="Category" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$682</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Master!$A$1:$H$704</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1239">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="2"/>
@@ -4013,6 +4013,111 @@
   </si>
   <si>
     <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\12 JAPAN R2P\22 FUJIFILM, EXELA</t>
+  </si>
+  <si>
+    <t>Role Suggestion Tool</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/ServiceManagement/_layouts/15/Doc.aspx?sourcedoc=%7BE5FF34EA-1515-480C-A990-45C2E765CE9B%7D&amp;file=Role%20Suggestion%20Tool%20-%20Overview.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1&amp;cid=f17af886-f969-4f8d-9a38-43f2c597158f</t>
+  </si>
+  <si>
+    <t>GRC Training</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/SAP/Security/_layouts/15/Doc.aspx?sourcedoc=%7BBF2CCCF6-9BE0-469E-BCB8-6A991F97ADCD%7D&amp;file=GRC%20Training%20for%20Super%20User%20V1.1.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=ea286254-f3c6-4053-a7c9-d89604c1b407</t>
+  </si>
+  <si>
+    <t>Saviynt Request</t>
+  </si>
+  <si>
+    <t>https://alcon.service-now.com/alconservicemanagement?id=kb_article&amp;sys_id=71a568dfdbb360d0586e5572ca9619be&amp;spa=1</t>
+  </si>
+  <si>
+    <t>Employee Info</t>
+  </si>
+  <si>
+    <t>https://sfeur.delve.office.com/?u=e36af2cf-2b9d-40fa-bdda-8b157ef00f22&amp;v=work</t>
+  </si>
+  <si>
+    <t>BS Recons</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0202_Closing\020219_Blackline Account Recs\2022.02</t>
+  </si>
+  <si>
+    <t>Blackline Variance Analysis</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:w:/r/sites/alconfra/_layouts/15/Doc.aspx?sourcedoc=%7BD2534C04-134F-441C-8C54-85C2AAB91E5D%7D&amp;file=Blackline%20Variance%20Analysis%20-%20End%20User%20Manual.docx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1</t>
+  </si>
+  <si>
+    <t>Adobe Acrobat</t>
+  </si>
+  <si>
+    <t>https://alcon.service-now.com/nav_to.do?uri=%2Fkb_view.do%3Fsys_kb_id%3D34c846de1b1ef0907ff1dd79b04bcbf7</t>
+  </si>
+  <si>
+    <t>VIM Analytics Overview</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/alfrafsc/_layouts/15/Doc.aspx?sourcedoc=%7BEC5B3491-1A23-4530-A872-CEDB831F27C2%7D&amp;file=VIM%20Analytics.pptx&amp;action=edit&amp;mobileredirect=true</t>
+  </si>
+  <si>
+    <t>GRC Stakeholder Portal</t>
+  </si>
+  <si>
+    <t>http://alconpedia.alcon.net/index.php?title=HowTo_Create/Update/Remove_Business_Stakeholders_in_the_GRC_Stakeholder_Portal_(ERP_IT)#HowTo:_Onboard_a_new_user_.28Single_User_Onboarding.29</t>
+  </si>
+  <si>
+    <t>Becoming Super User</t>
+  </si>
+  <si>
+    <t>http://alconpedia.alcon.net/index.php/HowTo_become_a_certified_Super_User</t>
+  </si>
+  <si>
+    <t>Super User Page</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/al-fnp-it/SitePages/SuperUserInfo.aspx#</t>
+  </si>
+  <si>
+    <t>Runbook</t>
+  </si>
+  <si>
+    <t>AP R2P Stepout</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Shahril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project </t>
+  </si>
+  <si>
+    <t>Japan Paperless Project</t>
+  </si>
+  <si>
+    <t>Finance Core Project</t>
+  </si>
+  <si>
+    <t>Alcon Manual of Accounting</t>
+  </si>
+  <si>
+    <t>AMA Welcome (alcon.net)</t>
+  </si>
+  <si>
+    <t>Finance Core Training Library</t>
+  </si>
+  <si>
+    <t>Trainings (Master) (alcon.net)</t>
+  </si>
+  <si>
+    <t>Alcon Chart of Account</t>
+  </si>
+  <si>
+    <t>Alcon FRA - MasterData (sharepoint.com)</t>
+  </si>
+  <si>
+    <t>Egencia Project</t>
   </si>
 </sst>
 </file>
@@ -4693,15 +4798,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
+    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="41" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="87">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72.5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
+  </customProperties>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C579" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A686" sqref="A686"/>
+      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4739,7 +4942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -4761,10 +4964,10 @@
       </c>
       <c r="H2" s="32">
         <f>SUM(G2:G11)</f>
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" hidden="1" customHeight="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -4786,7 +4989,7 @@
       </c>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -4808,7 +5011,7 @@
       </c>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -4830,7 +5033,7 @@
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -4848,11 +5051,11 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -4874,7 +5077,7 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" ht="14.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:8" ht="14.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -4892,11 +5095,11 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" hidden="1" customHeight="1">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -4918,7 +5121,7 @@
       </c>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" ht="14.5" hidden="1" customHeight="1">
+    <row r="10" spans="1:8" ht="14.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -4940,7 +5143,7 @@
       </c>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -4958,11 +5161,11 @@
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -4976,7 +5179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -4990,7 +5193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -5004,7 +5207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -5018,7 +5221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -5032,7 +5235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -5046,7 +5249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5060,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -5088,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -5102,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -5116,7 +5319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5130,7 +5333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -5144,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -5158,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -5172,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -5186,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -5200,7 +5403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -5214,7 +5417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -5228,7 +5431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -5242,7 +5445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -5253,7 +5456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -5267,7 +5470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -5278,7 +5481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -5292,7 +5495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -5306,7 +5509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -5320,7 +5523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -5334,7 +5537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -5348,7 +5551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -5362,7 +5565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -5373,7 +5576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -5384,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -5398,7 +5601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -5409,7 +5612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>174</v>
       </c>
@@ -5423,7 +5626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -5437,7 +5640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -5451,7 +5654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="58" hidden="1">
+    <row r="48" spans="1:4" ht="58">
       <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
@@ -5465,7 +5668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -5479,7 +5682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -5493,7 +5696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -5507,7 +5710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
@@ -5521,7 +5724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -5535,7 +5738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -5549,7 +5752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -5563,7 +5766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -5577,7 +5780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -5594,7 +5797,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>696</v>
       </c>
@@ -5611,7 +5814,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -5625,7 +5828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="43.5" hidden="1">
+    <row r="60" spans="1:5" ht="43.5">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -5639,7 +5842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>145</v>
       </c>
@@ -5653,7 +5856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -5667,7 +5870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>150</v>
       </c>
@@ -5681,7 +5884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="101.5" hidden="1">
+    <row r="64" spans="1:5" ht="101.5">
       <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
@@ -5695,7 +5898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
@@ -5709,7 +5912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
@@ -5723,7 +5926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
@@ -5737,7 +5940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
@@ -5751,7 +5954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -5765,7 +5968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>163</v>
       </c>
@@ -5779,7 +5982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
@@ -5793,7 +5996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>167</v>
       </c>
@@ -5807,7 +6010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>173</v>
       </c>
@@ -5821,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>179</v>
       </c>
@@ -5835,7 +6038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>180</v>
       </c>
@@ -5849,7 +6052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -5863,7 +6066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>437</v>
       </c>
@@ -5877,7 +6080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="21" customFormat="1" hidden="1">
+    <row r="78" spans="1:4" s="21" customFormat="1">
       <c r="A78" s="20" t="s">
         <v>185</v>
       </c>
@@ -5891,7 +6094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="21" customFormat="1" hidden="1">
+    <row r="79" spans="1:4" s="21" customFormat="1">
       <c r="A79" s="20" t="s">
         <v>188</v>
       </c>
@@ -5905,7 +6108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
@@ -5919,7 +6122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>191</v>
       </c>
@@ -5933,7 +6136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>195</v>
       </c>
@@ -5947,7 +6150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>196</v>
       </c>
@@ -5961,7 +6164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>198</v>
       </c>
@@ -5975,7 +6178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>200</v>
       </c>
@@ -5989,7 +6192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>201</v>
       </c>
@@ -6003,7 +6206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>202</v>
       </c>
@@ -6017,7 +6220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="20" t="s">
         <v>473</v>
       </c>
@@ -6031,7 +6234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>472</v>
       </c>
@@ -6045,7 +6248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>206</v>
       </c>
@@ -6059,7 +6262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>465</v>
       </c>
@@ -6073,7 +6276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>466</v>
       </c>
@@ -6087,7 +6290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>467</v>
       </c>
@@ -6101,7 +6304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>468</v>
       </c>
@@ -6115,7 +6318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>470</v>
       </c>
@@ -6129,7 +6332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>469</v>
       </c>
@@ -6143,7 +6346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>471</v>
       </c>
@@ -6157,7 +6360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>207</v>
       </c>
@@ -6171,7 +6374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>208</v>
       </c>
@@ -6185,7 +6388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>210</v>
       </c>
@@ -6199,7 +6402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -6213,7 +6416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>214</v>
       </c>
@@ -6227,7 +6430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>570</v>
       </c>
@@ -6241,7 +6444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>217</v>
       </c>
@@ -6255,7 +6458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>220</v>
       </c>
@@ -6269,7 +6472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
@@ -6283,7 +6486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -6297,7 +6500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>226</v>
       </c>
@@ -6311,7 +6514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>228</v>
       </c>
@@ -6325,7 +6528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>265</v>
       </c>
@@ -6339,7 +6542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
@@ -6353,7 +6556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -6367,7 +6570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>251</v>
       </c>
@@ -6381,7 +6584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>234</v>
       </c>
@@ -6395,7 +6598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>236</v>
       </c>
@@ -6409,7 +6612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>238</v>
       </c>
@@ -6423,7 +6626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -6437,7 +6640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>241</v>
       </c>
@@ -6451,7 +6654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>243</v>
       </c>
@@ -6465,7 +6668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>245</v>
       </c>
@@ -6479,7 +6682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>247</v>
       </c>
@@ -6493,7 +6696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1">
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>249</v>
       </c>
@@ -6507,7 +6710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>252</v>
       </c>
@@ -6521,7 +6724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1">
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>256</v>
       </c>
@@ -6535,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>257</v>
       </c>
@@ -6549,7 +6752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1">
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>259</v>
       </c>
@@ -6563,7 +6766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>260</v>
       </c>
@@ -6577,7 +6780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1">
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>262</v>
       </c>
@@ -6591,7 +6794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>264</v>
       </c>
@@ -6605,7 +6808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>267</v>
       </c>
@@ -6619,7 +6822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>268</v>
       </c>
@@ -6633,7 +6836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>269</v>
       </c>
@@ -6647,7 +6850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>270</v>
       </c>
@@ -6661,7 +6864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>274</v>
       </c>
@@ -6675,7 +6878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>276</v>
       </c>
@@ -6689,7 +6892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>278</v>
       </c>
@@ -6703,7 +6906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>281</v>
       </c>
@@ -6717,7 +6920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>282</v>
       </c>
@@ -6731,7 +6934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>284</v>
       </c>
@@ -6745,7 +6948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
@@ -6759,7 +6962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>287</v>
       </c>
@@ -6773,7 +6976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>290</v>
       </c>
@@ -6787,7 +6990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>291</v>
       </c>
@@ -6801,7 +7004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>293</v>
       </c>
@@ -6815,7 +7018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:7" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>295</v>
       </c>
@@ -6829,7 +7032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:7" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>297</v>
       </c>
@@ -6843,7 +7046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:7" ht="15" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>299</v>
       </c>
@@ -6857,7 +7060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:7" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>301</v>
       </c>
@@ -6871,7 +7074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:7" ht="15" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>303</v>
       </c>
@@ -6885,7 +7088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1">
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>305</v>
       </c>
@@ -6899,7 +7102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="58" hidden="1">
+    <row r="151" spans="1:7" ht="58">
       <c r="A151" s="1" t="s">
         <v>307</v>
       </c>
@@ -6913,7 +7116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1">
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
@@ -6927,7 +7130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1">
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>310</v>
       </c>
@@ -6941,7 +7144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1">
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>313</v>
       </c>
@@ -6955,7 +7158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1">
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
         <v>315</v>
       </c>
@@ -6969,7 +7172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
         <v>317</v>
       </c>
@@ -6983,7 +7186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>319</v>
       </c>
@@ -6997,7 +7200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1">
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
         <v>321</v>
       </c>
@@ -7013,7 +7216,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:7" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>330</v>
       </c>
@@ -7027,7 +7230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:7" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -7041,7 +7244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>327</v>
       </c>
@@ -7055,7 +7258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>328</v>
       </c>
@@ -7069,7 +7272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>331</v>
       </c>
@@ -7083,7 +7286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
         <v>334</v>
       </c>
@@ -7097,7 +7300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>336</v>
       </c>
@@ -7111,7 +7314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>337</v>
       </c>
@@ -7125,7 +7328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>339</v>
       </c>
@@ -7139,7 +7342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>369</v>
       </c>
@@ -7153,7 +7356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>343</v>
       </c>
@@ -7167,7 +7370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
         <v>344</v>
       </c>
@@ -7181,7 +7384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>346</v>
       </c>
@@ -7195,7 +7398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
         <v>348</v>
       </c>
@@ -7209,7 +7412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>350</v>
       </c>
@@ -7223,7 +7426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -7237,7 +7440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -7251,7 +7454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -7265,7 +7468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -7279,7 +7482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -7293,7 +7496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>360</v>
       </c>
@@ -7307,7 +7510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -7321,7 +7524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -7335,7 +7538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>373</v>
       </c>
@@ -7349,7 +7552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>375</v>
       </c>
@@ -7363,7 +7566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>378</v>
       </c>
@@ -7377,7 +7580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
         <v>379</v>
       </c>
@@ -7391,7 +7594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>381</v>
       </c>
@@ -7405,7 +7608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
         <v>383</v>
       </c>
@@ -7419,7 +7622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
         <v>385</v>
       </c>
@@ -7433,7 +7636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
         <v>387</v>
       </c>
@@ -7447,7 +7650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
         <v>389</v>
       </c>
@@ -7461,7 +7664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
         <v>391</v>
       </c>
@@ -7475,7 +7678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
         <v>392</v>
       </c>
@@ -7489,7 +7692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
         <v>394</v>
       </c>
@@ -7503,7 +7706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
         <v>395</v>
       </c>
@@ -7517,7 +7720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
         <v>397</v>
       </c>
@@ -7531,7 +7734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>399</v>
       </c>
@@ -7545,7 +7748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
         <v>400</v>
       </c>
@@ -7559,7 +7762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
         <v>402</v>
       </c>
@@ -7573,7 +7776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
@@ -7587,7 +7790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4">
       <c r="A200" s="20" t="s">
         <v>405</v>
       </c>
@@ -7601,7 +7804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>406</v>
       </c>
@@ -7615,7 +7818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>408</v>
       </c>
@@ -7629,7 +7832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
         <v>410</v>
       </c>
@@ -7643,7 +7846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -7657,7 +7860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
         <v>412</v>
       </c>
@@ -7671,7 +7874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>413</v>
       </c>
@@ -7685,7 +7888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
         <v>414</v>
       </c>
@@ -7699,7 +7902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
         <v>415</v>
       </c>
@@ -7713,7 +7916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
         <v>417</v>
       </c>
@@ -7727,7 +7930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>418</v>
       </c>
@@ -7741,7 +7944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1">
+    <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
         <v>419</v>
       </c>
@@ -7755,7 +7958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="101.5" hidden="1">
+    <row r="212" spans="1:7" ht="101.5">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -7769,7 +7972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1">
+    <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>425</v>
       </c>
@@ -7785,7 +7988,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:7" hidden="1">
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
         <v>426</v>
       </c>
@@ -7801,7 +8004,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="10"/>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
         <v>427</v>
       </c>
@@ -7817,7 +8020,7 @@
       <c r="F215" s="11"/>
       <c r="G215" s="10"/>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>428</v>
       </c>
@@ -7833,7 +8036,7 @@
       <c r="F216" s="11"/>
       <c r="G216" s="10"/>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
@@ -7849,7 +8052,7 @@
       <c r="F217" s="11"/>
       <c r="G217" s="10"/>
     </row>
-    <row r="218" spans="1:7" hidden="1">
+    <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
         <v>430</v>
       </c>
@@ -7865,7 +8068,7 @@
       <c r="F218" s="11"/>
       <c r="G218" s="10"/>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
         <v>431</v>
       </c>
@@ -7881,7 +8084,7 @@
       <c r="F219" s="11"/>
       <c r="G219" s="10"/>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
         <v>432</v>
       </c>
@@ -7897,7 +8100,7 @@
       <c r="F220" s="11"/>
       <c r="G220" s="10"/>
     </row>
-    <row r="221" spans="1:7" hidden="1">
+    <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
         <v>433</v>
       </c>
@@ -7913,7 +8116,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="10"/>
     </row>
-    <row r="222" spans="1:7" hidden="1">
+    <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
         <v>434</v>
       </c>
@@ -7929,7 +8132,7 @@
       <c r="F222" s="11"/>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>435</v>
       </c>
@@ -7945,7 +8148,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="10"/>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
         <v>436</v>
       </c>
@@ -7961,7 +8164,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>438</v>
       </c>
@@ -7977,7 +8180,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:7" hidden="1">
+    <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>439</v>
       </c>
@@ -7993,7 +8196,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="10"/>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>440</v>
       </c>
@@ -8009,7 +8212,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="10"/>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
         <v>441</v>
       </c>
@@ -8025,7 +8228,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="10"/>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
         <v>442</v>
       </c>
@@ -8041,7 +8244,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="10"/>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>443</v>
       </c>
@@ -8057,7 +8260,7 @@
       <c r="F230" s="11"/>
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
         <v>444</v>
       </c>
@@ -8073,7 +8276,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="10"/>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
         <v>445</v>
       </c>
@@ -8089,7 +8292,7 @@
       <c r="F232" s="11"/>
       <c r="G232" s="10"/>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
         <v>446</v>
       </c>
@@ -8105,7 +8308,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="10"/>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
         <v>447</v>
       </c>
@@ -8121,7 +8324,7 @@
       <c r="F234" s="11"/>
       <c r="G234" s="10"/>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>448</v>
       </c>
@@ -8137,7 +8340,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>449</v>
       </c>
@@ -8153,7 +8356,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="10"/>
     </row>
-    <row r="237" spans="1:7" hidden="1">
+    <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>450</v>
       </c>
@@ -8169,7 +8372,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="10"/>
     </row>
-    <row r="238" spans="1:7" hidden="1">
+    <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
         <v>451</v>
       </c>
@@ -8185,7 +8388,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="10"/>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
         <v>452</v>
       </c>
@@ -8201,7 +8404,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="10"/>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>453</v>
       </c>
@@ -8215,7 +8418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
+    <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
         <v>454</v>
       </c>
@@ -8229,7 +8432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
@@ -8243,7 +8446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
         <v>458</v>
       </c>
@@ -8257,7 +8460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="43.5" hidden="1">
+    <row r="244" spans="1:4" ht="43.5">
       <c r="A244" s="1" t="s">
         <v>462</v>
       </c>
@@ -8271,7 +8474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="43.5" hidden="1">
+    <row r="245" spans="1:4" ht="43.5">
       <c r="A245" s="1" t="s">
         <v>505</v>
       </c>
@@ -8285,7 +8488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1">
+    <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
         <v>462</v>
       </c>
@@ -8299,7 +8502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1">
+    <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
         <v>463</v>
       </c>
@@ -8313,7 +8516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="20" t="s">
         <v>474</v>
       </c>
@@ -8327,7 +8530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="20" t="s">
         <v>475</v>
       </c>
@@ -8341,7 +8544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="20" t="s">
         <v>476</v>
       </c>
@@ -8355,7 +8558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>495</v>
       </c>
@@ -8369,7 +8572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>494</v>
       </c>
@@ -8383,7 +8586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>493</v>
       </c>
@@ -8397,7 +8600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>492</v>
       </c>
@@ -8411,7 +8614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>491</v>
       </c>
@@ -8425,7 +8628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>490</v>
       </c>
@@ -8439,7 +8642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>489</v>
       </c>
@@ -8453,7 +8656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>478</v>
       </c>
@@ -8467,7 +8670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>479</v>
       </c>
@@ -8481,7 +8684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>480</v>
       </c>
@@ -8495,7 +8698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>482</v>
       </c>
@@ -8509,7 +8712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>483</v>
       </c>
@@ -8523,7 +8726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>485</v>
       </c>
@@ -8537,7 +8740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="264" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>496</v>
       </c>
@@ -8551,7 +8754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>488</v>
       </c>
@@ -8565,7 +8768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>497</v>
       </c>
@@ -8579,7 +8782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>498</v>
       </c>
@@ -8593,7 +8796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>499</v>
       </c>
@@ -8607,7 +8810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>500</v>
       </c>
@@ -8621,7 +8824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>501</v>
       </c>
@@ -8635,7 +8838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>502</v>
       </c>
@@ -8649,7 +8852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>503</v>
       </c>
@@ -8663,7 +8866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>504</v>
       </c>
@@ -8677,7 +8880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
         <v>506</v>
       </c>
@@ -8691,7 +8894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
         <v>508</v>
       </c>
@@ -8705,7 +8908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
         <v>510</v>
       </c>
@@ -8719,7 +8922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
         <v>512</v>
       </c>
@@ -8733,7 +8936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
         <v>513</v>
       </c>
@@ -8747,7 +8950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>516</v>
       </c>
@@ -8761,7 +8964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
         <v>517</v>
       </c>
@@ -8775,7 +8978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
         <v>519</v>
       </c>
@@ -8789,7 +8992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
         <v>521</v>
       </c>
@@ -8803,7 +9006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
         <v>523</v>
       </c>
@@ -8817,7 +9020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
         <v>524</v>
       </c>
@@ -8831,7 +9034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
         <v>526</v>
       </c>
@@ -8845,7 +9048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
         <v>528</v>
       </c>
@@ -8859,7 +9062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
         <v>530</v>
       </c>
@@ -8873,7 +9076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
         <v>531</v>
       </c>
@@ -8887,7 +9090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1">
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
         <v>533</v>
       </c>
@@ -8901,7 +9104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
         <v>535</v>
       </c>
@@ -8915,7 +9118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
         <v>537</v>
       </c>
@@ -8929,7 +9132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>539</v>
       </c>
@@ -8943,7 +9146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
         <v>542</v>
       </c>
@@ -8957,7 +9160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
         <v>541</v>
       </c>
@@ -8971,7 +9174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1">
+    <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
         <v>544</v>
       </c>
@@ -8985,7 +9188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1">
+    <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
         <v>545</v>
       </c>
@@ -8999,7 +9202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1">
+    <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
         <v>546</v>
       </c>
@@ -9013,7 +9216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1">
+    <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
         <v>547</v>
       </c>
@@ -9027,7 +9230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1">
+    <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
         <v>550</v>
       </c>
@@ -9041,7 +9244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1">
+    <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
         <v>551</v>
       </c>
@@ -9055,7 +9258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1">
+    <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
         <v>553</v>
       </c>
@@ -9069,7 +9272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1">
+    <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
         <v>556</v>
       </c>
@@ -9083,7 +9286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1">
+    <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
         <v>567</v>
       </c>
@@ -9097,7 +9300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1">
+    <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
         <v>568</v>
       </c>
@@ -9111,7 +9314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1">
+    <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
         <v>560</v>
       </c>
@@ -9125,7 +9328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1">
+    <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
         <v>562</v>
       </c>
@@ -9139,7 +9342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1">
+    <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
         <v>564</v>
       </c>
@@ -9153,7 +9356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1">
+    <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
         <v>565</v>
       </c>
@@ -9167,7 +9370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1">
+    <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
         <v>571</v>
       </c>
@@ -9181,7 +9384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1">
+    <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
         <v>572</v>
       </c>
@@ -9195,7 +9398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1">
+    <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
         <v>574</v>
       </c>
@@ -9209,7 +9412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1">
+    <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
         <v>577</v>
       </c>
@@ -9223,7 +9426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1">
+    <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
         <v>583</v>
       </c>
@@ -9237,7 +9440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1">
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>579</v>
       </c>
@@ -9251,7 +9454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1">
+    <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
         <v>581</v>
       </c>
@@ -9265,7 +9468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1">
+    <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
         <v>584</v>
       </c>
@@ -9279,7 +9482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1">
+    <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
         <v>587</v>
       </c>
@@ -9293,7 +9496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1">
+    <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
         <v>588</v>
       </c>
@@ -9307,7 +9510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1">
+    <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
         <v>590</v>
       </c>
@@ -9321,7 +9524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1">
+    <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
         <v>592</v>
       </c>
@@ -9335,7 +9538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1">
+    <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
         <v>595</v>
       </c>
@@ -9349,7 +9552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1">
+    <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
         <v>596</v>
       </c>
@@ -9363,7 +9566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1">
+    <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>598</v>
       </c>
@@ -9377,7 +9580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1">
+    <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
         <v>601</v>
       </c>
@@ -9391,7 +9594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1">
+    <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
         <v>602</v>
       </c>
@@ -9405,7 +9608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1">
+    <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
         <v>604</v>
       </c>
@@ -9419,7 +9622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1">
+    <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
         <v>607</v>
       </c>
@@ -9433,7 +9636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1">
+    <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
         <v>608</v>
       </c>
@@ -9447,7 +9650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="329" spans="1:4" ht="15" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>610</v>
       </c>
@@ -9461,7 +9664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="330" spans="1:4" ht="15" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>612</v>
       </c>
@@ -9475,7 +9678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="331" spans="1:4" ht="15" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>613</v>
       </c>
@@ -9489,7 +9692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="332" spans="1:4" ht="15" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>614</v>
       </c>
@@ -9503,7 +9706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="333" spans="1:4" ht="15" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>615</v>
       </c>
@@ -9517,7 +9720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="334" spans="1:4" ht="15" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>616</v>
       </c>
@@ -9531,7 +9734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="335" spans="1:4" ht="15" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>617</v>
       </c>
@@ -9545,7 +9748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="336" spans="1:4" ht="15" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>618</v>
       </c>
@@ -9559,7 +9762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="337" spans="1:4" ht="15" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>619</v>
       </c>
@@ -9573,7 +9776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="338" spans="1:4" ht="15" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>620</v>
       </c>
@@ -9587,7 +9790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="339" spans="1:4" ht="15" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>621</v>
       </c>
@@ -9601,7 +9804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="340" spans="1:4" ht="15" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>622</v>
       </c>
@@ -9615,7 +9818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="341" spans="1:4" ht="15" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>624</v>
       </c>
@@ -9629,7 +9832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="342" spans="1:4" ht="15" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>625</v>
       </c>
@@ -9643,7 +9846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="343" spans="1:4" ht="15" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>627</v>
       </c>
@@ -9657,7 +9860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="344" spans="1:4" ht="15" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>628</v>
       </c>
@@ -9671,7 +9874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="345" spans="1:4" ht="15" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>629</v>
       </c>
@@ -9685,7 +9888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="346" spans="1:4" ht="15" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>630</v>
       </c>
@@ -9699,7 +9902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1">
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>633</v>
       </c>
@@ -9713,7 +9916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1">
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
         <v>634</v>
       </c>
@@ -9727,7 +9930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1">
+    <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
         <v>637</v>
       </c>
@@ -9741,7 +9944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1">
+    <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
         <v>636</v>
       </c>
@@ -9755,7 +9958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
         <v>639</v>
       </c>
@@ -9769,7 +9972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
         <v>640</v>
       </c>
@@ -9783,7 +9986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1">
+    <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
         <v>641</v>
       </c>
@@ -9794,7 +9997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1">
+    <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
         <v>643</v>
       </c>
@@ -9808,7 +10011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1">
+    <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
         <v>646</v>
       </c>
@@ -9822,7 +10025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1">
+    <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
         <v>648</v>
       </c>
@@ -9836,7 +10039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1">
+    <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
         <v>649</v>
       </c>
@@ -9850,7 +10053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1">
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>651</v>
       </c>
@@ -9864,7 +10067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1">
+    <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
         <v>654</v>
       </c>
@@ -9878,7 +10081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1">
+    <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
         <v>655</v>
       </c>
@@ -9892,7 +10095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1">
+    <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
         <v>657</v>
       </c>
@@ -9906,7 +10109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1">
+    <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
         <v>658</v>
       </c>
@@ -9920,7 +10123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1">
+    <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
         <v>660</v>
       </c>
@@ -9934,7 +10137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1">
+    <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
         <v>661</v>
       </c>
@@ -9948,7 +10151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1">
+    <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
         <v>663</v>
       </c>
@@ -9962,7 +10165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1">
+    <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
         <v>636</v>
       </c>
@@ -9976,7 +10179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1">
+    <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
         <v>665</v>
       </c>
@@ -9990,7 +10193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1">
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
         <v>666</v>
       </c>
@@ -10004,7 +10207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1">
+    <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
         <v>668</v>
       </c>
@@ -10018,7 +10221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1">
+    <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
         <v>669</v>
       </c>
@@ -10032,7 +10235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1">
+    <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
         <v>670</v>
       </c>
@@ -10046,7 +10249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1">
+    <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
         <v>672</v>
       </c>
@@ -10060,7 +10263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1">
+    <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
         <v>674</v>
       </c>
@@ -10074,7 +10277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1">
+    <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
         <v>675</v>
       </c>
@@ -10088,7 +10291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1">
+    <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
         <v>677</v>
       </c>
@@ -10102,7 +10305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
         <v>678</v>
       </c>
@@ -10116,7 +10319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
         <v>680</v>
       </c>
@@ -10130,7 +10333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1">
+    <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
         <v>681</v>
       </c>
@@ -10144,7 +10347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1">
+    <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
         <v>682</v>
       </c>
@@ -10158,7 +10361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1">
+    <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
         <v>683</v>
       </c>
@@ -10172,7 +10375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1">
+    <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
         <v>684</v>
       </c>
@@ -10186,7 +10389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1">
+    <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
         <v>685</v>
       </c>
@@ -10200,7 +10403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1">
+    <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
         <v>687</v>
       </c>
@@ -10214,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1">
+    <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
         <v>690</v>
       </c>
@@ -10228,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1">
+    <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
         <v>689</v>
       </c>
@@ -10242,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1">
+    <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
         <v>692</v>
       </c>
@@ -10256,7 +10459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1">
+    <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
         <v>693</v>
       </c>
@@ -10270,7 +10473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
         <v>694</v>
       </c>
@@ -10284,7 +10487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1">
+    <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
         <v>698</v>
       </c>
@@ -10298,7 +10501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1">
+    <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
         <v>699</v>
       </c>
@@ -10312,7 +10515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
         <v>703</v>
       </c>
@@ -10326,7 +10529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
         <v>702</v>
       </c>
@@ -10340,7 +10543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
         <v>701</v>
       </c>
@@ -10354,7 +10557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
         <v>700</v>
       </c>
@@ -10368,7 +10571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1">
+    <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
         <v>705</v>
       </c>
@@ -10382,7 +10585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1">
+    <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
         <v>706</v>
       </c>
@@ -10396,7 +10599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
+    <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
         <v>708</v>
       </c>
@@ -10410,7 +10613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1">
+    <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
         <v>709</v>
       </c>
@@ -10424,7 +10627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1">
+    <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
         <v>710</v>
       </c>
@@ -10438,7 +10641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1">
+    <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
         <v>711</v>
       </c>
@@ -10452,7 +10655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1">
+    <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
         <v>713</v>
       </c>
@@ -10466,7 +10669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1">
+    <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
         <v>716</v>
       </c>
@@ -10480,7 +10683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1">
+    <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
         <v>717</v>
       </c>
@@ -10494,7 +10697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1">
+    <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
         <v>718</v>
       </c>
@@ -10508,7 +10711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1">
+    <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
         <v>720</v>
       </c>
@@ -10522,7 +10725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1">
+    <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
         <v>720</v>
       </c>
@@ -10536,7 +10739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1">
+    <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
         <v>723</v>
       </c>
@@ -10550,7 +10753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1">
+    <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
         <v>723</v>
       </c>
@@ -10564,7 +10767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1">
+    <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
         <v>724</v>
       </c>
@@ -10578,7 +10781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1">
+    <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
         <v>724</v>
       </c>
@@ -10592,7 +10795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1">
+    <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
         <v>725</v>
       </c>
@@ -10606,7 +10809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1">
+    <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
         <v>727</v>
       </c>
@@ -10620,7 +10823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1">
+    <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
         <v>729</v>
       </c>
@@ -10634,7 +10837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1">
+    <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
         <v>731</v>
       </c>
@@ -10648,7 +10851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1">
+    <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
         <v>733</v>
       </c>
@@ -10662,7 +10865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1">
+    <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
         <v>735</v>
       </c>
@@ -10676,7 +10879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1">
+    <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
         <v>737</v>
       </c>
@@ -10690,7 +10893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1">
+    <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
         <v>738</v>
       </c>
@@ -10704,7 +10907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1">
+    <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
         <v>739</v>
       </c>
@@ -10718,7 +10921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1">
+    <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
         <v>462</v>
       </c>
@@ -10732,7 +10935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1">
+    <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
         <v>321</v>
       </c>
@@ -10746,7 +10949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1">
+    <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
         <v>741</v>
       </c>
@@ -10760,7 +10963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1">
+    <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
         <v>742</v>
       </c>
@@ -10774,7 +10977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1">
+    <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
         <v>743</v>
       </c>
@@ -10788,7 +10991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1">
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
         <v>749</v>
       </c>
@@ -10802,7 +11005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1">
+    <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
         <v>751</v>
       </c>
@@ -10816,7 +11019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="72.5" hidden="1">
+    <row r="427" spans="1:4" ht="72.5">
       <c r="A427" s="1" t="s">
         <v>754</v>
       </c>
@@ -10830,7 +11033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="72.5" hidden="1">
+    <row r="428" spans="1:4" ht="72.5">
       <c r="A428" s="1" t="s">
         <v>755</v>
       </c>
@@ -10844,7 +11047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1">
+    <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
         <v>756</v>
       </c>
@@ -10858,7 +11061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1">
+    <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
         <v>757</v>
       </c>
@@ -10872,7 +11075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1">
+    <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
         <v>760</v>
       </c>
@@ -10886,7 +11089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1">
+    <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
         <v>761</v>
       </c>
@@ -10900,7 +11103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1">
+    <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
         <v>763</v>
       </c>
@@ -10908,13 +11111,13 @@
         <v>764</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>35</v>
+        <v>1226</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1">
+    <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
         <v>765</v>
       </c>
@@ -10928,7 +11131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1">
+    <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
         <v>766</v>
       </c>
@@ -10942,7 +11145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1">
+    <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
         <v>768</v>
       </c>
@@ -10956,7 +11159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1">
+    <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
         <v>770</v>
       </c>
@@ -10970,7 +11173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1">
+    <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
         <v>771</v>
       </c>
@@ -10984,7 +11187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1">
+    <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
         <v>773</v>
       </c>
@@ -10998,7 +11201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1">
+    <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
         <v>286</v>
       </c>
@@ -11012,7 +11215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1">
+    <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
         <v>773</v>
       </c>
@@ -11026,7 +11229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1">
+    <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
         <v>776</v>
       </c>
@@ -11040,7 +11243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1">
+    <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
         <v>779</v>
       </c>
@@ -11054,7 +11257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1">
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>780</v>
       </c>
@@ -11068,7 +11271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1">
+    <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
         <v>783</v>
       </c>
@@ -11082,7 +11285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1">
+    <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
         <v>785</v>
       </c>
@@ -11096,7 +11299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1">
+    <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
         <v>286</v>
       </c>
@@ -11110,7 +11313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1">
+    <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
         <v>723</v>
       </c>
@@ -11124,7 +11327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1">
+    <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
         <v>720</v>
       </c>
@@ -11138,7 +11341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1">
+    <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
         <v>788</v>
       </c>
@@ -11152,7 +11355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1">
+    <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
         <v>790</v>
       </c>
@@ -11166,7 +11369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1">
+    <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
         <v>791</v>
       </c>
@@ -11180,7 +11383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1">
+    <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
         <v>792</v>
       </c>
@@ -11194,7 +11397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1">
+    <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
         <v>793</v>
       </c>
@@ -11208,7 +11411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1">
+    <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
         <v>795</v>
       </c>
@@ -11222,7 +11425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1">
+    <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
         <v>796</v>
       </c>
@@ -11236,7 +11439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1">
+    <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
         <v>798</v>
       </c>
@@ -11250,7 +11453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1">
+    <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
         <v>800</v>
       </c>
@@ -11264,7 +11467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1">
+    <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
         <v>803</v>
       </c>
@@ -11278,7 +11481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1">
+    <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
         <v>805</v>
       </c>
@@ -11292,7 +11495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1">
+    <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
         <v>806</v>
       </c>
@@ -11306,7 +11509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1">
+    <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
         <v>808</v>
       </c>
@@ -11320,7 +11523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1">
+    <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
         <v>810</v>
       </c>
@@ -11334,7 +11537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1">
+    <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
         <v>812</v>
       </c>
@@ -11348,7 +11551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1">
+    <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
         <v>814</v>
       </c>
@@ -11362,7 +11565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1">
+    <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
         <v>815</v>
       </c>
@@ -11376,7 +11579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1">
+    <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
         <v>818</v>
       </c>
@@ -11390,7 +11593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1">
+    <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
         <v>820</v>
       </c>
@@ -11404,7 +11607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1">
+    <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
         <v>823</v>
       </c>
@@ -11418,7 +11621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="17.5" hidden="1" customHeight="1">
+    <row r="470" spans="1:4" ht="17.5" customHeight="1">
       <c r="A470" s="1" t="s">
         <v>825</v>
       </c>
@@ -11432,7 +11635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1">
+    <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
         <v>826</v>
       </c>
@@ -11446,7 +11649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1">
+    <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
         <v>849</v>
       </c>
@@ -11460,7 +11663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1">
+    <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
         <v>827</v>
       </c>
@@ -11474,7 +11677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1">
+    <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
         <v>830</v>
       </c>
@@ -11488,7 +11691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1">
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
         <v>832</v>
       </c>
@@ -11502,7 +11705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1">
+    <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
         <v>833</v>
       </c>
@@ -11516,7 +11719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1">
+    <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
         <v>835</v>
       </c>
@@ -11530,7 +11733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1">
+    <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
         <v>836</v>
       </c>
@@ -11544,7 +11747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1">
+    <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
         <v>838</v>
       </c>
@@ -11558,7 +11761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1">
+    <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
         <v>839</v>
       </c>
@@ -11572,7 +11775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1">
+    <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
         <v>843</v>
       </c>
@@ -11586,7 +11789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1">
+    <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
         <v>844</v>
       </c>
@@ -11600,7 +11803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1">
+    <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
         <v>845</v>
       </c>
@@ -11614,7 +11817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1">
+    <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
         <v>846</v>
       </c>
@@ -11628,7 +11831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1">
+    <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
         <v>848</v>
       </c>
@@ -11642,7 +11845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1">
+    <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
         <v>850</v>
       </c>
@@ -11656,7 +11859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1">
+    <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
         <v>853</v>
       </c>
@@ -11670,7 +11873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1">
+    <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
         <v>855</v>
       </c>
@@ -11684,7 +11887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1">
+    <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
         <v>856</v>
       </c>
@@ -11698,7 +11901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1">
+    <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
         <v>858</v>
       </c>
@@ -11712,7 +11915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1">
+    <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
         <v>859</v>
       </c>
@@ -11726,7 +11929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1">
+    <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
         <v>827</v>
       </c>
@@ -11740,7 +11943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1">
+    <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
         <v>827</v>
       </c>
@@ -11754,7 +11957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1">
+    <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
         <v>863</v>
       </c>
@@ -11768,7 +11971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="58" hidden="1">
+    <row r="495" spans="1:4" ht="58">
       <c r="A495" s="1" t="s">
         <v>865</v>
       </c>
@@ -11782,7 +11985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="58" hidden="1">
+    <row r="496" spans="1:4" ht="58">
       <c r="A496" s="1" t="s">
         <v>866</v>
       </c>
@@ -11796,7 +11999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1">
+    <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
         <v>868</v>
       </c>
@@ -11810,7 +12013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1">
+    <row r="498" spans="1:7">
       <c r="A498" s="1" t="s">
         <v>870</v>
       </c>
@@ -11824,7 +12027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1">
+    <row r="499" spans="1:7">
       <c r="A499" s="1" t="s">
         <v>872</v>
       </c>
@@ -11838,7 +12041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1">
+    <row r="500" spans="1:7">
       <c r="A500" s="1" t="s">
         <v>875</v>
       </c>
@@ -11852,7 +12055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1">
+    <row r="501" spans="1:7">
       <c r="A501" s="1" t="s">
         <v>877</v>
       </c>
@@ -11866,7 +12069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1">
+    <row r="502" spans="1:7">
       <c r="A502" s="1" t="s">
         <v>878</v>
       </c>
@@ -11880,7 +12083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1">
+    <row r="503" spans="1:7">
       <c r="A503" s="1" t="s">
         <v>880</v>
       </c>
@@ -11894,7 +12097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1">
+    <row r="504" spans="1:7">
       <c r="A504" s="1" t="s">
         <v>881</v>
       </c>
@@ -11908,7 +12111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1">
+    <row r="505" spans="1:7">
       <c r="A505" s="1" t="s">
         <v>882</v>
       </c>
@@ -11922,7 +12125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1">
+    <row r="506" spans="1:7">
       <c r="A506" s="1" t="s">
         <v>884</v>
       </c>
@@ -11936,7 +12139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1">
+    <row r="507" spans="1:7">
       <c r="A507" s="1" t="s">
         <v>885</v>
       </c>
@@ -11952,7 +12155,7 @@
       <c r="F507" s="11"/>
       <c r="G507" s="10"/>
     </row>
-    <row r="508" spans="1:7" hidden="1">
+    <row r="508" spans="1:7">
       <c r="A508" s="1" t="s">
         <v>888</v>
       </c>
@@ -11966,7 +12169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1">
+    <row r="509" spans="1:7">
       <c r="A509" s="1" t="s">
         <v>889</v>
       </c>
@@ -11980,7 +12183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1">
+    <row r="510" spans="1:7">
       <c r="A510" s="1" t="s">
         <v>890</v>
       </c>
@@ -11996,7 +12199,7 @@
       <c r="F510" s="11"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:7" hidden="1">
+    <row r="511" spans="1:7">
       <c r="A511" s="1" t="s">
         <v>892</v>
       </c>
@@ -12012,7 +12215,7 @@
       <c r="F511" s="11"/>
       <c r="G511" s="10"/>
     </row>
-    <row r="512" spans="1:7" hidden="1">
+    <row r="512" spans="1:7">
       <c r="A512" s="1" t="s">
         <v>893</v>
       </c>
@@ -12026,7 +12229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1">
+    <row r="513" spans="1:4">
       <c r="A513" s="1" t="s">
         <v>894</v>
       </c>
@@ -12040,7 +12243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1">
+    <row r="514" spans="1:4">
       <c r="A514" s="1" t="s">
         <v>896</v>
       </c>
@@ -12054,7 +12257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1">
+    <row r="515" spans="1:4">
       <c r="A515" s="1" t="s">
         <v>897</v>
       </c>
@@ -12068,7 +12271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1">
+    <row r="516" spans="1:4">
       <c r="A516" s="1" t="s">
         <v>898</v>
       </c>
@@ -12082,7 +12285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1">
+    <row r="517" spans="1:4">
       <c r="A517" s="1" t="s">
         <v>900</v>
       </c>
@@ -12096,7 +12299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1">
+    <row r="518" spans="1:4">
       <c r="A518" s="1" t="s">
         <v>902</v>
       </c>
@@ -12110,7 +12313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1">
+    <row r="519" spans="1:4">
       <c r="A519" s="1" t="s">
         <v>904</v>
       </c>
@@ -12124,7 +12327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1">
+    <row r="520" spans="1:4">
       <c r="A520" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12138,7 +12341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1">
+    <row r="521" spans="1:4">
       <c r="A521" s="1" t="s">
         <v>906</v>
       </c>
@@ -12152,7 +12355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1">
+    <row r="522" spans="1:4">
       <c r="A522" s="1" t="s">
         <v>907</v>
       </c>
@@ -12166,7 +12369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1">
+    <row r="523" spans="1:4">
       <c r="A523" s="1" t="s">
         <v>910</v>
       </c>
@@ -12180,7 +12383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1">
+    <row r="524" spans="1:4">
       <c r="A524" s="1" t="s">
         <v>912</v>
       </c>
@@ -12194,7 +12397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1">
+    <row r="525" spans="1:4">
       <c r="A525" s="1" t="s">
         <v>914</v>
       </c>
@@ -12208,7 +12411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1">
+    <row r="526" spans="1:4">
       <c r="A526" s="1" t="s">
         <v>915</v>
       </c>
@@ -12222,7 +12425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1">
+    <row r="527" spans="1:4">
       <c r="A527" s="1" t="s">
         <v>926</v>
       </c>
@@ -12236,7 +12439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1">
+    <row r="528" spans="1:4">
       <c r="A528" s="1" t="s">
         <v>15</v>
       </c>
@@ -12250,7 +12453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1">
+    <row r="529" spans="1:4">
       <c r="A529" s="1" t="s">
         <v>927</v>
       </c>
@@ -12264,7 +12467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1">
+    <row r="530" spans="1:4">
       <c r="A530" s="1" t="s">
         <v>928</v>
       </c>
@@ -12278,7 +12481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1">
+    <row r="531" spans="1:4">
       <c r="A531" s="1" t="s">
         <v>929</v>
       </c>
@@ -12292,7 +12495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1">
+    <row r="532" spans="1:4">
       <c r="A532" s="1" t="s">
         <v>917</v>
       </c>
@@ -12306,7 +12509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1">
+    <row r="533" spans="1:4">
       <c r="A533" s="1" t="s">
         <v>918</v>
       </c>
@@ -12320,7 +12523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1">
+    <row r="534" spans="1:4">
       <c r="A534" s="1" t="s">
         <v>919</v>
       </c>
@@ -12334,7 +12537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1">
+    <row r="535" spans="1:4">
       <c r="A535" s="1" t="s">
         <v>920</v>
       </c>
@@ -12348,7 +12551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1">
+    <row r="536" spans="1:4">
       <c r="A536" s="1" t="s">
         <v>920</v>
       </c>
@@ -12362,7 +12565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1">
+    <row r="537" spans="1:4">
       <c r="A537" s="1" t="s">
         <v>920</v>
       </c>
@@ -12376,7 +12579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1">
+    <row r="538" spans="1:4">
       <c r="A538" s="1" t="s">
         <v>920</v>
       </c>
@@ -12390,7 +12593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1">
+    <row r="539" spans="1:4">
       <c r="A539" s="1" t="s">
         <v>936</v>
       </c>
@@ -12404,7 +12607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1">
+    <row r="540" spans="1:4">
       <c r="A540" s="1" t="s">
         <v>938</v>
       </c>
@@ -12418,7 +12621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1">
+    <row r="541" spans="1:4">
       <c r="A541" s="1" t="s">
         <v>940</v>
       </c>
@@ -12432,7 +12635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1">
+    <row r="542" spans="1:4">
       <c r="A542" s="1" t="s">
         <v>946</v>
       </c>
@@ -12446,7 +12649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1">
+    <row r="543" spans="1:4">
       <c r="A543" s="1" t="s">
         <v>943</v>
       </c>
@@ -12460,7 +12663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1">
+    <row r="544" spans="1:4">
       <c r="A544" s="1" t="s">
         <v>947</v>
       </c>
@@ -12474,7 +12677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1">
+    <row r="545" spans="1:4">
       <c r="A545" s="1" t="s">
         <v>949</v>
       </c>
@@ -12488,7 +12691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1">
+    <row r="546" spans="1:4">
       <c r="A546" s="1" t="s">
         <v>951</v>
       </c>
@@ -12502,7 +12705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1">
+    <row r="547" spans="1:4">
       <c r="A547" s="1" t="s">
         <v>953</v>
       </c>
@@ -12516,7 +12719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="13" hidden="1" customHeight="1">
+    <row r="548" spans="1:4" ht="13" customHeight="1">
       <c r="A548" s="1" t="s">
         <v>852</v>
       </c>
@@ -12527,7 +12730,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1">
+    <row r="549" spans="1:4">
       <c r="A549" s="1" t="s">
         <v>986</v>
       </c>
@@ -12541,7 +12744,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="58" hidden="1">
+    <row r="550" spans="1:4" ht="58">
       <c r="A550" s="1" t="s">
         <v>955</v>
       </c>
@@ -12555,7 +12758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="58" hidden="1">
+    <row r="551" spans="1:4" ht="58">
       <c r="A551" s="1" t="s">
         <v>956</v>
       </c>
@@ -12569,7 +12772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="58" hidden="1">
+    <row r="552" spans="1:4" ht="58">
       <c r="A552" s="1" t="s">
         <v>959</v>
       </c>
@@ -12583,7 +12786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="58" hidden="1">
+    <row r="553" spans="1:4" ht="58">
       <c r="A553" s="1" t="s">
         <v>961</v>
       </c>
@@ -12597,7 +12800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="58" hidden="1">
+    <row r="554" spans="1:4" ht="58">
       <c r="A554" s="1" t="s">
         <v>963</v>
       </c>
@@ -12611,7 +12814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="58" hidden="1">
+    <row r="555" spans="1:4" ht="58">
       <c r="A555" s="1" t="s">
         <v>964</v>
       </c>
@@ -12625,7 +12828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="58" hidden="1">
+    <row r="556" spans="1:4" ht="58">
       <c r="A556" s="1" t="s">
         <v>965</v>
       </c>
@@ -12639,7 +12842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="58" hidden="1">
+    <row r="557" spans="1:4" ht="58">
       <c r="A557" s="1" t="s">
         <v>966</v>
       </c>
@@ -12653,7 +12856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="58" hidden="1">
+    <row r="558" spans="1:4" ht="58">
       <c r="A558" s="1" t="s">
         <v>967</v>
       </c>
@@ -12667,7 +12870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="58" hidden="1">
+    <row r="559" spans="1:4" ht="58">
       <c r="A559" s="1" t="s">
         <v>969</v>
       </c>
@@ -12681,7 +12884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="58" hidden="1">
+    <row r="560" spans="1:4" ht="58">
       <c r="A560" s="1" t="s">
         <v>970</v>
       </c>
@@ -12695,7 +12898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="58" hidden="1">
+    <row r="561" spans="1:4" ht="58">
       <c r="A561" s="1" t="s">
         <v>972</v>
       </c>
@@ -12709,7 +12912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="58" hidden="1">
+    <row r="562" spans="1:4" ht="58">
       <c r="A562" s="1" t="s">
         <v>973</v>
       </c>
@@ -12723,7 +12926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="58" hidden="1">
+    <row r="563" spans="1:4" ht="58">
       <c r="A563" s="1" t="s">
         <v>975</v>
       </c>
@@ -12737,7 +12940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="58" hidden="1">
+    <row r="564" spans="1:4" ht="58">
       <c r="A564" s="1" t="s">
         <v>976</v>
       </c>
@@ -12751,7 +12954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1">
+    <row r="565" spans="1:4">
       <c r="A565" s="1" t="s">
         <v>978</v>
       </c>
@@ -12765,7 +12968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1">
+    <row r="566" spans="1:4">
       <c r="A566" s="1" t="s">
         <v>979</v>
       </c>
@@ -12779,7 +12982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1">
+    <row r="567" spans="1:4">
       <c r="A567" s="1" t="s">
         <v>981</v>
       </c>
@@ -12793,7 +12996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1">
+    <row r="568" spans="1:4">
       <c r="A568" s="1" t="s">
         <v>983</v>
       </c>
@@ -12807,7 +13010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="145" hidden="1">
+    <row r="569" spans="1:4" ht="145">
       <c r="A569" s="1" t="s">
         <v>985</v>
       </c>
@@ -12821,7 +13024,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="14.5" hidden="1" customHeight="1">
+    <row r="570" spans="1:4" ht="14.5" customHeight="1">
       <c r="A570" s="1" t="s">
         <v>987</v>
       </c>
@@ -12835,7 +13038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="203" hidden="1" customHeight="1">
+    <row r="571" spans="1:4" ht="203" customHeight="1">
       <c r="A571" s="1" t="s">
         <v>988</v>
       </c>
@@ -12849,7 +13052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1">
+    <row r="572" spans="1:4">
       <c r="A572" s="1" t="s">
         <v>989</v>
       </c>
@@ -12863,7 +13066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1">
+    <row r="573" spans="1:4">
       <c r="A573" s="1" t="s">
         <v>991</v>
       </c>
@@ -12877,7 +13080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1">
+    <row r="574" spans="1:4">
       <c r="A574" s="1" t="s">
         <v>993</v>
       </c>
@@ -12891,7 +13094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1">
+    <row r="575" spans="1:4">
       <c r="A575" s="1" t="s">
         <v>996</v>
       </c>
@@ -12905,7 +13108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1">
+    <row r="576" spans="1:4">
       <c r="A576" s="1" t="s">
         <v>997</v>
       </c>
@@ -12919,7 +13122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1">
+    <row r="577" spans="1:4">
       <c r="A577" s="1" t="s">
         <v>1000</v>
       </c>
@@ -12933,7 +13136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1">
+    <row r="578" spans="1:4">
       <c r="A578" s="1" t="s">
         <v>1001</v>
       </c>
@@ -12961,7 +13164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1">
+    <row r="580" spans="1:4">
       <c r="A580" s="1" t="s">
         <v>1004</v>
       </c>
@@ -12975,7 +13178,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1">
+    <row r="581" spans="1:4">
       <c r="A581" s="1" t="s">
         <v>1006</v>
       </c>
@@ -12989,7 +13192,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1">
+    <row r="582" spans="1:4">
       <c r="A582" s="1" t="s">
         <v>1008</v>
       </c>
@@ -13003,7 +13206,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1">
+    <row r="583" spans="1:4">
       <c r="A583" s="1" t="s">
         <v>1010</v>
       </c>
@@ -13017,7 +13220,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1">
+    <row r="584" spans="1:4">
       <c r="A584" s="1" t="s">
         <v>1015</v>
       </c>
@@ -13031,7 +13234,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1">
+    <row r="585" spans="1:4">
       <c r="A585" s="1" t="s">
         <v>1017</v>
       </c>
@@ -13045,7 +13248,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1">
+    <row r="586" spans="1:4">
       <c r="A586" s="1" t="s">
         <v>1019</v>
       </c>
@@ -13059,7 +13262,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1">
+    <row r="587" spans="1:4">
       <c r="A587" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13073,7 +13276,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1">
+    <row r="588" spans="1:4">
       <c r="A588" s="1" t="s">
         <v>1023</v>
       </c>
@@ -13087,7 +13290,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1">
+    <row r="589" spans="1:4">
       <c r="A589" s="1" t="s">
         <v>1025</v>
       </c>
@@ -13101,7 +13304,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1">
+    <row r="590" spans="1:4">
       <c r="A590" s="1" t="s">
         <v>1027</v>
       </c>
@@ -13115,7 +13318,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1">
+    <row r="591" spans="1:4">
       <c r="A591" s="1" t="s">
         <v>1029</v>
       </c>
@@ -13129,7 +13332,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1">
+    <row r="592" spans="1:4">
       <c r="A592" s="1" t="s">
         <v>1031</v>
       </c>
@@ -13143,7 +13346,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1">
+    <row r="593" spans="1:4">
       <c r="A593" s="1" t="s">
         <v>1033</v>
       </c>
@@ -13157,7 +13360,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1">
+    <row r="594" spans="1:4">
       <c r="A594" s="1" t="s">
         <v>1035</v>
       </c>
@@ -13171,7 +13374,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1">
+    <row r="595" spans="1:4">
       <c r="A595" s="1" t="s">
         <v>1037</v>
       </c>
@@ -13185,7 +13388,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1">
+    <row r="596" spans="1:4">
       <c r="A596" s="1" t="s">
         <v>1040</v>
       </c>
@@ -13199,7 +13402,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1">
+    <row r="597" spans="1:4">
       <c r="A597" s="1" t="s">
         <v>1042</v>
       </c>
@@ -13213,7 +13416,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1">
+    <row r="598" spans="1:4">
       <c r="A598" s="1" t="s">
         <v>1044</v>
       </c>
@@ -13227,7 +13430,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1">
+    <row r="599" spans="1:4">
       <c r="A599" s="1" t="s">
         <v>1046</v>
       </c>
@@ -13241,7 +13444,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1">
+    <row r="600" spans="1:4">
       <c r="A600" s="1" t="s">
         <v>1048</v>
       </c>
@@ -13255,7 +13458,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1">
+    <row r="601" spans="1:4">
       <c r="A601" s="1" t="s">
         <v>1050</v>
       </c>
@@ -13269,7 +13472,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1">
+    <row r="602" spans="1:4">
       <c r="A602" s="1" t="s">
         <v>1052</v>
       </c>
@@ -13283,7 +13486,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1">
+    <row r="603" spans="1:4">
       <c r="A603" s="1" t="s">
         <v>1054</v>
       </c>
@@ -13297,7 +13500,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1">
+    <row r="604" spans="1:4">
       <c r="A604" s="1" t="s">
         <v>1056</v>
       </c>
@@ -13311,7 +13514,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1">
+    <row r="605" spans="1:4">
       <c r="A605" s="1" t="s">
         <v>1058</v>
       </c>
@@ -13325,7 +13528,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1">
+    <row r="606" spans="1:4">
       <c r="A606" s="1" t="s">
         <v>1060</v>
       </c>
@@ -13339,7 +13542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1">
+    <row r="607" spans="1:4">
       <c r="A607" s="1" t="s">
         <v>1063</v>
       </c>
@@ -13353,7 +13556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1">
+    <row r="608" spans="1:4">
       <c r="A608" s="1" t="s">
         <v>1065</v>
       </c>
@@ -13367,7 +13570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1">
+    <row r="609" spans="1:4">
       <c r="A609" s="1" t="s">
         <v>1066</v>
       </c>
@@ -13381,7 +13584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1">
+    <row r="610" spans="1:4">
       <c r="A610" s="1" t="s">
         <v>1071</v>
       </c>
@@ -13395,7 +13598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1">
+    <row r="611" spans="1:4">
       <c r="A611" s="1" t="s">
         <v>1069</v>
       </c>
@@ -13409,7 +13612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1">
+    <row r="612" spans="1:4">
       <c r="A612" s="1" t="s">
         <v>1072</v>
       </c>
@@ -13423,7 +13626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1">
+    <row r="613" spans="1:4">
       <c r="A613" s="1" t="s">
         <v>1077</v>
       </c>
@@ -13437,7 +13640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1">
+    <row r="614" spans="1:4">
       <c r="A614" s="1" t="s">
         <v>1078</v>
       </c>
@@ -13451,7 +13654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1">
+    <row r="615" spans="1:4">
       <c r="A615" s="1" t="s">
         <v>1080</v>
       </c>
@@ -13465,7 +13668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1">
+    <row r="616" spans="1:4">
       <c r="A616" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13479,7 +13682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1">
+    <row r="617" spans="1:4">
       <c r="A617" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13493,7 +13696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1">
+    <row r="618" spans="1:4">
       <c r="A618" s="1" t="s">
         <v>1085</v>
       </c>
@@ -13507,7 +13710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1">
+    <row r="619" spans="1:4">
       <c r="A619" s="1" t="s">
         <v>1088</v>
       </c>
@@ -13521,7 +13724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1">
+    <row r="620" spans="1:4">
       <c r="A620" s="1" t="s">
         <v>1090</v>
       </c>
@@ -13535,7 +13738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1">
+    <row r="621" spans="1:4">
       <c r="A621" s="1" t="s">
         <v>1092</v>
       </c>
@@ -13549,7 +13752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1">
+    <row r="622" spans="1:4">
       <c r="A622" s="1" t="s">
         <v>1093</v>
       </c>
@@ -13563,7 +13766,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1">
+    <row r="623" spans="1:4">
       <c r="A623" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13577,7 +13780,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1">
+    <row r="624" spans="1:4">
       <c r="A624" s="1" t="s">
         <v>1097</v>
       </c>
@@ -13591,7 +13794,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1">
+    <row r="625" spans="1:4">
       <c r="A625" s="1" t="s">
         <v>1099</v>
       </c>
@@ -13605,7 +13808,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1">
+    <row r="626" spans="1:4">
       <c r="A626" s="1" t="s">
         <v>1100</v>
       </c>
@@ -13619,7 +13822,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1">
+    <row r="627" spans="1:4">
       <c r="A627" s="1" t="s">
         <v>1101</v>
       </c>
@@ -13633,7 +13836,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1">
+    <row r="628" spans="1:4">
       <c r="A628" s="1" t="s">
         <v>1103</v>
       </c>
@@ -13647,7 +13850,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1">
+    <row r="629" spans="1:4">
       <c r="A629" s="1" t="s">
         <v>1105</v>
       </c>
@@ -13661,7 +13864,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1">
+    <row r="630" spans="1:4">
       <c r="A630" s="1" t="s">
         <v>1106</v>
       </c>
@@ -13675,7 +13878,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1">
+    <row r="631" spans="1:4">
       <c r="A631" s="1" t="s">
         <v>1108</v>
       </c>
@@ -13689,7 +13892,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1">
+    <row r="632" spans="1:4">
       <c r="A632" s="1" t="s">
         <v>1110</v>
       </c>
@@ -13703,7 +13906,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1">
+    <row r="633" spans="1:4">
       <c r="A633" s="1" t="s">
         <v>1112</v>
       </c>
@@ -13717,7 +13920,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1">
+    <row r="634" spans="1:4">
       <c r="A634" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13731,7 +13934,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1">
+    <row r="635" spans="1:4">
       <c r="A635" s="1" t="s">
         <v>1116</v>
       </c>
@@ -13745,7 +13948,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1">
+    <row r="636" spans="1:4">
       <c r="A636" s="1" t="s">
         <v>1117</v>
       </c>
@@ -13759,7 +13962,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1">
+    <row r="637" spans="1:4">
       <c r="A637" s="1" t="s">
         <v>274</v>
       </c>
@@ -13773,7 +13976,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1">
+    <row r="638" spans="1:4">
       <c r="A638" s="1" t="s">
         <v>1119</v>
       </c>
@@ -13787,7 +13990,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1">
+    <row r="639" spans="1:4">
       <c r="A639" s="1" t="s">
         <v>1120</v>
       </c>
@@ -13801,7 +14004,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1">
+    <row r="640" spans="1:4">
       <c r="A640" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13815,7 +14018,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1">
+    <row r="641" spans="1:4">
       <c r="A641" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13829,7 +14032,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1">
+    <row r="642" spans="1:4">
       <c r="A642" s="1" t="s">
         <v>1124</v>
       </c>
@@ -13843,7 +14046,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1">
+    <row r="643" spans="1:4">
       <c r="A643" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13857,7 +14060,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1">
+    <row r="644" spans="1:4">
       <c r="A644" s="1" t="s">
         <v>1127</v>
       </c>
@@ -13871,7 +14074,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1">
+    <row r="645" spans="1:4">
       <c r="A645" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13885,7 +14088,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1">
+    <row r="646" spans="1:4">
       <c r="A646" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13899,7 +14102,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1">
+    <row r="647" spans="1:4">
       <c r="A647" s="1" t="s">
         <v>1135</v>
       </c>
@@ -13913,7 +14116,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1">
+    <row r="648" spans="1:4">
       <c r="A648" s="1" t="s">
         <v>1137</v>
       </c>
@@ -13927,7 +14130,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1">
+    <row r="649" spans="1:4">
       <c r="A649" s="1" t="s">
         <v>1139</v>
       </c>
@@ -13941,7 +14144,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1">
+    <row r="650" spans="1:4">
       <c r="A650" s="1" t="s">
         <v>1141</v>
       </c>
@@ -13955,7 +14158,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1">
+    <row r="651" spans="1:4">
       <c r="A651" s="1" t="s">
         <v>1143</v>
       </c>
@@ -13969,7 +14172,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1">
+    <row r="652" spans="1:4">
       <c r="A652" s="1" t="s">
         <v>1145</v>
       </c>
@@ -13983,7 +14186,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1">
+    <row r="653" spans="1:4">
       <c r="A653" s="1" t="s">
         <v>1146</v>
       </c>
@@ -13997,7 +14200,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1">
+    <row r="654" spans="1:4">
       <c r="A654" s="30" t="s">
         <v>1148</v>
       </c>
@@ -14011,7 +14214,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1">
+    <row r="655" spans="1:4">
       <c r="A655" s="1" t="s">
         <v>1150</v>
       </c>
@@ -14025,7 +14228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1">
+    <row r="656" spans="1:4">
       <c r="A656" s="1" t="s">
         <v>1152</v>
       </c>
@@ -14039,7 +14242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1">
+    <row r="657" spans="1:4">
       <c r="A657" s="1" t="s">
         <v>1154</v>
       </c>
@@ -14053,7 +14256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1">
+    <row r="658" spans="1:4">
       <c r="A658" s="1" t="s">
         <v>1156</v>
       </c>
@@ -14067,7 +14270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="116" hidden="1">
+    <row r="659" spans="1:4" ht="116">
       <c r="A659" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14081,7 +14284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1">
+    <row r="660" spans="1:4">
       <c r="A660" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14095,7 +14298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1">
+    <row r="661" spans="1:4">
       <c r="A661" s="1" t="s">
         <v>1160</v>
       </c>
@@ -14109,7 +14312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1">
+    <row r="662" spans="1:4">
       <c r="A662" s="1" t="s">
         <v>1161</v>
       </c>
@@ -14123,7 +14326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1">
+    <row r="663" spans="1:4">
       <c r="A663" s="1" t="s">
         <v>1162</v>
       </c>
@@ -14137,7 +14340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1">
+    <row r="664" spans="1:4">
       <c r="A664" s="1" t="s">
         <v>1163</v>
       </c>
@@ -14151,7 +14354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1">
+    <row r="665" spans="1:4">
       <c r="A665" s="1" t="s">
         <v>1164</v>
       </c>
@@ -14165,7 +14368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1">
+    <row r="666" spans="1:4">
       <c r="A666" s="1" t="s">
         <v>1164</v>
       </c>
@@ -14179,7 +14382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1">
+    <row r="667" spans="1:4">
       <c r="A667" s="1" t="s">
         <v>1165</v>
       </c>
@@ -14193,7 +14396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1">
+    <row r="668" spans="1:4">
       <c r="A668" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14207,7 +14410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1">
+    <row r="669" spans="1:4">
       <c r="A669" s="1" t="s">
         <v>1167</v>
       </c>
@@ -14221,7 +14424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1">
+    <row r="670" spans="1:4">
       <c r="A670" s="1" t="s">
         <v>1168</v>
       </c>
@@ -14235,7 +14438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1">
+    <row r="671" spans="1:4">
       <c r="A671" s="1" t="s">
         <v>1169</v>
       </c>
@@ -14249,7 +14452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1">
+    <row r="672" spans="1:4">
       <c r="A672" s="1" t="s">
         <v>1170</v>
       </c>
@@ -14263,7 +14466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1">
+    <row r="673" spans="1:4">
       <c r="A673" s="1" t="s">
         <v>1171</v>
       </c>
@@ -14277,7 +14480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1">
+    <row r="674" spans="1:4">
       <c r="A674" s="1" t="s">
         <v>1172</v>
       </c>
@@ -14291,7 +14494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1">
+    <row r="675" spans="1:4">
       <c r="A675" s="1" t="s">
         <v>1183</v>
       </c>
@@ -14305,7 +14508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1">
+    <row r="676" spans="1:4">
       <c r="A676" s="1" t="s">
         <v>1184</v>
       </c>
@@ -14319,7 +14522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1">
+    <row r="677" spans="1:4">
       <c r="A677" s="1" t="s">
         <v>1185</v>
       </c>
@@ -14333,7 +14536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1">
+    <row r="678" spans="1:4">
       <c r="A678" s="1" t="s">
         <v>1187</v>
       </c>
@@ -14347,7 +14550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1">
+    <row r="679" spans="1:4">
       <c r="A679" s="1" t="s">
         <v>1189</v>
       </c>
@@ -14361,7 +14564,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1">
+    <row r="680" spans="1:4">
       <c r="A680" s="1" t="s">
         <v>1191</v>
       </c>
@@ -14375,7 +14578,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1">
+    <row r="681" spans="1:4">
       <c r="A681" s="1" t="s">
         <v>1195</v>
       </c>
@@ -14389,7 +14592,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1">
+    <row r="682" spans="1:4">
       <c r="A682" s="1" t="s">
         <v>1194</v>
       </c>
@@ -14460,76 +14663,256 @@
       </c>
     </row>
     <row r="687" spans="1:4">
-      <c r="A687" s="1"/>
-      <c r="D687" s="1"/>
+      <c r="A687" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B687" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="688" spans="1:4">
-      <c r="A688" s="1"/>
-      <c r="D688" s="1"/>
+      <c r="A688" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B688" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="689" spans="1:4">
-      <c r="A689" s="1"/>
-      <c r="D689" s="1"/>
+      <c r="A689" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B689" s="12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="690" spans="1:4">
-      <c r="A690" s="1"/>
-      <c r="D690" s="1"/>
+      <c r="A690" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B690" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="691" spans="1:4">
-      <c r="A691" s="1"/>
-      <c r="D691" s="1"/>
+      <c r="A691" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B691" s="12" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="1"/>
-      <c r="D692" s="1"/>
+      <c r="A692" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B692" s="12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="693" spans="1:4">
-      <c r="A693" s="1"/>
-      <c r="D693" s="1"/>
+      <c r="A693" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B693" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="694" spans="1:4">
-      <c r="A694" s="1"/>
-      <c r="D694" s="1"/>
+      <c r="A694" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B694" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="695" spans="1:4">
-      <c r="A695" s="1"/>
-      <c r="D695" s="1"/>
+      <c r="A695" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B695" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="696" spans="1:4">
-      <c r="A696" s="1"/>
-      <c r="D696" s="1"/>
+      <c r="A696" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B696" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="697" spans="1:4">
-      <c r="A697" s="1"/>
-      <c r="D697" s="1"/>
+      <c r="A697" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B697" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="698" spans="1:4">
-      <c r="A698" s="1"/>
-      <c r="D698" s="1"/>
+      <c r="A698" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="699" spans="1:4">
-      <c r="A699" s="1"/>
-      <c r="D699" s="1"/>
+      <c r="A699" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="700" spans="1:4">
-      <c r="A700" s="1"/>
-      <c r="D700" s="1"/>
+      <c r="A700" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="701" spans="1:4">
-      <c r="A701" s="1"/>
-      <c r="D701" s="1"/>
+      <c r="A701" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="702" spans="1:4">
-      <c r="A702" s="1"/>
-      <c r="D702" s="1"/>
+      <c r="A702" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="703" spans="1:4">
-      <c r="A703" s="1"/>
-      <c r="D703" s="1"/>
+      <c r="A703" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="704" spans="1:4">
-      <c r="A704" s="1"/>
-      <c r="D704" s="1"/>
+      <c r="A704" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B704" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="1"/>
@@ -51708,13 +52091,7 @@
       <c r="D9998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H682" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Paperless Projects"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H704" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H11"/>
   </mergeCells>
@@ -52210,12 +52587,27 @@
     <hyperlink ref="B684" r:id="rId425" xr:uid="{52AC0C10-2AF9-46FF-AC65-5E96953A9081}"/>
     <hyperlink ref="B685" r:id="rId426" xr:uid="{6E279A53-7A3F-480E-BF13-93997E250F28}"/>
     <hyperlink ref="B686" r:id="rId427" xr:uid="{A42FEA38-1FE0-46B4-BF1E-07B1B04F13E1}"/>
+    <hyperlink ref="B687" r:id="rId428" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/ServiceManagement/_layouts/15/Doc.aspx?sourcedoc=%7BE5FF34EA-1515-480C-A990-45C2E765CE9B%7D&amp;file=Role%20Suggestion%20Tool%20-%20Overview.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1&amp;cid=f17af886-f969-4f8d-9a38-43f2c597158f" xr:uid="{E5D4725A-F997-404D-864E-7A3B765891FC}"/>
+    <hyperlink ref="B688" r:id="rId429" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/SAP/Security/_layouts/15/Doc.aspx?sourcedoc=%7BBF2CCCF6-9BE0-469E-BCB8-6A991F97ADCD%7D&amp;file=GRC%20Training%20for%20Super%20User%20V1.1.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=ea286254-f3c6-4053-a7c9-d89604c1b407" xr:uid="{CFA297C5-E20B-4A2F-83E8-28BA8F1AE594}"/>
+    <hyperlink ref="B690" r:id="rId430" xr:uid="{5FFD88BC-9DE0-45FD-B77F-DF1BA3849012}"/>
+    <hyperlink ref="B689" r:id="rId431" xr:uid="{F0A44F86-05AE-4BFB-AB25-4E08D96C24FF}"/>
+    <hyperlink ref="B691" r:id="rId432" xr:uid="{B2288B20-97F9-46C1-B542-284487ABF6E3}"/>
+    <hyperlink ref="B692" r:id="rId433" xr:uid="{760C50F2-6DB4-48C4-B3E3-0F9423EFD41F}"/>
+    <hyperlink ref="B693" r:id="rId434" xr:uid="{9C690FF5-5617-4D9B-A66A-3385C65AE073}"/>
+    <hyperlink ref="B694" r:id="rId435" xr:uid="{AFDC8133-8BC5-4DA5-9395-DF62D14EDFD1}"/>
+    <hyperlink ref="B695" r:id="rId436" location="HowTo:_Onboard_a_new_user_.28Single_User_Onboarding.29" xr:uid="{1A9B53C3-D040-4227-B0FF-39AD98497993}"/>
+    <hyperlink ref="B696" r:id="rId437" xr:uid="{ADD18077-8F6D-4B55-8251-1A67DBBE8DFE}"/>
+    <hyperlink ref="B697" r:id="rId438" xr:uid="{176F735B-72D7-417F-9D92-ED4DB596AF44}"/>
+    <hyperlink ref="B701" r:id="rId439" display="http://alusfw-sd253100.alcon.net/ama/Alcon_AMA/en/index.html" xr:uid="{4D9DDC20-DBCB-4C59-B3A9-F0B880712003}"/>
+    <hyperlink ref="B702" r:id="rId440" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE.10571ADB086E49CB9F6BD644681ACF02" xr:uid="{FA16F106-D5D2-4553-B702-E61743264506}"/>
+    <hyperlink ref="B703" r:id="rId441" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Goveranance%2FChart%20of%20Accounts&amp;FolderCTID=0x0120007C0258F7F19CBF4D8FF0414297C5BC01&amp;View=%7B92A19C0A%2D000F%2D4B82%2D8B29%2DE401C2AE785C%7D" xr:uid="{26EF8858-DE17-442C-87CE-C12B697F9F8E}"/>
+    <hyperlink ref="B704" r:id="rId442" xr:uid="{86712E22-98E4-4A75-8816-D0BC9638BBA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId428"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId443"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId429"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId430"/>
+    <customPr name="_pios_id" r:id="rId444"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId445"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -52296,7 +52688,7 @@
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C431 D614:D616 C436:C613 C617:C1048576</xm:sqref>
+          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C431 D614:D616 C436:C613 C617:C686 C433 C698:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -52304,12 +52696,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -52443,6 +52835,16 @@
         <v>1129</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="6" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" s="6" t="s">
+        <v>1229</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52452,103 +52854,4 @@
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="41" customHeight="1">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="87">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72.5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <customProperties>
-    <customPr name="_pios_id" r:id="rId3"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
-  </customProperties>
-  <drawing r:id="rId5"/>
-</worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FA2C5-E392-4385-9EAC-A2B7F6B8CB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037EE1C2-0384-4911-A047-135D8955329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Category" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Master!$A$1:$H$704</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Master!$A$1:$H$724</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1279">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="2"/>
@@ -4118,6 +4118,136 @@
   </si>
   <si>
     <t>Egencia Project</t>
+  </si>
+  <si>
+    <t>G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0232_IRIS eTravel</t>
+  </si>
+  <si>
+    <t>G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0239_eTravel</t>
+  </si>
+  <si>
+    <t>Japan Concur folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eTravel project folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eTravel folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G:\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0320_New Concur\032002Card\Credit linmit　increase</t>
+  </si>
+  <si>
+    <t>FNOW CIP</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\10 JAPAN T&amp;E\10 PAPERLESS\03 TEAMS DOCUMENTS\FNOW CIP - Shortcut.lnk</t>
+  </si>
+  <si>
+    <t>Reponse to Auditor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AP Statement</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Audit\Auditor対応.docx</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Audit\諸勘定科目明細.docx</t>
+  </si>
+  <si>
+    <t>Account holder issue</t>
+  </si>
+  <si>
+    <t>Bank detail issue</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : Bank details issue - action item</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : GLSU Autodebit</t>
+  </si>
+  <si>
+    <t>GLSU autodebit</t>
+  </si>
+  <si>
+    <t>GLSU template</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : GLSU_Reclass BS AGSKL</t>
+  </si>
+  <si>
+    <t>Japan Facilities Data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Japan Office Data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/InSight/268DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc docs%2F拠点情報%E3%80%80物流センター含む%2Epdf&amp;parent=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc docs</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Navigate_CSP_ENG.pdf"</t>
+  </si>
+  <si>
+    <t>Concur Support Portal</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\Getting_the_Most_QRG_ASC_ENG.pdf"</t>
+  </si>
+  <si>
+    <t>Quick Reference Guide</t>
+  </si>
+  <si>
+    <t>https://alcon365eur-my.sharepoint.com/personal/ramlamu1_alcon_net/_layouts/15/Doc.aspx?sourcedoc={337b2ae1-5bd7-4bca-a672-55385478e57e}&amp;action=edit&amp;wd=target%28General.one%7C9cd85f66-278e-4725-8df0-bbf56cafbd46%2FGeneral%7C36f14ccd-08b9-49d4-84aa-c58281d6697d%2F%29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;E FNOW Template </t>
+  </si>
+  <si>
+    <t>Concur Training</t>
+  </si>
+  <si>
+    <t>https://www.concurtraining.com/toolkit/en/expense/end-user</t>
+  </si>
+  <si>
+    <t>WI TnE Accrual</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\05  CONCUR\TnE Quarterly Accrual\WI Concur Accruals.docx"</t>
+  </si>
+  <si>
+    <t>Generating Reports</t>
+  </si>
+  <si>
+    <t>https://support.appzen.com/hc/en-us/articles/4405185667859-Generating-Reports</t>
+  </si>
+  <si>
+    <t>http://www.concurtraining.com/customers/tech_pubs/Docs/_Current/UG_Exp/Exp_UG_Processor.pdf</t>
+  </si>
+  <si>
+    <t>Processor User Guide</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/sites/FinancialAssurance/Blackline/Forms/AllItems.aspx?id=%2Fsites%2FFinancialAssurance%2FBlackline%2FTrainings%20Materials%2FAFCM%20Blackline%20Control%20Owner%20Training%2Epdf&amp;parent=%2Fsites%2FFinancialAssurance%2FBlackline%2FTrainings%20Materials</t>
+  </si>
+  <si>
+    <t>AFCM Internal Controls</t>
+  </si>
+  <si>
+    <t>https://alcon365.sharepoint.com/:p:/r/sites/PIRISER/APL/_layouts/15/Doc.aspx?sourcedoc=%7B871398EF-1422-4478-9C97-64266D7A6DC0%7D&amp;file=One%20Time%20Vendor.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1</t>
+  </si>
+  <si>
+    <t>One Time Vendor</t>
   </si>
 </sst>
 </file>
@@ -4798,7 +4928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4884,27 +5014,26 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C716" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4964,7 +5093,7 @@
       </c>
       <c r="H2" s="32">
         <f>SUM(G2:G11)</f>
-        <v>703</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
@@ -4985,7 +5114,7 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" s="32"/>
     </row>
@@ -5029,7 +5158,7 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H5" s="32"/>
     </row>
@@ -5051,7 +5180,7 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -5073,7 +5202,7 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H7" s="32"/>
     </row>
@@ -5139,7 +5268,7 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="32"/>
     </row>
@@ -14915,88 +15044,298 @@
       </c>
     </row>
     <row r="705" spans="1:4">
-      <c r="A705" s="1"/>
-      <c r="D705" s="1"/>
+      <c r="A705" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B705" s="12" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="706" spans="1:4">
-      <c r="A706" s="1"/>
-      <c r="D706" s="1"/>
+      <c r="A706" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B706" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="707" spans="1:4">
-      <c r="A707" s="1"/>
-      <c r="D707" s="1"/>
+      <c r="A707" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B707" s="12" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="708" spans="1:4">
-      <c r="A708" s="1"/>
-      <c r="D708" s="1"/>
+      <c r="A708" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B708" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="709" spans="1:4">
-      <c r="A709" s="1"/>
-      <c r="D709" s="1"/>
+      <c r="A709" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B709" s="12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="710" spans="1:4">
-      <c r="A710" s="1"/>
-      <c r="D710" s="1"/>
-    </row>
-    <row r="711" spans="1:4">
-      <c r="A711" s="1"/>
-      <c r="D711" s="1"/>
-    </row>
-    <row r="712" spans="1:4">
-      <c r="A712" s="1"/>
-      <c r="D712" s="1"/>
-    </row>
-    <row r="713" spans="1:4">
-      <c r="A713" s="1"/>
-      <c r="D713" s="1"/>
-    </row>
-    <row r="714" spans="1:4">
-      <c r="A714" s="1"/>
-      <c r="D714" s="1"/>
+      <c r="A710" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B710" s="12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="58">
+      <c r="A711" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B711" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" ht="58">
+      <c r="A712" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B712" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="58">
+      <c r="A713" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B713" s="18" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="58">
+      <c r="A714" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B714" s="18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="715" spans="1:4">
-      <c r="A715" s="1"/>
-      <c r="D715" s="1"/>
+      <c r="A715" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="716" spans="1:4">
-      <c r="A716" s="1"/>
-      <c r="D716" s="1"/>
+      <c r="A716" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="1"/>
-      <c r="D717" s="1"/>
+      <c r="A717" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B717" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="718" spans="1:4">
-      <c r="A718" s="1"/>
-      <c r="D718" s="1"/>
+      <c r="A718" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B718" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="719" spans="1:4">
-      <c r="A719" s="1"/>
-      <c r="D719" s="1"/>
+      <c r="A719" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B719" s="12" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="720" spans="1:4">
-      <c r="A720" s="1"/>
-      <c r="D720" s="1"/>
+      <c r="A720" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B720" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="721" spans="1:4">
-      <c r="A721" s="1"/>
-      <c r="D721" s="1"/>
+      <c r="A721" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B721" s="12" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="722" spans="1:4">
-      <c r="A722" s="1"/>
-      <c r="D722" s="1"/>
+      <c r="A722" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B722" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="723" spans="1:4">
-      <c r="A723" s="1"/>
-      <c r="D723" s="1"/>
+      <c r="A723" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B723" s="12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="724" spans="1:4">
-      <c r="A724" s="1"/>
-      <c r="D724" s="1"/>
+      <c r="A724" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B724" s="12" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="725" spans="1:4">
-      <c r="A725" s="1"/>
-      <c r="D725" s="1"/>
+      <c r="A725" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B725" s="12" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="1"/>
@@ -52091,7 +52430,7 @@
       <c r="D9998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H704" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H724" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H11"/>
   </mergeCells>
@@ -52153,461 +52492,482 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D613 D617:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D613 D617:D1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$2:$F$11</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B67" r:id="rId35" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B68" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B70" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B71" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B72" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B73" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B99" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B100" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B101" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B102" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B103" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B104" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B105" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B106" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B107" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B108" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B109" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B111" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B112" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B114" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B115" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B116" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B117" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B118" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B119" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B120" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B121" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B123" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B124" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B125" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B126" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B127" r:id="rId68" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B128" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B110" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B129" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B130" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B131" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B132" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B133" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B134" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B135" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B136" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B137" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B138" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B139" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B140" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B141" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B142" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B143" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A146" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B147" r:id="rId87" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B148" r:id="rId88" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B149" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B158" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B161" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B162" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B168" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B169" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B170" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B171" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B179" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B181" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B5" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B6" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B7" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B23" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B182" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B183" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B184" r:id="rId105" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B185" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B186" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B187" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B188" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B189" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B190" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B191" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B192" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B193" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B194" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B197" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B198" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B199" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B201" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B202" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B203" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B204" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B205" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B206" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B207" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B208" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B209" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B210" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B240" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B241" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B242" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B243" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B246" r:id="rId133" location="a-02" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B247" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B259" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B264" r:id="rId136" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B265" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B266" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B267" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B274" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B275" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B276" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B277" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B278" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B280" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B281" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B282" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B283" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B284" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B285" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B286" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B287" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B288" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B289" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B290" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B291" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B292" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B293" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B294" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B295" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B296" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B297" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B298" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B299" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B300" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B301" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B302" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B303" r:id="rId168" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B304" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B305" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B306" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B307" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B308" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B309" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B310" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B311" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B312" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B313" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B314" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B315" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B316" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B317" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B318" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B319" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B320" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B321" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B322" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B323" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B324" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B325" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B326" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B327" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B328" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B329" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B330" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B331" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B332" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B333" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B334" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B335" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B336" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B338" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B339" r:id="rId203" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B340" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B343" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B344" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B345" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B346" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B347" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B348" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B349" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B350" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B351" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B352" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B353" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B355" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B356" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B357" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B358" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B359" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B360" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B361" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B362" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B363" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B364" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B365" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B366" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B367" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B368" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B369" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B370:B371" r:id="rId231" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B372" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B373" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B374" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B375" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B376" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B377" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B378" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B379" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B380" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B381" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B383" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B384" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B385" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B386" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B387" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B388" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B58" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B57" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B395" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B396" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B397" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B398" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B399" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B400" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B401" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B402" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B403" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B405" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B406" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B407" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B408" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B409" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B410" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B411" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B412" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B413" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B414" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B415" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B416" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B417" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B418" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B419" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B421" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B429" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B430" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B431" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B432" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B433" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B436" r:id="rId280" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B437" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B438" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B439" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B441" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B442" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B443" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B444" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B445" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B446" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B447" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B448" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B449" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B450" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B451" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B452" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B453" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B454" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B455" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B456" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B457" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B458" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B459" r:id="rId302" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B460" r:id="rId303" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B461" r:id="rId304" location="ZMYBANK-display" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B462" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B463" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B464" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B465" r:id="rId308" display="maiko.okamoto@alcon.com" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B467" r:id="rId309" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B468" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B469" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B471" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B473" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B474" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B475" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B476" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B477" r:id="rId317" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B478" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B479" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B480" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B484" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B485" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B486" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B487" r:id="rId324" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B488" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B489" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B490" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B491" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B492" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B493" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B494" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B498" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B500" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B501" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B506" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B519" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B521" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B522" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B523" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B525" r:id="rId340" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B526" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B539" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B540" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B541" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B543" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B542" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B544" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B546" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B547" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B550" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B551" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B552" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B553" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B554" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B555" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B556" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B557" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B558" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B559" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B560" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B561" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B562" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B563" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B564" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B565" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B566" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B567" r:id="rId367" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B568" r:id="rId368" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B549" r:id="rId369" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B572" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B573" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B574" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B575" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B576" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B577" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B578" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B579" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B583" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B66" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B606" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B607" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B608" r:id="rId382" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing%2F%EF%BC%9CALJ%EF%BC%9E%E7%A4%BE%E5%AE%85%E3%83%BB%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%81%AE%E3%82%AC%E3%82%A4%E3%83%89%E3%83%96%E3%83%83%E3%82%AF_20210414.pdf&amp;parent=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing&amp;isSPOFile=1&amp;OR=Teams-HL&amp;CT=1643358574668&amp;sourceId=&amp;params=%7B%22AppName%22%3A%22Teams-Desktop%22%2C%22AppVersion%22%3A%2227%2F21110108720%22%7D" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B609" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B610" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B611" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B612" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B613" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B614" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B615" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B616" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B617" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B618" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B619" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B620" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B621" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B645" r:id="rId396" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-essential-training-office-365-microsoft-365%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=UhnPLkJkhVfQ7DsuV1C4Refe45XwAj2HS0fNTkkdPds%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B646" r:id="rId397" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-pivottables-for-beginners%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=C5bHVDyRfQOXhO%2FZD7XCf4YpTH3VLbLvLcXE3Yz1%2Bv0%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B647" r:id="rId398" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-introduction-to-formulas-and-functions%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=Iprb6IxgarShNz%2BbY4eV8OwgnxVO1ILXzmeKPDS3eEw%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B651" r:id="rId399" display="Newjoiner and resigner's expense" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B652" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B655" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B656" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B657" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B658" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B660" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B661" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B662" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B663" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B664" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B665" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B667" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B668" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B669" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B670" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B671" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B672" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B673" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B674" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B666" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B675" r:id="rId420" xr:uid="{B564AA0B-7D53-4665-B0A9-DA1C61B0EF18}"/>
-    <hyperlink ref="B676" r:id="rId421" xr:uid="{52E47412-0444-413E-808F-6C6713393CCF}"/>
-    <hyperlink ref="B677" r:id="rId422" xr:uid="{68A1D903-A99B-405F-A206-87FD5827BD7B}"/>
-    <hyperlink ref="B678" r:id="rId423" xr:uid="{239CB5B5-B93F-4B91-8E5F-B5A211A11AFB}"/>
-    <hyperlink ref="B683" r:id="rId424" xr:uid="{F2D21835-7786-4BFD-AB4C-E12424D32805}"/>
-    <hyperlink ref="B684" r:id="rId425" xr:uid="{52AC0C10-2AF9-46FF-AC65-5E96953A9081}"/>
-    <hyperlink ref="B685" r:id="rId426" xr:uid="{6E279A53-7A3F-480E-BF13-93997E250F28}"/>
-    <hyperlink ref="B686" r:id="rId427" xr:uid="{A42FEA38-1FE0-46B4-BF1E-07B1B04F13E1}"/>
-    <hyperlink ref="B687" r:id="rId428" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/ServiceManagement/_layouts/15/Doc.aspx?sourcedoc=%7BE5FF34EA-1515-480C-A990-45C2E765CE9B%7D&amp;file=Role%20Suggestion%20Tool%20-%20Overview.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1&amp;cid=f17af886-f969-4f8d-9a38-43f2c597158f" xr:uid="{E5D4725A-F997-404D-864E-7A3B765891FC}"/>
-    <hyperlink ref="B688" r:id="rId429" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/SAP/Security/_layouts/15/Doc.aspx?sourcedoc=%7BBF2CCCF6-9BE0-469E-BCB8-6A991F97ADCD%7D&amp;file=GRC%20Training%20for%20Super%20User%20V1.1.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=ea286254-f3c6-4053-a7c9-d89604c1b407" xr:uid="{CFA297C5-E20B-4A2F-83E8-28BA8F1AE594}"/>
-    <hyperlink ref="B690" r:id="rId430" xr:uid="{5FFD88BC-9DE0-45FD-B77F-DF1BA3849012}"/>
-    <hyperlink ref="B689" r:id="rId431" xr:uid="{F0A44F86-05AE-4BFB-AB25-4E08D96C24FF}"/>
-    <hyperlink ref="B691" r:id="rId432" xr:uid="{B2288B20-97F9-46C1-B542-284487ABF6E3}"/>
-    <hyperlink ref="B692" r:id="rId433" xr:uid="{760C50F2-6DB4-48C4-B3E3-0F9423EFD41F}"/>
-    <hyperlink ref="B693" r:id="rId434" xr:uid="{9C690FF5-5617-4D9B-A66A-3385C65AE073}"/>
-    <hyperlink ref="B694" r:id="rId435" xr:uid="{AFDC8133-8BC5-4DA5-9395-DF62D14EDFD1}"/>
-    <hyperlink ref="B695" r:id="rId436" location="HowTo:_Onboard_a_new_user_.28Single_User_Onboarding.29" xr:uid="{1A9B53C3-D040-4227-B0FF-39AD98497993}"/>
-    <hyperlink ref="B696" r:id="rId437" xr:uid="{ADD18077-8F6D-4B55-8251-1A67DBBE8DFE}"/>
-    <hyperlink ref="B697" r:id="rId438" xr:uid="{176F735B-72D7-417F-9D92-ED4DB596AF44}"/>
-    <hyperlink ref="B701" r:id="rId439" display="http://alusfw-sd253100.alcon.net/ama/Alcon_AMA/en/index.html" xr:uid="{4D9DDC20-DBCB-4C59-B3A9-F0B880712003}"/>
-    <hyperlink ref="B702" r:id="rId440" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE.10571ADB086E49CB9F6BD644681ACF02" xr:uid="{FA16F106-D5D2-4553-B702-E61743264506}"/>
-    <hyperlink ref="B703" r:id="rId441" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Goveranance%2FChart%20of%20Accounts&amp;FolderCTID=0x0120007C0258F7F19CBF4D8FF0414297C5BC01&amp;View=%7B92A19C0A%2D000F%2D4B82%2D8B29%2DE401C2AE785C%7D" xr:uid="{26EF8858-DE17-442C-87CE-C12B697F9F8E}"/>
-    <hyperlink ref="B704" r:id="rId442" xr:uid="{86712E22-98E4-4A75-8816-D0BC9638BBA7}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B67" r:id="rId35" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B99" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B100" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B101" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B102" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B103" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B104" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B105" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B106" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B107" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B108" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B109" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B111" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B112" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B114" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B115" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B116" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B117" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B118" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B119" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B120" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B121" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B113" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B123" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B124" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B125" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="B126" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="B127" r:id="rId68" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="B128" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="B110" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="B129" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="B130" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="B131" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="B132" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="B133" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="B134" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="B135" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B136" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="B137" r:id="rId79" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="B138" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="B139" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="B140" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="B141" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="B142" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="B143" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="A146" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="B147" r:id="rId87" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="B148" r:id="rId88" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="B149" r:id="rId89" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="B158" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="B161" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="B162" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="B168" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="B169" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="B170" r:id="rId95" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="B171" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="B179" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="B181" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="B5" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="B6" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="B7" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="B23" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="B182" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="B183" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="B184" r:id="rId105" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="B185" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="B186" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="B187" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="B188" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="B189" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="B190" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="B191" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B192" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="B193" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="B194" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="B197" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="B198" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="B199" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="B201" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="B202" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="B203" r:id="rId121" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="B204" r:id="rId122" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="B205" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="B206" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="B207" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="B208" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="B209" r:id="rId127" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="B210" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="B240" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="B241" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="B242" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="B243" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="B246" r:id="rId133" location="a-02" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="B247" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="B259" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="B264" r:id="rId136" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="B265" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="B266" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="B267" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="B274" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="B275" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="B276" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="B277" r:id="rId143" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="B278" r:id="rId144" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="B280" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="B281" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="B282" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="B283" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="B284" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="B285" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="B286" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="B287" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="B288" r:id="rId153" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="B289" r:id="rId154" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="B290" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="B291" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="B292" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="B293" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="B294" r:id="rId159" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="B295" r:id="rId160" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="B296" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="B297" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="B298" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="B299" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="B300" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="B301" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="B302" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="B303" r:id="rId168" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="B304" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="B305" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="B306" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="B307" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="B308" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="B309" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="B310" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="B311" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="B312" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="B313" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="B314" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="B315" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="B316" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="B317" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="B318" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="B319" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="B320" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="B321" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="B322" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="B323" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="B324" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="B325" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="B326" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="B327" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="B328" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="B329" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="B330" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="B331" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="B332" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="B333" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="B334" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="B335" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="B336" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="B338" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="B339" r:id="rId203" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="B340" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="B343" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="B344" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="B345" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="B346" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="B347" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="B348" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="B349" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="B350" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="B351" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="B352" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="B353" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="B355" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="B356" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="B357" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="B358" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="B359" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="B360" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="B361" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="B362" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="B363" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="B364" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="B365" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="B366" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="B367" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="B368" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="B369" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="B370:B371" r:id="rId231" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="B372" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="B373" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="B374" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="B375" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="B376" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="B377" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="B378" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="B379" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="B380" r:id="rId240" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="B381" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="B383" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="B384" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="B385" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="B386" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="B387" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="B388" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="B58" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="B57" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="B395" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="B396" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="B397" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="B398" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="B399" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="B400" r:id="rId255" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="B401" r:id="rId256" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="B402" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="B403" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="B405" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="B406" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="B407" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="B408" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="B409" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="B410" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="B411" r:id="rId265" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="B412" r:id="rId266" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="B413" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="B414" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="B415" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="B416" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="B417" r:id="rId271" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="B418" r:id="rId272" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="B419" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="B421" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="B429" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="B430" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="B431" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="B432" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="B433" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="B436" r:id="rId280" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="B437" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="B438" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="B439" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="B441" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="B442" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="B443" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="B444" r:id="rId287" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="B445" r:id="rId288" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="B446" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="B447" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="B448" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="B449" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="B450" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="B451" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
+    <hyperlink ref="B452" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="B453" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="B454" r:id="rId297" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="B455" r:id="rId298" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="B456" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="B457" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="B458" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="B459" r:id="rId302" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="B460" r:id="rId303" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="B461" r:id="rId304" location="ZMYBANK-display" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="B462" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="B463" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="B464" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="B465" r:id="rId308" display="maiko.okamoto@alcon.com" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="B467" r:id="rId309" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="B468" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="B469" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="B471" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="B473" r:id="rId313" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="B474" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="B475" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="B476" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="B477" r:id="rId317" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="B478" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="B479" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
+    <hyperlink ref="B480" r:id="rId320" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
+    <hyperlink ref="B484" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
+    <hyperlink ref="B485" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
+    <hyperlink ref="B486" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
+    <hyperlink ref="B487" r:id="rId324" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
+    <hyperlink ref="B488" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
+    <hyperlink ref="B489" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
+    <hyperlink ref="B490" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
+    <hyperlink ref="B491" r:id="rId328" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
+    <hyperlink ref="B492" r:id="rId329" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
+    <hyperlink ref="B493" r:id="rId330" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
+    <hyperlink ref="B494" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
+    <hyperlink ref="B498" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
+    <hyperlink ref="B500" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
+    <hyperlink ref="B501" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
+    <hyperlink ref="B506" r:id="rId335" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
+    <hyperlink ref="B519" r:id="rId336" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
+    <hyperlink ref="B521" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
+    <hyperlink ref="B522" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
+    <hyperlink ref="B523" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
+    <hyperlink ref="B525" r:id="rId340" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
+    <hyperlink ref="B526" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
+    <hyperlink ref="B539" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
+    <hyperlink ref="B540" r:id="rId343" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
+    <hyperlink ref="B541" r:id="rId344" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
+    <hyperlink ref="B543" r:id="rId345" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
+    <hyperlink ref="B542" r:id="rId346" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
+    <hyperlink ref="B544" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
+    <hyperlink ref="B546" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
+    <hyperlink ref="B547" r:id="rId349" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
+    <hyperlink ref="B550" r:id="rId350" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
+    <hyperlink ref="B551" r:id="rId351" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
+    <hyperlink ref="B552" r:id="rId352" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
+    <hyperlink ref="B553" r:id="rId353" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
+    <hyperlink ref="B554" r:id="rId354" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
+    <hyperlink ref="B555" r:id="rId355" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
+    <hyperlink ref="B556" r:id="rId356" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
+    <hyperlink ref="B557" r:id="rId357" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
+    <hyperlink ref="B558" r:id="rId358" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
+    <hyperlink ref="B559" r:id="rId359" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
+    <hyperlink ref="B560" r:id="rId360" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
+    <hyperlink ref="B561" r:id="rId361" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
+    <hyperlink ref="B562" r:id="rId362" xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
+    <hyperlink ref="B563" r:id="rId363" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
+    <hyperlink ref="B564" r:id="rId364" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
+    <hyperlink ref="B565" r:id="rId365" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
+    <hyperlink ref="B566" r:id="rId366" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
+    <hyperlink ref="B567" r:id="rId367" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
+    <hyperlink ref="B568" r:id="rId368" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
+    <hyperlink ref="B549" r:id="rId369" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
+    <hyperlink ref="B572" r:id="rId370" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
+    <hyperlink ref="B573" r:id="rId371" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
+    <hyperlink ref="B574" r:id="rId372" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
+    <hyperlink ref="B575" r:id="rId373" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
+    <hyperlink ref="B576" r:id="rId374" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
+    <hyperlink ref="B577" r:id="rId375" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
+    <hyperlink ref="B578" r:id="rId376" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
+    <hyperlink ref="B579" r:id="rId377" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
+    <hyperlink ref="B583" r:id="rId378" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
+    <hyperlink ref="B66" r:id="rId379" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
+    <hyperlink ref="B606" r:id="rId380" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
+    <hyperlink ref="B607" r:id="rId381" xr:uid="{00000000-0004-0000-0100-00007E010000}"/>
+    <hyperlink ref="B608" r:id="rId382" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing%2F%EF%BC%9CALJ%EF%BC%9E%E7%A4%BE%E5%AE%85%E3%83%BB%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%81%AE%E3%82%AC%E3%82%A4%E3%83%89%E3%83%96%E3%83%83%E3%82%AF_20210414.pdf&amp;parent=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing&amp;isSPOFile=1&amp;OR=Teams-HL&amp;CT=1643358574668&amp;sourceId=&amp;params=%7B%22AppName%22%3A%22Teams-Desktop%22%2C%22AppVersion%22%3A%2227%2F21110108720%22%7D" xr:uid="{00000000-0004-0000-0100-00007F010000}"/>
+    <hyperlink ref="B609" r:id="rId383" xr:uid="{00000000-0004-0000-0100-000080010000}"/>
+    <hyperlink ref="B610" r:id="rId384" xr:uid="{00000000-0004-0000-0100-000081010000}"/>
+    <hyperlink ref="B611" r:id="rId385" xr:uid="{00000000-0004-0000-0100-000082010000}"/>
+    <hyperlink ref="B612" r:id="rId386" xr:uid="{00000000-0004-0000-0100-000083010000}"/>
+    <hyperlink ref="B613" r:id="rId387" xr:uid="{00000000-0004-0000-0100-000084010000}"/>
+    <hyperlink ref="B614" r:id="rId388" xr:uid="{00000000-0004-0000-0100-000085010000}"/>
+    <hyperlink ref="B615" r:id="rId389" xr:uid="{00000000-0004-0000-0100-000086010000}"/>
+    <hyperlink ref="B616" r:id="rId390" xr:uid="{00000000-0004-0000-0100-000087010000}"/>
+    <hyperlink ref="B617" r:id="rId391" xr:uid="{00000000-0004-0000-0100-000088010000}"/>
+    <hyperlink ref="B618" r:id="rId392" xr:uid="{00000000-0004-0000-0100-000089010000}"/>
+    <hyperlink ref="B619" r:id="rId393" xr:uid="{00000000-0004-0000-0100-00008A010000}"/>
+    <hyperlink ref="B620" r:id="rId394" xr:uid="{00000000-0004-0000-0100-00008B010000}"/>
+    <hyperlink ref="B621" r:id="rId395" xr:uid="{00000000-0004-0000-0100-00008C010000}"/>
+    <hyperlink ref="B645" r:id="rId396" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-essential-training-office-365-microsoft-365%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=UhnPLkJkhVfQ7DsuV1C4Refe45XwAj2HS0fNTkkdPds%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0100-00008D010000}"/>
+    <hyperlink ref="B646" r:id="rId397" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-pivottables-for-beginners%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=C5bHVDyRfQOXhO%2FZD7XCf4YpTH3VLbLvLcXE3Yz1%2Bv0%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0100-00008E010000}"/>
+    <hyperlink ref="B647" r:id="rId398" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-introduction-to-formulas-and-functions%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=Iprb6IxgarShNz%2BbY4eV8OwgnxVO1ILXzmeKPDS3eEw%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0100-00008F010000}"/>
+    <hyperlink ref="B651" r:id="rId399" display="Newjoiner and resigner's expense" xr:uid="{00000000-0004-0000-0100-000090010000}"/>
+    <hyperlink ref="B652" r:id="rId400" xr:uid="{00000000-0004-0000-0100-000091010000}"/>
+    <hyperlink ref="B655" r:id="rId401" xr:uid="{00000000-0004-0000-0100-000092010000}"/>
+    <hyperlink ref="B656" r:id="rId402" xr:uid="{00000000-0004-0000-0100-000093010000}"/>
+    <hyperlink ref="B657" r:id="rId403" xr:uid="{00000000-0004-0000-0100-000094010000}"/>
+    <hyperlink ref="B658" r:id="rId404" xr:uid="{00000000-0004-0000-0100-000095010000}"/>
+    <hyperlink ref="B660" r:id="rId405" xr:uid="{00000000-0004-0000-0100-000096010000}"/>
+    <hyperlink ref="B661" r:id="rId406" xr:uid="{00000000-0004-0000-0100-000097010000}"/>
+    <hyperlink ref="B662" r:id="rId407" xr:uid="{00000000-0004-0000-0100-000098010000}"/>
+    <hyperlink ref="B663" r:id="rId408" xr:uid="{00000000-0004-0000-0100-000099010000}"/>
+    <hyperlink ref="B664" r:id="rId409" xr:uid="{00000000-0004-0000-0100-00009A010000}"/>
+    <hyperlink ref="B665" r:id="rId410" xr:uid="{00000000-0004-0000-0100-00009B010000}"/>
+    <hyperlink ref="B667" r:id="rId411" xr:uid="{00000000-0004-0000-0100-00009C010000}"/>
+    <hyperlink ref="B668" r:id="rId412" xr:uid="{00000000-0004-0000-0100-00009D010000}"/>
+    <hyperlink ref="B669" r:id="rId413" xr:uid="{00000000-0004-0000-0100-00009E010000}"/>
+    <hyperlink ref="B670" r:id="rId414" xr:uid="{00000000-0004-0000-0100-00009F010000}"/>
+    <hyperlink ref="B671" r:id="rId415" xr:uid="{00000000-0004-0000-0100-0000A0010000}"/>
+    <hyperlink ref="B672" r:id="rId416" xr:uid="{00000000-0004-0000-0100-0000A1010000}"/>
+    <hyperlink ref="B673" r:id="rId417" xr:uid="{00000000-0004-0000-0100-0000A2010000}"/>
+    <hyperlink ref="B674" r:id="rId418" xr:uid="{00000000-0004-0000-0100-0000A3010000}"/>
+    <hyperlink ref="B666" r:id="rId419" xr:uid="{00000000-0004-0000-0100-0000A4010000}"/>
+    <hyperlink ref="B675" r:id="rId420" xr:uid="{00000000-0004-0000-0100-0000A5010000}"/>
+    <hyperlink ref="B676" r:id="rId421" xr:uid="{00000000-0004-0000-0100-0000A6010000}"/>
+    <hyperlink ref="B677" r:id="rId422" xr:uid="{00000000-0004-0000-0100-0000A7010000}"/>
+    <hyperlink ref="B678" r:id="rId423" xr:uid="{00000000-0004-0000-0100-0000A8010000}"/>
+    <hyperlink ref="B683" r:id="rId424" xr:uid="{00000000-0004-0000-0100-0000A9010000}"/>
+    <hyperlink ref="B684" r:id="rId425" xr:uid="{00000000-0004-0000-0100-0000AA010000}"/>
+    <hyperlink ref="B685" r:id="rId426" xr:uid="{00000000-0004-0000-0100-0000AB010000}"/>
+    <hyperlink ref="B686" r:id="rId427" xr:uid="{00000000-0004-0000-0100-0000AC010000}"/>
+    <hyperlink ref="B687" r:id="rId428" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/ServiceManagement/_layouts/15/Doc.aspx?sourcedoc=%7BE5FF34EA-1515-480C-A990-45C2E765CE9B%7D&amp;file=Role%20Suggestion%20Tool%20-%20Overview.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1&amp;cid=f17af886-f969-4f8d-9a38-43f2c597158f" xr:uid="{00000000-0004-0000-0100-0000AD010000}"/>
+    <hyperlink ref="B688" r:id="rId429" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/SAP/Security/_layouts/15/Doc.aspx?sourcedoc=%7BBF2CCCF6-9BE0-469E-BCB8-6A991F97ADCD%7D&amp;file=GRC%20Training%20for%20Super%20User%20V1.1.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=ea286254-f3c6-4053-a7c9-d89604c1b407" xr:uid="{00000000-0004-0000-0100-0000AE010000}"/>
+    <hyperlink ref="B690" r:id="rId430" xr:uid="{00000000-0004-0000-0100-0000AF010000}"/>
+    <hyperlink ref="B689" r:id="rId431" xr:uid="{00000000-0004-0000-0100-0000B0010000}"/>
+    <hyperlink ref="B691" r:id="rId432" xr:uid="{00000000-0004-0000-0100-0000B1010000}"/>
+    <hyperlink ref="B692" r:id="rId433" xr:uid="{00000000-0004-0000-0100-0000B2010000}"/>
+    <hyperlink ref="B693" r:id="rId434" xr:uid="{00000000-0004-0000-0100-0000B3010000}"/>
+    <hyperlink ref="B694" r:id="rId435" xr:uid="{00000000-0004-0000-0100-0000B4010000}"/>
+    <hyperlink ref="B695" r:id="rId436" location="HowTo:_Onboard_a_new_user_.28Single_User_Onboarding.29" xr:uid="{00000000-0004-0000-0100-0000B5010000}"/>
+    <hyperlink ref="B696" r:id="rId437" xr:uid="{00000000-0004-0000-0100-0000B6010000}"/>
+    <hyperlink ref="B697" r:id="rId438" xr:uid="{00000000-0004-0000-0100-0000B7010000}"/>
+    <hyperlink ref="B701" r:id="rId439" display="http://alusfw-sd253100.alcon.net/ama/Alcon_AMA/en/index.html" xr:uid="{00000000-0004-0000-0100-0000B8010000}"/>
+    <hyperlink ref="B702" r:id="rId440" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE.10571ADB086E49CB9F6BD644681ACF02" xr:uid="{00000000-0004-0000-0100-0000B9010000}"/>
+    <hyperlink ref="B703" r:id="rId441" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Goveranance%2FChart%20of%20Accounts&amp;FolderCTID=0x0120007C0258F7F19CBF4D8FF0414297C5BC01&amp;View=%7B92A19C0A%2D000F%2D4B82%2D8B29%2DE401C2AE785C%7D" xr:uid="{00000000-0004-0000-0100-0000BA010000}"/>
+    <hyperlink ref="B704" r:id="rId442" xr:uid="{00000000-0004-0000-0100-0000BB010000}"/>
+    <hyperlink ref="B705" r:id="rId443" xr:uid="{00000000-0004-0000-0100-0000BC010000}"/>
+    <hyperlink ref="B706" r:id="rId444" xr:uid="{00000000-0004-0000-0100-0000BD010000}"/>
+    <hyperlink ref="B707" r:id="rId445" xr:uid="{00000000-0004-0000-0100-0000BE010000}"/>
+    <hyperlink ref="B708" r:id="rId446" xr:uid="{00000000-0004-0000-0100-0000BF010000}"/>
+    <hyperlink ref="B709" r:id="rId447" xr:uid="{00000000-0004-0000-0100-0000C0010000}"/>
+    <hyperlink ref="B710" r:id="rId448" xr:uid="{00000000-0004-0000-0100-0000C1010000}"/>
+    <hyperlink ref="B711" r:id="rId449" xr:uid="{00000000-0004-0000-0100-0000C2010000}"/>
+    <hyperlink ref="B712" r:id="rId450" xr:uid="{00000000-0004-0000-0100-0000C3010000}"/>
+    <hyperlink ref="B713" r:id="rId451" xr:uid="{00000000-0004-0000-0100-0000C4010000}"/>
+    <hyperlink ref="B714" r:id="rId452" xr:uid="{00000000-0004-0000-0100-0000C5010000}"/>
+    <hyperlink ref="B715" r:id="rId453" display="https://alcon365.sharepoint.com/sites/InSight/268DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs%2F%E6%8B%A0%E7%82%B9%E6%83%85%E5%A0%B1%E3%80%80%E7%89%A9%E6%B5%81%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC%E5%90%AB%E3%82%80%2Epdf&amp;parent=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs" xr:uid="{84BFE526-5EF2-4190-8493-7EEC38A1D524}"/>
+    <hyperlink ref="B716" r:id="rId454" display="https://alcon365.sharepoint.com/sites/InSight/268DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs%2F%E6%8B%A0%E7%82%B9%E6%83%85%E5%A0%B1%E3%80%80%E7%89%A9%E6%B5%81%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC%E5%90%AB%E3%82%80%2Epdf&amp;parent=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs" xr:uid="{214E7EAF-BD41-452D-8FF5-DBC4E28FD135}"/>
+    <hyperlink ref="B717" r:id="rId455" xr:uid="{861C72B1-E4FA-44F7-A1C9-5C035EEF35D6}"/>
+    <hyperlink ref="B718" r:id="rId456" xr:uid="{2A5D094F-F562-4CA8-B888-FF3C85C19FC4}"/>
+    <hyperlink ref="B719" r:id="rId457" display="https://alcon365eur-my.sharepoint.com/personal/ramlamu1_alcon_net/_layouts/15/Doc.aspx?sourcedoc={337b2ae1-5bd7-4bca-a672-55385478e57e}&amp;action=edit&amp;wd=target%28General.one%7C9cd85f66-278e-4725-8df0-bbf56cafbd46%2FGeneral%7C36f14ccd-08b9-49d4-84aa-c58281d6697d%2F%29" xr:uid="{59911AF9-98B4-4600-AC95-75F41DC95E57}"/>
+    <hyperlink ref="B720" r:id="rId458" xr:uid="{D7293002-9F58-436D-8324-1EFB676DCB39}"/>
+    <hyperlink ref="B721" r:id="rId459" xr:uid="{223FD052-A44B-46F4-B2D1-D97C107A6876}"/>
+    <hyperlink ref="B722" r:id="rId460" xr:uid="{9FFA3CB1-8047-4ABF-9456-0A0E9AA926C7}"/>
+    <hyperlink ref="B723" r:id="rId461" xr:uid="{49D50039-0558-456F-958E-634D39526DB2}"/>
+    <hyperlink ref="B724" r:id="rId462" display="https://alcon365.sharepoint.com/sites/FinancialAssurance/Blackline/Forms/AllItems.aspx?id=%2Fsites%2FFinancialAssurance%2FBlackline%2FTrainings%20Materials%2FAFCM%20Blackline%20Control%20Owner%20Training%2Epdf&amp;parent=%2Fsites%2FFinancialAssurance%2FBlackline%2FTrainings%20Materials" xr:uid="{3EB2AEAC-75BA-480F-A9FD-59C50740C9BD}"/>
+    <hyperlink ref="B725" r:id="rId463" xr:uid="{BC26845F-0D87-4370-B21B-4E7FC0A01B09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId443"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId464"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId444"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId445"/>
+    <customPr name="_pios_id" r:id="rId465"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId466"/>
   </customProperties>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -52684,11 +53044,11 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Category!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C431 D614:D616 C436:C613 C617:C686 C433 C698:C1048576</xm:sqref>
+          <xm:sqref>C1:C144 C151:C158 C161:C171 C181:C336 C339:C431 D614:D616 C436:C613 C617:C686 C433 C698:C719 C723:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -52697,7 +53057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -52851,7 +53211,6 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037EE1C2-0384-4911-A047-135D8955329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664B3931-B14D-4D12-9873-24C86DFE65AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SOP" sheetId="4" r:id="rId1"/>
-    <sheet name="Master" sheetId="1" r:id="rId2"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="SOP" sheetId="4" r:id="rId2"/>
     <sheet name="Category" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Master!$A$1:$H$724</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$724</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4928,112 +4928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="41" customHeight="1">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="87">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72.5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <customProperties>
-    <customPr name="_pios_id" r:id="rId3"/>
-  </customProperties>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C716" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -53056,6 +52958,104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
+    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="41" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="87">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72.5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId3"/>
+  </customProperties>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>

--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFF28F-66AD-4BA6-8B94-563EBB47C0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E2EF4B-44C6-40C1-83BF-90CB0A160E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Category" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$733</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$H$762</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="1347">
   <si>
     <t>Kota</t>
     <phoneticPr fontId="2"/>
@@ -4315,6 +4315,162 @@
   </si>
   <si>
     <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\04 KPI\01 GLOBAL KPI\2022 APR NEW PROCESS\Tableau contact.msg</t>
+  </si>
+  <si>
+    <t>Purecloud guide</t>
+  </si>
+  <si>
+    <t>Purecloud inquiry channel</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\Training\Purecloud Inquiry Channel.pdf</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\06 SN\Training\Alcon PureCloud Agent Training 20210421.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800 188 669 </t>
+  </si>
+  <si>
+    <t>Alcon Malaysia free toll</t>
+  </si>
+  <si>
+    <t>Appzen Setting Configuration</t>
+  </si>
+  <si>
+    <t>I:\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Shahril</t>
+  </si>
+  <si>
+    <t>New Template Appzen Setting</t>
+  </si>
+  <si>
+    <t>TE Finance Core Project</t>
+  </si>
+  <si>
+    <t>AP Finance Core Project</t>
+  </si>
+  <si>
+    <t>HCP Contract PDF Withholding</t>
+  </si>
+  <si>
+    <t>I:\JPHQ\AL\Projects\MCA File Managemente</t>
+  </si>
+  <si>
+    <t>Payment Notification</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Syahmi
+File : Payment Notification (通知書）</t>
+  </si>
+  <si>
+    <t>Insight material folder</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BusUnits\AL-Finance\Fin-FRA\JDE\02_AP\0307_イントラ\030702_Insight\Concur</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\21 Intranet (Insight)\CONCUR\Insight Purge\Document List.xlsx</t>
+  </si>
+  <si>
+    <t>Concur Insight purging list</t>
+  </si>
+  <si>
+    <t>Concur Insight purging folder</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\21 Intranet (Insight)\CONCUR\Insight Purge</t>
+  </si>
+  <si>
+    <t>Concur FAQs material</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\21 Intranet (Insight)\CONCUR\FAQ</t>
+  </si>
+  <si>
+    <t>CC monthly statement</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0320_New Concur\032002Card\請求明細</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\13 CORPORATE CARD\入社\Checklist.xlsx</t>
+  </si>
+  <si>
+    <t>Retire employee checklist</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\13 CORPORATE CARD\退会\Checklist - 退社2022.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New joiner checklist </t>
+  </si>
+  <si>
+    <t>Corporate card folder</t>
+  </si>
+  <si>
+    <t>Transparency folder (restricted)</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\PROJECTS\AL-IRIS\35. R2P BI\Transparency Guideline</t>
+  </si>
+  <si>
+    <t>Tomeisei report</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\DFS\JPHQ\AL\PROJECTS\AL-IRIS\35. R2P BI\Transparency Guideline\report query\Reports</t>
+  </si>
+  <si>
+    <t>Asano's KT material</t>
+  </si>
+  <si>
+    <t>\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\14 KT with Asano san\Hanis_Ain_Shahril_ft_Asano</t>
+  </si>
+  <si>
+    <t>Concur Test Environment</t>
+  </si>
+  <si>
+    <t>https://implementation.concursolutions.com
+Login Name : QN1RAMLAMU1@alcon.net
+Password : Welcome1</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\05  CONCUR\CONCUR Error\Expense Report Error Log.xlsx"</t>
+  </si>
+  <si>
+    <t>Concur Error Log</t>
+  </si>
+  <si>
+    <t>I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\05  CONCUR\CONCUR Error\Expense Report Error Log.xlsx</t>
+  </si>
+  <si>
+    <t>Concur Error Folder</t>
+  </si>
+  <si>
+    <t>"I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\02  T&amp;E\12 PROJECT\1205 False Positive v2.xlsx"</t>
+  </si>
+  <si>
+    <t>Appzen Approval Definition</t>
+  </si>
+  <si>
+    <t>https://support.appzen.com/hc/en-us/articles/4405185570067-Approving-Expense-Reports</t>
+  </si>
+  <si>
+    <t>Appzen Knowledge Base</t>
+  </si>
+  <si>
+    <t>https://support.appzen.com/hc/en-us/categories/4407307837715-Expense-Audit</t>
+  </si>
+  <si>
+    <t>G:\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\16 JAPAN GM\03 MEC</t>
+  </si>
+  <si>
+    <t>Group Manager Schedule</t>
+  </si>
+  <si>
+    <t>T&amp;E Access Management</t>
+  </si>
+  <si>
+    <t>"\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Nadzrin\T&amp;E Ops Access Mgmt_April 2022.pptx"</t>
   </si>
 </sst>
 </file>
@@ -5004,22 +5160,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C760" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A737" sqref="A737"/>
+      <selection pane="bottomRight" activeCell="B768" sqref="B768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" style="2" customWidth="1"/>
     <col min="5" max="6" width="8.81640625" style="2"/>
     <col min="7" max="7" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
@@ -5050,7 +5205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -5072,10 +5227,10 @@
       </c>
       <c r="H2" s="32">
         <f>SUM(G2:G11)</f>
-        <v>735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" hidden="1" customHeight="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -5093,11 +5248,11 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -5119,7 +5274,7 @@
       </c>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -5137,11 +5292,11 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -5163,7 +5318,7 @@
       </c>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -5185,7 +5340,7 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" ht="14.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:8" ht="14.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -5207,7 +5362,7 @@
       </c>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" hidden="1" customHeight="1">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -5229,7 +5384,7 @@
       </c>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" ht="14.5" hidden="1" customHeight="1">
+    <row r="10" spans="1:8" ht="14.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -5247,11 +5402,11 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -5269,11 +5424,11 @@
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,7 +5442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -5301,7 +5456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -5315,7 +5470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -5329,7 +5484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -5343,7 +5498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -5357,7 +5512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -5385,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -5399,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -5413,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -5427,7 +5582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5441,7 +5596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -5455,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -5469,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -5483,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -5497,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -5511,7 +5666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -5525,7 +5680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -5539,7 +5694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -5553,7 +5708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -5564,7 +5719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -5578,7 +5733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -5589,7 +5744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -5603,7 +5758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -5617,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -5631,7 +5786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -5645,7 +5800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -5659,7 +5814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -5673,7 +5828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -5684,7 +5839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -5695,7 +5850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -5709,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -5720,7 +5875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>174</v>
       </c>
@@ -5734,7 +5889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -5748,7 +5903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -5762,7 +5917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.5" hidden="1">
+    <row r="48" spans="1:4" ht="43.5">
       <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
@@ -5776,7 +5931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -5790,7 +5945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -5804,7 +5959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -5818,7 +5973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
@@ -5832,7 +5987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -5846,7 +6001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -5860,7 +6015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -5874,7 +6029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -5888,7 +6043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -5905,7 +6060,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>695</v>
       </c>
@@ -5922,7 +6077,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -5936,7 +6091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="29" hidden="1">
+    <row r="60" spans="1:5" ht="29">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -5950,7 +6105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>145</v>
       </c>
@@ -5964,7 +6119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -5978,7 +6133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>150</v>
       </c>
@@ -5992,7 +6147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="87" hidden="1">
+    <row r="64" spans="1:5" ht="87">
       <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
@@ -6006,7 +6161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
@@ -6020,7 +6175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
@@ -6034,7 +6189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
@@ -6048,7 +6203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
@@ -6062,7 +6217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -6076,7 +6231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>163</v>
       </c>
@@ -6090,7 +6245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
@@ -6104,7 +6259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>167</v>
       </c>
@@ -6118,7 +6273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>173</v>
       </c>
@@ -6132,7 +6287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>179</v>
       </c>
@@ -6146,7 +6301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>180</v>
       </c>
@@ -6160,7 +6315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -6174,7 +6329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>436</v>
       </c>
@@ -6188,7 +6343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="21" customFormat="1" hidden="1">
+    <row r="78" spans="1:4" s="21" customFormat="1">
       <c r="A78" s="20" t="s">
         <v>185</v>
       </c>
@@ -6202,7 +6357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="21" customFormat="1" hidden="1">
+    <row r="79" spans="1:4" s="21" customFormat="1">
       <c r="A79" s="20" t="s">
         <v>188</v>
       </c>
@@ -6216,7 +6371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
@@ -6230,7 +6385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>191</v>
       </c>
@@ -6244,7 +6399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>195</v>
       </c>
@@ -6258,7 +6413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>196</v>
       </c>
@@ -6272,7 +6427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>198</v>
       </c>
@@ -6286,7 +6441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>200</v>
       </c>
@@ -6300,7 +6455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>201</v>
       </c>
@@ -6314,7 +6469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>202</v>
       </c>
@@ -6328,7 +6483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="20" t="s">
         <v>472</v>
       </c>
@@ -6342,7 +6497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>471</v>
       </c>
@@ -6356,7 +6511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>206</v>
       </c>
@@ -6370,7 +6525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>464</v>
       </c>
@@ -6384,7 +6539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>465</v>
       </c>
@@ -6398,7 +6553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>466</v>
       </c>
@@ -6412,7 +6567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>467</v>
       </c>
@@ -6426,7 +6581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>469</v>
       </c>
@@ -6440,7 +6595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>468</v>
       </c>
@@ -6454,7 +6609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>470</v>
       </c>
@@ -6468,7 +6623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>207</v>
       </c>
@@ -6482,7 +6637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>208</v>
       </c>
@@ -6496,7 +6651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>210</v>
       </c>
@@ -6510,7 +6665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -6524,7 +6679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>214</v>
       </c>
@@ -6552,7 +6707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>217</v>
       </c>
@@ -6566,7 +6721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>220</v>
       </c>
@@ -6580,7 +6735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
@@ -6594,7 +6749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -6608,7 +6763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>226</v>
       </c>
@@ -6622,7 +6777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>228</v>
       </c>
@@ -6636,7 +6791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>265</v>
       </c>
@@ -6650,7 +6805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
@@ -6664,7 +6819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -6678,7 +6833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>251</v>
       </c>
@@ -6692,7 +6847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>234</v>
       </c>
@@ -6706,7 +6861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>236</v>
       </c>
@@ -6720,7 +6875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>238</v>
       </c>
@@ -6734,7 +6889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -6748,7 +6903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>241</v>
       </c>
@@ -6762,7 +6917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>243</v>
       </c>
@@ -6776,7 +6931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>245</v>
       </c>
@@ -6790,7 +6945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>247</v>
       </c>
@@ -6804,7 +6959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1">
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>249</v>
       </c>
@@ -6818,7 +6973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>252</v>
       </c>
@@ -6832,7 +6987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1">
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>256</v>
       </c>
@@ -6846,7 +7001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>257</v>
       </c>
@@ -6860,7 +7015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1">
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>259</v>
       </c>
@@ -6874,7 +7029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>260</v>
       </c>
@@ -6888,7 +7043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1">
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>262</v>
       </c>
@@ -6902,7 +7057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>264</v>
       </c>
@@ -6916,7 +7071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>267</v>
       </c>
@@ -6930,7 +7085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>268</v>
       </c>
@@ -6944,7 +7099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>269</v>
       </c>
@@ -6958,7 +7113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>270</v>
       </c>
@@ -6972,7 +7127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>274</v>
       </c>
@@ -6986,7 +7141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>276</v>
       </c>
@@ -7000,7 +7155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>278</v>
       </c>
@@ -7014,7 +7169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>281</v>
       </c>
@@ -7028,7 +7183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>282</v>
       </c>
@@ -7042,7 +7197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>284</v>
       </c>
@@ -7056,7 +7211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
@@ -7084,7 +7239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>290</v>
       </c>
@@ -7098,7 +7253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>291</v>
       </c>
@@ -7112,7 +7267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>293</v>
       </c>
@@ -7126,7 +7281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:7" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>295</v>
       </c>
@@ -7140,7 +7295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:7" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>297</v>
       </c>
@@ -7154,7 +7309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:7" ht="15" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>299</v>
       </c>
@@ -7168,7 +7323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:7" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>301</v>
       </c>
@@ -7182,7 +7337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:7" ht="15" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>303</v>
       </c>
@@ -7196,7 +7351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1">
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>305</v>
       </c>
@@ -7210,7 +7365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="43.5" hidden="1">
+    <row r="151" spans="1:7" ht="43.5">
       <c r="A151" s="1" t="s">
         <v>307</v>
       </c>
@@ -7224,7 +7379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1">
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
@@ -7238,7 +7393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1">
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>310</v>
       </c>
@@ -7252,7 +7407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1">
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>313</v>
       </c>
@@ -7266,7 +7421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1">
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
         <v>315</v>
       </c>
@@ -7280,7 +7435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
         <v>317</v>
       </c>
@@ -7294,7 +7449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>319</v>
       </c>
@@ -7308,7 +7463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1">
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
         <v>321</v>
       </c>
@@ -7324,7 +7479,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:7" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>330</v>
       </c>
@@ -7338,7 +7493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:7" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>323</v>
       </c>
@@ -7352,7 +7507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>327</v>
       </c>
@@ -7366,7 +7521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>328</v>
       </c>
@@ -7380,7 +7535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>331</v>
       </c>
@@ -7394,7 +7549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
         <v>334</v>
       </c>
@@ -7408,7 +7563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>336</v>
       </c>
@@ -7422,7 +7577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>337</v>
       </c>
@@ -7436,7 +7591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>339</v>
       </c>
@@ -7450,7 +7605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>369</v>
       </c>
@@ -7464,7 +7619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>343</v>
       </c>
@@ -7478,7 +7633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
         <v>344</v>
       </c>
@@ -7492,7 +7647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>346</v>
       </c>
@@ -7506,7 +7661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
         <v>348</v>
       </c>
@@ -7520,7 +7675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>350</v>
       </c>
@@ -7534,7 +7689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>351</v>
       </c>
@@ -7548,7 +7703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>353</v>
       </c>
@@ -7562,7 +7717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
         <v>355</v>
       </c>
@@ -7576,7 +7731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>357</v>
       </c>
@@ -7590,7 +7745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>359</v>
       </c>
@@ -7604,7 +7759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>360</v>
       </c>
@@ -7618,7 +7773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
@@ -7632,7 +7787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -7646,7 +7801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>373</v>
       </c>
@@ -7660,7 +7815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>375</v>
       </c>
@@ -7674,7 +7829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>378</v>
       </c>
@@ -7688,7 +7843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
         <v>379</v>
       </c>
@@ -7702,7 +7857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>381</v>
       </c>
@@ -7716,7 +7871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
         <v>383</v>
       </c>
@@ -7730,7 +7885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
         <v>385</v>
       </c>
@@ -7744,7 +7899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
         <v>387</v>
       </c>
@@ -7758,7 +7913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
         <v>389</v>
       </c>
@@ -7772,7 +7927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
         <v>391</v>
       </c>
@@ -7786,7 +7941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
         <v>392</v>
       </c>
@@ -7800,7 +7955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
         <v>394</v>
       </c>
@@ -7814,7 +7969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
         <v>395</v>
       </c>
@@ -7828,7 +7983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
         <v>397</v>
       </c>
@@ -7842,7 +7997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>399</v>
       </c>
@@ -7856,7 +8011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
         <v>400</v>
       </c>
@@ -7870,7 +8025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
         <v>402</v>
       </c>
@@ -7884,7 +8039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
@@ -7898,7 +8053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4">
       <c r="A200" s="20" t="s">
         <v>405</v>
       </c>
@@ -7912,7 +8067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>406</v>
       </c>
@@ -7926,7 +8081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>408</v>
       </c>
@@ -7940,7 +8095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
         <v>410</v>
       </c>
@@ -7954,7 +8109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
@@ -7968,7 +8123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
         <v>412</v>
       </c>
@@ -8010,7 +8165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
         <v>415</v>
       </c>
@@ -8024,7 +8179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
         <v>417</v>
       </c>
@@ -8038,7 +8193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>418</v>
       </c>
@@ -8052,7 +8207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1">
+    <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
         <v>419</v>
       </c>
@@ -8066,7 +8221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="101.5" hidden="1">
+    <row r="212" spans="1:7" ht="101.5">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -8080,7 +8235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1">
+    <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>424</v>
       </c>
@@ -8096,7 +8251,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:7" hidden="1">
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
         <v>425</v>
       </c>
@@ -8112,7 +8267,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="10"/>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
         <v>426</v>
       </c>
@@ -8128,7 +8283,7 @@
       <c r="F215" s="11"/>
       <c r="G215" s="10"/>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>427</v>
       </c>
@@ -8144,7 +8299,7 @@
       <c r="F216" s="11"/>
       <c r="G216" s="10"/>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>428</v>
       </c>
@@ -8160,7 +8315,7 @@
       <c r="F217" s="11"/>
       <c r="G217" s="10"/>
     </row>
-    <row r="218" spans="1:7" hidden="1">
+    <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
         <v>429</v>
       </c>
@@ -8176,7 +8331,7 @@
       <c r="F218" s="11"/>
       <c r="G218" s="10"/>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
         <v>430</v>
       </c>
@@ -8192,7 +8347,7 @@
       <c r="F219" s="11"/>
       <c r="G219" s="10"/>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
         <v>431</v>
       </c>
@@ -8208,7 +8363,7 @@
       <c r="F220" s="11"/>
       <c r="G220" s="10"/>
     </row>
-    <row r="221" spans="1:7" hidden="1">
+    <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
         <v>432</v>
       </c>
@@ -8224,7 +8379,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="10"/>
     </row>
-    <row r="222" spans="1:7" hidden="1">
+    <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
         <v>433</v>
       </c>
@@ -8240,7 +8395,7 @@
       <c r="F222" s="11"/>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>434</v>
       </c>
@@ -8256,7 +8411,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="10"/>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
         <v>435</v>
       </c>
@@ -8272,7 +8427,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>437</v>
       </c>
@@ -8288,7 +8443,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:7" hidden="1">
+    <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>438</v>
       </c>
@@ -8304,7 +8459,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="10"/>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>439</v>
       </c>
@@ -8320,7 +8475,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="10"/>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
         <v>440</v>
       </c>
@@ -8336,7 +8491,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="10"/>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
         <v>441</v>
       </c>
@@ -8352,7 +8507,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="10"/>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>442</v>
       </c>
@@ -8368,7 +8523,7 @@
       <c r="F230" s="11"/>
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
         <v>443</v>
       </c>
@@ -8384,7 +8539,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="10"/>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
         <v>444</v>
       </c>
@@ -8400,7 +8555,7 @@
       <c r="F232" s="11"/>
       <c r="G232" s="10"/>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
         <v>445</v>
       </c>
@@ -8416,7 +8571,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="10"/>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
         <v>446</v>
       </c>
@@ -8432,7 +8587,7 @@
       <c r="F234" s="11"/>
       <c r="G234" s="10"/>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>447</v>
       </c>
@@ -8448,7 +8603,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>448</v>
       </c>
@@ -8464,7 +8619,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="10"/>
     </row>
-    <row r="237" spans="1:7" hidden="1">
+    <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>449</v>
       </c>
@@ -8480,7 +8635,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="10"/>
     </row>
-    <row r="238" spans="1:7" hidden="1">
+    <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
         <v>450</v>
       </c>
@@ -8496,7 +8651,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="10"/>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
         <v>451</v>
       </c>
@@ -8512,7 +8667,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="10"/>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>452</v>
       </c>
@@ -8526,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
+    <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
         <v>453</v>
       </c>
@@ -8540,7 +8695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
@@ -8554,7 +8709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
         <v>457</v>
       </c>
@@ -8568,7 +8723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="43.5" hidden="1">
+    <row r="244" spans="1:4" ht="43.5">
       <c r="A244" s="1" t="s">
         <v>461</v>
       </c>
@@ -8582,7 +8737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="43.5" hidden="1">
+    <row r="245" spans="1:4" ht="43.5">
       <c r="A245" s="1" t="s">
         <v>504</v>
       </c>
@@ -8596,7 +8751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1">
+    <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
         <v>461</v>
       </c>
@@ -8610,7 +8765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1">
+    <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
         <v>462</v>
       </c>
@@ -8624,7 +8779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="20" t="s">
         <v>473</v>
       </c>
@@ -8638,7 +8793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="20" t="s">
         <v>474</v>
       </c>
@@ -8652,7 +8807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="20" t="s">
         <v>475</v>
       </c>
@@ -8666,7 +8821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>494</v>
       </c>
@@ -8680,7 +8835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>493</v>
       </c>
@@ -8694,7 +8849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>492</v>
       </c>
@@ -8708,7 +8863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>491</v>
       </c>
@@ -8722,7 +8877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>490</v>
       </c>
@@ -8736,7 +8891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>489</v>
       </c>
@@ -8750,7 +8905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>488</v>
       </c>
@@ -8764,7 +8919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>477</v>
       </c>
@@ -8778,7 +8933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>478</v>
       </c>
@@ -8792,7 +8947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>479</v>
       </c>
@@ -8806,7 +8961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>481</v>
       </c>
@@ -8820,7 +8975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>482</v>
       </c>
@@ -8834,7 +8989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>484</v>
       </c>
@@ -8848,7 +9003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="21" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="264" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>495</v>
       </c>
@@ -8862,7 +9017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>487</v>
       </c>
@@ -8876,7 +9031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>496</v>
       </c>
@@ -8890,7 +9045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>497</v>
       </c>
@@ -8904,7 +9059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>498</v>
       </c>
@@ -8918,7 +9073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>499</v>
       </c>
@@ -8932,7 +9087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>500</v>
       </c>
@@ -8946,7 +9101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>501</v>
       </c>
@@ -8960,7 +9115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>502</v>
       </c>
@@ -8974,7 +9129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>503</v>
       </c>
@@ -8988,7 +9143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
         <v>505</v>
       </c>
@@ -9002,7 +9157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
         <v>507</v>
       </c>
@@ -9016,7 +9171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
         <v>509</v>
       </c>
@@ -9030,7 +9185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
         <v>511</v>
       </c>
@@ -9044,7 +9199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
         <v>512</v>
       </c>
@@ -9058,7 +9213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>515</v>
       </c>
@@ -9072,7 +9227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
         <v>516</v>
       </c>
@@ -9086,7 +9241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
         <v>518</v>
       </c>
@@ -9100,7 +9255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
         <v>520</v>
       </c>
@@ -9114,7 +9269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
         <v>522</v>
       </c>
@@ -9128,7 +9283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
         <v>523</v>
       </c>
@@ -9142,7 +9297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
         <v>525</v>
       </c>
@@ -9156,7 +9311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
         <v>527</v>
       </c>
@@ -9170,7 +9325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
         <v>529</v>
       </c>
@@ -9184,7 +9339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
         <v>530</v>
       </c>
@@ -9198,7 +9353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1">
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
         <v>532</v>
       </c>
@@ -9212,7 +9367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
         <v>534</v>
       </c>
@@ -9226,7 +9381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
         <v>536</v>
       </c>
@@ -9240,7 +9395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>538</v>
       </c>
@@ -9254,7 +9409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
         <v>541</v>
       </c>
@@ -9268,7 +9423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
         <v>540</v>
       </c>
@@ -9282,7 +9437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1">
+    <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
         <v>543</v>
       </c>
@@ -9296,7 +9451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1">
+    <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
         <v>544</v>
       </c>
@@ -9310,7 +9465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1">
+    <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
         <v>545</v>
       </c>
@@ -9324,7 +9479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1">
+    <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
         <v>546</v>
       </c>
@@ -9338,7 +9493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1">
+    <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
         <v>549</v>
       </c>
@@ -9352,7 +9507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1">
+    <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
         <v>550</v>
       </c>
@@ -9366,7 +9521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1">
+    <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
         <v>552</v>
       </c>
@@ -9380,7 +9535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1">
+    <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
         <v>555</v>
       </c>
@@ -9394,7 +9549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1">
+    <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
         <v>566</v>
       </c>
@@ -9408,7 +9563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1">
+    <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
         <v>567</v>
       </c>
@@ -9422,7 +9577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1">
+    <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
         <v>559</v>
       </c>
@@ -9436,7 +9591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1">
+    <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
         <v>561</v>
       </c>
@@ -9450,7 +9605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1">
+    <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
         <v>563</v>
       </c>
@@ -9478,7 +9633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1">
+    <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
         <v>570</v>
       </c>
@@ -9492,7 +9647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1">
+    <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
         <v>571</v>
       </c>
@@ -9506,7 +9661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1">
+    <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
         <v>573</v>
       </c>
@@ -9520,7 +9675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1">
+    <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
         <v>576</v>
       </c>
@@ -9534,7 +9689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1">
+    <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
         <v>582</v>
       </c>
@@ -9548,7 +9703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1">
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>578</v>
       </c>
@@ -9562,7 +9717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1">
+    <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
         <v>580</v>
       </c>
@@ -9576,7 +9731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1">
+    <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
         <v>583</v>
       </c>
@@ -9590,7 +9745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1">
+    <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
         <v>586</v>
       </c>
@@ -9604,7 +9759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1">
+    <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
         <v>587</v>
       </c>
@@ -9618,7 +9773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1">
+    <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
         <v>589</v>
       </c>
@@ -9632,7 +9787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1">
+    <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
         <v>591</v>
       </c>
@@ -9646,7 +9801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1">
+    <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
         <v>594</v>
       </c>
@@ -9660,7 +9815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1">
+    <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
         <v>595</v>
       </c>
@@ -9674,7 +9829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1">
+    <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>597</v>
       </c>
@@ -9688,7 +9843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1">
+    <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
         <v>600</v>
       </c>
@@ -9702,7 +9857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1">
+    <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
         <v>601</v>
       </c>
@@ -9716,7 +9871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1">
+    <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
         <v>603</v>
       </c>
@@ -9730,7 +9885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1">
+    <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
         <v>606</v>
       </c>
@@ -9744,7 +9899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1">
+    <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
         <v>607</v>
       </c>
@@ -9758,7 +9913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="329" spans="1:4" ht="15" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>609</v>
       </c>
@@ -9772,7 +9927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="330" spans="1:4" ht="15" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>611</v>
       </c>
@@ -9786,7 +9941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="331" spans="1:4" ht="15" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>612</v>
       </c>
@@ -9800,7 +9955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="332" spans="1:4" ht="15" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>613</v>
       </c>
@@ -9814,7 +9969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="333" spans="1:4" ht="15" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>614</v>
       </c>
@@ -9828,7 +9983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="334" spans="1:4" ht="15" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>615</v>
       </c>
@@ -9842,7 +9997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="335" spans="1:4" ht="15" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>616</v>
       </c>
@@ -9856,7 +10011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="336" spans="1:4" ht="15" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>617</v>
       </c>
@@ -9870,7 +10025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="337" spans="1:4" ht="15" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>618</v>
       </c>
@@ -9884,7 +10039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="338" spans="1:4" ht="15" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>619</v>
       </c>
@@ -9898,7 +10053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="339" spans="1:4" ht="15" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>620</v>
       </c>
@@ -9912,7 +10067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="340" spans="1:4" ht="15" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>621</v>
       </c>
@@ -9926,7 +10081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="341" spans="1:4" ht="15" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>623</v>
       </c>
@@ -9940,7 +10095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="342" spans="1:4" ht="15" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>624</v>
       </c>
@@ -9954,7 +10109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="343" spans="1:4" ht="15" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>626</v>
       </c>
@@ -9968,7 +10123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="344" spans="1:4" ht="15" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>627</v>
       </c>
@@ -9982,7 +10137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="345" spans="1:4" ht="15" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>628</v>
       </c>
@@ -9996,7 +10151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="346" spans="1:4" ht="15" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>629</v>
       </c>
@@ -10010,7 +10165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1">
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>632</v>
       </c>
@@ -10024,7 +10179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1">
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
         <v>633</v>
       </c>
@@ -10038,7 +10193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1">
+    <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
         <v>636</v>
       </c>
@@ -10052,7 +10207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1">
+    <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
         <v>635</v>
       </c>
@@ -10066,7 +10221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
         <v>638</v>
       </c>
@@ -10080,7 +10235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
         <v>639</v>
       </c>
@@ -10094,7 +10249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1">
+    <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
         <v>640</v>
       </c>
@@ -10119,7 +10274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1">
+    <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
         <v>645</v>
       </c>
@@ -10133,7 +10288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1">
+    <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
         <v>647</v>
       </c>
@@ -10147,7 +10302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1">
+    <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
         <v>648</v>
       </c>
@@ -10161,7 +10316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1">
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>650</v>
       </c>
@@ -10175,7 +10330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1">
+    <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
         <v>653</v>
       </c>
@@ -10189,7 +10344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1">
+    <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
         <v>654</v>
       </c>
@@ -10203,7 +10358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1">
+    <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
         <v>656</v>
       </c>
@@ -10217,7 +10372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1">
+    <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
         <v>657</v>
       </c>
@@ -10231,7 +10386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1">
+    <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
         <v>659</v>
       </c>
@@ -10245,7 +10400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1">
+    <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
         <v>660</v>
       </c>
@@ -10259,7 +10414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1">
+    <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
         <v>662</v>
       </c>
@@ -10273,7 +10428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1">
+    <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
         <v>635</v>
       </c>
@@ -10287,7 +10442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1">
+    <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
         <v>664</v>
       </c>
@@ -10301,7 +10456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1">
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
         <v>665</v>
       </c>
@@ -10315,7 +10470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1">
+    <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
         <v>667</v>
       </c>
@@ -10329,7 +10484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1">
+    <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
         <v>668</v>
       </c>
@@ -10343,7 +10498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1">
+    <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
         <v>669</v>
       </c>
@@ -10357,7 +10512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1">
+    <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
         <v>671</v>
       </c>
@@ -10371,7 +10526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1">
+    <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
         <v>673</v>
       </c>
@@ -10385,7 +10540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1">
+    <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
         <v>674</v>
       </c>
@@ -10399,7 +10554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1">
+    <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
         <v>676</v>
       </c>
@@ -10413,7 +10568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
         <v>677</v>
       </c>
@@ -10427,7 +10582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
         <v>679</v>
       </c>
@@ -10441,7 +10596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1">
+    <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
         <v>680</v>
       </c>
@@ -10455,7 +10610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1">
+    <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
         <v>681</v>
       </c>
@@ -10469,7 +10624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1">
+    <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
         <v>682</v>
       </c>
@@ -10483,7 +10638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1">
+    <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
         <v>683</v>
       </c>
@@ -10497,7 +10652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1">
+    <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
         <v>684</v>
       </c>
@@ -10511,7 +10666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1">
+    <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
         <v>686</v>
       </c>
@@ -10553,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1">
+    <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
         <v>691</v>
       </c>
@@ -10567,7 +10722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1">
+    <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
         <v>692</v>
       </c>
@@ -10581,7 +10736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
         <v>693</v>
       </c>
@@ -10595,7 +10750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1">
+    <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
         <v>697</v>
       </c>
@@ -10609,7 +10764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1">
+    <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
         <v>698</v>
       </c>
@@ -10623,7 +10778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
         <v>702</v>
       </c>
@@ -10637,7 +10792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
         <v>701</v>
       </c>
@@ -10651,7 +10806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
         <v>700</v>
       </c>
@@ -10665,7 +10820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
         <v>699</v>
       </c>
@@ -10679,7 +10834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1">
+    <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
         <v>704</v>
       </c>
@@ -10693,7 +10848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1">
+    <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
         <v>705</v>
       </c>
@@ -10707,7 +10862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
+    <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
         <v>707</v>
       </c>
@@ -10721,7 +10876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1">
+    <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
         <v>708</v>
       </c>
@@ -10735,7 +10890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1">
+    <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
         <v>709</v>
       </c>
@@ -10749,7 +10904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1">
+    <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
         <v>710</v>
       </c>
@@ -10763,7 +10918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1">
+    <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
         <v>712</v>
       </c>
@@ -10777,7 +10932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1">
+    <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
         <v>715</v>
       </c>
@@ -10791,7 +10946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1">
+    <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
         <v>716</v>
       </c>
@@ -10805,7 +10960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1">
+    <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
         <v>717</v>
       </c>
@@ -10819,7 +10974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1">
+    <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
         <v>719</v>
       </c>
@@ -10833,7 +10988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1">
+    <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
         <v>719</v>
       </c>
@@ -10847,7 +11002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1">
+    <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
         <v>722</v>
       </c>
@@ -10861,7 +11016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1">
+    <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
         <v>722</v>
       </c>
@@ -10875,7 +11030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1">
+    <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
         <v>723</v>
       </c>
@@ -10889,7 +11044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1">
+    <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
         <v>723</v>
       </c>
@@ -10903,7 +11058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1">
+    <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
         <v>724</v>
       </c>
@@ -10917,7 +11072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1">
+    <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
         <v>726</v>
       </c>
@@ -10931,7 +11086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1">
+    <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
         <v>728</v>
       </c>
@@ -10945,7 +11100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1">
+    <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
         <v>730</v>
       </c>
@@ -10959,7 +11114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1">
+    <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
         <v>732</v>
       </c>
@@ -10973,7 +11128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1">
+    <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
         <v>734</v>
       </c>
@@ -10987,7 +11142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1">
+    <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
         <v>736</v>
       </c>
@@ -11001,7 +11156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1">
+    <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
         <v>737</v>
       </c>
@@ -11015,7 +11170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1">
+    <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
         <v>738</v>
       </c>
@@ -11029,7 +11184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1">
+    <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
         <v>461</v>
       </c>
@@ -11043,7 +11198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1">
+    <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
         <v>321</v>
       </c>
@@ -11057,7 +11212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1">
+    <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
         <v>740</v>
       </c>
@@ -11071,7 +11226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1">
+    <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
         <v>741</v>
       </c>
@@ -11085,7 +11240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1">
+    <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
         <v>742</v>
       </c>
@@ -11099,7 +11254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1">
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
         <v>748</v>
       </c>
@@ -11113,7 +11268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1">
+    <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
         <v>750</v>
       </c>
@@ -11127,7 +11282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="58" hidden="1">
+    <row r="427" spans="1:4" ht="58">
       <c r="A427" s="1" t="s">
         <v>753</v>
       </c>
@@ -11141,7 +11296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="58" hidden="1">
+    <row r="428" spans="1:4" ht="58">
       <c r="A428" s="1" t="s">
         <v>754</v>
       </c>
@@ -11155,7 +11310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1">
+    <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
         <v>755</v>
       </c>
@@ -11169,7 +11324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1">
+    <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
         <v>756</v>
       </c>
@@ -11183,7 +11338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1">
+    <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
         <v>759</v>
       </c>
@@ -11197,7 +11352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1">
+    <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
         <v>760</v>
       </c>
@@ -11211,7 +11366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1">
+    <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
         <v>762</v>
       </c>
@@ -11225,7 +11380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1">
+    <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
         <v>764</v>
       </c>
@@ -11239,7 +11394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1">
+    <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
         <v>765</v>
       </c>
@@ -11253,7 +11408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1">
+    <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
         <v>767</v>
       </c>
@@ -11267,7 +11422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1">
+    <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
         <v>769</v>
       </c>
@@ -11281,7 +11436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1">
+    <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
         <v>770</v>
       </c>
@@ -11295,7 +11450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1">
+    <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
         <v>772</v>
       </c>
@@ -11309,7 +11464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1">
+    <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
         <v>286</v>
       </c>
@@ -11323,7 +11478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1">
+    <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
         <v>772</v>
       </c>
@@ -11337,7 +11492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1">
+    <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
         <v>775</v>
       </c>
@@ -11351,7 +11506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1">
+    <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
         <v>778</v>
       </c>
@@ -11365,7 +11520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1">
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>779</v>
       </c>
@@ -11379,7 +11534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1">
+    <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
         <v>782</v>
       </c>
@@ -11393,7 +11548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1">
+    <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
         <v>784</v>
       </c>
@@ -11407,7 +11562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1">
+    <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
         <v>286</v>
       </c>
@@ -11421,7 +11576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1">
+    <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
         <v>722</v>
       </c>
@@ -11435,7 +11590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1">
+    <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
         <v>719</v>
       </c>
@@ -11449,7 +11604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1">
+    <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
         <v>787</v>
       </c>
@@ -11463,7 +11618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1">
+    <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
         <v>789</v>
       </c>
@@ -11477,7 +11632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1">
+    <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
         <v>790</v>
       </c>
@@ -11505,7 +11660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1">
+    <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
         <v>792</v>
       </c>
@@ -11519,7 +11674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1">
+    <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
         <v>794</v>
       </c>
@@ -11533,7 +11688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1">
+    <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
         <v>795</v>
       </c>
@@ -11547,7 +11702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1">
+    <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
         <v>797</v>
       </c>
@@ -11561,7 +11716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1">
+    <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
         <v>799</v>
       </c>
@@ -11575,7 +11730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1">
+    <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
         <v>802</v>
       </c>
@@ -11589,7 +11744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1">
+    <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
         <v>804</v>
       </c>
@@ -11603,7 +11758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1">
+    <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
         <v>805</v>
       </c>
@@ -11617,7 +11772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1">
+    <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
         <v>807</v>
       </c>
@@ -11631,7 +11786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1">
+    <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
         <v>809</v>
       </c>
@@ -11645,7 +11800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1">
+    <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
         <v>811</v>
       </c>
@@ -11659,7 +11814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1">
+    <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
         <v>813</v>
       </c>
@@ -11673,7 +11828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1">
+    <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
         <v>814</v>
       </c>
@@ -11687,7 +11842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1">
+    <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
         <v>817</v>
       </c>
@@ -11701,7 +11856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1">
+    <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
         <v>819</v>
       </c>
@@ -11715,7 +11870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1">
+    <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
         <v>822</v>
       </c>
@@ -11729,7 +11884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="17.5" hidden="1" customHeight="1">
+    <row r="470" spans="1:4" ht="17.5" customHeight="1">
       <c r="A470" s="1" t="s">
         <v>824</v>
       </c>
@@ -11743,7 +11898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1">
+    <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
         <v>825</v>
       </c>
@@ -11757,7 +11912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1">
+    <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
         <v>848</v>
       </c>
@@ -11771,7 +11926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1">
+    <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
         <v>826</v>
       </c>
@@ -11785,7 +11940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1">
+    <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
         <v>829</v>
       </c>
@@ -11799,7 +11954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1">
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
         <v>831</v>
       </c>
@@ -11813,7 +11968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1">
+    <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
         <v>832</v>
       </c>
@@ -11827,7 +11982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1">
+    <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
         <v>834</v>
       </c>
@@ -11841,7 +11996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1">
+    <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
         <v>835</v>
       </c>
@@ -11855,7 +12010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1">
+    <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
         <v>837</v>
       </c>
@@ -11869,7 +12024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1">
+    <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
         <v>838</v>
       </c>
@@ -11883,7 +12038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1">
+    <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
         <v>842</v>
       </c>
@@ -11897,7 +12052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1">
+    <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
         <v>843</v>
       </c>
@@ -11911,7 +12066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1">
+    <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
         <v>844</v>
       </c>
@@ -11925,7 +12080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1">
+    <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
         <v>845</v>
       </c>
@@ -11939,7 +12094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1">
+    <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
         <v>847</v>
       </c>
@@ -11953,7 +12108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1">
+    <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
         <v>849</v>
       </c>
@@ -11995,7 +12150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1">
+    <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
         <v>855</v>
       </c>
@@ -12009,7 +12164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1">
+    <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
         <v>857</v>
       </c>
@@ -12023,7 +12178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1">
+    <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
         <v>858</v>
       </c>
@@ -12037,7 +12192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1">
+    <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
         <v>826</v>
       </c>
@@ -12051,7 +12206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1">
+    <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
         <v>826</v>
       </c>
@@ -12065,7 +12220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1">
+    <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
         <v>862</v>
       </c>
@@ -12079,7 +12234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="43.5" hidden="1">
+    <row r="495" spans="1:4" ht="43.5">
       <c r="A495" s="1" t="s">
         <v>864</v>
       </c>
@@ -12093,7 +12248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="43.5" hidden="1">
+    <row r="496" spans="1:4" ht="43.5">
       <c r="A496" s="1" t="s">
         <v>865</v>
       </c>
@@ -12107,7 +12262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1">
+    <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
         <v>867</v>
       </c>
@@ -12121,7 +12276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1">
+    <row r="498" spans="1:7">
       <c r="A498" s="1" t="s">
         <v>869</v>
       </c>
@@ -12135,7 +12290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1">
+    <row r="499" spans="1:7">
       <c r="A499" s="1" t="s">
         <v>871</v>
       </c>
@@ -12149,7 +12304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1">
+    <row r="500" spans="1:7">
       <c r="A500" s="1" t="s">
         <v>874</v>
       </c>
@@ -12163,7 +12318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1">
+    <row r="501" spans="1:7">
       <c r="A501" s="1" t="s">
         <v>876</v>
       </c>
@@ -12177,7 +12332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1">
+    <row r="502" spans="1:7">
       <c r="A502" s="1" t="s">
         <v>877</v>
       </c>
@@ -12191,7 +12346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1">
+    <row r="503" spans="1:7">
       <c r="A503" s="1" t="s">
         <v>879</v>
       </c>
@@ -12205,7 +12360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1">
+    <row r="504" spans="1:7">
       <c r="A504" s="1" t="s">
         <v>880</v>
       </c>
@@ -12219,7 +12374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1">
+    <row r="505" spans="1:7">
       <c r="A505" s="1" t="s">
         <v>881</v>
       </c>
@@ -12233,7 +12388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1">
+    <row r="506" spans="1:7">
       <c r="A506" s="1" t="s">
         <v>883</v>
       </c>
@@ -12247,7 +12402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1">
+    <row r="507" spans="1:7">
       <c r="A507" s="1" t="s">
         <v>884</v>
       </c>
@@ -12263,7 +12418,7 @@
       <c r="F507" s="11"/>
       <c r="G507" s="10"/>
     </row>
-    <row r="508" spans="1:7" hidden="1">
+    <row r="508" spans="1:7">
       <c r="A508" s="1" t="s">
         <v>887</v>
       </c>
@@ -12277,7 +12432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1">
+    <row r="509" spans="1:7">
       <c r="A509" s="1" t="s">
         <v>888</v>
       </c>
@@ -12291,7 +12446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1">
+    <row r="510" spans="1:7">
       <c r="A510" s="1" t="s">
         <v>889</v>
       </c>
@@ -12307,7 +12462,7 @@
       <c r="F510" s="11"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:7" hidden="1">
+    <row r="511" spans="1:7">
       <c r="A511" s="1" t="s">
         <v>891</v>
       </c>
@@ -12323,7 +12478,7 @@
       <c r="F511" s="11"/>
       <c r="G511" s="10"/>
     </row>
-    <row r="512" spans="1:7" hidden="1">
+    <row r="512" spans="1:7">
       <c r="A512" s="1" t="s">
         <v>892</v>
       </c>
@@ -12337,7 +12492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1">
+    <row r="513" spans="1:4">
       <c r="A513" s="1" t="s">
         <v>893</v>
       </c>
@@ -12351,7 +12506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1">
+    <row r="514" spans="1:4">
       <c r="A514" s="1" t="s">
         <v>895</v>
       </c>
@@ -12365,7 +12520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1">
+    <row r="515" spans="1:4">
       <c r="A515" s="1" t="s">
         <v>896</v>
       </c>
@@ -12379,7 +12534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1">
+    <row r="516" spans="1:4">
       <c r="A516" s="1" t="s">
         <v>897</v>
       </c>
@@ -12393,7 +12548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1">
+    <row r="517" spans="1:4">
       <c r="A517" s="1" t="s">
         <v>899</v>
       </c>
@@ -12407,7 +12562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1">
+    <row r="518" spans="1:4">
       <c r="A518" s="1" t="s">
         <v>901</v>
       </c>
@@ -12421,7 +12576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1">
+    <row r="519" spans="1:4">
       <c r="A519" s="1" t="s">
         <v>903</v>
       </c>
@@ -12435,7 +12590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1">
+    <row r="520" spans="1:4">
       <c r="A520" s="1" t="s">
         <v>1073</v>
       </c>
@@ -12449,7 +12604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1">
+    <row r="521" spans="1:4">
       <c r="A521" s="1" t="s">
         <v>905</v>
       </c>
@@ -12463,7 +12618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1">
+    <row r="522" spans="1:4">
       <c r="A522" s="1" t="s">
         <v>906</v>
       </c>
@@ -12477,7 +12632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1">
+    <row r="523" spans="1:4">
       <c r="A523" s="1" t="s">
         <v>909</v>
       </c>
@@ -12491,7 +12646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1">
+    <row r="524" spans="1:4">
       <c r="A524" s="1" t="s">
         <v>911</v>
       </c>
@@ -12505,7 +12660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1">
+    <row r="525" spans="1:4">
       <c r="A525" s="1" t="s">
         <v>913</v>
       </c>
@@ -12519,7 +12674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1">
+    <row r="526" spans="1:4">
       <c r="A526" s="1" t="s">
         <v>914</v>
       </c>
@@ -12533,7 +12688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1">
+    <row r="527" spans="1:4">
       <c r="A527" s="1" t="s">
         <v>925</v>
       </c>
@@ -12547,7 +12702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1">
+    <row r="528" spans="1:4">
       <c r="A528" s="1" t="s">
         <v>15</v>
       </c>
@@ -12561,7 +12716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1">
+    <row r="529" spans="1:4">
       <c r="A529" s="1" t="s">
         <v>926</v>
       </c>
@@ -12575,7 +12730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1">
+    <row r="530" spans="1:4">
       <c r="A530" s="1" t="s">
         <v>927</v>
       </c>
@@ -12589,7 +12744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1">
+    <row r="531" spans="1:4">
       <c r="A531" s="1" t="s">
         <v>928</v>
       </c>
@@ -12603,7 +12758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1">
+    <row r="532" spans="1:4">
       <c r="A532" s="1" t="s">
         <v>916</v>
       </c>
@@ -12617,7 +12772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1">
+    <row r="533" spans="1:4">
       <c r="A533" s="1" t="s">
         <v>917</v>
       </c>
@@ -12631,7 +12786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1">
+    <row r="534" spans="1:4">
       <c r="A534" s="1" t="s">
         <v>918</v>
       </c>
@@ -12645,7 +12800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1">
+    <row r="535" spans="1:4">
       <c r="A535" s="1" t="s">
         <v>919</v>
       </c>
@@ -12659,7 +12814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1">
+    <row r="536" spans="1:4">
       <c r="A536" s="1" t="s">
         <v>919</v>
       </c>
@@ -12673,7 +12828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1">
+    <row r="537" spans="1:4">
       <c r="A537" s="1" t="s">
         <v>919</v>
       </c>
@@ -12687,7 +12842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1">
+    <row r="538" spans="1:4">
       <c r="A538" s="1" t="s">
         <v>919</v>
       </c>
@@ -12701,7 +12856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1">
+    <row r="539" spans="1:4">
       <c r="A539" s="1" t="s">
         <v>935</v>
       </c>
@@ -12715,7 +12870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1">
+    <row r="540" spans="1:4">
       <c r="A540" s="1" t="s">
         <v>937</v>
       </c>
@@ -12729,7 +12884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1">
+    <row r="541" spans="1:4">
       <c r="A541" s="1" t="s">
         <v>939</v>
       </c>
@@ -12743,7 +12898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1">
+    <row r="542" spans="1:4">
       <c r="A542" s="1" t="s">
         <v>945</v>
       </c>
@@ -12757,7 +12912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1">
+    <row r="543" spans="1:4">
       <c r="A543" s="1" t="s">
         <v>942</v>
       </c>
@@ -12771,7 +12926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1">
+    <row r="544" spans="1:4">
       <c r="A544" s="1" t="s">
         <v>946</v>
       </c>
@@ -12785,7 +12940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1">
+    <row r="545" spans="1:4">
       <c r="A545" s="1" t="s">
         <v>948</v>
       </c>
@@ -12799,7 +12954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1">
+    <row r="546" spans="1:4">
       <c r="A546" s="1" t="s">
         <v>950</v>
       </c>
@@ -12813,7 +12968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1">
+    <row r="547" spans="1:4">
       <c r="A547" s="1" t="s">
         <v>952</v>
       </c>
@@ -12827,7 +12982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="13" hidden="1" customHeight="1">
+    <row r="548" spans="1:4" ht="13" customHeight="1">
       <c r="A548" s="1" t="s">
         <v>851</v>
       </c>
@@ -12838,7 +12993,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1">
+    <row r="549" spans="1:4">
       <c r="A549" s="1" t="s">
         <v>985</v>
       </c>
@@ -12852,7 +13007,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="43.5" hidden="1">
+    <row r="550" spans="1:4" ht="43.5">
       <c r="A550" s="1" t="s">
         <v>954</v>
       </c>
@@ -12866,7 +13021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="43.5" hidden="1">
+    <row r="551" spans="1:4" ht="43.5">
       <c r="A551" s="1" t="s">
         <v>955</v>
       </c>
@@ -12880,7 +13035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="43.5" hidden="1">
+    <row r="552" spans="1:4" ht="43.5">
       <c r="A552" s="1" t="s">
         <v>958</v>
       </c>
@@ -12894,7 +13049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="43.5" hidden="1">
+    <row r="553" spans="1:4" ht="43.5">
       <c r="A553" s="1" t="s">
         <v>960</v>
       </c>
@@ -12908,7 +13063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="43.5" hidden="1">
+    <row r="554" spans="1:4" ht="43.5">
       <c r="A554" s="1" t="s">
         <v>962</v>
       </c>
@@ -12922,7 +13077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="43.5" hidden="1">
+    <row r="555" spans="1:4" ht="43.5">
       <c r="A555" s="1" t="s">
         <v>963</v>
       </c>
@@ -12936,7 +13091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="43.5" hidden="1">
+    <row r="556" spans="1:4" ht="43.5">
       <c r="A556" s="1" t="s">
         <v>964</v>
       </c>
@@ -12950,7 +13105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="43.5" hidden="1">
+    <row r="557" spans="1:4" ht="43.5">
       <c r="A557" s="1" t="s">
         <v>965</v>
       </c>
@@ -12964,7 +13119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="43.5" hidden="1">
+    <row r="558" spans="1:4" ht="43.5">
       <c r="A558" s="1" t="s">
         <v>966</v>
       </c>
@@ -12978,7 +13133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="43.5" hidden="1">
+    <row r="559" spans="1:4" ht="43.5">
       <c r="A559" s="1" t="s">
         <v>968</v>
       </c>
@@ -12992,7 +13147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="43.5" hidden="1">
+    <row r="560" spans="1:4" ht="43.5">
       <c r="A560" s="1" t="s">
         <v>969</v>
       </c>
@@ -13006,7 +13161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="43.5" hidden="1">
+    <row r="561" spans="1:4" ht="43.5">
       <c r="A561" s="1" t="s">
         <v>971</v>
       </c>
@@ -13020,7 +13175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="43.5" hidden="1">
+    <row r="562" spans="1:4" ht="43.5">
       <c r="A562" s="1" t="s">
         <v>972</v>
       </c>
@@ -13034,7 +13189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="43.5" hidden="1">
+    <row r="563" spans="1:4" ht="43.5">
       <c r="A563" s="1" t="s">
         <v>974</v>
       </c>
@@ -13048,7 +13203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="43.5" hidden="1">
+    <row r="564" spans="1:4" ht="43.5">
       <c r="A564" s="1" t="s">
         <v>975</v>
       </c>
@@ -13076,7 +13231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1">
+    <row r="566" spans="1:4">
       <c r="A566" s="1" t="s">
         <v>978</v>
       </c>
@@ -13090,7 +13245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1">
+    <row r="567" spans="1:4">
       <c r="A567" s="1" t="s">
         <v>980</v>
       </c>
@@ -13104,7 +13259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1">
+    <row r="568" spans="1:4">
       <c r="A568" s="1" t="s">
         <v>982</v>
       </c>
@@ -13118,7 +13273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="116" hidden="1">
+    <row r="569" spans="1:4" ht="87">
       <c r="A569" s="1" t="s">
         <v>984</v>
       </c>
@@ -13132,7 +13287,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="14.5" hidden="1" customHeight="1">
+    <row r="570" spans="1:4" ht="14.5" customHeight="1">
       <c r="A570" s="1" t="s">
         <v>986</v>
       </c>
@@ -13146,7 +13301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="203" hidden="1" customHeight="1">
+    <row r="571" spans="1:4" ht="203" customHeight="1">
       <c r="A571" s="1" t="s">
         <v>987</v>
       </c>
@@ -13160,7 +13315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1">
+    <row r="572" spans="1:4">
       <c r="A572" s="1" t="s">
         <v>988</v>
       </c>
@@ -13174,7 +13329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1">
+    <row r="573" spans="1:4">
       <c r="A573" s="1" t="s">
         <v>990</v>
       </c>
@@ -13188,7 +13343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1">
+    <row r="574" spans="1:4">
       <c r="A574" s="1" t="s">
         <v>992</v>
       </c>
@@ -13202,7 +13357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1">
+    <row r="575" spans="1:4">
       <c r="A575" s="1" t="s">
         <v>995</v>
       </c>
@@ -13216,7 +13371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1">
+    <row r="576" spans="1:4">
       <c r="A576" s="1" t="s">
         <v>996</v>
       </c>
@@ -13230,7 +13385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1">
+    <row r="577" spans="1:4">
       <c r="A577" s="1" t="s">
         <v>999</v>
       </c>
@@ -13244,7 +13399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1">
+    <row r="578" spans="1:4">
       <c r="A578" s="1" t="s">
         <v>1000</v>
       </c>
@@ -13258,7 +13413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1">
+    <row r="579" spans="1:4">
       <c r="A579" s="1" t="s">
         <v>1002</v>
       </c>
@@ -13272,7 +13427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1">
+    <row r="580" spans="1:4">
       <c r="A580" s="1" t="s">
         <v>1003</v>
       </c>
@@ -13286,7 +13441,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1">
+    <row r="581" spans="1:4">
       <c r="A581" s="1" t="s">
         <v>1005</v>
       </c>
@@ -13300,7 +13455,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1">
+    <row r="582" spans="1:4">
       <c r="A582" s="1" t="s">
         <v>1007</v>
       </c>
@@ -13314,7 +13469,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1">
+    <row r="583" spans="1:4">
       <c r="A583" s="1" t="s">
         <v>1009</v>
       </c>
@@ -13328,7 +13483,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1">
+    <row r="584" spans="1:4">
       <c r="A584" s="1" t="s">
         <v>1014</v>
       </c>
@@ -13342,7 +13497,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1">
+    <row r="585" spans="1:4">
       <c r="A585" s="1" t="s">
         <v>1016</v>
       </c>
@@ -13356,7 +13511,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1">
+    <row r="586" spans="1:4">
       <c r="A586" s="1" t="s">
         <v>1018</v>
       </c>
@@ -13370,7 +13525,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1">
+    <row r="587" spans="1:4">
       <c r="A587" s="1" t="s">
         <v>1020</v>
       </c>
@@ -13384,7 +13539,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1">
+    <row r="588" spans="1:4">
       <c r="A588" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13398,7 +13553,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1">
+    <row r="589" spans="1:4">
       <c r="A589" s="1" t="s">
         <v>1024</v>
       </c>
@@ -13412,7 +13567,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1">
+    <row r="590" spans="1:4">
       <c r="A590" s="1" t="s">
         <v>1026</v>
       </c>
@@ -13426,7 +13581,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1">
+    <row r="591" spans="1:4">
       <c r="A591" s="1" t="s">
         <v>1028</v>
       </c>
@@ -13440,7 +13595,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1">
+    <row r="592" spans="1:4">
       <c r="A592" s="1" t="s">
         <v>1030</v>
       </c>
@@ -13454,7 +13609,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1">
+    <row r="593" spans="1:4">
       <c r="A593" s="1" t="s">
         <v>1032</v>
       </c>
@@ -13468,7 +13623,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1">
+    <row r="594" spans="1:4">
       <c r="A594" s="1" t="s">
         <v>1034</v>
       </c>
@@ -13482,7 +13637,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1">
+    <row r="595" spans="1:4">
       <c r="A595" s="1" t="s">
         <v>1036</v>
       </c>
@@ -13496,7 +13651,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1">
+    <row r="596" spans="1:4">
       <c r="A596" s="1" t="s">
         <v>1039</v>
       </c>
@@ -13510,7 +13665,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1">
+    <row r="597" spans="1:4">
       <c r="A597" s="1" t="s">
         <v>1041</v>
       </c>
@@ -13524,7 +13679,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1">
+    <row r="598" spans="1:4">
       <c r="A598" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13538,7 +13693,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1">
+    <row r="599" spans="1:4">
       <c r="A599" s="1" t="s">
         <v>1045</v>
       </c>
@@ -13552,7 +13707,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1">
+    <row r="600" spans="1:4">
       <c r="A600" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13566,7 +13721,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1">
+    <row r="601" spans="1:4">
       <c r="A601" s="1" t="s">
         <v>1049</v>
       </c>
@@ -13580,7 +13735,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1">
+    <row r="602" spans="1:4">
       <c r="A602" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13594,7 +13749,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1">
+    <row r="603" spans="1:4">
       <c r="A603" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13608,7 +13763,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1">
+    <row r="604" spans="1:4">
       <c r="A604" s="1" t="s">
         <v>1055</v>
       </c>
@@ -13622,7 +13777,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1">
+    <row r="605" spans="1:4">
       <c r="A605" s="1" t="s">
         <v>1057</v>
       </c>
@@ -13636,7 +13791,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1">
+    <row r="606" spans="1:4">
       <c r="A606" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13650,7 +13805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1">
+    <row r="607" spans="1:4">
       <c r="A607" s="1" t="s">
         <v>1062</v>
       </c>
@@ -13664,7 +13819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1">
+    <row r="608" spans="1:4">
       <c r="A608" s="1" t="s">
         <v>1064</v>
       </c>
@@ -13678,7 +13833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1">
+    <row r="609" spans="1:4">
       <c r="A609" s="1" t="s">
         <v>1065</v>
       </c>
@@ -13692,7 +13847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1">
+    <row r="610" spans="1:4">
       <c r="A610" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13706,7 +13861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1">
+    <row r="611" spans="1:4">
       <c r="A611" s="1" t="s">
         <v>1068</v>
       </c>
@@ -13720,7 +13875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1">
+    <row r="612" spans="1:4">
       <c r="A612" s="1" t="s">
         <v>1071</v>
       </c>
@@ -13734,7 +13889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1">
+    <row r="613" spans="1:4">
       <c r="A613" s="1" t="s">
         <v>1076</v>
       </c>
@@ -13748,7 +13903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1">
+    <row r="614" spans="1:4">
       <c r="A614" s="1" t="s">
         <v>1077</v>
       </c>
@@ -13762,7 +13917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1">
+    <row r="615" spans="1:4">
       <c r="A615" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13776,7 +13931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1">
+    <row r="616" spans="1:4">
       <c r="A616" s="1" t="s">
         <v>1081</v>
       </c>
@@ -13790,7 +13945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1">
+    <row r="617" spans="1:4">
       <c r="A617" s="1" t="s">
         <v>1083</v>
       </c>
@@ -13804,7 +13959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1">
+    <row r="618" spans="1:4">
       <c r="A618" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13818,7 +13973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1">
+    <row r="619" spans="1:4">
       <c r="A619" s="1" t="s">
         <v>1087</v>
       </c>
@@ -13832,7 +13987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1">
+    <row r="620" spans="1:4">
       <c r="A620" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13846,7 +14001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1">
+    <row r="621" spans="1:4">
       <c r="A621" s="1" t="s">
         <v>1091</v>
       </c>
@@ -13860,7 +14015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1">
+    <row r="622" spans="1:4">
       <c r="A622" s="1" t="s">
         <v>1092</v>
       </c>
@@ -13874,7 +14029,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1">
+    <row r="623" spans="1:4">
       <c r="A623" s="1" t="s">
         <v>1094</v>
       </c>
@@ -13888,7 +14043,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1">
+    <row r="624" spans="1:4">
       <c r="A624" s="1" t="s">
         <v>1096</v>
       </c>
@@ -13902,7 +14057,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1">
+    <row r="625" spans="1:4">
       <c r="A625" s="1" t="s">
         <v>1098</v>
       </c>
@@ -13916,7 +14071,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1">
+    <row r="626" spans="1:4">
       <c r="A626" s="1" t="s">
         <v>1099</v>
       </c>
@@ -13930,7 +14085,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1">
+    <row r="627" spans="1:4">
       <c r="A627" s="1" t="s">
         <v>1100</v>
       </c>
@@ -13944,7 +14099,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1">
+    <row r="628" spans="1:4">
       <c r="A628" s="1" t="s">
         <v>1102</v>
       </c>
@@ -13958,7 +14113,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1">
+    <row r="629" spans="1:4">
       <c r="A629" s="1" t="s">
         <v>1104</v>
       </c>
@@ -13972,7 +14127,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1">
+    <row r="630" spans="1:4">
       <c r="A630" s="1" t="s">
         <v>1105</v>
       </c>
@@ -13986,7 +14141,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1">
+    <row r="631" spans="1:4">
       <c r="A631" s="1" t="s">
         <v>1107</v>
       </c>
@@ -14000,7 +14155,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1">
+    <row r="632" spans="1:4">
       <c r="A632" s="1" t="s">
         <v>1109</v>
       </c>
@@ -14014,7 +14169,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1">
+    <row r="633" spans="1:4">
       <c r="A633" s="1" t="s">
         <v>1111</v>
       </c>
@@ -14028,7 +14183,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1">
+    <row r="634" spans="1:4">
       <c r="A634" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14042,7 +14197,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1">
+    <row r="635" spans="1:4">
       <c r="A635" s="1" t="s">
         <v>1115</v>
       </c>
@@ -14056,7 +14211,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1">
+    <row r="636" spans="1:4">
       <c r="A636" s="1" t="s">
         <v>1116</v>
       </c>
@@ -14070,7 +14225,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1">
+    <row r="637" spans="1:4">
       <c r="A637" s="1" t="s">
         <v>274</v>
       </c>
@@ -14084,7 +14239,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1">
+    <row r="638" spans="1:4">
       <c r="A638" s="1" t="s">
         <v>1118</v>
       </c>
@@ -14098,7 +14253,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1">
+    <row r="639" spans="1:4">
       <c r="A639" s="1" t="s">
         <v>1119</v>
       </c>
@@ -14112,7 +14267,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1">
+    <row r="640" spans="1:4">
       <c r="A640" s="1" t="s">
         <v>1120</v>
       </c>
@@ -14126,7 +14281,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1">
+    <row r="641" spans="1:4">
       <c r="A641" s="1" t="s">
         <v>1121</v>
       </c>
@@ -14140,7 +14295,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1">
+    <row r="642" spans="1:4">
       <c r="A642" s="1" t="s">
         <v>1123</v>
       </c>
@@ -14154,7 +14309,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1">
+    <row r="643" spans="1:4">
       <c r="A643" s="1" t="s">
         <v>1124</v>
       </c>
@@ -14168,7 +14323,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1">
+    <row r="644" spans="1:4">
       <c r="A644" s="1" t="s">
         <v>1126</v>
       </c>
@@ -14182,7 +14337,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1">
+    <row r="645" spans="1:4">
       <c r="A645" s="1" t="s">
         <v>1130</v>
       </c>
@@ -14196,7 +14351,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1">
+    <row r="646" spans="1:4">
       <c r="A646" s="1" t="s">
         <v>1132</v>
       </c>
@@ -14210,7 +14365,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1">
+    <row r="647" spans="1:4">
       <c r="A647" s="1" t="s">
         <v>1134</v>
       </c>
@@ -14224,7 +14379,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1">
+    <row r="648" spans="1:4">
       <c r="A648" s="1" t="s">
         <v>1136</v>
       </c>
@@ -14238,7 +14393,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1">
+    <row r="649" spans="1:4">
       <c r="A649" s="1" t="s">
         <v>1138</v>
       </c>
@@ -14252,7 +14407,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1">
+    <row r="650" spans="1:4">
       <c r="A650" s="1" t="s">
         <v>1140</v>
       </c>
@@ -14266,7 +14421,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1">
+    <row r="651" spans="1:4">
       <c r="A651" s="1" t="s">
         <v>1142</v>
       </c>
@@ -14280,7 +14435,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1">
+    <row r="652" spans="1:4">
       <c r="A652" s="1" t="s">
         <v>1144</v>
       </c>
@@ -14294,7 +14449,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1">
+    <row r="653" spans="1:4">
       <c r="A653" s="1" t="s">
         <v>1145</v>
       </c>
@@ -14308,7 +14463,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1">
+    <row r="654" spans="1:4">
       <c r="A654" s="30" t="s">
         <v>1147</v>
       </c>
@@ -14322,7 +14477,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1">
+    <row r="655" spans="1:4">
       <c r="A655" s="1" t="s">
         <v>1149</v>
       </c>
@@ -14336,7 +14491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1">
+    <row r="656" spans="1:4">
       <c r="A656" s="1" t="s">
         <v>1151</v>
       </c>
@@ -14350,7 +14505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1">
+    <row r="657" spans="1:4">
       <c r="A657" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14364,7 +14519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1">
+    <row r="658" spans="1:4">
       <c r="A658" s="1" t="s">
         <v>1155</v>
       </c>
@@ -14378,7 +14533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="101.5" hidden="1">
+    <row r="659" spans="1:4" ht="72.5">
       <c r="A659" s="1" t="s">
         <v>1156</v>
       </c>
@@ -14392,7 +14547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1">
+    <row r="660" spans="1:4">
       <c r="A660" s="1" t="s">
         <v>1156</v>
       </c>
@@ -14406,7 +14561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1">
+    <row r="661" spans="1:4">
       <c r="A661" s="1" t="s">
         <v>1159</v>
       </c>
@@ -14420,7 +14575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1">
+    <row r="662" spans="1:4">
       <c r="A662" s="1" t="s">
         <v>1160</v>
       </c>
@@ -14434,7 +14589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1">
+    <row r="663" spans="1:4">
       <c r="A663" s="1" t="s">
         <v>1161</v>
       </c>
@@ -14448,7 +14603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1">
+    <row r="664" spans="1:4">
       <c r="A664" s="1" t="s">
         <v>1162</v>
       </c>
@@ -14462,7 +14617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1">
+    <row r="665" spans="1:4">
       <c r="A665" s="1" t="s">
         <v>1163</v>
       </c>
@@ -14476,7 +14631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1">
+    <row r="666" spans="1:4">
       <c r="A666" s="1" t="s">
         <v>1163</v>
       </c>
@@ -14490,7 +14645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1">
+    <row r="667" spans="1:4">
       <c r="A667" s="1" t="s">
         <v>1164</v>
       </c>
@@ -14504,7 +14659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1">
+    <row r="668" spans="1:4">
       <c r="A668" s="1" t="s">
         <v>1165</v>
       </c>
@@ -14518,7 +14673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1">
+    <row r="669" spans="1:4">
       <c r="A669" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14532,7 +14687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1">
+    <row r="670" spans="1:4">
       <c r="A670" s="1" t="s">
         <v>1167</v>
       </c>
@@ -14546,7 +14701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1">
+    <row r="671" spans="1:4">
       <c r="A671" s="1" t="s">
         <v>1168</v>
       </c>
@@ -14560,7 +14715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1">
+    <row r="672" spans="1:4">
       <c r="A672" s="1" t="s">
         <v>1169</v>
       </c>
@@ -14574,7 +14729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1">
+    <row r="673" spans="1:4">
       <c r="A673" s="1" t="s">
         <v>1170</v>
       </c>
@@ -14588,7 +14743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1">
+    <row r="674" spans="1:4">
       <c r="A674" s="1" t="s">
         <v>1171</v>
       </c>
@@ -14602,7 +14757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1">
+    <row r="675" spans="1:4">
       <c r="A675" s="1" t="s">
         <v>1182</v>
       </c>
@@ -14616,7 +14771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1">
+    <row r="676" spans="1:4">
       <c r="A676" s="1" t="s">
         <v>1183</v>
       </c>
@@ -14630,7 +14785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1">
+    <row r="677" spans="1:4">
       <c r="A677" s="1" t="s">
         <v>1184</v>
       </c>
@@ -14644,7 +14799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1">
+    <row r="678" spans="1:4">
       <c r="A678" s="1" t="s">
         <v>1186</v>
       </c>
@@ -14658,7 +14813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1">
+    <row r="679" spans="1:4">
       <c r="A679" s="1" t="s">
         <v>1188</v>
       </c>
@@ -14672,7 +14827,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1">
+    <row r="680" spans="1:4">
       <c r="A680" s="1" t="s">
         <v>1190</v>
       </c>
@@ -14686,7 +14841,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1">
+    <row r="681" spans="1:4">
       <c r="A681" s="1" t="s">
         <v>1194</v>
       </c>
@@ -14700,7 +14855,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1">
+    <row r="682" spans="1:4">
       <c r="A682" s="1" t="s">
         <v>1193</v>
       </c>
@@ -14714,7 +14869,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1">
+    <row r="683" spans="1:4">
       <c r="A683" s="1" t="s">
         <v>1195</v>
       </c>
@@ -14728,7 +14883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1">
+    <row r="684" spans="1:4">
       <c r="A684" s="1" t="s">
         <v>1197</v>
       </c>
@@ -14742,7 +14897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1">
+    <row r="685" spans="1:4">
       <c r="A685" s="1" t="s">
         <v>1199</v>
       </c>
@@ -14756,7 +14911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1">
+    <row r="686" spans="1:4">
       <c r="A686" s="1" t="s">
         <v>1201</v>
       </c>
@@ -14770,7 +14925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1">
+    <row r="687" spans="1:4">
       <c r="A687" s="1" t="s">
         <v>1203</v>
       </c>
@@ -14784,7 +14939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1">
+    <row r="688" spans="1:4">
       <c r="A688" s="1" t="s">
         <v>1205</v>
       </c>
@@ -14798,7 +14953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1">
+    <row r="689" spans="1:4">
       <c r="A689" s="1" t="s">
         <v>1207</v>
       </c>
@@ -14812,7 +14967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1">
+    <row r="690" spans="1:4">
       <c r="A690" s="1" t="s">
         <v>1209</v>
       </c>
@@ -14826,7 +14981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1">
+    <row r="691" spans="1:4">
       <c r="A691" s="1" t="s">
         <v>1211</v>
       </c>
@@ -14840,7 +14995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1">
+    <row r="692" spans="1:4">
       <c r="A692" s="1" t="s">
         <v>1213</v>
       </c>
@@ -14854,7 +15009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1">
+    <row r="693" spans="1:4">
       <c r="A693" s="1" t="s">
         <v>1215</v>
       </c>
@@ -14868,7 +15023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1">
+    <row r="694" spans="1:4">
       <c r="A694" s="1" t="s">
         <v>1217</v>
       </c>
@@ -14882,7 +15037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1">
+    <row r="695" spans="1:4">
       <c r="A695" s="1" t="s">
         <v>1219</v>
       </c>
@@ -14896,7 +15051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1">
+    <row r="696" spans="1:4">
       <c r="A696" s="1" t="s">
         <v>1221</v>
       </c>
@@ -14910,7 +15065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1">
+    <row r="697" spans="1:4">
       <c r="A697" s="1" t="s">
         <v>1223</v>
       </c>
@@ -14924,7 +15079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1">
+    <row r="698" spans="1:4">
       <c r="A698" s="1" t="s">
         <v>1226</v>
       </c>
@@ -14938,7 +15093,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1">
+    <row r="699" spans="1:4">
       <c r="A699" s="1" t="s">
         <v>1229</v>
       </c>
@@ -14952,7 +15107,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1">
+    <row r="700" spans="1:4">
       <c r="A700" s="1" t="s">
         <v>1230</v>
       </c>
@@ -14966,7 +15121,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1">
+    <row r="701" spans="1:4">
       <c r="A701" s="1" t="s">
         <v>1231</v>
       </c>
@@ -14980,7 +15135,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1">
+    <row r="702" spans="1:4">
       <c r="A702" s="1" t="s">
         <v>1233</v>
       </c>
@@ -14994,7 +15149,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1">
+    <row r="703" spans="1:4">
       <c r="A703" s="1" t="s">
         <v>1235</v>
       </c>
@@ -15008,7 +15163,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1">
+    <row r="704" spans="1:4">
       <c r="A704" s="1" t="s">
         <v>1237</v>
       </c>
@@ -15022,7 +15177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1">
+    <row r="705" spans="1:4">
       <c r="A705" s="1" t="s">
         <v>1241</v>
       </c>
@@ -15036,7 +15191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1">
+    <row r="706" spans="1:4">
       <c r="A706" s="1" t="s">
         <v>1242</v>
       </c>
@@ -15050,7 +15205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1">
+    <row r="707" spans="1:4">
       <c r="A707" s="1" t="s">
         <v>1240</v>
       </c>
@@ -15064,7 +15219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1">
+    <row r="708" spans="1:4">
       <c r="A708" s="1" t="s">
         <v>1244</v>
       </c>
@@ -15078,7 +15233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1">
+    <row r="709" spans="1:4">
       <c r="A709" s="1" t="s">
         <v>1246</v>
       </c>
@@ -15092,7 +15247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1">
+    <row r="710" spans="1:4">
       <c r="A710" s="1" t="s">
         <v>1247</v>
       </c>
@@ -15106,7 +15261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="43.5" hidden="1">
+    <row r="711" spans="1:4" ht="43.5">
       <c r="A711" s="1" t="s">
         <v>1250</v>
       </c>
@@ -15120,7 +15275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="43.5" hidden="1">
+    <row r="712" spans="1:4" ht="43.5">
       <c r="A712" s="1" t="s">
         <v>1251</v>
       </c>
@@ -15134,7 +15289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="43.5" hidden="1">
+    <row r="713" spans="1:4" ht="43.5">
       <c r="A713" s="1" t="s">
         <v>1254</v>
       </c>
@@ -15148,7 +15303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="43.5" hidden="1">
+    <row r="714" spans="1:4" ht="43.5">
       <c r="A714" s="1" t="s">
         <v>1255</v>
       </c>
@@ -15162,7 +15317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1">
+    <row r="715" spans="1:4">
       <c r="A715" s="1" t="s">
         <v>1257</v>
       </c>
@@ -15176,7 +15331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1">
+    <row r="716" spans="1:4">
       <c r="A716" s="1" t="s">
         <v>1258</v>
       </c>
@@ -15190,7 +15345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1">
+    <row r="717" spans="1:4">
       <c r="A717" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15204,7 +15359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1">
+    <row r="718" spans="1:4">
       <c r="A718" s="1" t="s">
         <v>1263</v>
       </c>
@@ -15218,7 +15373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1">
+    <row r="719" spans="1:4">
       <c r="A719" s="1" t="s">
         <v>1265</v>
       </c>
@@ -15232,7 +15387,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1">
+    <row r="720" spans="1:4">
       <c r="A720" s="1" t="s">
         <v>1266</v>
       </c>
@@ -15246,7 +15401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1">
+    <row r="721" spans="1:4">
       <c r="A721" s="1" t="s">
         <v>1268</v>
       </c>
@@ -15260,7 +15415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1">
+    <row r="722" spans="1:4">
       <c r="A722" s="1" t="s">
         <v>1270</v>
       </c>
@@ -15274,7 +15429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1">
+    <row r="723" spans="1:4">
       <c r="A723" s="1" t="s">
         <v>1273</v>
       </c>
@@ -15288,7 +15443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1">
+    <row r="724" spans="1:4">
       <c r="A724" s="1" t="s">
         <v>1275</v>
       </c>
@@ -15302,7 +15457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1">
+    <row r="725" spans="1:4">
       <c r="A725" s="1" t="s">
         <v>1277</v>
       </c>
@@ -15316,7 +15471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1">
+    <row r="726" spans="1:4">
       <c r="A726" s="1" t="s">
         <v>1279</v>
       </c>
@@ -15330,7 +15485,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1">
+    <row r="727" spans="1:4">
       <c r="A727" s="1" t="s">
         <v>1283</v>
       </c>
@@ -15344,7 +15499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1">
+    <row r="728" spans="1:4">
       <c r="A728" s="1" t="s">
         <v>1284</v>
       </c>
@@ -15358,7 +15513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1">
+    <row r="729" spans="1:4">
       <c r="A729" s="1" t="s">
         <v>1285</v>
       </c>
@@ -15372,7 +15527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1">
+    <row r="730" spans="1:4">
       <c r="A730" s="1" t="s">
         <v>1286</v>
       </c>
@@ -15386,7 +15541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1">
+    <row r="731" spans="1:4">
       <c r="A731" s="1" t="s">
         <v>1281</v>
       </c>
@@ -15400,7 +15555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1">
+    <row r="732" spans="1:4">
       <c r="A732" s="1" t="s">
         <v>1287</v>
       </c>
@@ -15414,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1">
+    <row r="733" spans="1:4">
       <c r="A733" s="1" t="s">
         <v>1289</v>
       </c>
@@ -15471,116 +15626,396 @@
       </c>
     </row>
     <row r="737" spans="1:4">
-      <c r="A737" s="1"/>
-      <c r="D737" s="1"/>
+      <c r="A737" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="738" spans="1:4">
-      <c r="A738" s="1"/>
-      <c r="D738" s="1"/>
+      <c r="A738" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="739" spans="1:4">
-      <c r="A739" s="1"/>
-      <c r="D739" s="1"/>
+      <c r="A739" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="740" spans="1:4">
-      <c r="A740" s="1"/>
-      <c r="D740" s="1"/>
+      <c r="A740" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="741" spans="1:4">
-      <c r="A741" s="1"/>
-      <c r="D741" s="1"/>
+      <c r="A741" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="742" spans="1:4">
-      <c r="A742" s="1"/>
-      <c r="D742" s="1"/>
+      <c r="A742" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B742" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="743" spans="1:4">
-      <c r="A743" s="1"/>
-      <c r="D743" s="1"/>
+      <c r="A743" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="744" spans="1:4">
-      <c r="A744" s="1"/>
-      <c r="D744" s="1"/>
-    </row>
-    <row r="745" spans="1:4">
-      <c r="A745" s="1"/>
-      <c r="D745" s="1"/>
+      <c r="A744" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="43.5">
+      <c r="A745" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B745" s="18" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="746" spans="1:4">
-      <c r="A746" s="1"/>
-      <c r="D746" s="1"/>
+      <c r="A746" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B746" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="747" spans="1:4">
-      <c r="A747" s="1"/>
-      <c r="D747" s="1"/>
+      <c r="A747" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="748" spans="1:4">
-      <c r="A748" s="1"/>
-      <c r="D748" s="1"/>
+      <c r="A748" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="1"/>
-      <c r="D749" s="1"/>
+      <c r="A749" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="750" spans="1:4">
-      <c r="A750" s="1"/>
-      <c r="D750" s="1"/>
+      <c r="A750" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="751" spans="1:4">
-      <c r="A751" s="1"/>
-      <c r="D751" s="1"/>
+      <c r="A751" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="752" spans="1:4">
-      <c r="A752" s="1"/>
-      <c r="D752" s="1"/>
+      <c r="A752" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="753" spans="1:4">
-      <c r="A753" s="1"/>
-      <c r="D753" s="1"/>
+      <c r="A753" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="754" spans="1:4">
-      <c r="A754" s="1"/>
-      <c r="D754" s="1"/>
+      <c r="A754" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="1"/>
-      <c r="D755" s="1"/>
+      <c r="A755" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="756" spans="1:4">
-      <c r="A756" s="1"/>
-      <c r="D756" s="1"/>
-    </row>
-    <row r="757" spans="1:4">
-      <c r="A757" s="1"/>
-      <c r="D757" s="1"/>
+      <c r="A756" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="58">
+      <c r="A757" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B757" s="17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="758" spans="1:4">
-      <c r="A758" s="1"/>
-      <c r="D758" s="1"/>
+      <c r="A758" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B758" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="759" spans="1:4">
-      <c r="A759" s="1"/>
-      <c r="D759" s="1"/>
+      <c r="A759" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B759" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="1"/>
-      <c r="D760" s="1"/>
+      <c r="A760" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B760" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="761" spans="1:4">
-      <c r="A761" s="1"/>
-      <c r="D761" s="1"/>
+      <c r="A761" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B761" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="762" spans="1:4">
-      <c r="A762" s="1"/>
-      <c r="D762" s="1"/>
+      <c r="A762" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B762" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="763" spans="1:4">
-      <c r="A763" s="1"/>
-      <c r="D763" s="1"/>
+      <c r="A763" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="764" spans="1:4">
-      <c r="A764" s="1"/>
-      <c r="D764" s="1"/>
+      <c r="A764" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B764" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="1"/>
@@ -52519,24 +52954,7 @@
       <c r="D9998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H733" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FRA KPI Tableau"/>
-        <filter val="Global KPI"/>
-        <filter val="KPI"/>
-        <filter val="KPI Action Tracker"/>
-        <filter val="KPI Dashboard"/>
-        <filter val="KPI Slides Updates"/>
-        <filter val="KPI Tableau"/>
-        <filter val="POT KPI calculation"/>
-        <filter val="T&amp;E KPI Dashboard"/>
-        <filter val="TnE KPI"/>
-        <filter val="TnE KPI Dashboard"/>
-        <filter val="TnE KPI Monitoring"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H762" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="H2:H11"/>
   </mergeCells>
@@ -52598,494 +53016,503 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D613 D617:D1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D613 D617:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$2:$F$11</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B67" r:id="rId35" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85%E8%B2%BB%E7%AD%89%E3%81%AE%E6%8F%90%E4%BE%9B%E4%B8%80%E8%A6%A7-%20%2020200801_final.pdf&amp;parent=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B99" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B100" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B101" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B102" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B103" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B104" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B105" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B106" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B107" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B108" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B109" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B111" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B112" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B114" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B115" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B116" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B117" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B118" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B119" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B120" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="B121" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B122" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FAlcon%20Japan%20How%20to%20use%20expense%5F202101%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVI" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B113" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B123" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="B124" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="B125" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="B126" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="B127" r:id="rId68" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="B128" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="B110" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="B129" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="B130" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="B131" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="B132" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="B133" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="B134" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="B135" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B136" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="B137" r:id="rId79" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="B138" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="B139" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="B140" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="B141" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="B142" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="B143" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="A146" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="B147" r:id="rId87" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FVIM%2DVendor%20Invoice%20Management%20Upgrade%20May2021%5FRequester%20Approver%5FJapanese%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="B148" r:id="rId88" display="https://alcon365.sharepoint.com/:p:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B89D9BB48-49C8-4BC1-858C-0C99012AEC46%7D&amp;file=1-4-2.PO%E3%82%AD%E3%83%A3%E3%83%B3%E3%82%BB%E3%83%AB%E3%83%BB%E5%8F%96%E6%B6%88.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=93fd10e8-d2e3-48d6-8ad0-5cc94dc56304" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="B149" r:id="rId89" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="B158" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="B161" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="B162" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="B168" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="B169" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="B170" r:id="rId95" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="B171" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="B179" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="B181" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="B5" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="B6" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="B7" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="B23" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="B182" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="B183" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="B184" r:id="rId105" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7B887C2330-A6E8-46B5-ACBA-F676866AD2D3%7D&amp;file=SRM%EF%BE%80%EF%BE%9E%EF%BD%B3%EF%BE%9D%EF%BE%8D%EF%BE%9F%EF%BD%B2%EF%BE%92%EF%BE%9D%EF%BE%84%EF%BE%98%EF%BD%B8%EF%BD%B4%EF%BD%BD%EF%BE%84_ver3.xlsx&amp;action=default&amp;mobileredirect=true" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="B185" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="B186" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="B187" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="B188" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="B189" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="B190" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B191" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="B192" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="B193" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="B194" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="B197" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="B198" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="B199" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="B201" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="B202" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="B203" r:id="rId121" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
-    <hyperlink ref="B204" r:id="rId122" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
-    <hyperlink ref="B205" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
-    <hyperlink ref="B206" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
-    <hyperlink ref="B207" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
-    <hyperlink ref="B208" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="B209" r:id="rId127" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="B210" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="B240" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="B241" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="B242" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="B243" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="B246" r:id="rId133" location="a-02" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="B247" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="B259" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="B264" r:id="rId136" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="B265" r:id="rId137" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="B266" r:id="rId138" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="B267" r:id="rId139" tooltip="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6.%20AGS%20%E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" display="https://alcon365.sharepoint.com/:b:/r/sites/InSight/282DocLib/SRM%E3%83%BBSIM/SRM/6. AGS %E3%83%9E%E3%83%8B%E3%83%A5%E3%82%A2%E3%83%AB/2-1_GR%E3%81%A8%E5%8F%96%E6%B6%88.pdf?csf=1&amp;web=1&amp;e=0ukLww" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
-    <hyperlink ref="B274" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
-    <hyperlink ref="B275" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
-    <hyperlink ref="B276" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
-    <hyperlink ref="B277" r:id="rId143" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
-    <hyperlink ref="B278" r:id="rId144" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
-    <hyperlink ref="B280" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
-    <hyperlink ref="B281" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
-    <hyperlink ref="B282" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
-    <hyperlink ref="B283" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
-    <hyperlink ref="B284" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
-    <hyperlink ref="B285" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
-    <hyperlink ref="B286" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
-    <hyperlink ref="B287" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
-    <hyperlink ref="B288" r:id="rId153" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
-    <hyperlink ref="B289" r:id="rId154" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
-    <hyperlink ref="B290" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
-    <hyperlink ref="B291" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
-    <hyperlink ref="B292" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
-    <hyperlink ref="B293" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
-    <hyperlink ref="B294" r:id="rId159" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
-    <hyperlink ref="B295" r:id="rId160" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
-    <hyperlink ref="B296" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
-    <hyperlink ref="B297" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
-    <hyperlink ref="B298" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
-    <hyperlink ref="B299" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
-    <hyperlink ref="B300" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
-    <hyperlink ref="B301" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
-    <hyperlink ref="B302" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
-    <hyperlink ref="B303" r:id="rId168" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2F%E3%82%B0%E3%83%AD%E3%83%BC%E3%83%90%E3%83%AB%E7%89%88%E3%80%80%E3%82%A8%E3%83%B3%E3%83%89%E3%83%A6%E3%83%BC%E3%82%B6%E3%83%BCFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
-    <hyperlink ref="B304" r:id="rId169" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%5FEnd%5FUser%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
-    <hyperlink ref="B305" r:id="rId170" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FJA%5FGlobal%20TE%20policy%5FFAQ%2DR%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
-    <hyperlink ref="B306" r:id="rId171" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2FGlobal%20TE%20policy%5FFAQ%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
-    <hyperlink ref="B307" r:id="rId172" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FConcur%E3%83%A2%E3%83%90%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%97%E3%83%AA%E3%83%87%E3%83%A2%2Ewebex&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides&amp;p=14" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
-    <hyperlink ref="B308" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
-    <hyperlink ref="B309" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
-    <hyperlink ref="B310" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
-    <hyperlink ref="B311" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
-    <hyperlink ref="B312" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
-    <hyperlink ref="B313" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
-    <hyperlink ref="B314" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
-    <hyperlink ref="B315" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
-    <hyperlink ref="B316" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
-    <hyperlink ref="B317" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
-    <hyperlink ref="B318" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
-    <hyperlink ref="B319" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
-    <hyperlink ref="B320" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
-    <hyperlink ref="B321" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
-    <hyperlink ref="B322" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
-    <hyperlink ref="B323" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
-    <hyperlink ref="B324" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
-    <hyperlink ref="B325" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
-    <hyperlink ref="B326" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
-    <hyperlink ref="B327" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
-    <hyperlink ref="B328" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
-    <hyperlink ref="B329" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
-    <hyperlink ref="B330" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
-    <hyperlink ref="B331" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
-    <hyperlink ref="B332" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
-    <hyperlink ref="B333" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
-    <hyperlink ref="B334" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
-    <hyperlink ref="B335" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
-    <hyperlink ref="B336" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
-    <hyperlink ref="B338" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
-    <hyperlink ref="B339" r:id="rId203" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
-    <hyperlink ref="B340" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
-    <hyperlink ref="B343" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
-    <hyperlink ref="B344" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
-    <hyperlink ref="B345" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
-    <hyperlink ref="B346" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
-    <hyperlink ref="B347" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
-    <hyperlink ref="B348" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
-    <hyperlink ref="B349" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
-    <hyperlink ref="B350" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
-    <hyperlink ref="B351" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
-    <hyperlink ref="B352" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
-    <hyperlink ref="B353" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
-    <hyperlink ref="B355" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
-    <hyperlink ref="B356" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
-    <hyperlink ref="B357" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
-    <hyperlink ref="B358" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
-    <hyperlink ref="B359" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
-    <hyperlink ref="B360" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
-    <hyperlink ref="B361" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
-    <hyperlink ref="B362" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
-    <hyperlink ref="B363" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
-    <hyperlink ref="B364" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
-    <hyperlink ref="B365" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
-    <hyperlink ref="B366" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
-    <hyperlink ref="B367" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
-    <hyperlink ref="B368" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
-    <hyperlink ref="B369" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
-    <hyperlink ref="B370:B371" r:id="rId231" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\Withholding Tax\PSCへ提出_1110払源泉税.msg" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
-    <hyperlink ref="B372" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
-    <hyperlink ref="B373" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
-    <hyperlink ref="B374" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
-    <hyperlink ref="B375" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
-    <hyperlink ref="B376" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
-    <hyperlink ref="B377" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
-    <hyperlink ref="B378" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
-    <hyperlink ref="B379" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
-    <hyperlink ref="B380" r:id="rId240" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
-    <hyperlink ref="B381" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
-    <hyperlink ref="B383" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
-    <hyperlink ref="B384" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
-    <hyperlink ref="B385" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
-    <hyperlink ref="B386" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
-    <hyperlink ref="B387" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
-    <hyperlink ref="B388" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
-    <hyperlink ref="B58" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
-    <hyperlink ref="B57" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
-    <hyperlink ref="B395" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
-    <hyperlink ref="B396" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
-    <hyperlink ref="B397" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
-    <hyperlink ref="B398" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
-    <hyperlink ref="B399" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
-    <hyperlink ref="B400" r:id="rId255" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
-    <hyperlink ref="B401" r:id="rId256" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
-    <hyperlink ref="B402" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
-    <hyperlink ref="B403" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
-    <hyperlink ref="B405" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
-    <hyperlink ref="B406" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
-    <hyperlink ref="B407" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
-    <hyperlink ref="B408" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
-    <hyperlink ref="B409" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
-    <hyperlink ref="B410" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
-    <hyperlink ref="B411" r:id="rId265" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
-    <hyperlink ref="B412" r:id="rId266" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
-    <hyperlink ref="B413" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
-    <hyperlink ref="B414" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
-    <hyperlink ref="B415" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
-    <hyperlink ref="B416" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
-    <hyperlink ref="B417" r:id="rId271" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
-    <hyperlink ref="B418" r:id="rId272" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
-    <hyperlink ref="B419" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
-    <hyperlink ref="B421" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
-    <hyperlink ref="B429" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
-    <hyperlink ref="B430" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
-    <hyperlink ref="B431" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
-    <hyperlink ref="B432" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
-    <hyperlink ref="B433" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
-    <hyperlink ref="B436" r:id="rId280" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
-    <hyperlink ref="B437" r:id="rId281" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
-    <hyperlink ref="B438" r:id="rId282" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday%2FAssociate%20Directory%2Ev2%5F20210916%2Epdf&amp;parent=%2Fsites%2FInSight%2F263Top%20Resources%2FJapanHR%5FWorkday" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
-    <hyperlink ref="B439" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
-    <hyperlink ref="B441" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
-    <hyperlink ref="B442" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
-    <hyperlink ref="B443" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
-    <hyperlink ref="B444" r:id="rId287" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
-    <hyperlink ref="B445" r:id="rId288" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
-    <hyperlink ref="B446" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
-    <hyperlink ref="B447" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
-    <hyperlink ref="B448" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
-    <hyperlink ref="B449" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
-    <hyperlink ref="B450" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
-    <hyperlink ref="B451" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
-    <hyperlink ref="B452" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
-    <hyperlink ref="B453" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
-    <hyperlink ref="B454" r:id="rId297" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
-    <hyperlink ref="B455" r:id="rId298" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
-    <hyperlink ref="B456" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
-    <hyperlink ref="B457" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
-    <hyperlink ref="B458" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
-    <hyperlink ref="B459" r:id="rId302" display="https://mdg.alcon.net/nwbc/?sap-client=010&amp;sap-language=EN&amp;sap-nwbc-context=03HM333035D633D53336000128D3C800C2350EF03304320D416C20C32DA3A4A4A0D84A5F3F37255D2F3127393F4F2F2FB5C4CAD2C0DC403FAF3C2959DFBE38B1403739273335AFC416A8410DC4CD49CC4B2F4D4C4FB575F50300&amp;sap-theme=sap_corbu&amp;sap-nwbc-node=0000000102" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
-    <hyperlink ref="B460" r:id="rId303" display="https://grc.alcon.net/nwbc/?sap-nwbc-node=0000000005&amp;sap-nwbc-context=03HM333035D633D33336748AB232700E700F7274D675720C760D0D760D8A77F7718A3730307434303433802833303230360001E380101320D310C80400&amp;sap-client=010&amp;sap-language=JA&amp;sap-nwbc-history_item=&amp;sap-theme=sap_corbu" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
-    <hyperlink ref="B461" r:id="rId304" location="ZMYBANK-display" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
-    <hyperlink ref="B462" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
-    <hyperlink ref="B463" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
-    <hyperlink ref="B464" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
-    <hyperlink ref="B465" r:id="rId308" display="maiko.okamoto@alcon.com" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
-    <hyperlink ref="B467" r:id="rId309" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%20Table%20change%20request%20form%E8%A6%8B%E6%9C%AC%5F2021Nov%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
-    <hyperlink ref="B468" r:id="rId310" display="https://alcon365.sharepoint.com/sites/InSight/239Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM%2FApproval%5FTable%5FMaintence%5FRequest%5FForm%20%28002%29%2Epdf&amp;parent=%2Fsites%2FInSight%2F239Top%20Resources%2FR2P%2FVIM" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
-    <hyperlink ref="B469" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
-    <hyperlink ref="B471" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
-    <hyperlink ref="B473" r:id="rId313" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
-    <hyperlink ref="B474" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
-    <hyperlink ref="B475" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
-    <hyperlink ref="B476" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
-    <hyperlink ref="B477" r:id="rId317" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
-    <hyperlink ref="B478" r:id="rId318" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
-    <hyperlink ref="B479" r:id="rId319" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%2DR2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
-    <hyperlink ref="B480" r:id="rId320" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
-    <hyperlink ref="B484" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
-    <hyperlink ref="B485" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
-    <hyperlink ref="B486" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
-    <hyperlink ref="B487" r:id="rId324" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
-    <hyperlink ref="B488" r:id="rId325" location="/site/FRAGlobal/workbooks/8033/views" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
-    <hyperlink ref="B489" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
-    <hyperlink ref="B490" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
-    <hyperlink ref="B491" r:id="rId328" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
-    <hyperlink ref="B492" r:id="rId329" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
-    <hyperlink ref="B493" r:id="rId330" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
-    <hyperlink ref="B494" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
-    <hyperlink ref="B498" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
-    <hyperlink ref="B500" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
-    <hyperlink ref="B501" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
-    <hyperlink ref="B506" r:id="rId335" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
-    <hyperlink ref="B519" r:id="rId336" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
-    <hyperlink ref="B521" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
-    <hyperlink ref="B522" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
-    <hyperlink ref="B523" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
-    <hyperlink ref="B525" r:id="rId340" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
-    <hyperlink ref="B526" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
-    <hyperlink ref="B539" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
-    <hyperlink ref="B540" r:id="rId343" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
-    <hyperlink ref="B541" r:id="rId344" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
-    <hyperlink ref="B543" r:id="rId345" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
-    <hyperlink ref="B542" r:id="rId346" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
-    <hyperlink ref="B544" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
-    <hyperlink ref="B546" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
-    <hyperlink ref="B547" r:id="rId349" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
-    <hyperlink ref="B550" r:id="rId350" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
-    <hyperlink ref="B551" r:id="rId351" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
-    <hyperlink ref="B552" r:id="rId352" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
-    <hyperlink ref="B553" r:id="rId353" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
-    <hyperlink ref="B554" r:id="rId354" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
-    <hyperlink ref="B555" r:id="rId355" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
-    <hyperlink ref="B556" r:id="rId356" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
-    <hyperlink ref="B557" r:id="rId357" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
-    <hyperlink ref="B558" r:id="rId358" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
-    <hyperlink ref="B559" r:id="rId359" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
-    <hyperlink ref="B560" r:id="rId360" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
-    <hyperlink ref="B561" r:id="rId361" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
-    <hyperlink ref="B562" r:id="rId362" xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
-    <hyperlink ref="B563" r:id="rId363" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
-    <hyperlink ref="B564" r:id="rId364" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
-    <hyperlink ref="B565" r:id="rId365" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
-    <hyperlink ref="B566" r:id="rId366" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
-    <hyperlink ref="B567" r:id="rId367" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
-    <hyperlink ref="B568" r:id="rId368" display="\\Alcon.net\jphq-dfs\DATA\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\Asano\SAP\Attached invoice_FBL1N.mp4" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
-    <hyperlink ref="B549" r:id="rId369" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
-    <hyperlink ref="B572" r:id="rId370" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
-    <hyperlink ref="B573" r:id="rId371" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
-    <hyperlink ref="B574" r:id="rId372" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
-    <hyperlink ref="B575" r:id="rId373" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
-    <hyperlink ref="B576" r:id="rId374" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
-    <hyperlink ref="B577" r:id="rId375" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
-    <hyperlink ref="B578" r:id="rId376" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
-    <hyperlink ref="B579" r:id="rId377" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
-    <hyperlink ref="B583" r:id="rId378" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
-    <hyperlink ref="B66" r:id="rId379" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
-    <hyperlink ref="B606" r:id="rId380" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
-    <hyperlink ref="B607" r:id="rId381" xr:uid="{00000000-0004-0000-0100-00007E010000}"/>
-    <hyperlink ref="B608" r:id="rId382" display="https://alcon365.sharepoint.com/sites/InSight/263Top%20Resources/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing%2F%EF%BC%9CALJ%EF%BC%9E%E7%A4%BE%E5%AE%85%E3%83%BB%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%81%AE%E3%82%AC%E3%82%A4%E3%83%89%E3%83%96%E3%83%83%E3%82%AF_20210414.pdf&amp;parent=%2Fsites%2FInSight%2F263Top+Resources%2FJapanHR_CompanyHousing&amp;isSPOFile=1&amp;OR=Teams-HL&amp;CT=1643358574668&amp;sourceId=&amp;params=%7B%22AppName%22%3A%22Teams-Desktop%22%2C%22AppVersion%22%3A%2227%2F21110108720%22%7D" xr:uid="{00000000-0004-0000-0100-00007F010000}"/>
-    <hyperlink ref="B609" r:id="rId383" xr:uid="{00000000-0004-0000-0100-000080010000}"/>
-    <hyperlink ref="B610" r:id="rId384" xr:uid="{00000000-0004-0000-0100-000081010000}"/>
-    <hyperlink ref="B611" r:id="rId385" xr:uid="{00000000-0004-0000-0100-000082010000}"/>
-    <hyperlink ref="B612" r:id="rId386" xr:uid="{00000000-0004-0000-0100-000083010000}"/>
-    <hyperlink ref="B613" r:id="rId387" xr:uid="{00000000-0004-0000-0100-000084010000}"/>
-    <hyperlink ref="B614" r:id="rId388" xr:uid="{00000000-0004-0000-0100-000085010000}"/>
-    <hyperlink ref="B615" r:id="rId389" xr:uid="{00000000-0004-0000-0100-000086010000}"/>
-    <hyperlink ref="B616" r:id="rId390" xr:uid="{00000000-0004-0000-0100-000087010000}"/>
-    <hyperlink ref="B617" r:id="rId391" xr:uid="{00000000-0004-0000-0100-000088010000}"/>
-    <hyperlink ref="B618" r:id="rId392" xr:uid="{00000000-0004-0000-0100-000089010000}"/>
-    <hyperlink ref="B619" r:id="rId393" xr:uid="{00000000-0004-0000-0100-00008A010000}"/>
-    <hyperlink ref="B620" r:id="rId394" xr:uid="{00000000-0004-0000-0100-00008B010000}"/>
-    <hyperlink ref="B621" r:id="rId395" xr:uid="{00000000-0004-0000-0100-00008C010000}"/>
-    <hyperlink ref="B645" r:id="rId396" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-essential-training-office-365-microsoft-365%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=UhnPLkJkhVfQ7DsuV1C4Refe45XwAj2HS0fNTkkdPds%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0100-00008D010000}"/>
-    <hyperlink ref="B646" r:id="rId397" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-pivottables-for-beginners%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=C5bHVDyRfQOXhO%2FZD7XCf4YpTH3VLbLvLcXE3Yz1%2Bv0%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0100-00008E010000}"/>
-    <hyperlink ref="B647" r:id="rId398" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fexcel-introduction-to-formulas-and-functions%3FcontextUrn%3Durn%253Ali%253AlyndaLearningPath%253A5bc7873e498ed19914588530%26u%3D2154545&amp;data=04%7C01%7CHanis.Jaffar%40alcon.com%7Cbbe859168c264f9b385308d9e779c269%7C34cd94b5d86c447f8d9b81b4ff94d329%7C0%7C0%7C637795332408739455%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=Iprb6IxgarShNz%2BbY4eV8OwgnxVO1ILXzmeKPDS3eEw%3D&amp;reserved=0" xr:uid="{00000000-0004-0000-0100-00008F010000}"/>
-    <hyperlink ref="B651" r:id="rId399" display="Newjoiner and resigner's expense" xr:uid="{00000000-0004-0000-0100-000090010000}"/>
-    <hyperlink ref="B652" r:id="rId400" xr:uid="{00000000-0004-0000-0100-000091010000}"/>
-    <hyperlink ref="B655" r:id="rId401" xr:uid="{00000000-0004-0000-0100-000092010000}"/>
-    <hyperlink ref="B656" r:id="rId402" xr:uid="{00000000-0004-0000-0100-000093010000}"/>
-    <hyperlink ref="B657" r:id="rId403" xr:uid="{00000000-0004-0000-0100-000094010000}"/>
-    <hyperlink ref="B658" r:id="rId404" xr:uid="{00000000-0004-0000-0100-000095010000}"/>
-    <hyperlink ref="B660" r:id="rId405" xr:uid="{00000000-0004-0000-0100-000096010000}"/>
-    <hyperlink ref="B661" r:id="rId406" xr:uid="{00000000-0004-0000-0100-000097010000}"/>
-    <hyperlink ref="B662" r:id="rId407" xr:uid="{00000000-0004-0000-0100-000098010000}"/>
-    <hyperlink ref="B663" r:id="rId408" xr:uid="{00000000-0004-0000-0100-000099010000}"/>
-    <hyperlink ref="B664" r:id="rId409" xr:uid="{00000000-0004-0000-0100-00009A010000}"/>
-    <hyperlink ref="B665" r:id="rId410" xr:uid="{00000000-0004-0000-0100-00009B010000}"/>
-    <hyperlink ref="B667" r:id="rId411" xr:uid="{00000000-0004-0000-0100-00009C010000}"/>
-    <hyperlink ref="B668" r:id="rId412" xr:uid="{00000000-0004-0000-0100-00009D010000}"/>
-    <hyperlink ref="B669" r:id="rId413" xr:uid="{00000000-0004-0000-0100-00009E010000}"/>
-    <hyperlink ref="B670" r:id="rId414" xr:uid="{00000000-0004-0000-0100-00009F010000}"/>
-    <hyperlink ref="B671" r:id="rId415" xr:uid="{00000000-0004-0000-0100-0000A0010000}"/>
-    <hyperlink ref="B672" r:id="rId416" xr:uid="{00000000-0004-0000-0100-0000A1010000}"/>
-    <hyperlink ref="B673" r:id="rId417" xr:uid="{00000000-0004-0000-0100-0000A2010000}"/>
-    <hyperlink ref="B674" r:id="rId418" xr:uid="{00000000-0004-0000-0100-0000A3010000}"/>
-    <hyperlink ref="B666" r:id="rId419" xr:uid="{00000000-0004-0000-0100-0000A4010000}"/>
-    <hyperlink ref="B675" r:id="rId420" xr:uid="{00000000-0004-0000-0100-0000A5010000}"/>
-    <hyperlink ref="B676" r:id="rId421" xr:uid="{00000000-0004-0000-0100-0000A6010000}"/>
-    <hyperlink ref="B677" r:id="rId422" xr:uid="{00000000-0004-0000-0100-0000A7010000}"/>
-    <hyperlink ref="B678" r:id="rId423" xr:uid="{00000000-0004-0000-0100-0000A8010000}"/>
-    <hyperlink ref="B683" r:id="rId424" xr:uid="{00000000-0004-0000-0100-0000A9010000}"/>
-    <hyperlink ref="B684" r:id="rId425" xr:uid="{00000000-0004-0000-0100-0000AA010000}"/>
-    <hyperlink ref="B685" r:id="rId426" xr:uid="{00000000-0004-0000-0100-0000AB010000}"/>
-    <hyperlink ref="B686" r:id="rId427" xr:uid="{00000000-0004-0000-0100-0000AC010000}"/>
-    <hyperlink ref="B687" r:id="rId428" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/ServiceManagement/_layouts/15/Doc.aspx?sourcedoc=%7BE5FF34EA-1515-480C-A990-45C2E765CE9B%7D&amp;file=Role%20Suggestion%20Tool%20-%20Overview.pptx&amp;action=edit&amp;mobileredirect=true&amp;DefaultItemOpen=1&amp;cid=f17af886-f969-4f8d-9a38-43f2c597158f" xr:uid="{00000000-0004-0000-0100-0000AD010000}"/>
-    <hyperlink ref="B688" r:id="rId429" display="https://alcon365.sharepoint.com/:p:/r/sites/ERPIT/SAP/Security/_layouts/15/Doc.aspx?sourcedoc=%7BBF2CCCF6-9BE0-469E-BCB8-6A991F97ADCD%7D&amp;file=GRC%20Training%20for%20Super%20User%20V1.1.pptx&amp;action=edit&amp;mobileredirect=true&amp;cid=ea286254-f3c6-4053-a7c9-d89604c1b407" xr:uid="{00000000-0004-0000-0100-0000AE010000}"/>
-    <hyperlink ref="B690" r:id="rId430" xr:uid="{00000000-0004-0000-0100-0000AF010000}"/>
-    <hyperlink ref="B689" r:id="rId431" xr:uid="{00000000-0004-0000-0100-0000B0010000}"/>
-    <hyperlink ref="B691" r:id="rId432" xr:uid="{00000000-0004-0000-0100-0000B1010000}"/>
-    <hyperlink ref="B692" r:id="rId433" xr:uid="{00000000-0004-0000-0100-0000B2010000}"/>
-    <hyperlink ref="B693" r:id="rId434" xr:uid="{00000000-0004-0000-0100-0000B3010000}"/>
-    <hyperlink ref="B694" r:id="rId435" xr:uid="{00000000-0004-0000-0100-0000B4010000}"/>
-    <hyperlink ref="B695" r:id="rId436" location="HowTo:_Onboard_a_new_user_.28Single_User_Onboarding.29" xr:uid="{00000000-0004-0000-0100-0000B5010000}"/>
-    <hyperlink ref="B696" r:id="rId437" xr:uid="{00000000-0004-0000-0100-0000B6010000}"/>
-    <hyperlink ref="B697" r:id="rId438" xr:uid="{00000000-0004-0000-0100-0000B7010000}"/>
-    <hyperlink ref="B701" r:id="rId439" display="http://alusfw-sd253100.alcon.net/ama/Alcon_AMA/en/index.html" xr:uid="{00000000-0004-0000-0100-0000B8010000}"/>
-    <hyperlink ref="B702" r:id="rId440" display="http://alusfw-sp353107.alcon.net/NimbusFinance/CtrlWebISAPI.dll/app/diagram/0:9B906E1EB57A44FB8CF3F2821EA071DE.10571ADB086E49CB9F6BD644681ACF02" xr:uid="{00000000-0004-0000-0100-0000B9010000}"/>
-    <hyperlink ref="B703" r:id="rId441" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Goveranance%2FChart%20of%20Accounts&amp;FolderCTID=0x0120007C0258F7F19CBF4D8FF0414297C5BC01&amp;View=%7B92A19C0A%2D000F%2D4B82%2D8B29%2DE401C2AE785C%7D" xr:uid="{00000000-0004-0000-0100-0000BA010000}"/>
-    <hyperlink ref="B704" r:id="rId442" xr:uid="{00000000-0004-0000-0100-0000BB010000}"/>
-    <hyperlink ref="B705" r:id="rId443" xr:uid="{00000000-0004-0000-0100-0000BC010000}"/>
-    <hyperlink ref="B706" r:id="rId444" xr:uid="{00000000-0004-0000-0100-0000BD010000}"/>
-    <hyperlink ref="B707" r:id="rId445" xr:uid="{00000000-0004-0000-0100-0000BE010000}"/>
-    <hyperlink ref="B708" r:id="rId446" xr:uid="{00000000-0004-0000-0100-0000BF010000}"/>
-    <hyperlink ref="B709" r:id="rId447" xr:uid="{00000000-0004-0000-0100-0000C0010000}"/>
-    <hyperlink ref="B710" r:id="rId448" xr:uid="{00000000-0004-0000-0100-0000C1010000}"/>
-    <hyperlink ref="B711" r:id="rId449" xr:uid="{00000000-0004-0000-0100-0000C2010000}"/>
-    <hyperlink ref="B712" r:id="rId450" xr:uid="{00000000-0004-0000-0100-0000C3010000}"/>
-    <hyperlink ref="B713" r:id="rId451" xr:uid="{00000000-0004-0000-0100-0000C4010000}"/>
-    <hyperlink ref="B714" r:id="rId452" xr:uid="{00000000-0004-0000-0100-0000C5010000}"/>
-    <hyperlink ref="B715" r:id="rId453" display="https://alcon365.sharepoint.com/sites/InSight/268DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs%2F%E6%8B%A0%E7%82%B9%E6%83%85%E5%A0%B1%E3%80%80%E7%89%A9%E6%B5%81%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC%E5%90%AB%E3%82%80%2Epdf&amp;parent=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs" xr:uid="{84BFE526-5EF2-4190-8493-7EEC38A1D524}"/>
-    <hyperlink ref="B716" r:id="rId454" display="https://alcon365.sharepoint.com/sites/InSight/268DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs%2F%E6%8B%A0%E7%82%B9%E6%83%85%E5%A0%B1%E3%80%80%E7%89%A9%E6%B5%81%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC%E5%90%AB%E3%82%80%2Epdf&amp;parent=%2Fsites%2FInSight%2F268DocLib%2FREFS%2Fmisc%20docs" xr:uid="{214E7EAF-BD41-452D-8FF5-DBC4E28FD135}"/>
-    <hyperlink ref="B717" r:id="rId455" xr:uid="{861C72B1-E4FA-44F7-A1C9-5C035EEF35D6}"/>
-    <hyperlink ref="B718" r:id="rId456" xr:uid="{2A5D094F-F562-4CA8-B888-FF3C85C19FC4}"/>
-    <hyperlink ref="B719" r:id="rId457" display="https://alcon365eur-my.sharepoint.com/personal/ramlamu1_alcon_net/_layouts/15/Doc.aspx?sourcedoc={337b2ae1-5bd7-4bca-a672-55385478e57e}&amp;action=edit&amp;wd=target%28General.one%7C9cd85f66-278e-4725-8df0-bbf56cafbd46%2FGeneral%7C36f14ccd-08b9-49d4-84aa-c58281d6697d%2F%29" xr:uid="{59911AF9-98B4-4600-AC95-75F41DC95E57}"/>
-    <hyperlink ref="B720" r:id="rId458" xr:uid="{D7293002-9F58-436D-8324-1EFB676DCB39}"/>
-    <hyperlink ref="B721" r:id="rId459" xr:uid="{223FD052-A44B-46F4-B2D1-D97C107A6876}"/>
-    <hyperlink ref="B722" r:id="rId460" xr:uid="{9FFA3CB1-8047-4ABF-9456-0A0E9AA926C7}"/>
-    <hyperlink ref="B723" r:id="rId461" xr:uid="{49D50039-0558-456F-958E-634D39526DB2}"/>
-    <hyperlink ref="B724" r:id="rId462" display="https://alcon365.sharepoint.com/sites/FinancialAssurance/Blackline/Forms/AllItems.aspx?id=%2Fsites%2FFinancialAssurance%2FBlackline%2FTrainings%20Materials%2FAFCM%20Blackline%20Control%20Owner%20Training%2Epdf&amp;parent=%2Fsites%2FFinancialAssurance%2FBlackline%2FTrainings%20Materials" xr:uid="{3EB2AEAC-75BA-480F-A9FD-59C50740C9BD}"/>
-    <hyperlink ref="B725" r:id="rId463" xr:uid="{BC26845F-0D87-4370-B21B-4E7FC0A01B09}"/>
-    <hyperlink ref="B726" r:id="rId464" tooltip="Task Allocation" xr:uid="{858DADB1-EB66-4ED3-B434-990903214F31}"/>
-    <hyperlink ref="B727" r:id="rId465" display="https://alcon365.sharepoint.com/sites/InSight/SitePages/230/%E7%B2%BE%E7%AE%97%E3%81%A8%E9%80%8F%E6%98%8E%E6%80%A7%E3%82%AC%E3%82%A4%E3%83%89%E3%83%A9%E3%82%A4%E3%83%B3.aspx" xr:uid="{4FAA296A-D777-49F3-AD03-98E61522AF67}"/>
-    <hyperlink ref="B728" r:id="rId466" xr:uid="{3252EAB0-B723-4F2A-819B-4CCAD1E6A847}"/>
-    <hyperlink ref="B729" r:id="rId467" xr:uid="{26410F0A-D780-4A6E-A964-249DFC6F942E}"/>
-    <hyperlink ref="B730" r:id="rId468" xr:uid="{C26D8AC5-6002-4EC5-AC44-6A2D42636D57}"/>
-    <hyperlink ref="B211" r:id="rId469" xr:uid="{48DB41B5-F5B3-4441-B3AE-9B1D702F4D77}"/>
-    <hyperlink ref="B731" r:id="rId470" xr:uid="{ABF446CF-546E-4713-B066-65DA337E042E}"/>
-    <hyperlink ref="B732" r:id="rId471" xr:uid="{D04121B4-6E3F-4F2C-92CC-F6530981533F}"/>
-    <hyperlink ref="B733" r:id="rId472" xr:uid="{F2D69E93-C9BA-46DB-BE99-F9791FD1F8F9}"/>
-    <hyperlink ref="B734" r:id="rId473" xr:uid="{97EF7E6F-9864-44D8-B485-AF7E10FD85A7}"/>
-    <hyperlink ref="B735" r:id="rId474" xr:uid="{06273F74-16ED-4661-9086-7426F9029DB9}"/>
-    <hyperlink ref="B736" r:id="rId475" xr:uid="{7DCFDA2E-441D-4ED4-A6FF-BBDAF654E28D}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B24" display="https://alcon365.sharepoint.com/sites/alconfra/SitePages/MasterData.aspx?RootFolder=%2Fsites%2Falconfra%2FFinance%20Master%20Data%20Management%2FApproval%20Table%20Maintenance&amp;FolderCTID=0x012000F818F3CCE22AE94C86C3A970A6E10830&amp;View=%7B785A14CF-1D11-4535-" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://alcon365.sharepoint.com/:x:/r/sites/InSight/_layouts/15/Doc.aspx?sourcedoc=%7BFACE8369-FF19-4663-B67B-F3542DD1F9C4%7D&amp;file=Japan_%E6%96%B0%E6%97%A7ACC-GL%20Mapping%E5%AF%BE%E6%AF%94%E8%A1%A8_%E3%82%A4%E3%83%B3%E3%83%88%E3%83%A9%E6%8E%B2%E8%BC%89%E7%94%A8.xlsx&amp;action=default&amp;mobileredirect=true&amp;DefaultItemOpen=1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides%2FEN%5FGlobal%5FEnd%5FUser%20Training%20%2D%20All%20employees%5F202105%2Epdf%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F2%5FHow%2DTo%20Guides" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents%2FNew%20Global%20Travel%20%20Expense%20Policy%5FEffective%20August%201%202020%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F1%5FGeneral%20Documents" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId29" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B46" r:id="rId30" display="I:\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JAPAN\04 R2P MIGRATION\1  RECORDING AP MIGRATION FEB TO MAR 2021" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B63" r:id="rId33" display="https://alcon365.sharepoint.com/sites/InSight/289DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs%2F%E7%B5%8C%E8%B2%BB%E7%B2%BE%E7%AE%97%E3%81%8A%E7%9F%A5%E3%82%89%E3%81%9B%E3%81%AE%E6%89%8B%E9%A0%86%E6%9B%B8%20V2%2Epdf&amp;parent=%2Fsites%2FInSight%2F289DocLib%2FFRA%20Operations%2FGPO%2FT%26E%2FT%26E%20JAPAN%2F5%5FContacts%20%26%20FAQs" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B65" r:id="rId34" display="https://alcon365.sharepoint.com/sites/InSight/096DocLib2/Forms/TheLensNameTitlePage.aspx?viewid=4a09b348%2D50df%2D46b7%2Da194%2D518047515835&amp;id=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations%2FTheLensPolicy%5Fen%2DEN%2Epdf&amp;parent=%2Fsites%2FInSight%2F096DocLib2%2FTheLensTranslations" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B67" r:id="rId35" display="https://alcon365.sharepoint.com/sites/InSight/230DocLib/Forms/AllItems.aspx?id=%2Fsites%2FInSight%2F230DocLib%2F%E3%80%90%E5%85%B1%E9%80%9A%E3%80%91SOP%E3%83%BBQRG%2FHCP%E3%81%B8%E3%81%AE%E9%A3%B2%E9%A3%9F%E3%83%BB%E6%97%85